--- a/data/Metrics.xlsx
+++ b/data/Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Larvae Collection" sheetId="3" r:id="rId1"/>
@@ -417,12 +417,120 @@
         </r>
       </text>
     </comment>
+    <comment ref="P41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only need ~8 gallons, prep 10 gallons.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30 gal + 4L
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Laura Spencer</author>
+  </authors>
+  <commentList>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SPILLED SOME - COUNT WAS 645 BUT IS LIKELY LOW DUE TO SPILL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+REPLACEMENT</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="213">
   <si>
     <t>Date</t>
   </si>
@@ -1086,6 +1194,12 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>AVERAGES</t>
+  </si>
 </sst>
 </file>
 
@@ -1363,7 +1477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="768">
+  <cellStyleXfs count="796">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2132,8 +2246,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2608,8 +2750,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="768">
+  <cellStyles count="796">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="601"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2994,6 +3143,20 @@
     <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="767" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="769" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="771" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="773" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="775" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3376,6 +3539,20 @@
     <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="766" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="768" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="770" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="772" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="774" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="332" builtinId="5"/>
   </cellStyles>
@@ -3399,6 +3576,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3428,10 +3606,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Stocking Count Check'!$D$2:$D$16</c:f>
+              <c:f>'Stocking Count Check'!$D$2:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.08</c:v>
                 </c:pt>
@@ -3476,16 +3654,25 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.865671641791045</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.881401617250674</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Stocking Count Check'!$J$2:$J$16</c:f>
+              <c:f>'Stocking Count Check'!$J$2:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.101546906187625</c:v>
                 </c:pt>
@@ -3509,6 +3696,36 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.0368566731181453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.142675898219212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.014601585314977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.119409219253839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.0354865782320593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0152507086061153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.0428802994602365</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.0627699156202244</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.105416666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.105833333333333</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0327287888263497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,9 +3766,10 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3568,6 +3786,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -10633,16 +10852,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11060,10 +11279,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2080" topLeftCell="A62" activePane="bottomLeft"/>
-      <selection activeCell="M1" sqref="M1:O1048576"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89:D97"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2080" topLeftCell="A122" activePane="bottomLeft"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22205,8 +22424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24561,37 +24780,60 @@
       <c r="A41" s="11">
         <v>43223</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="14" t="e">
+      <c r="B41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="12">
+        <v>609</v>
+      </c>
+      <c r="E41" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="13">
+        <v>73</v>
+      </c>
+      <c r="G41" s="13">
+        <v>92</v>
+      </c>
+      <c r="H41" s="13">
+        <v>74</v>
+      </c>
+      <c r="I41" s="13">
+        <v>76</v>
+      </c>
+      <c r="J41" s="13">
+        <v>68</v>
+      </c>
+      <c r="K41" s="13">
+        <v>77</v>
+      </c>
+      <c r="L41" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="14" t="e">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="M41" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>766666.66666666674</v>
       </c>
       <c r="N41" s="15"/>
       <c r="O41" s="51"/>
-      <c r="P41" s="49"/>
+      <c r="P41" s="49">
+        <f>10*3.78541*1000</f>
+        <v>37854.100000000006</v>
+      </c>
       <c r="Q41" s="14">
         <v>100000</v>
       </c>
-      <c r="R41" s="14" t="e">
+      <c r="R41" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S41" s="16" t="e">
+        <v>5678.1149999999998</v>
+      </c>
+      <c r="S41" s="16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>99999.999999999985</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -24602,33 +24844,48 @@
       <c r="C42" s="42"/>
       <c r="D42" s="12"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="14" t="e">
+      <c r="F42" s="13">
+        <v>236</v>
+      </c>
+      <c r="G42" s="13">
+        <v>246</v>
+      </c>
+      <c r="H42" s="13">
+        <v>249</v>
+      </c>
+      <c r="I42" s="13">
+        <v>243</v>
+      </c>
+      <c r="J42" s="13">
+        <v>219</v>
+      </c>
+      <c r="K42" s="13">
+        <v>250</v>
+      </c>
+      <c r="L42" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="14" t="e">
+        <v>240.5</v>
+      </c>
+      <c r="M42" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2405000</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="51"/>
-      <c r="P42" s="49"/>
+      <c r="P42" s="49">
+        <f>(30*3.78541*1000)+8000</f>
+        <v>121562.3</v>
+      </c>
       <c r="Q42" s="14">
         <v>100000</v>
       </c>
-      <c r="R42" s="14" t="e">
+      <c r="R42" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S42" s="16" t="e">
+        <v>5273.8524945770068</v>
+      </c>
+      <c r="S42" s="16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -29433,11 +29690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29445,7 +29702,7 @@
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="94" customWidth="1"/>
     <col min="5" max="7" width="10.83203125" style="141"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
@@ -29460,7 +29717,7 @@
       <c r="C1" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="188" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="139" t="s">
@@ -29498,7 +29755,7 @@
       <c r="C2" s="2">
         <v>742.22222222222217</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="94">
         <v>1.08</v>
       </c>
       <c r="E2" s="140">
@@ -29511,25 +29768,25 @@
         <v>848</v>
       </c>
       <c r="H2" s="106">
-        <f t="shared" ref="H2:H9" si="0">AVERAGE(E2:G2)</f>
+        <f t="shared" ref="H2:H14" si="0">AVERAGE(E2:G2)</f>
         <v>883</v>
       </c>
       <c r="I2" s="94">
-        <f t="shared" ref="I2:I9" si="1">STDEV(E2:G2)</f>
+        <f t="shared" ref="I2:I14" si="1">STDEV(E2:G2)</f>
         <v>112.65433857601757</v>
       </c>
       <c r="J2" s="137">
-        <f t="shared" ref="J2:J9" si="2">(AVERAGE(E2:G2)-(C2*D2))/(C2*D2)</f>
+        <f t="shared" ref="J2:J18" si="2">(AVERAGE(E2:G2)-(C2*D2))/(C2*D2)</f>
         <v>0.10154690618762471</v>
       </c>
       <c r="K2" s="137"/>
       <c r="L2" s="136">
         <f>AVERAGE(E:G)</f>
-        <v>837.54166666666663</v>
+        <v>824.60377358490564</v>
       </c>
       <c r="M2" s="136">
         <f>STDEV(E:G)</f>
-        <v>72.881069986100229</v>
+        <v>80.924784551563562</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -29542,7 +29799,7 @@
       <c r="C3" s="2">
         <v>833.33333333333326</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="94">
         <v>0.96</v>
       </c>
       <c r="E3" s="140">
@@ -29578,7 +29835,7 @@
       <c r="C4" s="2">
         <v>353.33333333333337</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="94">
         <v>2.2599999999999998</v>
       </c>
       <c r="E4" s="140">
@@ -29614,7 +29871,7 @@
       <c r="C5" s="2">
         <v>253</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="94">
         <v>3.17</v>
       </c>
       <c r="E5" s="140">
@@ -29650,7 +29907,7 @@
       <c r="C6" s="2">
         <v>266</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="94">
         <v>3.01</v>
       </c>
       <c r="E6" s="141">
@@ -29685,7 +29942,7 @@
       <c r="C7" s="2">
         <v>296</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="94">
         <v>2.71</v>
       </c>
       <c r="E7" s="141">
@@ -29721,7 +29978,7 @@
       <c r="C8" s="2">
         <v>507</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="94">
         <v>1.58</v>
       </c>
       <c r="E8" s="141">
@@ -29756,7 +30013,7 @@
       <c r="C9" s="2">
         <v>285</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="94">
         <v>2.81</v>
       </c>
       <c r="E9" s="141">
@@ -29791,8 +30048,29 @@
       <c r="C10" s="2">
         <v>583</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="94">
         <v>1.37</v>
+      </c>
+      <c r="E10" s="141">
+        <v>822</v>
+      </c>
+      <c r="F10" s="141">
+        <v>841</v>
+      </c>
+      <c r="G10" s="141">
+        <v>1075</v>
+      </c>
+      <c r="H10" s="106">
+        <f t="shared" si="0"/>
+        <v>912.66666666666663</v>
+      </c>
+      <c r="I10" s="107">
+        <f t="shared" si="1"/>
+        <v>140.90540562140708</v>
+      </c>
+      <c r="J10" s="137">
+        <f t="shared" si="2"/>
+        <v>0.1426758982192117</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -29805,8 +30083,29 @@
       <c r="C11" s="2">
         <v>340</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="94">
         <v>2.35</v>
+      </c>
+      <c r="E11" s="141">
+        <v>854</v>
+      </c>
+      <c r="F11" s="141">
+        <v>822</v>
+      </c>
+      <c r="G11" s="141">
+        <v>756</v>
+      </c>
+      <c r="H11" s="106">
+        <f t="shared" si="0"/>
+        <v>810.66666666666663</v>
+      </c>
+      <c r="I11" s="107">
+        <f t="shared" si="1"/>
+        <v>49.973326218427097</v>
+      </c>
+      <c r="J11" s="137">
+        <f t="shared" si="2"/>
+        <v>1.4601585314977007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -29819,8 +30118,29 @@
       <c r="C12" s="2">
         <v>281</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="94">
         <v>2.84</v>
+      </c>
+      <c r="E12" s="141">
+        <v>838</v>
+      </c>
+      <c r="F12" s="141">
+        <v>873</v>
+      </c>
+      <c r="G12" s="141">
+        <v>969</v>
+      </c>
+      <c r="H12" s="106">
+        <f t="shared" si="0"/>
+        <v>893.33333333333337</v>
+      </c>
+      <c r="I12" s="107">
+        <f t="shared" si="1"/>
+        <v>67.825757152672722</v>
+      </c>
+      <c r="J12" s="137">
+        <f t="shared" si="2"/>
+        <v>0.11940921925383867</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -29833,8 +30153,29 @@
       <c r="C13" s="2">
         <v>1157</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="94">
         <v>0.69</v>
+      </c>
+      <c r="E13" s="141">
+        <v>755</v>
+      </c>
+      <c r="F13" s="141">
+        <v>756</v>
+      </c>
+      <c r="G13" s="141">
+        <v>799</v>
+      </c>
+      <c r="H13" s="106">
+        <f t="shared" si="0"/>
+        <v>770</v>
+      </c>
+      <c r="I13" s="107">
+        <f t="shared" si="1"/>
+        <v>25.119713374160941</v>
+      </c>
+      <c r="J13" s="137">
+        <f t="shared" si="2"/>
+        <v>-3.5486578232059335E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -29847,8 +30188,29 @@
       <c r="C14" s="2">
         <v>194</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="94">
         <v>4.1100000000000003</v>
+      </c>
+      <c r="E14" s="141" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="141">
+        <v>842</v>
+      </c>
+      <c r="G14" s="141">
+        <v>777</v>
+      </c>
+      <c r="H14" s="106">
+        <f t="shared" si="0"/>
+        <v>809.5</v>
+      </c>
+      <c r="I14" s="107">
+        <f t="shared" si="1"/>
+        <v>45.961940777125591</v>
+      </c>
+      <c r="J14" s="137">
+        <f>(AVERAGE(E14:G14)-(C14*D14))/(C14*D14)</f>
+        <v>1.5250708606115293E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -29861,8 +30223,29 @@
       <c r="C15" s="2">
         <v>732</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="94">
         <v>1.0900000000000001</v>
+      </c>
+      <c r="E15" s="141">
+        <v>723</v>
+      </c>
+      <c r="F15" s="141">
+        <v>793</v>
+      </c>
+      <c r="G15" s="141">
+        <v>775</v>
+      </c>
+      <c r="H15" s="106">
+        <f t="shared" ref="H15:H16" si="3">AVERAGE(E15:G15)</f>
+        <v>763.66666666666663</v>
+      </c>
+      <c r="I15" s="107">
+        <f t="shared" ref="I15:I16" si="4">STDEV(E15:G15)</f>
+        <v>36.350149013908229</v>
+      </c>
+      <c r="J15" s="137">
+        <f t="shared" si="2"/>
+        <v>-4.2880299460236471E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -29875,14 +30258,158 @@
       <c r="C16" s="2">
         <v>692</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="94">
         <v>1.1599999999999999</v>
+      </c>
+      <c r="E16" s="141">
+        <v>777</v>
+      </c>
+      <c r="F16" s="141">
+        <v>725</v>
+      </c>
+      <c r="G16" s="141">
+        <v>755</v>
+      </c>
+      <c r="H16" s="106">
+        <f t="shared" si="3"/>
+        <v>752.33333333333337</v>
+      </c>
+      <c r="I16" s="107">
+        <f t="shared" si="4"/>
+        <v>26.102362600602522</v>
+      </c>
+      <c r="J16" s="137">
+        <f t="shared" si="2"/>
+        <v>-6.2769915620224423E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="60">
+        <v>43206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="2">
+        <v>279.16666666666669</v>
+      </c>
+      <c r="D17" s="94">
+        <v>2.8656716417910446</v>
+      </c>
+      <c r="E17" s="141">
+        <v>888</v>
+      </c>
+      <c r="F17" s="141">
+        <v>954</v>
+      </c>
+      <c r="G17" s="141">
+        <v>811</v>
+      </c>
+      <c r="H17" s="106">
+        <f t="shared" ref="H17:H19" si="5">AVERAGE(E17:G17)</f>
+        <v>884.33333333333337</v>
+      </c>
+      <c r="I17" s="107">
+        <f t="shared" ref="I17:I19" si="6">STDEV(E17:G17)</f>
+        <v>71.570478085124833</v>
+      </c>
+      <c r="J17" s="137">
+        <f t="shared" ref="J17:J19" si="7">(AVERAGE(E17:G17)-(C17*D17))/(C17*D17)</f>
+        <v>0.10541666666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="60">
+        <v>43206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="2">
+        <v>206.11111111111111</v>
+      </c>
+      <c r="D18" s="94">
+        <v>3.881401617250674</v>
+      </c>
+      <c r="E18" s="141">
+        <v>700</v>
+      </c>
+      <c r="F18" s="141">
+        <v>695</v>
+      </c>
+      <c r="G18" s="141">
+        <v>751</v>
+      </c>
+      <c r="H18" s="106">
+        <f t="shared" si="5"/>
+        <v>715.33333333333337</v>
+      </c>
+      <c r="I18" s="107">
+        <f t="shared" si="6"/>
+        <v>30.98924544633724</v>
+      </c>
+      <c r="J18" s="137">
+        <f t="shared" si="7"/>
+        <v>-0.10583333333333328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="60">
+        <v>43209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="2">
+        <v>533</v>
+      </c>
+      <c r="D19" s="94">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="141">
+        <v>790</v>
+      </c>
+      <c r="F19" s="141">
+        <v>939</v>
+      </c>
+      <c r="G19" s="141">
+        <v>748</v>
+      </c>
+      <c r="H19" s="106">
+        <f t="shared" si="5"/>
+        <v>825.66666666666663</v>
+      </c>
+      <c r="I19" s="107">
+        <f t="shared" si="6"/>
+        <v>100.37097854127623</v>
+      </c>
+      <c r="J19" s="137">
+        <f t="shared" si="7"/>
+        <v>3.2728788826349754E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="G20" s="189" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="190">
+        <f>AVERAGE(H2:H19)</f>
+        <v>824.32407407407413</v>
+      </c>
+      <c r="I20" s="191">
+        <f>AVERAGE(I2:I19)</f>
+        <v>53.536806984109617</v>
+      </c>
+      <c r="J20" s="192">
+        <f>AVERAGE(J2:J19)</f>
+        <v>3.0545846776431088E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/Metrics.xlsx
+++ b/data/Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Larvae Collection" sheetId="3" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="Broodstock volume, numbers" sheetId="7" r:id="rId4"/>
     <sheet name="SUMMARIES" sheetId="6" r:id="rId5"/>
     <sheet name="Stocking Count Check" sheetId="8" r:id="rId6"/>
-    <sheet name="HEAT SHOCK" sheetId="9" r:id="rId7"/>
+    <sheet name="Random data" sheetId="9" r:id="rId7"/>
     <sheet name="SPAWNING PLOTS-raw" sheetId="10" r:id="rId8"/>
     <sheet name="SPAWNING PLOTS-normalized" sheetId="11" r:id="rId9"/>
+    <sheet name="Recruitment" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Larvae Collection'!$A$1:$X$144</definedName>
@@ -467,6 +468,106 @@
         </r>
       </text>
     </comment>
+    <comment ref="P43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30 gal + 4L
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30 gal + 4L
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30 gal + 4L
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30 gal + 4L
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -530,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -1200,6 +1301,72 @@
   <si>
     <t>AVERAGES</t>
   </si>
+  <si>
+    <t>HEAT SHOCK TRIALS</t>
+  </si>
+  <si>
+    <t>SOLO SPAWNING BUCKETS</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Volume Total</t>
+  </si>
+  <si>
+    <t>Volume Sampled</t>
+  </si>
+  <si>
+    <t>Live 1</t>
+  </si>
+  <si>
+    <t>Dead 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live 2 </t>
+  </si>
+  <si>
+    <t>Dead 2</t>
+  </si>
+  <si>
+    <t>Live3</t>
+  </si>
+  <si>
+    <t>Dead 3</t>
+  </si>
+  <si>
+    <t>Mean Larvae/mL</t>
+  </si>
+  <si>
+    <t># Larvae</t>
+  </si>
+  <si>
+    <t>Wet Weight</t>
+  </si>
+  <si>
+    <t>Shell Weight</t>
+  </si>
+  <si>
+    <t>Histo. Sample #</t>
+  </si>
+  <si>
+    <t>Oyster length</t>
+  </si>
+  <si>
+    <t>B1-11</t>
+  </si>
+  <si>
+    <t># Live Spat</t>
+  </si>
+  <si>
+    <t># Live on side silo</t>
+  </si>
+  <si>
+    <t># Live on screen</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
 </sst>
 </file>
 
@@ -1477,7 +1644,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="796">
+  <cellStyleXfs count="824">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2080,6 +2247,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2741,6 +2936,13 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2750,15 +2952,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="796">
+  <cellStyles count="824">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="601"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3157,6 +3352,20 @@
     <cellStyle name="Followed Hyperlink" xfId="791" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="793" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="807" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="809" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="811" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="813" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="815" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="817" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3553,6 +3762,20 @@
     <cellStyle name="Hyperlink" xfId="790" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="792" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="806" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="808" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="810" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="812" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="814" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="816" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="332" builtinId="5"/>
   </cellStyles>
@@ -3576,7 +3799,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3740,11 +3962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110182344"/>
-        <c:axId val="2107544648"/>
+        <c:axId val="2108204648"/>
+        <c:axId val="-2143790856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110182344"/>
+        <c:axId val="2108204648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,19 +3988,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107544648"/>
+        <c:crossAx val="-2143790856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107544648"/>
+        <c:axId val="-2143790856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +4007,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -3803,7 +4023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110182344"/>
+        <c:crossAx val="2108204648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7200,11 +7420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110350104"/>
-        <c:axId val="2110352856"/>
+        <c:axId val="2108334536"/>
+        <c:axId val="2108337288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2110350104"/>
+        <c:axId val="2108334536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7214,14 +7434,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110352856"/>
+        <c:crossAx val="2108337288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2110352856"/>
+        <c:axId val="2108337288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7232,7 +7452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110350104"/>
+        <c:crossAx val="2108334536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10721,11 +10941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110552264"/>
-        <c:axId val="2110555016"/>
+        <c:axId val="2108521080"/>
+        <c:axId val="2108523832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2110552264"/>
+        <c:axId val="2108521080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10735,14 +10955,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110555016"/>
+        <c:crossAx val="2108523832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2110555016"/>
+        <c:axId val="2108523832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10753,7 +10973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110552264"/>
+        <c:crossAx val="2108521080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11280,9 +11500,9 @@
   <dimension ref="A1:X161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2080" topLeftCell="A122" activePane="bottomLeft"/>
+      <pane ySplit="2080" topLeftCell="A116" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P140" sqref="P140"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22420,12 +22640,54 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24840,9 +25102,13 @@
       <c r="A42" s="11">
         <v>43224</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="42"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="12">
+        <v>609</v>
+      </c>
       <c r="E42" s="42"/>
       <c r="F42" s="13">
         <v>236</v>
@@ -24892,81 +25158,129 @@
       <c r="A43" s="11">
         <v>43225</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="14" t="e">
+      <c r="B43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="12">
+        <v>609</v>
+      </c>
+      <c r="E43" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="F43" s="13">
+        <v>60</v>
+      </c>
+      <c r="G43" s="13">
+        <v>73</v>
+      </c>
+      <c r="H43" s="13">
+        <v>65</v>
+      </c>
+      <c r="I43" s="13">
+        <v>83</v>
+      </c>
+      <c r="J43" s="13">
+        <v>84</v>
+      </c>
+      <c r="K43" s="13">
+        <v>72</v>
+      </c>
+      <c r="L43" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="14" t="e">
+        <v>72.833333333333329</v>
+      </c>
+      <c r="M43" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>728333.33333333337</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" s="51"/>
-      <c r="P43" s="49"/>
+      <c r="P43" s="49">
+        <f>(10*3.78541*1000)</f>
+        <v>37854.100000000006</v>
+      </c>
       <c r="Q43" s="14">
         <v>100000</v>
       </c>
-      <c r="R43" s="14" t="e">
+      <c r="R43" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S43" s="16" t="e">
+        <v>6024.5251989389926</v>
+      </c>
+      <c r="S43" s="16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="11">
         <v>43226</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="14" t="e">
+      <c r="B44" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="42">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>609</v>
+      </c>
+      <c r="E44" s="42">
+        <v>1</v>
+      </c>
+      <c r="F44" s="13">
+        <v>186</v>
+      </c>
+      <c r="G44" s="13">
+        <v>186</v>
+      </c>
+      <c r="H44" s="13">
+        <v>153</v>
+      </c>
+      <c r="I44" s="13">
+        <v>203</v>
+      </c>
+      <c r="J44" s="13">
+        <v>168</v>
+      </c>
+      <c r="K44" s="13">
+        <v>192</v>
+      </c>
+      <c r="L44" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="14" t="e">
+        <v>181.33333333333334</v>
+      </c>
+      <c r="M44" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1813333.3333333335</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="51"/>
-      <c r="P44" s="49"/>
+      <c r="P44" s="49">
+        <f>(30*3.78541*1000)+8000</f>
+        <v>121562.3</v>
+      </c>
       <c r="Q44" s="14">
         <v>100000</v>
       </c>
-      <c r="R44" s="14" t="e">
+      <c r="R44" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S44" s="16" t="e">
+        <v>7095.0758754863809</v>
+      </c>
+      <c r="S44" s="16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100000.00000000001</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="11">
         <v>43227</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C45" s="42"/>
       <c r="D45" s="12"/>
       <c r="E45" s="42"/>
@@ -25003,74 +25317,118 @@
       <c r="A46" s="11">
         <v>43228</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14" t="e">
+      <c r="B46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="42">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12">
+        <v>609</v>
+      </c>
+      <c r="E46" s="42">
+        <v>2</v>
+      </c>
+      <c r="F46" s="13">
+        <v>91</v>
+      </c>
+      <c r="G46" s="13">
+        <v>88</v>
+      </c>
+      <c r="H46" s="13">
+        <v>100</v>
+      </c>
+      <c r="I46" s="13">
+        <v>97</v>
+      </c>
+      <c r="J46" s="13">
+        <v>118</v>
+      </c>
+      <c r="K46" s="13">
+        <v>107</v>
+      </c>
+      <c r="L46" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="14" t="e">
+        <v>100.16666666666667</v>
+      </c>
+      <c r="M46" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1001666.6666666667</v>
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="51"/>
-      <c r="P46" s="49"/>
+      <c r="P46" s="49">
+        <f>(30*3.78541*1000)</f>
+        <v>113562.3</v>
+      </c>
       <c r="Q46" s="14">
         <v>100000</v>
       </c>
-      <c r="R46" s="14" t="e">
+      <c r="R46" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" s="16" t="e">
+        <v>12594.709796672827</v>
+      </c>
+      <c r="S46" s="16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>99999.999999999985</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="11">
         <v>43229</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="C47" s="42"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14" t="e">
+      <c r="D47" s="12">
+        <v>609</v>
+      </c>
+      <c r="E47" s="42">
+        <v>2</v>
+      </c>
+      <c r="F47" s="13">
+        <v>199</v>
+      </c>
+      <c r="G47" s="13">
+        <v>224</v>
+      </c>
+      <c r="H47" s="13">
+        <v>199</v>
+      </c>
+      <c r="I47" s="13">
+        <v>203</v>
+      </c>
+      <c r="J47" s="13">
+        <v>250</v>
+      </c>
+      <c r="K47" s="13">
+        <v>192</v>
+      </c>
+      <c r="L47" s="14">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="14" t="e">
+        <v>211.16666666666666</v>
+      </c>
+      <c r="M47" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2111666.6666666665</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="51"/>
-      <c r="P47" s="49"/>
+      <c r="P47" s="49">
+        <f>(30*3.78541*1000)+7000</f>
+        <v>120562.3</v>
+      </c>
       <c r="Q47" s="14">
         <v>100000</v>
       </c>
-      <c r="R47" s="14" t="e">
+      <c r="R47" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" s="16" t="e">
+        <v>5993.1549295774648</v>
+      </c>
+      <c r="S47" s="16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -29693,8 +30051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -29717,7 +30075,7 @@
       <c r="C1" s="138" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="188" t="s">
+      <c r="D1" s="185" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="139" t="s">
@@ -29776,7 +30134,7 @@
         <v>112.65433857601757</v>
       </c>
       <c r="J2" s="137">
-        <f t="shared" ref="J2:J18" si="2">(AVERAGE(E2:G2)-(C2*D2))/(C2*D2)</f>
+        <f t="shared" ref="J2:J16" si="2">(AVERAGE(E2:G2)-(C2*D2))/(C2*D2)</f>
         <v>0.10154690618762471</v>
       </c>
       <c r="K2" s="137"/>
@@ -30236,11 +30594,11 @@
         <v>775</v>
       </c>
       <c r="H15" s="106">
-        <f t="shared" ref="H15:H16" si="3">AVERAGE(E15:G15)</f>
+        <f>AVERAGE(E15:G15)</f>
         <v>763.66666666666663</v>
       </c>
       <c r="I15" s="107">
-        <f t="shared" ref="I15:I16" si="4">STDEV(E15:G15)</f>
+        <f>STDEV(E15:G15)</f>
         <v>36.350149013908229</v>
       </c>
       <c r="J15" s="137">
@@ -30271,11 +30629,11 @@
         <v>755</v>
       </c>
       <c r="H16" s="106">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(E16:G16)</f>
         <v>752.33333333333337</v>
       </c>
       <c r="I16" s="107">
-        <f t="shared" si="4"/>
+        <f>STDEV(E16:G16)</f>
         <v>26.102362600602522</v>
       </c>
       <c r="J16" s="137">
@@ -30306,15 +30664,15 @@
         <v>811</v>
       </c>
       <c r="H17" s="106">
-        <f t="shared" ref="H17:H19" si="5">AVERAGE(E17:G17)</f>
+        <f>AVERAGE(E17:G17)</f>
         <v>884.33333333333337</v>
       </c>
       <c r="I17" s="107">
-        <f t="shared" ref="I17:I19" si="6">STDEV(E17:G17)</f>
+        <f>STDEV(E17:G17)</f>
         <v>71.570478085124833</v>
       </c>
       <c r="J17" s="137">
-        <f t="shared" ref="J17:J19" si="7">(AVERAGE(E17:G17)-(C17*D17))/(C17*D17)</f>
+        <f>(AVERAGE(E17:G17)-(C17*D17))/(C17*D17)</f>
         <v>0.10541666666666671</v>
       </c>
     </row>
@@ -30341,15 +30699,15 @@
         <v>751</v>
       </c>
       <c r="H18" s="106">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(E18:G18)</f>
         <v>715.33333333333337</v>
       </c>
       <c r="I18" s="107">
-        <f t="shared" si="6"/>
+        <f>STDEV(E18:G18)</f>
         <v>30.98924544633724</v>
       </c>
       <c r="J18" s="137">
-        <f t="shared" si="7"/>
+        <f>(AVERAGE(E18:G18)-(C18*D18))/(C18*D18)</f>
         <v>-0.10583333333333328</v>
       </c>
     </row>
@@ -30376,31 +30734,31 @@
         <v>748</v>
       </c>
       <c r="H19" s="106">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(E19:G19)</f>
         <v>825.66666666666663</v>
       </c>
       <c r="I19" s="107">
-        <f t="shared" si="6"/>
+        <f>STDEV(E19:G19)</f>
         <v>100.37097854127623</v>
       </c>
       <c r="J19" s="137">
-        <f t="shared" si="7"/>
+        <f>(AVERAGE(E19:G19)-(C19*D19))/(C19*D19)</f>
         <v>3.2728788826349754E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="G20" s="189" t="s">
+      <c r="G20" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="190">
+      <c r="H20" s="187">
         <f>AVERAGE(H2:H19)</f>
         <v>824.32407407407413</v>
       </c>
-      <c r="I20" s="191">
+      <c r="I20" s="188">
         <f>AVERAGE(I2:I19)</f>
         <v>53.536806984109617</v>
       </c>
-      <c r="J20" s="192">
+      <c r="J20" s="189">
         <f>AVERAGE(J2:J19)</f>
         <v>3.0545846776431088E-2</v>
       </c>
@@ -30420,10 +30778,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30432,102 +30790,74 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="G2" s="185" t="s">
+    <row r="3" spans="1:13">
+      <c r="G3" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185" t="s">
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="101"/>
-    </row>
-    <row r="3" spans="1:13" ht="30">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="101"/>
+    </row>
+    <row r="4" spans="1:13" ht="30">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E4" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F4" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>178</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>179</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>180</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>178</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>179</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="60">
-        <v>43211</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2">
-        <v>326</v>
-      </c>
-      <c r="E4" s="107">
-        <f t="shared" ref="E4:E10" si="0">(20/D4)*1000</f>
-        <v>61.349693251533743</v>
-      </c>
-      <c r="F4" s="107">
-        <f t="shared" ref="F4:F10" si="1">(10*1000)-E4</f>
-        <v>9938.6503067484664</v>
-      </c>
-      <c r="G4" s="156" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="156" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="156" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -30535,59 +30865,68 @@
         <v>43211</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
-        <v>1044</v>
+        <v>326</v>
       </c>
       <c r="E5" s="107">
-        <f t="shared" si="0"/>
-        <v>19.157088122605362</v>
+        <f t="shared" ref="E5:E11" si="0">(20/D5)*1000</f>
+        <v>61.349693251533743</v>
       </c>
       <c r="F5" s="107">
-        <f t="shared" si="1"/>
-        <v>9980.8429118773947</v>
+        <f t="shared" ref="F5:F11" si="1">(10*1000)-E5</f>
+        <v>9938.6503067484664</v>
       </c>
       <c r="G5" s="156" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H5" s="156" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I5" s="156" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J5" s="156"/>
       <c r="K5" s="156"/>
       <c r="L5" s="156"/>
+      <c r="M5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="60">
-        <v>43212</v>
+        <v>43211</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
-        <v>341.11111111111109</v>
+        <v>1044</v>
       </c>
       <c r="E6" s="107">
         <f t="shared" si="0"/>
-        <v>58.631921824104239</v>
+        <v>19.157088122605362</v>
       </c>
       <c r="F6" s="107">
         <f t="shared" si="1"/>
-        <v>9941.3680781758958</v>
-      </c>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
+        <v>9980.8429118773947</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="156" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="156" t="s">
+        <v>192</v>
+      </c>
       <c r="J6" s="156"/>
       <c r="K6" s="156"/>
       <c r="L6" s="156"/>
@@ -30597,21 +30936,21 @@
         <v>43212</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2">
-        <v>671.66666666666663</v>
+        <v>341.11111111111109</v>
       </c>
       <c r="E7" s="107">
         <f t="shared" si="0"/>
-        <v>29.776674937965261</v>
+        <v>58.631921824104239</v>
       </c>
       <c r="F7" s="107">
         <f t="shared" si="1"/>
-        <v>9970.2233250620338</v>
+        <v>9941.3680781758958</v>
       </c>
       <c r="G7" s="156"/>
       <c r="H7" s="156"/>
@@ -30625,21 +30964,21 @@
         <v>43212</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2">
-        <v>253.33333333333334</v>
+        <v>671.66666666666663</v>
       </c>
       <c r="E8" s="107">
         <f t="shared" si="0"/>
-        <v>78.94736842105263</v>
+        <v>29.776674937965261</v>
       </c>
       <c r="F8" s="107">
         <f t="shared" si="1"/>
-        <v>9921.0526315789466</v>
+        <v>9970.2233250620338</v>
       </c>
       <c r="G8" s="156"/>
       <c r="H8" s="156"/>
@@ -30653,21 +30992,21 @@
         <v>43212</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2">
-        <v>105.83333333333333</v>
+        <v>253.33333333333334</v>
       </c>
       <c r="E9" s="107">
         <f t="shared" si="0"/>
-        <v>188.97637795275591</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="F9" s="107">
         <f t="shared" si="1"/>
-        <v>9811.0236220472434</v>
+        <v>9921.0526315789466</v>
       </c>
       <c r="G9" s="156"/>
       <c r="H9" s="156"/>
@@ -30681,43 +31020,49 @@
         <v>43212</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
-        <v>399</v>
+        <v>105.83333333333333</v>
       </c>
       <c r="E10" s="107">
         <f t="shared" si="0"/>
-        <v>50.125313283208015</v>
+        <v>188.97637795275591</v>
       </c>
       <c r="F10" s="107">
         <f t="shared" si="1"/>
+        <v>9811.0236220472434</v>
+      </c>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="60">
+        <v>43212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2">
+        <v>399</v>
+      </c>
+      <c r="E11" s="107">
+        <f t="shared" si="0"/>
+        <v>50.125313283208015</v>
+      </c>
+      <c r="F11" s="107">
+        <f t="shared" si="1"/>
         <v>9949.874686716792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="60">
-        <v>43215</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="2">
-        <v>973.33333333333326</v>
-      </c>
-      <c r="E12" s="107">
-        <f t="shared" ref="E12:E17" si="2">(20/D12)*1000</f>
-        <v>20.547945205479454</v>
-      </c>
-      <c r="F12" s="107">
-        <f t="shared" ref="F12:F17" si="3">(10*1000)-E12</f>
-        <v>9979.4520547945212</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -30725,21 +31070,21 @@
         <v>43215</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2">
-        <v>541.33333333333337</v>
+        <v>973.33333333333326</v>
       </c>
       <c r="E13" s="107">
-        <f t="shared" si="2"/>
-        <v>36.945812807881772</v>
+        <f t="shared" ref="E13:E18" si="2">(20/D13)*1000</f>
+        <v>20.547945205479454</v>
       </c>
       <c r="F13" s="107">
-        <f t="shared" si="3"/>
-        <v>9963.0541871921178</v>
+        <f t="shared" ref="F13:F18" si="3">(10*1000)-E13</f>
+        <v>9979.4520547945212</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -30747,21 +31092,21 @@
         <v>43215</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2">
-        <v>405.5555555555556</v>
+        <v>541.33333333333337</v>
       </c>
       <c r="E14" s="107">
         <f t="shared" si="2"/>
-        <v>49.315068493150676</v>
+        <v>36.945812807881772</v>
       </c>
       <c r="F14" s="107">
         <f t="shared" si="3"/>
-        <v>9950.6849315068484</v>
+        <v>9963.0541871921178</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -30769,21 +31114,21 @@
         <v>43215</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2">
-        <v>593.33333333333337</v>
+        <v>405.5555555555556</v>
       </c>
       <c r="E15" s="107">
         <f t="shared" si="2"/>
-        <v>33.707865168539328</v>
+        <v>49.315068493150676</v>
       </c>
       <c r="F15" s="107">
         <f t="shared" si="3"/>
-        <v>9966.2921348314612</v>
+        <v>9950.6849315068484</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -30791,49 +31136,179 @@
         <v>43215</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2">
-        <v>356.66666666666669</v>
+        <v>593.33333333333337</v>
       </c>
       <c r="E16" s="107">
         <f t="shared" si="2"/>
-        <v>56.074766355140184</v>
+        <v>33.707865168539328</v>
       </c>
       <c r="F16" s="107">
         <f t="shared" si="3"/>
-        <v>9943.925233644859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>9966.2921348314612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="60">
         <v>43215</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2">
-        <v>427.77777777777783</v>
+        <v>356.66666666666669</v>
       </c>
       <c r="E17" s="107">
         <f t="shared" si="2"/>
-        <v>46.753246753246749</v>
+        <v>56.074766355140184</v>
       </c>
       <c r="F17" s="107">
         <f t="shared" si="3"/>
+        <v>9943.925233644859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="60">
+        <v>43215</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2">
+        <v>427.77777777777783</v>
+      </c>
+      <c r="E18" s="107">
+        <f t="shared" si="2"/>
+        <v>46.753246753246749</v>
+      </c>
+      <c r="F18" s="107">
+        <f t="shared" si="3"/>
         <v>9953.2467532467526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" t="s">
+        <v>220</v>
+      </c>
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" t="s">
+        <v>222</v>
+      </c>
+      <c r="J21" t="s">
+        <v>223</v>
+      </c>
+      <c r="K21" t="s">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s">
+        <v>229</v>
+      </c>
+      <c r="N21" t="s">
+        <v>226</v>
+      </c>
+      <c r="O21" t="s">
+        <v>227</v>
+      </c>
+      <c r="P21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="29" customFormat="1">
+      <c r="A22" s="34">
+        <v>43226</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="29">
+        <v>800</v>
+      </c>
+      <c r="E22" s="29">
+        <v>68</v>
+      </c>
+      <c r="F22" s="29">
+        <v>2</v>
+      </c>
+      <c r="G22" s="29">
+        <v>67</v>
+      </c>
+      <c r="H22" s="29">
+        <v>2</v>
+      </c>
+      <c r="I22" s="29">
+        <v>83</v>
+      </c>
+      <c r="J22" s="29">
+        <v>3</v>
+      </c>
+      <c r="K22" s="31">
+        <f>AVERAGE(E22+F22,G22+H22,I22+J22)/C22</f>
+        <v>300</v>
+      </c>
+      <c r="L22" s="31">
+        <f>K22*D22</f>
+        <v>240000</v>
+      </c>
+      <c r="M22" s="30"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="34">
+        <v>43227</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -30884,124 +31359,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="192" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186" t="s">
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186" t="s">
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="186"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
     </row>
     <row r="2" spans="1:33" ht="26" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="186" t="s">
+      <c r="A2" s="192"/>
+      <c r="B2" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186" t="s">
+      <c r="E2" s="191"/>
+      <c r="F2" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186" t="s">
+      <c r="G2" s="191"/>
+      <c r="H2" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186" t="s">
+      <c r="I2" s="191"/>
+      <c r="J2" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186" t="s">
+      <c r="K2" s="191"/>
+      <c r="L2" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186" t="s">
+      <c r="M2" s="191"/>
+      <c r="N2" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186" t="s">
+      <c r="O2" s="191"/>
+      <c r="P2" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186" t="s">
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186" t="s">
+      <c r="S2" s="191"/>
+      <c r="T2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186" t="s">
+      <c r="U2" s="191"/>
+      <c r="V2" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186" t="s">
+      <c r="W2" s="191"/>
+      <c r="X2" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186" t="s">
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186" t="s">
+      <c r="AA2" s="191"/>
+      <c r="AB2" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186" t="s">
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="186" t="s">
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="186"/>
+      <c r="AG2" s="191"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="100" t="s">
@@ -35150,123 +35625,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="S1" s="186"/>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="186" t="s">
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="186"/>
-      <c r="AB1" s="186"/>
-      <c r="AC1" s="186"/>
-      <c r="AD1" s="186" t="s">
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191" t="s">
         <v>201</v>
       </c>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="186"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
     </row>
     <row r="2" spans="1:33" ht="27" customHeight="1">
       <c r="A2" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186" t="s">
+      <c r="C2" s="191"/>
+      <c r="D2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186" t="s">
+      <c r="E2" s="191"/>
+      <c r="F2" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186" t="s">
+      <c r="G2" s="191"/>
+      <c r="H2" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186" t="s">
+      <c r="I2" s="191"/>
+      <c r="J2" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186" t="s">
+      <c r="K2" s="191"/>
+      <c r="L2" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186" t="s">
+      <c r="M2" s="191"/>
+      <c r="N2" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186" t="s">
+      <c r="O2" s="191"/>
+      <c r="P2" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186" t="s">
+      <c r="Q2" s="191"/>
+      <c r="R2" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186" t="s">
+      <c r="S2" s="191"/>
+      <c r="T2" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="186"/>
-      <c r="V2" s="186" t="s">
+      <c r="U2" s="191"/>
+      <c r="V2" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186" t="s">
+      <c r="W2" s="191"/>
+      <c r="X2" s="191" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186" t="s">
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="191" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186" t="s">
+      <c r="AA2" s="191"/>
+      <c r="AB2" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="186" t="s">
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="186" t="s">
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="186"/>
+      <c r="AG2" s="191"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="99" t="s">

--- a/data/Metrics.xlsx
+++ b/data/Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="15460" tabRatio="1000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Larvae Collection" sheetId="3" r:id="rId1"/>
@@ -568,6 +568,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="P48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+30 gal + 4L
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -631,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="326">
   <si>
     <t>Date</t>
   </si>
@@ -1367,17 +1392,291 @@
   <si>
     <t>none</t>
   </si>
+  <si>
+    <t>Date counted</t>
+  </si>
+  <si>
+    <t>B1-2A</t>
+  </si>
+  <si>
+    <t>B1-2B</t>
+  </si>
+  <si>
+    <t>B1-2C</t>
+  </si>
+  <si>
+    <t>A2-3A</t>
+  </si>
+  <si>
+    <t>A2-3B</t>
+  </si>
+  <si>
+    <t>A2-3C</t>
+  </si>
+  <si>
+    <t>D1-2A</t>
+  </si>
+  <si>
+    <t>D1-2B</t>
+  </si>
+  <si>
+    <t>D1-2C</t>
+  </si>
+  <si>
+    <t>B2-3A</t>
+  </si>
+  <si>
+    <t>B2-3B</t>
+  </si>
+  <si>
+    <t>B2-3C</t>
+  </si>
+  <si>
+    <t>A1-2A</t>
+  </si>
+  <si>
+    <t>A1-2B</t>
+  </si>
+  <si>
+    <t>A1-2C</t>
+  </si>
+  <si>
+    <t>D2-1A</t>
+  </si>
+  <si>
+    <t>D2-1B</t>
+  </si>
+  <si>
+    <t>D2-1C</t>
+  </si>
+  <si>
+    <t>B1-4A</t>
+  </si>
+  <si>
+    <t>B1-4B</t>
+  </si>
+  <si>
+    <t>B1-4C</t>
+  </si>
+  <si>
+    <t>A1-3A</t>
+  </si>
+  <si>
+    <t>A1-3B</t>
+  </si>
+  <si>
+    <t>A1-3C</t>
+  </si>
+  <si>
+    <t>D2-2A</t>
+  </si>
+  <si>
+    <t>D2-2B</t>
+  </si>
+  <si>
+    <t>D2-2C</t>
+  </si>
+  <si>
+    <t>C2-2A</t>
+  </si>
+  <si>
+    <t>C2-2B</t>
+  </si>
+  <si>
+    <t>C2-2C</t>
+  </si>
+  <si>
+    <t>C1-1A</t>
+  </si>
+  <si>
+    <t>C1-1B</t>
+  </si>
+  <si>
+    <t>C1-1C</t>
+  </si>
+  <si>
+    <t>D1-3A</t>
+  </si>
+  <si>
+    <t>D1-3B</t>
+  </si>
+  <si>
+    <t>D1-3C</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>A2-2A</t>
+  </si>
+  <si>
+    <t>A2-2B</t>
+  </si>
+  <si>
+    <t>A2-2C</t>
+  </si>
+  <si>
+    <t>B2-5A</t>
+  </si>
+  <si>
+    <t>B2-5B</t>
+  </si>
+  <si>
+    <t>B2-5C</t>
+  </si>
+  <si>
+    <t>B2-6A</t>
+  </si>
+  <si>
+    <t>B2-6B</t>
+  </si>
+  <si>
+    <t>B2-6C</t>
+  </si>
+  <si>
+    <t>D1-4A</t>
+  </si>
+  <si>
+    <t>D1-4B</t>
+  </si>
+  <si>
+    <t>D1-4C</t>
+  </si>
+  <si>
+    <t>C2-3A</t>
+  </si>
+  <si>
+    <t>C2-3B</t>
+  </si>
+  <si>
+    <t>C2-3C</t>
+  </si>
+  <si>
+    <t>D2-4A</t>
+  </si>
+  <si>
+    <t>D2-4B</t>
+  </si>
+  <si>
+    <t>D2-4C</t>
+  </si>
+  <si>
+    <t>C1-2A</t>
+  </si>
+  <si>
+    <t>C1-2B</t>
+  </si>
+  <si>
+    <t>C1-2C</t>
+  </si>
+  <si>
+    <t>D2-5A</t>
+  </si>
+  <si>
+    <t>D2-5C</t>
+  </si>
+  <si>
+    <t>D2-5B</t>
+  </si>
+  <si>
+    <t>D1-5A</t>
+  </si>
+  <si>
+    <t>D1-5B</t>
+  </si>
+  <si>
+    <t>D1-5C</t>
+  </si>
+  <si>
+    <t>A1-5A</t>
+  </si>
+  <si>
+    <t>A1-5B</t>
+  </si>
+  <si>
+    <t>A1-5C</t>
+  </si>
+  <si>
+    <t>A1-6A</t>
+  </si>
+  <si>
+    <t>A1-6C</t>
+  </si>
+  <si>
+    <t>A1-6B</t>
+  </si>
+  <si>
+    <t>B1-3A</t>
+  </si>
+  <si>
+    <t>B1-3B</t>
+  </si>
+  <si>
+    <t>B1-3C</t>
+  </si>
+  <si>
+    <t>C1-3A</t>
+  </si>
+  <si>
+    <t>C1-3B</t>
+  </si>
+  <si>
+    <t>C1-3C</t>
+  </si>
+  <si>
+    <t>A2-1A</t>
+  </si>
+  <si>
+    <t>A2-1B</t>
+  </si>
+  <si>
+    <t>A2-1C</t>
+  </si>
+  <si>
+    <t>B1-1A</t>
+  </si>
+  <si>
+    <t>B1-1B</t>
+  </si>
+  <si>
+    <t>B1-1C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>TRT-REP</t>
+  </si>
+  <si>
+    <t>SURVIVAL</t>
+  </si>
+  <si>
+    <t># Alive</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1644,7 +1943,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="824">
+  <cellStyleXfs count="900">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2469,8 +2768,84 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2952,8 +3327,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="824">
+  <cellStyles count="900">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="601"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3366,6 +3743,44 @@
     <cellStyle name="Followed Hyperlink" xfId="819" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="821" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="823" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="825" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="837" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="839" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="841" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="843" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="845" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="847" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="849" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="851" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="853" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="855" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="857" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="859" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="861" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="863" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="865" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="867" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="869" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="871" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="873" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="875" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="877" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="879" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="889" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="891" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="893" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="895" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="897" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="899" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3776,6 +4191,44 @@
     <cellStyle name="Hyperlink" xfId="818" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="820" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="822" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="824" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="836" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="838" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="840" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="842" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="844" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="846" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="848" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="850" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="852" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="854" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="856" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="858" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="860" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="862" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="864" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="866" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="868" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="870" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="872" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="874" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="876" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="878" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="880" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="882" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="884" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="886" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="888" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="890" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="892" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="894" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="896" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="898" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="332" builtinId="5"/>
   </cellStyles>
@@ -3962,11 +4415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108204648"/>
-        <c:axId val="-2143790856"/>
+        <c:axId val="2125864152"/>
+        <c:axId val="2125532760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108204648"/>
+        <c:axId val="2125864152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,12 +4447,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143790856"/>
+        <c:crossAx val="2125532760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143790856"/>
+        <c:axId val="2125532760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,7 +4476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108204648"/>
+        <c:crossAx val="2125864152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7420,11 +7873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108334536"/>
-        <c:axId val="2108337288"/>
+        <c:axId val="2125754840"/>
+        <c:axId val="2125757592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2108334536"/>
+        <c:axId val="2125754840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7434,14 +7887,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108337288"/>
+        <c:crossAx val="2125757592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2108337288"/>
+        <c:axId val="2125757592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7452,7 +7905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108334536"/>
+        <c:crossAx val="2125754840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10941,11 +11394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108521080"/>
-        <c:axId val="2108523832"/>
+        <c:axId val="-2032207896"/>
+        <c:axId val="-2032205144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2108521080"/>
+        <c:axId val="-2032207896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10955,14 +11408,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108523832"/>
+        <c:crossAx val="-2032205144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2108523832"/>
+        <c:axId val="-2032205144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10973,7 +11426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108521080"/>
+        <c:crossAx val="-2032207896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11499,10 +11952,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2080" topLeftCell="A116" activePane="bottomLeft"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="2080" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22642,38 +23095,2605 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="194"/>
+    <col min="10" max="10" width="10.83203125" style="64"/>
+    <col min="11" max="11" width="10.83203125" style="193"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
         <v>157</v>
       </c>
       <c r="C1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
         <v>231</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>232</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>233</v>
+      </c>
+      <c r="H1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="194" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="60">
+        <v>43226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <f>SUM(E2:G2)</f>
+        <v>72</v>
+      </c>
+      <c r="I2" s="194">
+        <f t="shared" ref="I2:I7" si="0">SUM(E2:G2)/800</f>
+        <v>0.09</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="193">
+        <f>AVERAGEIF(D:D,J2,I:I)</f>
+        <v>6.9895833333333338E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="60">
+        <v>43226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">SUM(E3:G3)</f>
+        <v>55</v>
+      </c>
+      <c r="I3" s="194">
+        <f t="shared" si="0"/>
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="193">
+        <f t="shared" ref="K3:K9" si="2">AVERAGEIF(D:D,J3,I:I)</f>
+        <v>5.9583333333333335E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="60">
+        <v>43226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I4" s="194">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="193">
+        <f t="shared" si="2"/>
+        <v>0.1115625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="60">
+        <v>43226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="194">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="193">
+        <f t="shared" si="2"/>
+        <v>9.3472222222222234E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="60">
+        <v>43226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="194">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="193">
+        <f t="shared" si="2"/>
+        <v>5.5277777777777787E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="60">
+        <v>43226</v>
+      </c>
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="194">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="193">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="I8" s="194">
+        <f>SUM(E8:G8)/800</f>
+        <v>0.18375</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="193">
+        <f t="shared" si="2"/>
+        <v>0.21031249999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>133</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="I9" s="194">
+        <f t="shared" ref="I9:I72" si="3">SUM(E9:G9)/800</f>
+        <v>0.17624999999999999</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="193">
+        <f t="shared" si="2"/>
+        <v>0.11291666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>202</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="I10" s="194">
+        <f t="shared" si="3"/>
+        <v>0.27250000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="I11" s="194">
+        <f t="shared" si="3"/>
+        <v>7.1249999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I12" s="194">
+        <f t="shared" si="3"/>
+        <v>6.1249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I13" s="194">
+        <f t="shared" si="3"/>
+        <v>3.875E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="I14" s="194">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="194">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="I16" s="194">
+        <f t="shared" si="3"/>
+        <v>0.10375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>108</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="I17" s="194">
+        <f t="shared" si="3"/>
+        <v>0.14374999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>146</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="I18" s="194">
+        <f t="shared" si="3"/>
+        <v>0.20749999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>143</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="I19" s="194">
+        <f t="shared" si="3"/>
+        <v>0.1825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="I20" s="194">
+        <f t="shared" si="3"/>
+        <v>8.6249999999999993E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I21" s="194">
+        <f t="shared" si="3"/>
+        <v>4.1250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I22" s="194">
+        <f t="shared" si="3"/>
+        <v>3.3750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="194">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="194">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I25" s="194">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I26" s="194">
+        <f t="shared" si="3"/>
+        <v>1.125E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I27" s="194">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="60">
+        <v>43228</v>
+      </c>
+      <c r="B28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I28" s="194">
+        <f t="shared" si="3"/>
+        <v>2.375E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I29" s="194">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I30" s="194">
+        <f t="shared" si="3"/>
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I31" s="194">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>93</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="I32" s="194">
+        <f t="shared" si="3"/>
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="I33" s="194">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C34" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I34" s="194">
+        <f t="shared" si="3"/>
+        <v>5.3749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I35" s="194">
+        <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="194">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="60">
+        <v>43230</v>
+      </c>
+      <c r="B37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I37" s="194">
+        <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>273</v>
+      </c>
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>88</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="I38" s="194">
+        <f t="shared" si="3"/>
+        <v>0.11125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>103</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="I39" s="194">
+        <f t="shared" si="3"/>
+        <v>0.13625000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I40" s="194">
+        <f t="shared" si="3"/>
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>13</v>
+      </c>
+      <c r="F41">
+        <v>82</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="I41" s="194">
+        <f t="shared" si="3"/>
+        <v>0.12625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>78</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="I42" s="194">
+        <f t="shared" si="3"/>
+        <v>0.11375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>113</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="I43" s="194">
+        <f t="shared" si="3"/>
+        <v>0.17624999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>69</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="I44" s="194">
+        <f t="shared" si="3"/>
+        <v>0.10249999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>48</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="I45" s="194">
+        <f t="shared" si="3"/>
+        <v>7.1249999999999994E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>60</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="I46" s="194">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47">
+        <v>27</v>
+      </c>
+      <c r="F47">
+        <v>120</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="I47" s="194">
+        <f t="shared" si="3"/>
+        <v>0.20874999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B48" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>254</v>
+      </c>
+      <c r="G48">
+        <v>21</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="I48" s="194">
+        <f t="shared" si="3"/>
+        <v>0.37125000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49">
+        <v>23</v>
+      </c>
+      <c r="F49">
+        <v>288</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="I49" s="194">
+        <f t="shared" si="3"/>
+        <v>0.40875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>40</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I50" s="194">
+        <f t="shared" si="3"/>
+        <v>5.3749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" t="s">
+        <v>321</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I51" s="194">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B52" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" t="s">
+        <v>321</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>24</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I52" s="194">
+        <f t="shared" si="3"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" t="s">
+        <v>320</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>37</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I53" s="194">
+        <f t="shared" si="3"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>31</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I54" s="194">
+        <f t="shared" si="3"/>
+        <v>3.875E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B55" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>33</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I55" s="194">
+        <f t="shared" si="3"/>
+        <v>4.8750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I56" s="194">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B57" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" t="s">
+        <v>321</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>14</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I57" s="194">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B58" t="s">
+        <v>293</v>
+      </c>
+      <c r="C58" t="s">
+        <v>321</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>54</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="I58" s="194">
+        <f t="shared" si="3"/>
+        <v>7.1249999999999994E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B59" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" t="s">
+        <v>320</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>147</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="I59" s="194">
+        <f t="shared" si="3"/>
+        <v>0.20125000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>133</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="I60" s="194">
+        <f t="shared" si="3"/>
+        <v>0.18625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B61" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" t="s">
+        <v>320</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>166</v>
+      </c>
+      <c r="G61">
+        <v>21</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="I61" s="194">
+        <f t="shared" si="3"/>
+        <v>0.25124999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B62" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" t="s">
+        <v>320</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="F62">
+        <v>238</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="I62" s="194">
+        <f t="shared" si="3"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B63" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63">
+        <v>202</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="I63" s="194">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B64" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>195</v>
+      </c>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="I64" s="194">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>53</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I65" s="194">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B66" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>54</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="I66" s="194">
+        <f t="shared" si="3"/>
+        <v>7.8750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B67" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>80</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H82" si="4">SUM(E67:G67)</f>
+        <v>93</v>
+      </c>
+      <c r="I67" s="194">
+        <f t="shared" si="3"/>
+        <v>0.11625000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" t="s">
+        <v>319</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>99</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="I68" s="194">
+        <f t="shared" si="3"/>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B69" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>55</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="I69" s="194">
+        <f t="shared" si="3"/>
+        <v>7.1249999999999994E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>51</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="I70" s="194">
+        <f t="shared" si="3"/>
+        <v>6.6250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B71" t="s">
+        <v>306</v>
+      </c>
+      <c r="C71" t="s">
+        <v>318</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>102</v>
+      </c>
+      <c r="G71">
+        <v>31</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="I71" s="194">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>25</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="I72" s="194">
+        <f t="shared" si="3"/>
+        <v>3.3750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B73" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="I73" s="194">
+        <f t="shared" ref="I73:I82" si="5">SUM(E73:G73)/800</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" t="s">
+        <v>321</v>
+      </c>
+      <c r="D74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>28</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="I74" s="194">
+        <f t="shared" si="5"/>
+        <v>3.875E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B75" t="s">
+        <v>310</v>
+      </c>
+      <c r="C75" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I75" s="194">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B76" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" t="s">
+        <v>321</v>
+      </c>
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="I76" s="194">
+        <f t="shared" si="5"/>
+        <v>2.8750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B77" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>44</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="I77" s="194">
+        <f t="shared" si="5"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>60</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="I78" s="194">
+        <f t="shared" si="5"/>
+        <v>8.1250000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B79" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" t="s">
+        <v>319</v>
+      </c>
+      <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>44</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="I79" s="194">
+        <f t="shared" si="5"/>
+        <v>6.1249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>173</v>
+      </c>
+      <c r="G80">
+        <v>66</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="4"/>
+        <v>253</v>
+      </c>
+      <c r="I80" s="194">
+        <f t="shared" si="5"/>
+        <v>0.31624999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>161</v>
+      </c>
+      <c r="G81">
+        <v>25</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="I81" s="194">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="60">
+        <v>43233</v>
+      </c>
+      <c r="B82" t="s">
+        <v>317</v>
+      </c>
+      <c r="C82" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>140</v>
+      </c>
+      <c r="G82">
+        <v>18</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="I82" s="194">
+        <f t="shared" si="5"/>
+        <v>0.20125000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -22686,8 +25706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25433,44 +28453,67 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="11">
-        <v>43230</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="14" t="e">
+        <v>43233</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="42">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>609</v>
+      </c>
+      <c r="E48" s="42">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13">
+        <v>179</v>
+      </c>
+      <c r="G48" s="13">
+        <v>131</v>
+      </c>
+      <c r="H48" s="13">
+        <v>165</v>
+      </c>
+      <c r="I48" s="13">
+        <v>131</v>
+      </c>
+      <c r="J48" s="13">
+        <v>129</v>
+      </c>
+      <c r="K48" s="13">
+        <v>121</v>
+      </c>
+      <c r="L48" s="14">
         <f>AVERAGE(F48:K48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="14" t="e">
+        <v>142.66666666666666</v>
+      </c>
+      <c r="M48" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1426666.6666666667</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="51"/>
-      <c r="P48" s="49"/>
+      <c r="P48" s="49">
+        <f>(30*3.78541*1000)+4000</f>
+        <v>117562.3</v>
+      </c>
       <c r="Q48" s="14">
         <v>100000</v>
       </c>
-      <c r="R48" s="14" t="e">
+      <c r="R48" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" s="16" t="e">
+        <v>8861.4798994974863</v>
+      </c>
+      <c r="S48" s="16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>99999.999999999985</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="11">
-        <v>43231</v>
+        <v>43235</v>
       </c>
     </row>
   </sheetData>
@@ -25489,7 +28532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A112" workbookViewId="0">
       <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
@@ -27901,7 +30944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -28972,7 +32015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="E20" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="E20" workbookViewId="0">
       <selection activeCell="N18" sqref="K1:N18"/>
     </sheetView>
   </sheetViews>
@@ -30051,7 +33094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -30780,7 +33823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -31324,7 +34367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1560" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="J2" sqref="J2:K2"/>
       <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
@@ -35581,7 +38624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1480" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="J2" sqref="J2:K2"/>
       <selection pane="bottomLeft" activeCell="AJ11" sqref="AJ11"/>

--- a/data/Metrics.xlsx
+++ b/data/Metrics.xlsx
@@ -3798,29 +3798,11 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="332" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3849,6 +3831,24 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1100">
@@ -5136,11 +5136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109438296"/>
-        <c:axId val="2109443768"/>
+        <c:axId val="2091989608"/>
+        <c:axId val="2091982712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109438296"/>
+        <c:axId val="2091989608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5168,12 +5168,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109443768"/>
+        <c:crossAx val="2091982712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109443768"/>
+        <c:axId val="2091982712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,7 +5197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109438296"/>
+        <c:crossAx val="2091989608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8594,11 +8594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110348376"/>
-        <c:axId val="2110351128"/>
+        <c:axId val="2095269016"/>
+        <c:axId val="2095271768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2110348376"/>
+        <c:axId val="2095269016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8608,14 +8608,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110351128"/>
+        <c:crossAx val="2095271768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2110351128"/>
+        <c:axId val="2095271768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8626,7 +8626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110348376"/>
+        <c:crossAx val="2095269016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12115,11 +12115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110541208"/>
-        <c:axId val="2110543960"/>
+        <c:axId val="2093033768"/>
+        <c:axId val="2093031000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2110541208"/>
+        <c:axId val="2093033768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12129,14 +12129,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110543960"/>
+        <c:crossAx val="2093031000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2110543960"/>
+        <c:axId val="2093031000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12147,7 +12147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110541208"/>
+        <c:crossAx val="2093033768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12673,7 +12673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2080" activePane="bottomLeft"/>
       <selection activeCell="T1" sqref="E1:T1048576"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
@@ -23959,25 +23959,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="860" activePane="bottomLeft"/>
       <selection activeCell="S1" sqref="S1:S1048576"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="197" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="198" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" style="198" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="199" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="205" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="206"/>
-    <col min="14" max="14" width="14.1640625" style="206" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="200" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="199"/>
+    <col min="6" max="6" width="13.1640625" style="194" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="195" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" style="195" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="196" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="199" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="200"/>
+    <col min="14" max="14" width="14.1640625" style="200" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="197" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="196"/>
     <col min="17" max="17" width="10.83203125" style="64"/>
     <col min="18" max="19" width="16.5" style="190" customWidth="1"/>
     <col min="20" max="20" width="21.33203125" style="190" customWidth="1"/>
@@ -23986,21 +23986,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="F1" s="201" t="s">
+      <c r="F1" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="201" t="s">
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="214" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="203"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="216"/>
     </row>
     <row r="2" spans="1:24" s="97" customFormat="1" ht="45">
       <c r="A2" s="97" t="s">
@@ -24018,52 +24018,52 @@
       <c r="E2" s="97" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="209" t="s">
+      <c r="F2" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="210" t="s">
+      <c r="G2" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="210" t="s">
+      <c r="H2" s="204" t="s">
         <v>233</v>
       </c>
-      <c r="I2" s="210" t="s">
+      <c r="I2" s="204" t="s">
         <v>324</v>
       </c>
-      <c r="J2" s="211" t="s">
+      <c r="J2" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="K2" s="212" t="s">
+      <c r="K2" s="206" t="s">
         <v>391</v>
       </c>
-      <c r="L2" s="213" t="s">
+      <c r="L2" s="207" t="s">
         <v>398</v>
       </c>
-      <c r="M2" s="213" t="s">
+      <c r="M2" s="207" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="213" t="s">
+      <c r="N2" s="207" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="214" t="s">
+      <c r="O2" s="208" t="s">
         <v>324</v>
       </c>
-      <c r="P2" s="211" t="s">
+      <c r="P2" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="Q2" s="215" t="s">
+      <c r="Q2" s="209" t="s">
         <v>322</v>
       </c>
-      <c r="R2" s="216" t="s">
+      <c r="R2" s="210" t="s">
         <v>401</v>
       </c>
-      <c r="S2" s="216" t="s">
+      <c r="S2" s="210" t="s">
         <v>400</v>
       </c>
-      <c r="T2" s="216" t="s">
+      <c r="T2" s="210" t="s">
         <v>399</v>
       </c>
-      <c r="U2" s="216" t="s">
+      <c r="U2" s="210" t="s">
         <v>390</v>
       </c>
       <c r="V2" s="97" t="s">
@@ -24086,41 +24086,41 @@
       <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="197">
+      <c r="F3" s="194">
         <v>12</v>
       </c>
-      <c r="G3" s="198">
+      <c r="G3" s="195">
         <v>60</v>
       </c>
-      <c r="H3" s="198">
+      <c r="H3" s="195">
         <v>3</v>
       </c>
-      <c r="I3" s="198">
+      <c r="I3" s="195">
         <f>SUM(F3:H3)</f>
         <v>75</v>
       </c>
-      <c r="J3" s="199">
+      <c r="J3" s="196">
         <f t="shared" ref="J3:J8" si="0">SUM(F3:H3)/800</f>
         <v>9.375E-2</v>
       </c>
-      <c r="K3" s="205">
+      <c r="K3" s="199">
         <v>49</v>
       </c>
-      <c r="L3" s="208">
+      <c r="L3" s="202">
         <f>1-(K3-SUM(F3:F5))/K3</f>
         <v>0.63265306122448983</v>
       </c>
-      <c r="M3" s="206">
+      <c r="M3" s="200">
         <v>55</v>
       </c>
-      <c r="N3" s="206">
+      <c r="N3" s="200">
         <v>3</v>
       </c>
-      <c r="O3" s="207">
+      <c r="O3" s="201">
         <f>SUM(K3:N5)</f>
         <v>177.63265306122449</v>
       </c>
-      <c r="P3" s="199">
+      <c r="P3" s="196">
         <f>O3/(800*3)</f>
         <v>7.4013605442176875E-2</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>37</v>
       </c>
       <c r="R3" s="190">
-        <f>AVERAGEIF(E:E,Q3,J:J)</f>
+        <f t="shared" ref="R3:R10" si="1">AVERAGEIF(E:E,Q3,J:J)</f>
         <v>0.13819444444444445</v>
       </c>
       <c r="S3" s="190">
@@ -24142,7 +24142,7 @@
       <c r="V3" t="s">
         <v>326</v>
       </c>
-      <c r="W3" s="196">
+      <c r="W3" s="193">
         <f>AVERAGE(R3:R4)</f>
         <v>0.11440972222222223</v>
       </c>
@@ -24164,42 +24164,42 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="197">
+      <c r="F4" s="194">
         <v>16</v>
       </c>
-      <c r="G4" s="198">
+      <c r="G4" s="195">
         <v>39</v>
       </c>
-      <c r="H4" s="198">
+      <c r="H4" s="195">
         <v>8</v>
       </c>
-      <c r="I4" s="198">
-        <f t="shared" ref="I4:I67" si="1">SUM(F4:H4)</f>
+      <c r="I4" s="195">
+        <f t="shared" ref="I4:I67" si="2">SUM(F4:H4)</f>
         <v>63</v>
       </c>
-      <c r="J4" s="199">
+      <c r="J4" s="196">
         <f t="shared" si="0"/>
         <v>7.8750000000000001E-2</v>
       </c>
-      <c r="M4" s="206">
+      <c r="M4" s="200">
         <v>31</v>
       </c>
-      <c r="N4" s="206">
+      <c r="N4" s="200">
         <v>8</v>
       </c>
       <c r="Q4" s="64" t="s">
         <v>28</v>
       </c>
       <c r="R4" s="190">
-        <f>AVERAGEIF(E:E,Q4,J:J)</f>
+        <f t="shared" si="1"/>
         <v>9.0625000000000011E-2</v>
       </c>
       <c r="S4" s="190">
-        <f t="shared" ref="S4:S10" si="2">AVERAGEIF(E:E,Q4,P:P)</f>
+        <f t="shared" ref="S4:S10" si="3">AVERAGEIF(E:E,Q4,P:P)</f>
         <v>3.6030555555555552E-2</v>
       </c>
       <c r="T4" s="190">
-        <f>AVERAGEIF(E:E,Q4,L:L)</f>
+        <f t="shared" ref="T4:T10" si="4">AVERAGEIF(E:E,Q4,L:L)</f>
         <v>0.47333333333333333</v>
       </c>
       <c r="V4" t="s">
@@ -24222,48 +24222,48 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="197">
+      <c r="F5" s="194">
         <v>3</v>
       </c>
-      <c r="G5" s="198">
+      <c r="G5" s="195">
         <v>39</v>
       </c>
-      <c r="H5" s="198">
+      <c r="H5" s="195">
         <v>1</v>
       </c>
-      <c r="I5" s="198">
-        <f t="shared" si="1"/>
+      <c r="I5" s="195">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="J5" s="199">
+      <c r="J5" s="196">
         <f t="shared" si="0"/>
         <v>5.3749999999999999E-2</v>
       </c>
-      <c r="M5" s="206">
+      <c r="M5" s="200">
         <v>30</v>
       </c>
-      <c r="N5" s="206">
+      <c r="N5" s="200">
         <v>1</v>
       </c>
       <c r="Q5" s="64" t="s">
         <v>29</v>
       </c>
       <c r="R5" s="190">
-        <f>AVERAGEIF(E:E,Q5,J:J)</f>
+        <f t="shared" si="1"/>
         <v>9.1388888888888895E-2</v>
       </c>
       <c r="S5" s="190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6243261841773746E-2</v>
       </c>
       <c r="T5" s="190">
-        <f>AVERAGEIF(E:E,Q5,L:L)</f>
+        <f t="shared" si="4"/>
         <v>0.65049508692365832</v>
       </c>
       <c r="V5" t="s">
         <v>327</v>
       </c>
-      <c r="W5" s="196">
+      <c r="W5" s="193">
         <f>AVERAGE(R5:R6)</f>
         <v>9.7951388888888893E-2</v>
       </c>
@@ -24284,41 +24284,41 @@
       <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="197">
+      <c r="F6" s="194">
         <v>2</v>
       </c>
-      <c r="G6" s="198">
+      <c r="G6" s="195">
         <v>38</v>
       </c>
-      <c r="H6" s="198">
-        <v>0</v>
-      </c>
-      <c r="I6" s="198">
-        <f t="shared" si="1"/>
+      <c r="H6" s="195">
+        <v>0</v>
+      </c>
+      <c r="I6" s="195">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J6" s="199">
+      <c r="J6" s="196">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K6" s="205">
+      <c r="K6" s="199">
         <v>5</v>
       </c>
-      <c r="L6" s="208">
+      <c r="L6" s="202">
         <f>1-(K6-SUM(F6:F8))/K6</f>
         <v>0.6</v>
       </c>
-      <c r="M6" s="206">
+      <c r="M6" s="200">
         <v>25</v>
       </c>
-      <c r="N6" s="206">
-        <v>0</v>
-      </c>
-      <c r="O6" s="207">
+      <c r="N6" s="200">
+        <v>0</v>
+      </c>
+      <c r="O6" s="201">
         <f>SUM(K6:N8)</f>
         <v>46.6</v>
       </c>
-      <c r="P6" s="199">
+      <c r="P6" s="196">
         <f>O6/(800*3)</f>
         <v>1.9416666666666669E-2</v>
       </c>
@@ -24326,15 +24326,15 @@
         <v>36</v>
       </c>
       <c r="R6" s="190">
-        <f>AVERAGEIF(E:E,Q6,J:J)</f>
+        <f t="shared" si="1"/>
         <v>0.10451388888888889</v>
       </c>
       <c r="S6" s="190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6693464381363323E-2</v>
       </c>
       <c r="T6" s="190">
-        <f>AVERAGEIF(E:E,Q6,L:L)</f>
+        <f t="shared" si="4"/>
         <v>0.66431451527196206</v>
       </c>
       <c r="V6" t="s">
@@ -24357,48 +24357,48 @@
       <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="197">
-        <v>0</v>
-      </c>
-      <c r="G7" s="198">
+      <c r="F7" s="194">
+        <v>0</v>
+      </c>
+      <c r="G7" s="195">
         <v>20</v>
       </c>
-      <c r="H7" s="198">
+      <c r="H7" s="195">
         <v>1</v>
       </c>
-      <c r="I7" s="198">
-        <f t="shared" si="1"/>
+      <c r="I7" s="195">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J7" s="199">
+      <c r="J7" s="196">
         <f t="shared" si="0"/>
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="M7" s="206">
+      <c r="M7" s="200">
         <v>12</v>
       </c>
-      <c r="N7" s="206">
+      <c r="N7" s="200">
         <v>1</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>83</v>
       </c>
       <c r="R7" s="190">
-        <f>AVERAGEIF(E:E,Q7,J:J)</f>
+        <f t="shared" si="1"/>
         <v>5.2916666666666681E-2</v>
       </c>
       <c r="S7" s="190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9856150793650791E-2</v>
       </c>
       <c r="T7" s="190">
-        <f>AVERAGEIF(E:E,Q7,L:L)</f>
+        <f t="shared" si="4"/>
         <v>0.48809523809523814</v>
       </c>
       <c r="V7" t="s">
         <v>328</v>
       </c>
-      <c r="W7" s="196">
+      <c r="W7" s="193">
         <f>AVERAGE(R7:R8)</f>
         <v>8.7430555555555567E-2</v>
       </c>
@@ -24419,42 +24419,42 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="197">
+      <c r="F8" s="194">
         <v>1</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="195">
         <v>3</v>
       </c>
-      <c r="H8" s="198">
-        <v>0</v>
-      </c>
-      <c r="I8" s="198">
-        <f t="shared" si="1"/>
+      <c r="H8" s="195">
+        <v>0</v>
+      </c>
+      <c r="I8" s="195">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J8" s="199">
+      <c r="J8" s="196">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M8" s="206">
+      <c r="M8" s="200">
         <v>3</v>
       </c>
-      <c r="N8" s="206">
+      <c r="N8" s="200">
         <v>0</v>
       </c>
       <c r="Q8" s="64" t="s">
         <v>84</v>
       </c>
       <c r="R8" s="190">
-        <f>AVERAGEIF(E:E,Q8,J:J)</f>
+        <f t="shared" si="1"/>
         <v>0.12194444444444444</v>
       </c>
       <c r="S8" s="190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2593749999999998E-2</v>
       </c>
       <c r="T8" s="190">
-        <f>AVERAGEIF(E:E,Q8,L:L)</f>
+        <f t="shared" si="4"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="V8" t="s">
@@ -24477,41 +24477,41 @@
       <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="197">
+      <c r="F9" s="194">
         <v>20</v>
       </c>
-      <c r="G9" s="198">
+      <c r="G9" s="195">
         <v>115</v>
       </c>
-      <c r="H9" s="198">
+      <c r="H9" s="195">
         <v>12</v>
       </c>
-      <c r="I9" s="198">
-        <f t="shared" si="1"/>
+      <c r="I9" s="195">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="J9" s="199">
+      <c r="J9" s="196">
         <f>SUM(F9:H9)/800</f>
         <v>0.18375</v>
       </c>
-      <c r="K9" s="205">
+      <c r="K9" s="199">
         <v>41</v>
       </c>
-      <c r="L9" s="208">
+      <c r="L9" s="202">
         <f>1-(K9-SUM(F9:F11))/K9</f>
         <v>0.92682926829268297</v>
       </c>
-      <c r="M9" s="206">
+      <c r="M9" s="200">
         <v>89</v>
       </c>
-      <c r="N9" s="206">
+      <c r="N9" s="200">
         <v>9</v>
       </c>
-      <c r="O9" s="207">
+      <c r="O9" s="201">
         <f>SUM(K9:N11)</f>
         <v>463.92682926829269</v>
       </c>
-      <c r="P9" s="199">
+      <c r="P9" s="196">
         <f>O9/(800*3)</f>
         <v>0.19330284552845528</v>
       </c>
@@ -24519,21 +24519,21 @@
         <v>61</v>
       </c>
       <c r="R9" s="190">
-        <f>AVERAGEIF(E:E,Q9,J:J)</f>
+        <f t="shared" si="1"/>
         <v>0.16368055555555555</v>
       </c>
       <c r="S9" s="190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15375576211062564</v>
       </c>
       <c r="T9" s="190">
-        <f>AVERAGEIF(E:E,Q9,L:L)</f>
+        <f t="shared" si="4"/>
         <v>0.84716239883487265</v>
       </c>
       <c r="V9" t="s">
         <v>325</v>
       </c>
-      <c r="W9" s="196">
+      <c r="W9" s="193">
         <f>AVERAGE(R9:R10)</f>
         <v>0.12493055555555554</v>
       </c>
@@ -24554,42 +24554,42 @@
       <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="194">
         <v>6</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="195">
         <v>133</v>
       </c>
-      <c r="H10" s="198">
+      <c r="H10" s="195">
         <v>2</v>
       </c>
-      <c r="I10" s="198">
-        <f t="shared" si="1"/>
+      <c r="I10" s="195">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="J10" s="199">
-        <f t="shared" ref="J10:J73" si="3">SUM(F10:H10)/800</f>
+      <c r="J10" s="196">
+        <f t="shared" ref="J10:J73" si="5">SUM(F10:H10)/800</f>
         <v>0.17624999999999999</v>
       </c>
-      <c r="M10" s="206">
+      <c r="M10" s="200">
         <v>130</v>
       </c>
-      <c r="N10" s="206">
+      <c r="N10" s="200">
         <v>2</v>
       </c>
       <c r="Q10" s="64" t="s">
         <v>59</v>
       </c>
       <c r="R10" s="190">
-        <f>AVERAGEIF(E:E,Q10,J:J)</f>
+        <f t="shared" si="1"/>
         <v>8.6180555555555538E-2</v>
       </c>
       <c r="S10" s="190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.4264314339042611E-2</v>
       </c>
       <c r="T10" s="190">
-        <f>AVERAGEIF(E:E,Q10,L:L)</f>
+        <f t="shared" si="4"/>
         <v>0.73435441370223975</v>
       </c>
       <c r="V10" t="s">
@@ -24612,27 +24612,27 @@
       <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="197">
+      <c r="F11" s="194">
         <v>12</v>
       </c>
-      <c r="G11" s="198">
+      <c r="G11" s="195">
         <v>202</v>
       </c>
-      <c r="H11" s="198">
+      <c r="H11" s="195">
         <v>4</v>
       </c>
-      <c r="I11" s="198">
-        <f t="shared" si="1"/>
+      <c r="I11" s="195">
+        <f t="shared" si="2"/>
         <v>218</v>
       </c>
-      <c r="J11" s="199">
-        <f t="shared" si="3"/>
+      <c r="J11" s="196">
+        <f t="shared" si="5"/>
         <v>0.27250000000000002</v>
       </c>
-      <c r="M11" s="206">
+      <c r="M11" s="200">
         <v>191</v>
       </c>
-      <c r="N11" s="206">
+      <c r="N11" s="200">
         <v>1</v>
       </c>
     </row>
@@ -24652,41 +24652,41 @@
       <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="197">
+      <c r="F12" s="194">
         <v>8</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="195">
         <v>42</v>
       </c>
-      <c r="H12" s="198">
+      <c r="H12" s="195">
         <v>7</v>
       </c>
-      <c r="I12" s="198">
-        <f t="shared" si="1"/>
+      <c r="I12" s="195">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J12" s="199">
-        <f t="shared" si="3"/>
+      <c r="J12" s="196">
+        <f t="shared" si="5"/>
         <v>7.1249999999999994E-2</v>
       </c>
-      <c r="K12" s="205">
+      <c r="K12" s="199">
         <v>26</v>
       </c>
-      <c r="L12" s="208">
+      <c r="L12" s="202">
         <f>1-(K12-SUM(F12:F14))/K12</f>
         <v>0.76923076923076916</v>
       </c>
-      <c r="M12" s="206">
+      <c r="M12" s="200">
         <v>26</v>
       </c>
-      <c r="N12" s="206">
+      <c r="N12" s="200">
         <v>1</v>
       </c>
-      <c r="O12" s="207">
+      <c r="O12" s="201">
         <f>SUM(K12:N14)</f>
         <v>96.769230769230774</v>
       </c>
-      <c r="P12" s="199">
+      <c r="P12" s="196">
         <f>O12/(800*3)</f>
         <v>4.032051282051282E-2</v>
       </c>
@@ -24707,27 +24707,27 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="197">
+      <c r="F13" s="194">
         <v>10</v>
       </c>
-      <c r="G13" s="198">
+      <c r="G13" s="195">
         <v>36</v>
       </c>
-      <c r="H13" s="198">
+      <c r="H13" s="195">
         <v>3</v>
       </c>
-      <c r="I13" s="198">
-        <f t="shared" si="1"/>
+      <c r="I13" s="195">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="J13" s="199">
-        <f t="shared" si="3"/>
+      <c r="J13" s="196">
+        <f t="shared" si="5"/>
         <v>6.1249999999999999E-2</v>
       </c>
-      <c r="M13" s="206">
+      <c r="M13" s="200">
         <v>24</v>
       </c>
-      <c r="N13" s="206">
+      <c r="N13" s="200">
         <v>1</v>
       </c>
     </row>
@@ -24747,27 +24747,27 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="197">
+      <c r="F14" s="194">
         <v>2</v>
       </c>
-      <c r="G14" s="198">
+      <c r="G14" s="195">
         <v>27</v>
       </c>
-      <c r="H14" s="198">
+      <c r="H14" s="195">
         <v>2</v>
       </c>
-      <c r="I14" s="198">
-        <f t="shared" si="1"/>
+      <c r="I14" s="195">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="J14" s="199">
-        <f t="shared" si="3"/>
+      <c r="J14" s="196">
+        <f t="shared" si="5"/>
         <v>3.875E-2</v>
       </c>
-      <c r="M14" s="206">
+      <c r="M14" s="200">
         <v>18</v>
       </c>
-      <c r="N14" s="206">
+      <c r="N14" s="200">
         <v>0</v>
       </c>
     </row>
@@ -24787,41 +24787,41 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="197">
+      <c r="F15" s="194">
         <v>28</v>
       </c>
-      <c r="G15" s="198">
+      <c r="G15" s="195">
         <v>53</v>
       </c>
-      <c r="H15" s="198">
+      <c r="H15" s="195">
         <v>7</v>
       </c>
-      <c r="I15" s="198">
-        <f t="shared" si="1"/>
+      <c r="I15" s="195">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="J15" s="199">
-        <f t="shared" si="3"/>
+      <c r="J15" s="196">
+        <f t="shared" si="5"/>
         <v>0.11</v>
       </c>
-      <c r="K15" s="205">
+      <c r="K15" s="199">
         <v>79</v>
       </c>
-      <c r="L15" s="208">
+      <c r="L15" s="202">
         <f>1-(K15-SUM(F15:F17))/K15</f>
         <v>0.94936708860759489</v>
       </c>
-      <c r="M15" s="206">
+      <c r="M15" s="200">
         <v>37</v>
       </c>
-      <c r="N15" s="206">
+      <c r="N15" s="200">
         <v>3</v>
       </c>
-      <c r="O15" s="207">
+      <c r="O15" s="201">
         <f>SUM(K15:N17)</f>
         <v>190.9493670886076</v>
       </c>
-      <c r="P15" s="199">
+      <c r="P15" s="196">
         <f>O15/(800*3)</f>
         <v>7.956223628691983E-2</v>
       </c>
@@ -24842,27 +24842,27 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="197">
+      <c r="F16" s="194">
         <v>19</v>
       </c>
-      <c r="G16" s="198">
+      <c r="G16" s="195">
         <v>36</v>
       </c>
-      <c r="H16" s="198">
+      <c r="H16" s="195">
         <v>5</v>
       </c>
-      <c r="I16" s="198">
-        <f t="shared" si="1"/>
+      <c r="I16" s="195">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="J16" s="199">
-        <f t="shared" si="3"/>
+      <c r="J16" s="196">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M16" s="206">
+      <c r="M16" s="200">
         <v>33</v>
       </c>
-      <c r="N16" s="206">
+      <c r="N16" s="200">
         <v>3</v>
       </c>
     </row>
@@ -24882,27 +24882,27 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="197">
+      <c r="F17" s="194">
         <v>28</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="195">
         <v>40</v>
       </c>
-      <c r="H17" s="198">
+      <c r="H17" s="195">
         <v>15</v>
       </c>
-      <c r="I17" s="198">
-        <f t="shared" si="1"/>
+      <c r="I17" s="195">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="J17" s="199">
-        <f t="shared" si="3"/>
+      <c r="J17" s="196">
+        <f t="shared" si="5"/>
         <v>0.10375</v>
       </c>
-      <c r="M17" s="206">
+      <c r="M17" s="200">
         <v>28</v>
       </c>
-      <c r="N17" s="206">
+      <c r="N17" s="200">
         <v>7</v>
       </c>
     </row>
@@ -24922,41 +24922,41 @@
       <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="197">
+      <c r="F18" s="194">
         <v>4</v>
       </c>
-      <c r="G18" s="198">
+      <c r="G18" s="195">
         <v>108</v>
       </c>
-      <c r="H18" s="198">
+      <c r="H18" s="195">
         <v>3</v>
       </c>
-      <c r="I18" s="198">
-        <f t="shared" si="1"/>
+      <c r="I18" s="195">
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="J18" s="199">
-        <f t="shared" si="3"/>
+      <c r="J18" s="196">
+        <f t="shared" si="5"/>
         <v>0.14374999999999999</v>
       </c>
-      <c r="K18" s="205">
+      <c r="K18" s="199">
         <v>24</v>
       </c>
-      <c r="L18" s="208">
+      <c r="L18" s="202">
         <f>1-(K18-SUM(F18:F20))/K18</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="M18" s="206">
+      <c r="M18" s="200">
         <v>68</v>
       </c>
-      <c r="N18" s="206">
+      <c r="N18" s="200">
         <v>1</v>
       </c>
-      <c r="O18" s="207">
+      <c r="O18" s="201">
         <f>SUM(K18:N20)</f>
         <v>295.91666666666669</v>
       </c>
-      <c r="P18" s="199">
+      <c r="P18" s="196">
         <f>O18/(800*3)</f>
         <v>0.12329861111111112</v>
       </c>
@@ -24977,27 +24977,27 @@
       <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="197">
+      <c r="F19" s="194">
         <v>16</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="195">
         <v>146</v>
       </c>
-      <c r="H19" s="198">
+      <c r="H19" s="195">
         <v>4</v>
       </c>
-      <c r="I19" s="198">
-        <f t="shared" si="1"/>
+      <c r="I19" s="195">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="J19" s="199">
-        <f t="shared" si="3"/>
+      <c r="J19" s="196">
+        <f t="shared" si="5"/>
         <v>0.20749999999999999</v>
       </c>
-      <c r="M19" s="206">
+      <c r="M19" s="200">
         <v>107</v>
       </c>
-      <c r="N19" s="206">
+      <c r="N19" s="200">
         <v>3</v>
       </c>
     </row>
@@ -25017,27 +25017,27 @@
       <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="197">
+      <c r="F20" s="194">
         <v>2</v>
       </c>
-      <c r="G20" s="198">
+      <c r="G20" s="195">
         <v>143</v>
       </c>
-      <c r="H20" s="198">
+      <c r="H20" s="195">
         <v>1</v>
       </c>
-      <c r="I20" s="198">
-        <f t="shared" si="1"/>
+      <c r="I20" s="195">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="J20" s="199">
-        <f t="shared" si="3"/>
+      <c r="J20" s="196">
+        <f t="shared" si="5"/>
         <v>0.1825</v>
       </c>
-      <c r="M20" s="206">
+      <c r="M20" s="200">
         <v>92</v>
       </c>
-      <c r="N20" s="206">
+      <c r="N20" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25057,41 +25057,41 @@
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="197">
+      <c r="F21" s="194">
         <v>5</v>
       </c>
-      <c r="G21" s="198">
+      <c r="G21" s="195">
         <v>49</v>
       </c>
-      <c r="H21" s="198">
+      <c r="H21" s="195">
         <v>15</v>
       </c>
-      <c r="I21" s="198">
-        <f t="shared" si="1"/>
+      <c r="I21" s="195">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="J21" s="199">
-        <f t="shared" si="3"/>
+      <c r="J21" s="196">
+        <f t="shared" si="5"/>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="K21" s="205">
+      <c r="K21" s="199">
         <v>25</v>
       </c>
-      <c r="L21" s="208">
+      <c r="L21" s="202">
         <f>1-(K21-SUM(F21:F23))/K21</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="M21" s="206">
+      <c r="M21" s="200">
         <v>19</v>
       </c>
-      <c r="N21" s="206">
+      <c r="N21" s="200">
         <v>6</v>
       </c>
-      <c r="O21" s="207">
+      <c r="O21" s="201">
         <f>SUM(K21:N23)</f>
         <v>75.56</v>
       </c>
-      <c r="P21" s="199">
+      <c r="P21" s="196">
         <f>O21/(800*3)</f>
         <v>3.1483333333333335E-2</v>
       </c>
@@ -25112,27 +25112,27 @@
       <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="197">
+      <c r="F22" s="194">
         <v>5</v>
       </c>
-      <c r="G22" s="198">
+      <c r="G22" s="195">
         <v>22</v>
       </c>
-      <c r="H22" s="198">
+      <c r="H22" s="195">
         <v>6</v>
       </c>
-      <c r="I22" s="198">
-        <f t="shared" si="1"/>
+      <c r="I22" s="195">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="J22" s="199">
-        <f t="shared" si="3"/>
+      <c r="J22" s="196">
+        <f t="shared" si="5"/>
         <v>4.1250000000000002E-2</v>
       </c>
-      <c r="M22" s="206">
+      <c r="M22" s="200">
         <v>13</v>
       </c>
-      <c r="N22" s="206">
+      <c r="N22" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25152,27 +25152,27 @@
       <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="197">
+      <c r="F23" s="194">
         <v>4</v>
       </c>
-      <c r="G23" s="198">
+      <c r="G23" s="195">
         <v>19</v>
       </c>
-      <c r="H23" s="198">
+      <c r="H23" s="195">
         <v>4</v>
       </c>
-      <c r="I23" s="198">
-        <f t="shared" si="1"/>
+      <c r="I23" s="195">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="J23" s="199">
-        <f t="shared" si="3"/>
+      <c r="J23" s="196">
+        <f t="shared" si="5"/>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="M23" s="206">
+      <c r="M23" s="200">
         <v>11</v>
       </c>
-      <c r="N23" s="206">
+      <c r="N23" s="200">
         <v>1</v>
       </c>
     </row>
@@ -25192,41 +25192,41 @@
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="197">
-        <v>0</v>
-      </c>
-      <c r="G24" s="198">
+      <c r="F24" s="194">
+        <v>0</v>
+      </c>
+      <c r="G24" s="195">
         <v>2</v>
       </c>
-      <c r="H24" s="198">
-        <v>0</v>
-      </c>
-      <c r="I24" s="198">
-        <f t="shared" si="1"/>
+      <c r="H24" s="195">
+        <v>0</v>
+      </c>
+      <c r="I24" s="195">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J24" s="199">
-        <f t="shared" si="3"/>
+      <c r="J24" s="196">
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K24" s="205">
+      <c r="K24" s="199">
         <v>3</v>
       </c>
-      <c r="L24" s="208">
+      <c r="L24" s="202">
         <f>1-(K24-SUM(F24:F26))/K24</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="M24" s="206">
+      <c r="M24" s="200">
         <v>2</v>
       </c>
-      <c r="N24" s="206">
-        <v>0</v>
-      </c>
-      <c r="O24" s="207">
+      <c r="N24" s="200">
+        <v>0</v>
+      </c>
+      <c r="O24" s="201">
         <f>SUM(K24:N26)</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="P24" s="199">
+      <c r="P24" s="196">
         <f>O24/(800*3)</f>
         <v>3.8888888888888892E-3</v>
       </c>
@@ -25247,27 +25247,27 @@
       <c r="E25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="197">
-        <v>0</v>
-      </c>
-      <c r="G25" s="198">
-        <v>0</v>
-      </c>
-      <c r="H25" s="198">
-        <v>0</v>
-      </c>
-      <c r="I25" s="198">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="199">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="206">
-        <v>0</v>
-      </c>
-      <c r="N25" s="206">
+      <c r="F25" s="194">
+        <v>0</v>
+      </c>
+      <c r="G25" s="195">
+        <v>0</v>
+      </c>
+      <c r="H25" s="195">
+        <v>0</v>
+      </c>
+      <c r="I25" s="195">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="196">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="200">
+        <v>0</v>
+      </c>
+      <c r="N25" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25287,27 +25287,27 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="197">
+      <c r="F26" s="194">
         <v>1</v>
       </c>
-      <c r="G26" s="198">
+      <c r="G26" s="195">
         <v>3</v>
       </c>
-      <c r="H26" s="198">
-        <v>0</v>
-      </c>
-      <c r="I26" s="198">
-        <f t="shared" si="1"/>
+      <c r="H26" s="195">
+        <v>0</v>
+      </c>
+      <c r="I26" s="195">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J26" s="199">
-        <f t="shared" si="3"/>
+      <c r="J26" s="196">
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M26" s="206">
+      <c r="M26" s="200">
         <v>3</v>
       </c>
-      <c r="N26" s="206">
+      <c r="N26" s="200">
         <v>1</v>
       </c>
     </row>
@@ -25327,41 +25327,41 @@
       <c r="E27" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="197">
+      <c r="F27" s="194">
         <v>1</v>
       </c>
-      <c r="G27" s="198">
+      <c r="G27" s="195">
         <v>8</v>
       </c>
-      <c r="H27" s="198">
-        <v>0</v>
-      </c>
-      <c r="I27" s="198">
-        <f t="shared" si="1"/>
+      <c r="H27" s="195">
+        <v>0</v>
+      </c>
+      <c r="I27" s="195">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J27" s="199">
-        <f t="shared" si="3"/>
+      <c r="J27" s="196">
+        <f t="shared" si="5"/>
         <v>1.125E-2</v>
       </c>
-      <c r="K27" s="205">
+      <c r="K27" s="199">
         <v>6</v>
       </c>
-      <c r="L27" s="208">
+      <c r="L27" s="202">
         <f>1-(K27-SUM(F27:F29))/K27</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M27" s="206">
+      <c r="M27" s="200">
         <v>4</v>
       </c>
-      <c r="N27" s="206">
-        <v>0</v>
-      </c>
-      <c r="O27" s="207">
+      <c r="N27" s="200">
+        <v>0</v>
+      </c>
+      <c r="O27" s="201">
         <f>SUM(K27:N29)</f>
         <v>26.833333333333332</v>
       </c>
-      <c r="P27" s="199">
+      <c r="P27" s="196">
         <f>O27/(800*3)</f>
         <v>1.1180555555555555E-2</v>
       </c>
@@ -25382,27 +25382,27 @@
       <c r="E28" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="197">
+      <c r="F28" s="194">
         <v>2</v>
       </c>
-      <c r="G28" s="198">
+      <c r="G28" s="195">
         <v>4</v>
       </c>
-      <c r="H28" s="198">
-        <v>0</v>
-      </c>
-      <c r="I28" s="198">
-        <f t="shared" si="1"/>
+      <c r="H28" s="195">
+        <v>0</v>
+      </c>
+      <c r="I28" s="195">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J28" s="199">
-        <f t="shared" si="3"/>
+      <c r="J28" s="196">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="M28" s="206">
+      <c r="M28" s="200">
         <v>4</v>
       </c>
-      <c r="N28" s="206">
+      <c r="N28" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25422,27 +25422,27 @@
       <c r="E29" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="197">
+      <c r="F29" s="194">
         <v>2</v>
       </c>
-      <c r="G29" s="198">
+      <c r="G29" s="195">
         <v>17</v>
       </c>
-      <c r="H29" s="198">
-        <v>0</v>
-      </c>
-      <c r="I29" s="198">
-        <f t="shared" si="1"/>
+      <c r="H29" s="195">
+        <v>0</v>
+      </c>
+      <c r="I29" s="195">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="J29" s="199">
-        <f t="shared" si="3"/>
+      <c r="J29" s="196">
+        <f t="shared" si="5"/>
         <v>2.375E-2</v>
       </c>
-      <c r="M29" s="206">
+      <c r="M29" s="200">
         <v>12</v>
       </c>
-      <c r="N29" s="206">
+      <c r="N29" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25462,41 +25462,41 @@
       <c r="E30" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="197">
+      <c r="F30" s="194">
         <v>2</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G30" s="195">
         <v>33</v>
       </c>
-      <c r="H30" s="198">
+      <c r="H30" s="195">
         <v>1</v>
       </c>
-      <c r="I30" s="198">
-        <f t="shared" si="1"/>
+      <c r="I30" s="195">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J30" s="199">
-        <f t="shared" si="3"/>
+      <c r="J30" s="196">
+        <f t="shared" si="5"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K30" s="205">
+      <c r="K30" s="199">
         <v>8</v>
       </c>
-      <c r="L30" s="208">
+      <c r="L30" s="202">
         <f>1-(K30-SUM(F30:F32))/K30</f>
         <v>0.25</v>
       </c>
-      <c r="M30" s="206">
+      <c r="M30" s="200">
         <v>27</v>
       </c>
-      <c r="N30" s="206">
-        <v>0</v>
-      </c>
-      <c r="O30" s="207">
+      <c r="N30" s="200">
+        <v>0</v>
+      </c>
+      <c r="O30" s="201">
         <f>SUM(K30:N32)</f>
         <v>48.25</v>
       </c>
-      <c r="P30" s="199">
+      <c r="P30" s="196">
         <f>O30/(800*3)</f>
         <v>2.0104166666666666E-2</v>
       </c>
@@ -25517,27 +25517,27 @@
       <c r="E31" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="197">
-        <v>0</v>
-      </c>
-      <c r="G31" s="198">
+      <c r="F31" s="194">
+        <v>0</v>
+      </c>
+      <c r="G31" s="195">
         <v>5</v>
       </c>
-      <c r="H31" s="198">
+      <c r="H31" s="195">
         <v>2</v>
       </c>
-      <c r="I31" s="198">
-        <f t="shared" si="1"/>
+      <c r="I31" s="195">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J31" s="199">
-        <f t="shared" si="3"/>
+      <c r="J31" s="196">
+        <f t="shared" si="5"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="M31" s="206">
+      <c r="M31" s="200">
         <v>5</v>
       </c>
-      <c r="N31" s="206">
+      <c r="N31" s="200">
         <v>1</v>
       </c>
     </row>
@@ -25557,27 +25557,27 @@
       <c r="E32" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="197">
-        <v>0</v>
-      </c>
-      <c r="G32" s="198">
+      <c r="F32" s="194">
+        <v>0</v>
+      </c>
+      <c r="G32" s="195">
         <v>5</v>
       </c>
-      <c r="H32" s="198">
+      <c r="H32" s="195">
         <v>1</v>
       </c>
-      <c r="I32" s="198">
-        <f t="shared" si="1"/>
+      <c r="I32" s="195">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J32" s="199">
-        <f t="shared" si="3"/>
+      <c r="J32" s="196">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="M32" s="206">
+      <c r="M32" s="200">
         <v>7</v>
       </c>
-      <c r="N32" s="206">
+      <c r="N32" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25597,41 +25597,41 @@
       <c r="E33" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="197">
+      <c r="F33" s="194">
         <v>1</v>
       </c>
-      <c r="G33" s="198">
+      <c r="G33" s="195">
         <v>93</v>
       </c>
-      <c r="H33" s="198">
+      <c r="H33" s="195">
         <v>8</v>
       </c>
-      <c r="I33" s="198">
-        <f t="shared" si="1"/>
+      <c r="I33" s="195">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="J33" s="199">
-        <f t="shared" si="3"/>
+      <c r="J33" s="196">
+        <f t="shared" si="5"/>
         <v>0.1275</v>
       </c>
-      <c r="K33" s="205">
+      <c r="K33" s="199">
         <v>20</v>
       </c>
-      <c r="L33" s="208">
+      <c r="L33" s="202">
         <f>1-(K33-SUM(F33:F35))/K33</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="M33" s="206">
+      <c r="M33" s="200">
         <v>66</v>
       </c>
-      <c r="N33" s="206">
-        <v>0</v>
-      </c>
-      <c r="O33" s="207">
+      <c r="N33" s="200">
+        <v>0</v>
+      </c>
+      <c r="O33" s="201">
         <f>SUM(K33:N35)</f>
         <v>139.1</v>
       </c>
-      <c r="P33" s="199">
+      <c r="P33" s="196">
         <f>O33/(800*3)</f>
         <v>5.7958333333333334E-2</v>
       </c>
@@ -25652,27 +25652,27 @@
       <c r="E34" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="197">
+      <c r="F34" s="194">
         <v>1</v>
       </c>
-      <c r="G34" s="198">
+      <c r="G34" s="195">
         <v>65</v>
       </c>
-      <c r="H34" s="198">
+      <c r="H34" s="195">
         <v>30</v>
       </c>
-      <c r="I34" s="198">
-        <f t="shared" si="1"/>
+      <c r="I34" s="195">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="J34" s="199">
-        <f t="shared" si="3"/>
+      <c r="J34" s="196">
+        <f t="shared" si="5"/>
         <v>0.12</v>
       </c>
-      <c r="M34" s="206">
+      <c r="M34" s="200">
         <v>40</v>
       </c>
-      <c r="N34" s="206">
+      <c r="N34" s="200">
         <v>1</v>
       </c>
     </row>
@@ -25692,27 +25692,27 @@
       <c r="E35" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="197">
-        <v>0</v>
-      </c>
-      <c r="G35" s="198">
+      <c r="F35" s="194">
+        <v>0</v>
+      </c>
+      <c r="G35" s="195">
         <v>39</v>
       </c>
-      <c r="H35" s="198">
+      <c r="H35" s="195">
         <v>4</v>
       </c>
-      <c r="I35" s="198">
-        <f t="shared" si="1"/>
+      <c r="I35" s="195">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="J35" s="199">
-        <f t="shared" si="3"/>
+      <c r="J35" s="196">
+        <f t="shared" si="5"/>
         <v>5.3749999999999999E-2</v>
       </c>
-      <c r="M35" s="206">
+      <c r="M35" s="200">
         <v>12</v>
       </c>
-      <c r="N35" s="206">
+      <c r="N35" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25732,41 +25732,41 @@
       <c r="E36" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="197">
+      <c r="F36" s="194">
         <v>1</v>
       </c>
-      <c r="G36" s="198">
+      <c r="G36" s="195">
         <v>4</v>
       </c>
-      <c r="H36" s="198">
+      <c r="H36" s="195">
         <v>1</v>
       </c>
-      <c r="I36" s="198">
-        <f t="shared" si="1"/>
+      <c r="I36" s="195">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J36" s="199">
-        <f t="shared" si="3"/>
+      <c r="J36" s="196">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K36" s="205">
+      <c r="K36" s="199">
         <v>2</v>
       </c>
-      <c r="L36" s="208">
+      <c r="L36" s="202">
         <f>1-(K36-SUM(F36:F38))/K36</f>
         <v>1</v>
       </c>
-      <c r="M36" s="206">
+      <c r="M36" s="200">
         <v>3</v>
       </c>
-      <c r="N36" s="206">
-        <v>0</v>
-      </c>
-      <c r="O36" s="207">
+      <c r="N36" s="200">
+        <v>0</v>
+      </c>
+      <c r="O36" s="201">
         <f>SUM(K36:N38)</f>
         <v>23</v>
       </c>
-      <c r="P36" s="199">
+      <c r="P36" s="196">
         <f>O36/(800*3)</f>
         <v>9.5833333333333326E-3</v>
       </c>
@@ -25787,27 +25787,27 @@
       <c r="E37" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="197">
-        <v>0</v>
-      </c>
-      <c r="G37" s="198">
+      <c r="F37" s="194">
+        <v>0</v>
+      </c>
+      <c r="G37" s="195">
         <v>12</v>
       </c>
-      <c r="H37" s="198">
-        <v>0</v>
-      </c>
-      <c r="I37" s="198">
-        <f t="shared" si="1"/>
+      <c r="H37" s="195">
+        <v>0</v>
+      </c>
+      <c r="I37" s="195">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J37" s="199">
-        <f t="shared" si="3"/>
+      <c r="J37" s="196">
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M37" s="206">
+      <c r="M37" s="200">
         <v>15</v>
       </c>
-      <c r="N37" s="206">
+      <c r="N37" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25827,27 +25827,27 @@
       <c r="E38" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="197">
+      <c r="F38" s="194">
         <v>1</v>
       </c>
-      <c r="G38" s="198">
+      <c r="G38" s="195">
         <v>5</v>
       </c>
-      <c r="H38" s="198">
-        <v>0</v>
-      </c>
-      <c r="I38" s="198">
-        <f t="shared" si="1"/>
+      <c r="H38" s="195">
+        <v>0</v>
+      </c>
+      <c r="I38" s="195">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J38" s="199">
-        <f t="shared" si="3"/>
+      <c r="J38" s="196">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="M38" s="206">
+      <c r="M38" s="200">
         <v>2</v>
       </c>
-      <c r="N38" s="206">
+      <c r="N38" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25867,41 +25867,41 @@
       <c r="E39" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="197">
+      <c r="F39" s="194">
         <v>1</v>
       </c>
-      <c r="G39" s="198">
+      <c r="G39" s="195">
         <v>88</v>
       </c>
-      <c r="H39" s="198">
-        <v>0</v>
-      </c>
-      <c r="I39" s="198">
-        <f t="shared" si="1"/>
+      <c r="H39" s="195">
+        <v>0</v>
+      </c>
+      <c r="I39" s="195">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="J39" s="199">
-        <f t="shared" si="3"/>
+      <c r="J39" s="196">
+        <f t="shared" si="5"/>
         <v>0.11125</v>
       </c>
-      <c r="K39" s="205">
+      <c r="K39" s="199">
         <v>5</v>
       </c>
-      <c r="L39" s="208">
+      <c r="L39" s="202">
         <f>1-(K39-SUM(F39:F41))/K39</f>
         <v>0.6</v>
       </c>
-      <c r="M39" s="206">
+      <c r="M39" s="200">
         <v>57</v>
       </c>
-      <c r="N39" s="206">
-        <v>0</v>
-      </c>
-      <c r="O39" s="207">
+      <c r="N39" s="200">
+        <v>0</v>
+      </c>
+      <c r="O39" s="201">
         <f>SUM(K39:N41)</f>
         <v>130.6</v>
       </c>
-      <c r="P39" s="199">
+      <c r="P39" s="196">
         <f>O39/(800*3)</f>
         <v>5.4416666666666662E-2</v>
       </c>
@@ -25922,27 +25922,27 @@
       <c r="E40" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="197">
+      <c r="F40" s="194">
         <v>2</v>
       </c>
-      <c r="G40" s="198">
+      <c r="G40" s="195">
         <v>103</v>
       </c>
-      <c r="H40" s="198">
+      <c r="H40" s="195">
         <v>4</v>
       </c>
-      <c r="I40" s="198">
-        <f t="shared" si="1"/>
+      <c r="I40" s="195">
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="J40" s="199">
-        <f t="shared" si="3"/>
+      <c r="J40" s="196">
+        <f t="shared" si="5"/>
         <v>0.13625000000000001</v>
       </c>
-      <c r="M40" s="206">
+      <c r="M40" s="200">
         <v>67</v>
       </c>
-      <c r="N40" s="206">
+      <c r="N40" s="200">
         <v>0</v>
       </c>
     </row>
@@ -25962,27 +25962,27 @@
       <c r="E41" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="197">
-        <v>0</v>
-      </c>
-      <c r="G41" s="198">
+      <c r="F41" s="194">
+        <v>0</v>
+      </c>
+      <c r="G41" s="195">
         <v>1</v>
       </c>
-      <c r="H41" s="198">
-        <v>0</v>
-      </c>
-      <c r="I41" s="198">
-        <f t="shared" si="1"/>
+      <c r="H41" s="195">
+        <v>0</v>
+      </c>
+      <c r="I41" s="195">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J41" s="199">
-        <f t="shared" si="3"/>
+      <c r="J41" s="196">
+        <f t="shared" si="5"/>
         <v>1.25E-3</v>
       </c>
-      <c r="M41" s="206">
+      <c r="M41" s="200">
         <v>1</v>
       </c>
-      <c r="N41" s="206">
+      <c r="N41" s="200">
         <v>0</v>
       </c>
     </row>
@@ -26002,41 +26002,41 @@
       <c r="E42" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="197">
+      <c r="F42" s="194">
         <v>13</v>
       </c>
-      <c r="G42" s="198">
+      <c r="G42" s="195">
         <v>82</v>
       </c>
-      <c r="H42" s="198">
+      <c r="H42" s="195">
         <v>6</v>
       </c>
-      <c r="I42" s="198">
-        <f t="shared" si="1"/>
+      <c r="I42" s="195">
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="J42" s="199">
-        <f t="shared" si="3"/>
+      <c r="J42" s="196">
+        <f t="shared" si="5"/>
         <v>0.12625</v>
       </c>
-      <c r="K42" s="205">
+      <c r="K42" s="199">
         <v>55</v>
       </c>
-      <c r="L42" s="208">
+      <c r="L42" s="202">
         <f>1-(K42-SUM(F42:F44))/K42</f>
         <v>0.65454545454545454</v>
       </c>
-      <c r="M42" s="206">
+      <c r="M42" s="200">
         <v>73</v>
       </c>
-      <c r="N42" s="206">
-        <v>0</v>
-      </c>
-      <c r="O42" s="207">
+      <c r="N42" s="200">
+        <v>0</v>
+      </c>
+      <c r="O42" s="201">
         <f>SUM(K42:N44)</f>
         <v>316.65454545454543</v>
       </c>
-      <c r="P42" s="199">
+      <c r="P42" s="196">
         <f>O42/(800*3)</f>
         <v>0.13193939393939394</v>
       </c>
@@ -26057,27 +26057,27 @@
       <c r="E43" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="197">
+      <c r="F43" s="194">
         <v>8</v>
       </c>
-      <c r="G43" s="198">
+      <c r="G43" s="195">
         <v>78</v>
       </c>
-      <c r="H43" s="198">
+      <c r="H43" s="195">
         <v>5</v>
       </c>
-      <c r="I43" s="198">
-        <f t="shared" si="1"/>
+      <c r="I43" s="195">
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="J43" s="199">
-        <f t="shared" si="3"/>
+      <c r="J43" s="196">
+        <f t="shared" si="5"/>
         <v>0.11375</v>
       </c>
-      <c r="M43" s="206">
+      <c r="M43" s="200">
         <v>70</v>
       </c>
-      <c r="N43" s="206">
+      <c r="N43" s="200">
         <v>1</v>
       </c>
     </row>
@@ -26097,27 +26097,27 @@
       <c r="E44" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="197">
+      <c r="F44" s="194">
         <v>15</v>
       </c>
-      <c r="G44" s="198">
+      <c r="G44" s="195">
         <v>113</v>
       </c>
-      <c r="H44" s="198">
+      <c r="H44" s="195">
         <v>13</v>
       </c>
-      <c r="I44" s="198">
-        <f t="shared" si="1"/>
+      <c r="I44" s="195">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="J44" s="199">
-        <f t="shared" si="3"/>
+      <c r="J44" s="196">
+        <f t="shared" si="5"/>
         <v>0.17624999999999999</v>
       </c>
-      <c r="M44" s="206">
+      <c r="M44" s="200">
         <v>115</v>
       </c>
-      <c r="N44" s="206">
+      <c r="N44" s="200">
         <v>2</v>
       </c>
     </row>
@@ -26137,41 +26137,41 @@
       <c r="E45" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="197">
+      <c r="F45" s="194">
         <v>2</v>
       </c>
-      <c r="G45" s="198">
+      <c r="G45" s="195">
         <v>69</v>
       </c>
-      <c r="H45" s="198">
+      <c r="H45" s="195">
         <v>11</v>
       </c>
-      <c r="I45" s="198">
-        <f t="shared" si="1"/>
+      <c r="I45" s="195">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="J45" s="199">
-        <f t="shared" si="3"/>
+      <c r="J45" s="196">
+        <f t="shared" si="5"/>
         <v>0.10249999999999999</v>
       </c>
-      <c r="K45" s="205">
+      <c r="K45" s="199">
         <v>16</v>
       </c>
-      <c r="L45" s="208">
+      <c r="L45" s="202">
         <f>1-(K45-SUM(F45:F47))/K45</f>
         <v>0.375</v>
       </c>
-      <c r="M45" s="206">
+      <c r="M45" s="200">
         <v>58</v>
       </c>
-      <c r="N45" s="206">
+      <c r="N45" s="200">
         <v>5</v>
       </c>
-      <c r="O45" s="207">
+      <c r="O45" s="201">
         <f>SUM(K45:N47)</f>
         <v>188.375</v>
       </c>
-      <c r="P45" s="199">
+      <c r="P45" s="196">
         <f>O45/(800*3)</f>
         <v>7.8489583333333335E-2</v>
       </c>
@@ -26192,27 +26192,27 @@
       <c r="E46" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="197">
+      <c r="F46" s="194">
         <v>3</v>
       </c>
-      <c r="G46" s="198">
+      <c r="G46" s="195">
         <v>48</v>
       </c>
-      <c r="H46" s="198">
+      <c r="H46" s="195">
         <v>6</v>
       </c>
-      <c r="I46" s="198">
-        <f t="shared" si="1"/>
+      <c r="I46" s="195">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J46" s="199">
-        <f t="shared" si="3"/>
+      <c r="J46" s="196">
+        <f t="shared" si="5"/>
         <v>7.1249999999999994E-2</v>
       </c>
-      <c r="M46" s="206">
+      <c r="M46" s="200">
         <v>49</v>
       </c>
-      <c r="N46" s="206">
+      <c r="N46" s="200">
         <v>5</v>
       </c>
     </row>
@@ -26232,27 +26232,27 @@
       <c r="E47" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="197">
+      <c r="F47" s="194">
         <v>1</v>
       </c>
-      <c r="G47" s="198">
+      <c r="G47" s="195">
         <v>60</v>
       </c>
-      <c r="H47" s="198">
+      <c r="H47" s="195">
         <v>3</v>
       </c>
-      <c r="I47" s="198">
-        <f t="shared" si="1"/>
+      <c r="I47" s="195">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="J47" s="199">
-        <f t="shared" si="3"/>
+      <c r="J47" s="196">
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
-      <c r="M47" s="206">
+      <c r="M47" s="200">
         <v>52</v>
       </c>
-      <c r="N47" s="206">
+      <c r="N47" s="200">
         <v>3</v>
       </c>
     </row>
@@ -26272,41 +26272,41 @@
       <c r="E48" t="s">
         <v>61</v>
       </c>
-      <c r="F48" s="197">
+      <c r="F48" s="194">
         <v>27</v>
       </c>
-      <c r="G48" s="198">
+      <c r="G48" s="195">
         <v>120</v>
       </c>
-      <c r="H48" s="198">
+      <c r="H48" s="195">
         <v>20</v>
       </c>
-      <c r="I48" s="198">
-        <f t="shared" si="1"/>
+      <c r="I48" s="195">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="J48" s="199">
-        <f t="shared" si="3"/>
+      <c r="J48" s="196">
+        <f t="shared" si="5"/>
         <v>0.20874999999999999</v>
       </c>
-      <c r="K48" s="205">
+      <c r="K48" s="199">
         <v>75</v>
       </c>
-      <c r="L48" s="208">
+      <c r="L48" s="202">
         <f>1-(K48-SUM(F48:F50))/K48</f>
         <v>0.96</v>
       </c>
-      <c r="M48" s="206">
+      <c r="M48" s="200">
         <v>121</v>
       </c>
-      <c r="N48" s="206">
+      <c r="N48" s="200">
         <v>13</v>
       </c>
-      <c r="O48" s="207">
+      <c r="O48" s="201">
         <f>SUM(K48:N50)</f>
         <v>741.96</v>
       </c>
-      <c r="P48" s="199">
+      <c r="P48" s="196">
         <f>O48/(800*3)</f>
         <v>0.30915000000000004</v>
       </c>
@@ -26327,27 +26327,27 @@
       <c r="E49" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="197">
+      <c r="F49" s="194">
         <v>22</v>
       </c>
-      <c r="G49" s="198">
+      <c r="G49" s="195">
         <v>254</v>
       </c>
-      <c r="H49" s="198">
+      <c r="H49" s="195">
         <v>21</v>
       </c>
-      <c r="I49" s="198">
-        <f t="shared" si="1"/>
+      <c r="I49" s="195">
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
-      <c r="J49" s="199">
-        <f t="shared" si="3"/>
+      <c r="J49" s="196">
+        <f t="shared" si="5"/>
         <v>0.37125000000000002</v>
       </c>
-      <c r="M49" s="206">
+      <c r="M49" s="200">
         <v>233</v>
       </c>
-      <c r="N49" s="206">
+      <c r="N49" s="200">
         <v>17</v>
       </c>
     </row>
@@ -26367,27 +26367,27 @@
       <c r="E50" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="197">
+      <c r="F50" s="194">
         <v>23</v>
       </c>
-      <c r="G50" s="198">
+      <c r="G50" s="195">
         <v>288</v>
       </c>
-      <c r="H50" s="198">
+      <c r="H50" s="195">
         <v>16</v>
       </c>
-      <c r="I50" s="198">
-        <f t="shared" si="1"/>
+      <c r="I50" s="195">
+        <f t="shared" si="2"/>
         <v>327</v>
       </c>
-      <c r="J50" s="199">
-        <f t="shared" si="3"/>
+      <c r="J50" s="196">
+        <f t="shared" si="5"/>
         <v>0.40875</v>
       </c>
-      <c r="M50" s="206">
+      <c r="M50" s="200">
         <v>268</v>
       </c>
-      <c r="N50" s="206">
+      <c r="N50" s="200">
         <v>14</v>
       </c>
     </row>
@@ -26407,41 +26407,41 @@
       <c r="E51" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="197">
-        <v>0</v>
-      </c>
-      <c r="G51" s="198">
+      <c r="F51" s="194">
+        <v>0</v>
+      </c>
+      <c r="G51" s="195">
         <v>40</v>
       </c>
-      <c r="H51" s="198">
+      <c r="H51" s="195">
         <v>3</v>
       </c>
-      <c r="I51" s="198">
-        <f t="shared" si="1"/>
+      <c r="I51" s="195">
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="J51" s="199">
-        <f t="shared" si="3"/>
+      <c r="J51" s="196">
+        <f t="shared" si="5"/>
         <v>5.3749999999999999E-2</v>
       </c>
-      <c r="K51" s="205">
+      <c r="K51" s="199">
         <v>3</v>
       </c>
-      <c r="L51" s="208">
+      <c r="L51" s="202">
         <f>1-(K51-SUM(F51:F53))/K51</f>
         <v>1</v>
       </c>
-      <c r="M51" s="206">
+      <c r="M51" s="200">
         <v>50</v>
       </c>
-      <c r="N51" s="206">
+      <c r="N51" s="200">
         <v>2</v>
       </c>
-      <c r="O51" s="207">
+      <c r="O51" s="201">
         <f>SUM(K51:N53)</f>
         <v>112</v>
       </c>
-      <c r="P51" s="199">
+      <c r="P51" s="196">
         <f>O51/(800*3)</f>
         <v>4.6666666666666669E-2</v>
       </c>
@@ -26462,27 +26462,27 @@
       <c r="E52" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="197">
+      <c r="F52" s="194">
         <v>1</v>
       </c>
-      <c r="G52" s="198">
+      <c r="G52" s="195">
         <v>28</v>
       </c>
-      <c r="H52" s="198">
+      <c r="H52" s="195">
         <v>3</v>
       </c>
-      <c r="I52" s="198">
-        <f t="shared" si="1"/>
+      <c r="I52" s="195">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="J52" s="199">
-        <f t="shared" si="3"/>
+      <c r="J52" s="196">
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
-      <c r="M52" s="206">
+      <c r="M52" s="200">
         <v>24</v>
       </c>
-      <c r="N52" s="206">
+      <c r="N52" s="200">
         <v>3</v>
       </c>
     </row>
@@ -26502,27 +26502,27 @@
       <c r="E53" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="197">
+      <c r="F53" s="194">
         <v>2</v>
       </c>
-      <c r="G53" s="198">
+      <c r="G53" s="195">
         <v>24</v>
       </c>
-      <c r="H53" s="198">
-        <v>0</v>
-      </c>
-      <c r="I53" s="198">
-        <f t="shared" si="1"/>
+      <c r="H53" s="195">
+        <v>0</v>
+      </c>
+      <c r="I53" s="195">
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="J53" s="199">
-        <f t="shared" si="3"/>
+      <c r="J53" s="196">
+        <f t="shared" si="5"/>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="M53" s="206">
+      <c r="M53" s="200">
         <v>28</v>
       </c>
-      <c r="N53" s="206">
+      <c r="N53" s="200">
         <v>1</v>
       </c>
     </row>
@@ -26542,41 +26542,41 @@
       <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="197">
+      <c r="F54" s="194">
         <v>3</v>
       </c>
-      <c r="G54" s="198">
+      <c r="G54" s="195">
         <v>37</v>
       </c>
-      <c r="H54" s="198">
+      <c r="H54" s="195">
         <v>2</v>
       </c>
-      <c r="I54" s="198">
-        <f t="shared" si="1"/>
+      <c r="I54" s="195">
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="J54" s="199">
-        <f t="shared" si="3"/>
+      <c r="J54" s="196">
+        <f t="shared" si="5"/>
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="K54" s="205">
+      <c r="K54" s="199">
         <v>5</v>
       </c>
-      <c r="L54" s="208">
+      <c r="L54" s="202">
         <f>1-(K54-SUM(F54:F56))/K54</f>
         <v>1</v>
       </c>
-      <c r="M54" s="206">
+      <c r="M54" s="200">
         <v>38</v>
       </c>
-      <c r="N54" s="206">
+      <c r="N54" s="200">
         <v>1</v>
       </c>
-      <c r="O54" s="207">
+      <c r="O54" s="201">
         <f>SUM(K54:N56)</f>
         <v>112</v>
       </c>
-      <c r="P54" s="199">
+      <c r="P54" s="196">
         <f>O54/(800*3)</f>
         <v>4.6666666666666669E-2</v>
       </c>
@@ -26597,27 +26597,27 @@
       <c r="E55" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="197">
-        <v>0</v>
-      </c>
-      <c r="G55" s="198">
+      <c r="F55" s="194">
+        <v>0</v>
+      </c>
+      <c r="G55" s="195">
         <v>31</v>
       </c>
-      <c r="H55" s="198">
-        <v>0</v>
-      </c>
-      <c r="I55" s="198">
-        <f t="shared" si="1"/>
+      <c r="H55" s="195">
+        <v>0</v>
+      </c>
+      <c r="I55" s="195">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="J55" s="199">
-        <f t="shared" si="3"/>
+      <c r="J55" s="196">
+        <f t="shared" si="5"/>
         <v>3.875E-2</v>
       </c>
-      <c r="M55" s="206">
+      <c r="M55" s="200">
         <v>31</v>
       </c>
-      <c r="N55" s="206">
+      <c r="N55" s="200">
         <v>0</v>
       </c>
     </row>
@@ -26637,27 +26637,27 @@
       <c r="E56" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="197">
+      <c r="F56" s="194">
         <v>2</v>
       </c>
-      <c r="G56" s="198">
+      <c r="G56" s="195">
         <v>33</v>
       </c>
-      <c r="H56" s="198">
+      <c r="H56" s="195">
         <v>4</v>
       </c>
-      <c r="I56" s="198">
-        <f t="shared" si="1"/>
+      <c r="I56" s="195">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="J56" s="199">
-        <f t="shared" si="3"/>
+      <c r="J56" s="196">
+        <f t="shared" si="5"/>
         <v>4.8750000000000002E-2</v>
       </c>
-      <c r="M56" s="206">
+      <c r="M56" s="200">
         <v>32</v>
       </c>
-      <c r="N56" s="206">
+      <c r="N56" s="200">
         <v>4</v>
       </c>
     </row>
@@ -26677,41 +26677,41 @@
       <c r="E57" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="197">
+      <c r="F57" s="194">
         <v>1</v>
       </c>
-      <c r="G57" s="198">
+      <c r="G57" s="195">
         <v>10</v>
       </c>
-      <c r="H57" s="198">
+      <c r="H57" s="195">
         <v>1</v>
       </c>
-      <c r="I57" s="198">
-        <f t="shared" si="1"/>
+      <c r="I57" s="195">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J57" s="199">
-        <f t="shared" si="3"/>
+      <c r="J57" s="196">
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K57" s="205">
+      <c r="K57" s="199">
         <v>15</v>
       </c>
-      <c r="L57" s="208">
+      <c r="L57" s="202">
         <f>1-(K57-SUM(F57:F59))/K57</f>
         <v>0.8</v>
       </c>
-      <c r="M57" s="206">
+      <c r="M57" s="200">
         <v>11</v>
       </c>
-      <c r="N57" s="206">
-        <v>0</v>
-      </c>
-      <c r="O57" s="207">
+      <c r="N57" s="200">
+        <v>0</v>
+      </c>
+      <c r="O57" s="201">
         <f>SUM(K57:N59)</f>
         <v>136.80000000000001</v>
       </c>
-      <c r="P57" s="199">
+      <c r="P57" s="196">
         <f>O57/(800*3)</f>
         <v>5.7000000000000002E-2</v>
       </c>
@@ -26732,27 +26732,27 @@
       <c r="E58" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="197">
+      <c r="F58" s="194">
         <v>10</v>
       </c>
-      <c r="G58" s="198">
+      <c r="G58" s="195">
         <v>14</v>
       </c>
-      <c r="H58" s="198">
-        <v>0</v>
-      </c>
-      <c r="I58" s="198">
-        <f t="shared" si="1"/>
+      <c r="H58" s="195">
+        <v>0</v>
+      </c>
+      <c r="I58" s="195">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J58" s="199">
-        <f t="shared" si="3"/>
+      <c r="J58" s="196">
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="M58" s="206">
+      <c r="M58" s="200">
         <v>50</v>
       </c>
-      <c r="N58" s="206">
+      <c r="N58" s="200">
         <v>7</v>
       </c>
     </row>
@@ -26772,27 +26772,27 @@
       <c r="E59" t="s">
         <v>83</v>
       </c>
-      <c r="F59" s="197">
+      <c r="F59" s="194">
         <v>1</v>
       </c>
-      <c r="G59" s="198">
+      <c r="G59" s="195">
         <v>54</v>
       </c>
-      <c r="H59" s="198">
+      <c r="H59" s="195">
         <v>2</v>
       </c>
-      <c r="I59" s="198">
-        <f t="shared" si="1"/>
+      <c r="I59" s="195">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J59" s="199">
-        <f t="shared" si="3"/>
+      <c r="J59" s="196">
+        <f t="shared" si="5"/>
         <v>7.1249999999999994E-2</v>
       </c>
-      <c r="M59" s="206">
+      <c r="M59" s="200">
         <v>51</v>
       </c>
-      <c r="N59" s="206">
+      <c r="N59" s="200">
         <v>2</v>
       </c>
     </row>
@@ -26812,41 +26812,41 @@
       <c r="E60" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="197">
+      <c r="F60" s="194">
         <v>4</v>
       </c>
-      <c r="G60" s="198">
+      <c r="G60" s="195">
         <v>147</v>
       </c>
-      <c r="H60" s="198">
+      <c r="H60" s="195">
         <v>10</v>
       </c>
-      <c r="I60" s="198">
-        <f t="shared" si="1"/>
+      <c r="I60" s="195">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="J60" s="199">
-        <f t="shared" si="3"/>
+      <c r="J60" s="196">
+        <f t="shared" si="5"/>
         <v>0.20125000000000001</v>
       </c>
-      <c r="K60" s="205">
+      <c r="K60" s="199">
         <v>46</v>
       </c>
-      <c r="L60" s="208">
+      <c r="L60" s="202">
         <f>1-(K60-SUM(F60:F62))/K60</f>
         <v>0.56521739130434789</v>
       </c>
-      <c r="M60" s="206">
+      <c r="M60" s="200">
         <v>139</v>
       </c>
-      <c r="N60" s="206">
+      <c r="N60" s="200">
         <v>9</v>
       </c>
-      <c r="O60" s="207">
+      <c r="O60" s="201">
         <f>SUM(K60:N62)</f>
         <v>502.56521739130437</v>
       </c>
-      <c r="P60" s="199">
+      <c r="P60" s="196">
         <f>O60/(800*3)</f>
         <v>0.2094021739130435</v>
       </c>
@@ -26867,27 +26867,27 @@
       <c r="E61" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="197">
+      <c r="F61" s="194">
         <v>8</v>
       </c>
-      <c r="G61" s="198">
+      <c r="G61" s="195">
         <v>133</v>
       </c>
-      <c r="H61" s="198">
+      <c r="H61" s="195">
         <v>8</v>
       </c>
-      <c r="I61" s="198">
-        <f t="shared" si="1"/>
+      <c r="I61" s="195">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="J61" s="199">
-        <f t="shared" si="3"/>
+      <c r="J61" s="196">
+        <f t="shared" si="5"/>
         <v>0.18625</v>
       </c>
-      <c r="M61" s="206">
+      <c r="M61" s="200">
         <v>121</v>
       </c>
-      <c r="N61" s="206">
+      <c r="N61" s="200">
         <v>6</v>
       </c>
     </row>
@@ -26907,27 +26907,27 @@
       <c r="E62" t="s">
         <v>59</v>
       </c>
-      <c r="F62" s="197">
+      <c r="F62" s="194">
         <v>14</v>
       </c>
-      <c r="G62" s="198">
+      <c r="G62" s="195">
         <v>166</v>
       </c>
-      <c r="H62" s="198">
+      <c r="H62" s="195">
         <v>21</v>
       </c>
-      <c r="I62" s="198">
-        <f t="shared" si="1"/>
+      <c r="I62" s="195">
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
-      <c r="J62" s="199">
-        <f t="shared" si="3"/>
+      <c r="J62" s="196">
+        <f t="shared" si="5"/>
         <v>0.25124999999999997</v>
       </c>
-      <c r="M62" s="206">
+      <c r="M62" s="200">
         <v>164</v>
       </c>
-      <c r="N62" s="206">
+      <c r="N62" s="200">
         <v>17</v>
       </c>
     </row>
@@ -26947,41 +26947,41 @@
       <c r="E63" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="197">
+      <c r="F63" s="194">
         <v>15</v>
       </c>
-      <c r="G63" s="198">
+      <c r="G63" s="195">
         <v>238</v>
       </c>
-      <c r="H63" s="198">
+      <c r="H63" s="195">
         <v>7</v>
       </c>
-      <c r="I63" s="198">
-        <f t="shared" si="1"/>
+      <c r="I63" s="195">
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="J63" s="199">
-        <f t="shared" si="3"/>
+      <c r="J63" s="196">
+        <f t="shared" si="5"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="K63" s="205">
+      <c r="K63" s="199">
         <v>49</v>
       </c>
-      <c r="L63" s="208">
+      <c r="L63" s="202">
         <f>1-(K63-SUM(F63:F65))/K63</f>
         <v>0.91836734693877553</v>
       </c>
-      <c r="M63" s="206">
+      <c r="M63" s="200">
         <v>253</v>
       </c>
-      <c r="N63" s="206">
+      <c r="N63" s="200">
         <v>7</v>
       </c>
-      <c r="O63" s="207">
+      <c r="O63" s="201">
         <f>SUM(K63:N65)</f>
         <v>741.91836734693879</v>
       </c>
-      <c r="P63" s="199">
+      <c r="P63" s="196">
         <f>O63/(800*3)</f>
         <v>0.3091326530612245</v>
       </c>
@@ -27002,27 +27002,27 @@
       <c r="E64" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="197">
+      <c r="F64" s="194">
         <v>12</v>
       </c>
-      <c r="G64" s="198">
+      <c r="G64" s="195">
         <v>202</v>
       </c>
-      <c r="H64" s="198">
+      <c r="H64" s="195">
         <v>2</v>
       </c>
-      <c r="I64" s="198">
-        <f t="shared" si="1"/>
+      <c r="I64" s="195">
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="J64" s="199">
-        <f t="shared" si="3"/>
+      <c r="J64" s="196">
+        <f t="shared" si="5"/>
         <v>0.27</v>
       </c>
-      <c r="M64" s="206">
+      <c r="M64" s="200">
         <v>176</v>
       </c>
-      <c r="N64" s="206">
+      <c r="N64" s="200">
         <v>18</v>
       </c>
     </row>
@@ -27042,27 +27042,27 @@
       <c r="E65" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="197">
+      <c r="F65" s="194">
         <v>18</v>
       </c>
-      <c r="G65" s="198">
+      <c r="G65" s="195">
         <v>195</v>
       </c>
-      <c r="H65" s="198">
+      <c r="H65" s="195">
         <v>11</v>
       </c>
-      <c r="I65" s="198">
-        <f t="shared" si="1"/>
+      <c r="I65" s="195">
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="J65" s="199">
-        <f t="shared" si="3"/>
+      <c r="J65" s="196">
+        <f t="shared" si="5"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="M65" s="206">
+      <c r="M65" s="200">
         <v>230</v>
       </c>
-      <c r="N65" s="206">
+      <c r="N65" s="200">
         <v>8</v>
       </c>
     </row>
@@ -27082,41 +27082,41 @@
       <c r="E66" t="s">
         <v>37</v>
       </c>
-      <c r="F66" s="197">
+      <c r="F66" s="194">
         <v>5</v>
       </c>
-      <c r="G66" s="198">
+      <c r="G66" s="195">
         <v>53</v>
       </c>
-      <c r="H66" s="198">
+      <c r="H66" s="195">
         <v>2</v>
       </c>
-      <c r="I66" s="198">
-        <f t="shared" si="1"/>
+      <c r="I66" s="195">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="J66" s="199">
-        <f t="shared" si="3"/>
+      <c r="J66" s="196">
+        <f t="shared" si="5"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K66" s="205">
+      <c r="K66" s="199">
         <v>31</v>
       </c>
-      <c r="L66" s="208">
+      <c r="L66" s="202">
         <f>1-(K66-SUM(F66:F68))/K66</f>
         <v>0.70967741935483875</v>
       </c>
-      <c r="M66" s="206">
+      <c r="M66" s="200">
         <v>58</v>
       </c>
-      <c r="N66" s="206">
+      <c r="N66" s="200">
         <v>2</v>
       </c>
-      <c r="O66" s="207">
+      <c r="O66" s="201">
         <f>SUM(K66:N68)</f>
         <v>223.70967741935485</v>
       </c>
-      <c r="P66" s="199">
+      <c r="P66" s="196">
         <f>O66/(800*3)</f>
         <v>9.3212365591397853E-2</v>
       </c>
@@ -27137,27 +27137,27 @@
       <c r="E67" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="197">
+      <c r="F67" s="194">
         <v>8</v>
       </c>
-      <c r="G67" s="198">
+      <c r="G67" s="195">
         <v>54</v>
       </c>
-      <c r="H67" s="198">
+      <c r="H67" s="195">
         <v>1</v>
       </c>
-      <c r="I67" s="198">
-        <f t="shared" si="1"/>
+      <c r="I67" s="195">
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="J67" s="199">
-        <f t="shared" si="3"/>
+      <c r="J67" s="196">
+        <f t="shared" si="5"/>
         <v>7.8750000000000001E-2</v>
       </c>
-      <c r="M67" s="206">
+      <c r="M67" s="200">
         <v>55</v>
       </c>
-      <c r="N67" s="206">
+      <c r="N67" s="200">
         <v>1</v>
       </c>
     </row>
@@ -27177,27 +27177,27 @@
       <c r="E68" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="197">
+      <c r="F68" s="194">
         <v>9</v>
       </c>
-      <c r="G68" s="198">
+      <c r="G68" s="195">
         <v>80</v>
       </c>
-      <c r="H68" s="198">
+      <c r="H68" s="195">
         <v>4</v>
       </c>
-      <c r="I68" s="198">
-        <f t="shared" ref="I68:I136" si="4">SUM(F68:H68)</f>
+      <c r="I68" s="195">
+        <f t="shared" ref="I68:I136" si="6">SUM(F68:H68)</f>
         <v>93</v>
       </c>
-      <c r="J68" s="199">
-        <f t="shared" si="3"/>
+      <c r="J68" s="196">
+        <f t="shared" si="5"/>
         <v>0.11625000000000001</v>
       </c>
-      <c r="M68" s="206">
+      <c r="M68" s="200">
         <v>74</v>
       </c>
-      <c r="N68" s="206">
+      <c r="N68" s="200">
         <v>2</v>
       </c>
     </row>
@@ -27217,41 +27217,41 @@
       <c r="E69" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="197">
+      <c r="F69" s="194">
         <v>4</v>
       </c>
-      <c r="G69" s="198">
+      <c r="G69" s="195">
         <v>99</v>
       </c>
-      <c r="H69" s="198">
+      <c r="H69" s="195">
         <v>5</v>
       </c>
-      <c r="I69" s="198">
-        <f t="shared" si="4"/>
+      <c r="I69" s="195">
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="J69" s="199">
-        <f t="shared" si="3"/>
+      <c r="J69" s="196">
+        <f t="shared" si="5"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="K69" s="205">
+      <c r="K69" s="199">
         <v>13</v>
       </c>
-      <c r="L69" s="208">
+      <c r="L69" s="202">
         <f>1-(K69-SUM(F69:F71))/K69</f>
         <v>0.38461538461538458</v>
       </c>
-      <c r="M69" s="206">
+      <c r="M69" s="200">
         <v>91</v>
       </c>
-      <c r="N69" s="206">
+      <c r="N69" s="200">
         <v>2</v>
       </c>
-      <c r="O69" s="207">
+      <c r="O69" s="201">
         <f>SUM(K69:N71)</f>
         <v>204.38461538461539</v>
       </c>
-      <c r="P69" s="199">
+      <c r="P69" s="196">
         <f>O69/(800*3)</f>
         <v>8.5160256410256416E-2</v>
       </c>
@@ -27272,27 +27272,27 @@
       <c r="E70" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="197">
+      <c r="F70" s="194">
         <v>1</v>
       </c>
-      <c r="G70" s="198">
+      <c r="G70" s="195">
         <v>55</v>
       </c>
-      <c r="H70" s="198">
+      <c r="H70" s="195">
         <v>1</v>
       </c>
-      <c r="I70" s="198">
-        <f t="shared" si="4"/>
+      <c r="I70" s="195">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="J70" s="199">
-        <f t="shared" si="3"/>
+      <c r="J70" s="196">
+        <f t="shared" si="5"/>
         <v>7.1249999999999994E-2</v>
       </c>
-      <c r="M70" s="206">
+      <c r="M70" s="200">
         <v>51</v>
       </c>
-      <c r="N70" s="206">
+      <c r="N70" s="200">
         <v>1</v>
       </c>
     </row>
@@ -27312,27 +27312,27 @@
       <c r="E71" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="197">
-        <v>0</v>
-      </c>
-      <c r="G71" s="198">
+      <c r="F71" s="194">
+        <v>0</v>
+      </c>
+      <c r="G71" s="195">
         <v>51</v>
       </c>
-      <c r="H71" s="198">
+      <c r="H71" s="195">
         <v>2</v>
       </c>
-      <c r="I71" s="198">
-        <f t="shared" si="4"/>
+      <c r="I71" s="195">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="J71" s="199">
-        <f t="shared" si="3"/>
+      <c r="J71" s="196">
+        <f t="shared" si="5"/>
         <v>6.6250000000000003E-2</v>
       </c>
-      <c r="M71" s="206">
+      <c r="M71" s="200">
         <v>45</v>
       </c>
-      <c r="N71" s="206">
+      <c r="N71" s="200">
         <v>1</v>
       </c>
     </row>
@@ -27352,41 +27352,41 @@
       <c r="E72" t="s">
         <v>29</v>
       </c>
-      <c r="F72" s="197">
+      <c r="F72" s="194">
         <v>3</v>
       </c>
-      <c r="G72" s="198">
+      <c r="G72" s="195">
         <v>102</v>
       </c>
-      <c r="H72" s="198">
+      <c r="H72" s="195">
         <v>31</v>
       </c>
-      <c r="I72" s="198">
-        <f t="shared" si="4"/>
+      <c r="I72" s="195">
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
-      <c r="J72" s="199">
-        <f t="shared" si="3"/>
+      <c r="J72" s="196">
+        <f t="shared" si="5"/>
         <v>0.17</v>
       </c>
-      <c r="K72" s="205">
+      <c r="K72" s="199">
         <v>7</v>
       </c>
-      <c r="L72" s="208">
+      <c r="L72" s="202">
         <f>1-(K72-SUM(F72:F74))/K72</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="M72" s="206">
+      <c r="M72" s="200">
         <v>79</v>
       </c>
-      <c r="N72" s="206">
+      <c r="N72" s="200">
         <v>21</v>
       </c>
-      <c r="O72" s="207">
+      <c r="O72" s="201">
         <f>SUM(K72:N74)</f>
         <v>129.57142857142856</v>
       </c>
-      <c r="P72" s="199">
+      <c r="P72" s="196">
         <f>O72/(800*3)</f>
         <v>5.3988095238095231E-2</v>
       </c>
@@ -27407,27 +27407,27 @@
       <c r="E73" t="s">
         <v>29</v>
       </c>
-      <c r="F73" s="197">
-        <v>0</v>
-      </c>
-      <c r="G73" s="198">
+      <c r="F73" s="194">
+        <v>0</v>
+      </c>
+      <c r="G73" s="195">
         <v>25</v>
       </c>
-      <c r="H73" s="198">
+      <c r="H73" s="195">
         <v>2</v>
       </c>
-      <c r="I73" s="198">
-        <f t="shared" si="4"/>
+      <c r="I73" s="195">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="J73" s="199">
-        <f t="shared" si="3"/>
+      <c r="J73" s="196">
+        <f t="shared" si="5"/>
         <v>3.3750000000000002E-2</v>
       </c>
-      <c r="M73" s="206">
+      <c r="M73" s="200">
         <v>18</v>
       </c>
-      <c r="N73" s="206">
+      <c r="N73" s="200">
         <v>1</v>
       </c>
     </row>
@@ -27447,27 +27447,27 @@
       <c r="E74" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="197">
+      <c r="F74" s="194">
         <v>1</v>
       </c>
-      <c r="G74" s="198">
+      <c r="G74" s="195">
         <v>3</v>
       </c>
-      <c r="H74" s="198">
-        <v>0</v>
-      </c>
-      <c r="I74" s="198">
-        <f t="shared" si="4"/>
+      <c r="H74" s="195">
+        <v>0</v>
+      </c>
+      <c r="I74" s="195">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J74" s="199">
-        <f t="shared" ref="J74:J136" si="5">SUM(F74:H74)/800</f>
+      <c r="J74" s="196">
+        <f t="shared" ref="J74:J136" si="7">SUM(F74:H74)/800</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M74" s="206">
+      <c r="M74" s="200">
         <v>3</v>
       </c>
-      <c r="N74" s="206">
+      <c r="N74" s="200">
         <v>0</v>
       </c>
     </row>
@@ -27487,41 +27487,41 @@
       <c r="E75" t="s">
         <v>83</v>
       </c>
-      <c r="F75" s="197">
-        <v>0</v>
-      </c>
-      <c r="G75" s="198">
+      <c r="F75" s="194">
+        <v>0</v>
+      </c>
+      <c r="G75" s="195">
         <v>28</v>
       </c>
-      <c r="H75" s="198">
+      <c r="H75" s="195">
         <v>3</v>
       </c>
-      <c r="I75" s="198">
-        <f t="shared" si="4"/>
+      <c r="I75" s="195">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J75" s="199">
-        <f t="shared" si="5"/>
+      <c r="J75" s="196">
+        <f t="shared" si="7"/>
         <v>3.875E-2</v>
       </c>
-      <c r="K75" s="205">
+      <c r="K75" s="199">
         <v>3</v>
       </c>
-      <c r="L75" s="208">
+      <c r="L75" s="202">
         <f>1-(K75-SUM(F75:F77))/K75</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="M75" s="206">
+      <c r="M75" s="200">
         <v>13</v>
       </c>
-      <c r="N75" s="206">
+      <c r="N75" s="200">
         <v>2</v>
       </c>
-      <c r="O75" s="207">
+      <c r="O75" s="201">
         <f>SUM(K75:N77)</f>
         <v>38.333333333333329</v>
       </c>
-      <c r="P75" s="199">
+      <c r="P75" s="196">
         <f>O75/(800*3)</f>
         <v>1.5972222222222221E-2</v>
       </c>
@@ -27542,27 +27542,27 @@
       <c r="E76" t="s">
         <v>83</v>
       </c>
-      <c r="F76" s="197">
-        <v>0</v>
-      </c>
-      <c r="G76" s="198">
+      <c r="F76" s="194">
+        <v>0</v>
+      </c>
+      <c r="G76" s="195">
         <v>10</v>
       </c>
-      <c r="H76" s="198">
-        <v>0</v>
-      </c>
-      <c r="I76" s="198">
-        <f t="shared" si="4"/>
+      <c r="H76" s="195">
+        <v>0</v>
+      </c>
+      <c r="I76" s="195">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J76" s="199">
-        <f t="shared" si="5"/>
+      <c r="J76" s="196">
+        <f t="shared" si="7"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="M76" s="206">
+      <c r="M76" s="200">
         <v>5</v>
       </c>
-      <c r="N76" s="206">
+      <c r="N76" s="200">
         <v>0</v>
       </c>
     </row>
@@ -27582,27 +27582,27 @@
       <c r="E77" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="197">
+      <c r="F77" s="194">
         <v>1</v>
       </c>
-      <c r="G77" s="198">
+      <c r="G77" s="195">
         <v>20</v>
       </c>
-      <c r="H77" s="198">
+      <c r="H77" s="195">
         <v>2</v>
       </c>
-      <c r="I77" s="198">
-        <f t="shared" si="4"/>
+      <c r="I77" s="195">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="J77" s="199">
-        <f t="shared" si="5"/>
+      <c r="J77" s="196">
+        <f t="shared" si="7"/>
         <v>2.8750000000000001E-2</v>
       </c>
-      <c r="M77" s="206">
+      <c r="M77" s="200">
         <v>14</v>
       </c>
-      <c r="N77" s="206">
+      <c r="N77" s="200">
         <v>1</v>
       </c>
     </row>
@@ -27622,41 +27622,41 @@
       <c r="E78" t="s">
         <v>28</v>
       </c>
-      <c r="F78" s="197">
-        <v>0</v>
-      </c>
-      <c r="G78" s="198">
+      <c r="F78" s="194">
+        <v>0</v>
+      </c>
+      <c r="G78" s="195">
         <v>44</v>
       </c>
-      <c r="H78" s="198">
+      <c r="H78" s="195">
         <v>8</v>
       </c>
-      <c r="I78" s="198">
-        <f t="shared" si="4"/>
+      <c r="I78" s="195">
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="J78" s="199">
-        <f t="shared" si="5"/>
+      <c r="J78" s="196">
+        <f t="shared" si="7"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K78" s="205">
+      <c r="K78" s="199">
         <v>3</v>
       </c>
-      <c r="L78" s="208">
+      <c r="L78" s="202">
         <f>1-(K78-SUM(F78:F80))/K78</f>
         <v>0</v>
       </c>
-      <c r="M78" s="206">
+      <c r="M78" s="200">
         <v>11</v>
       </c>
-      <c r="N78" s="206">
-        <v>0</v>
-      </c>
-      <c r="O78" s="207">
+      <c r="N78" s="200">
+        <v>0</v>
+      </c>
+      <c r="O78" s="201">
         <f>SUM(K78:N80)</f>
         <v>46</v>
       </c>
-      <c r="P78" s="199">
+      <c r="P78" s="196">
         <f>O78/(800*3)</f>
         <v>1.9166666666666665E-2</v>
       </c>
@@ -27677,27 +27677,27 @@
       <c r="E79" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="197">
-        <v>0</v>
-      </c>
-      <c r="G79" s="198">
+      <c r="F79" s="194">
+        <v>0</v>
+      </c>
+      <c r="G79" s="195">
         <v>60</v>
       </c>
-      <c r="H79" s="198">
+      <c r="H79" s="195">
         <v>5</v>
       </c>
-      <c r="I79" s="198">
-        <f t="shared" si="4"/>
+      <c r="I79" s="195">
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="J79" s="199">
-        <f t="shared" si="5"/>
+      <c r="J79" s="196">
+        <f t="shared" si="7"/>
         <v>8.1250000000000003E-2</v>
       </c>
-      <c r="M79" s="206">
+      <c r="M79" s="200">
         <v>20</v>
       </c>
-      <c r="N79" s="206">
+      <c r="N79" s="200">
         <v>2</v>
       </c>
     </row>
@@ -27717,27 +27717,27 @@
       <c r="E80" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="197">
-        <v>0</v>
-      </c>
-      <c r="G80" s="198">
+      <c r="F80" s="194">
+        <v>0</v>
+      </c>
+      <c r="G80" s="195">
         <v>44</v>
       </c>
-      <c r="H80" s="198">
+      <c r="H80" s="195">
         <v>5</v>
       </c>
-      <c r="I80" s="198">
-        <f t="shared" si="4"/>
+      <c r="I80" s="195">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="J80" s="199">
-        <f t="shared" si="5"/>
+      <c r="J80" s="196">
+        <f t="shared" si="7"/>
         <v>6.1249999999999999E-2</v>
       </c>
-      <c r="M80" s="206">
+      <c r="M80" s="200">
         <v>8</v>
       </c>
-      <c r="N80" s="206">
+      <c r="N80" s="200">
         <v>2</v>
       </c>
     </row>
@@ -27757,41 +27757,41 @@
       <c r="E81" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="197">
+      <c r="F81" s="194">
         <v>14</v>
       </c>
-      <c r="G81" s="198">
+      <c r="G81" s="195">
         <v>173</v>
       </c>
-      <c r="H81" s="198">
+      <c r="H81" s="195">
         <v>66</v>
       </c>
-      <c r="I81" s="198">
-        <f t="shared" si="4"/>
+      <c r="I81" s="195">
+        <f t="shared" si="6"/>
         <v>253</v>
       </c>
-      <c r="J81" s="199">
-        <f t="shared" si="5"/>
+      <c r="J81" s="196">
+        <f t="shared" si="7"/>
         <v>0.31624999999999998</v>
       </c>
-      <c r="K81" s="205">
+      <c r="K81" s="199">
         <v>36</v>
       </c>
-      <c r="L81" s="208">
+      <c r="L81" s="202">
         <f>1-(K81-SUM(F81:F83))/K81</f>
         <v>0.63888888888888884</v>
       </c>
-      <c r="M81" s="206">
+      <c r="M81" s="200">
         <v>142</v>
       </c>
-      <c r="N81" s="206">
+      <c r="N81" s="200">
         <v>36</v>
       </c>
-      <c r="O81" s="207">
+      <c r="O81" s="201">
         <f>SUM(K81:N83)</f>
         <v>442.63888888888891</v>
       </c>
-      <c r="P81" s="199">
+      <c r="P81" s="196">
         <f>O81/(800*3)</f>
         <v>0.18443287037037037</v>
       </c>
@@ -27812,27 +27812,27 @@
       <c r="E82" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="197">
+      <c r="F82" s="194">
         <v>6</v>
       </c>
-      <c r="G82" s="198">
+      <c r="G82" s="195">
         <v>161</v>
       </c>
-      <c r="H82" s="198">
+      <c r="H82" s="195">
         <v>25</v>
       </c>
-      <c r="I82" s="198">
-        <f t="shared" si="4"/>
+      <c r="I82" s="195">
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
-      <c r="J82" s="199">
-        <f t="shared" si="5"/>
+      <c r="J82" s="196">
+        <f t="shared" si="7"/>
         <v>0.24</v>
       </c>
-      <c r="M82" s="206">
+      <c r="M82" s="200">
         <v>129</v>
       </c>
-      <c r="N82" s="206">
+      <c r="N82" s="200">
         <v>7</v>
       </c>
     </row>
@@ -27852,27 +27852,27 @@
       <c r="E83" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="197">
+      <c r="F83" s="194">
         <v>3</v>
       </c>
-      <c r="G83" s="198">
+      <c r="G83" s="195">
         <v>140</v>
       </c>
-      <c r="H83" s="198">
+      <c r="H83" s="195">
         <v>18</v>
       </c>
-      <c r="I83" s="198">
-        <f t="shared" si="4"/>
+      <c r="I83" s="195">
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
-      <c r="J83" s="199">
-        <f t="shared" si="5"/>
+      <c r="J83" s="196">
+        <f t="shared" si="7"/>
         <v>0.20125000000000001</v>
       </c>
-      <c r="M83" s="206">
+      <c r="M83" s="200">
         <v>85</v>
       </c>
-      <c r="N83" s="206">
+      <c r="N83" s="200">
         <v>7</v>
       </c>
     </row>
@@ -27892,41 +27892,41 @@
       <c r="E84" t="s">
         <v>59</v>
       </c>
-      <c r="F84" s="197">
-        <v>0</v>
-      </c>
-      <c r="G84" s="198">
+      <c r="F84" s="194">
+        <v>0</v>
+      </c>
+      <c r="G84" s="195">
         <v>51</v>
       </c>
-      <c r="H84" s="198">
+      <c r="H84" s="195">
         <v>3</v>
       </c>
-      <c r="I84" s="198">
-        <f t="shared" si="4"/>
+      <c r="I84" s="195">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="J84" s="199">
-        <f t="shared" si="5"/>
+      <c r="J84" s="196">
+        <f t="shared" si="7"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="K84" s="205">
+      <c r="K84" s="199">
         <v>11</v>
       </c>
-      <c r="L84" s="208">
+      <c r="L84" s="202">
         <f>1-(K84-SUM(F84:F86))/K84</f>
         <v>9.0909090909090939E-2</v>
       </c>
-      <c r="M84" s="206">
+      <c r="M84" s="200">
         <v>50</v>
       </c>
-      <c r="N84" s="206">
+      <c r="N84" s="200">
         <v>2</v>
       </c>
-      <c r="O84" s="207">
+      <c r="O84" s="201">
         <f>SUM(K84:N86)</f>
         <v>103.09090909090909</v>
       </c>
-      <c r="P84" s="199">
+      <c r="P84" s="196">
         <f>O84/(800*3)</f>
         <v>4.2954545454545454E-2</v>
       </c>
@@ -27947,27 +27947,27 @@
       <c r="E85" t="s">
         <v>59</v>
       </c>
-      <c r="F85" s="197">
-        <v>0</v>
-      </c>
-      <c r="G85" s="198">
+      <c r="F85" s="194">
+        <v>0</v>
+      </c>
+      <c r="G85" s="195">
         <v>29</v>
       </c>
-      <c r="H85" s="198">
+      <c r="H85" s="195">
         <v>2</v>
       </c>
-      <c r="I85" s="198">
-        <f t="shared" si="4"/>
+      <c r="I85" s="195">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="J85" s="199">
-        <f t="shared" si="5"/>
+      <c r="J85" s="196">
+        <f t="shared" si="7"/>
         <v>3.875E-2</v>
       </c>
-      <c r="M85" s="206">
+      <c r="M85" s="200">
         <v>23</v>
       </c>
-      <c r="N85" s="206">
+      <c r="N85" s="200">
         <v>0</v>
       </c>
     </row>
@@ -27987,27 +27987,27 @@
       <c r="E86" t="s">
         <v>59</v>
       </c>
-      <c r="F86" s="197">
+      <c r="F86" s="194">
         <v>1</v>
       </c>
-      <c r="G86" s="198">
+      <c r="G86" s="195">
         <v>17</v>
       </c>
-      <c r="H86" s="198">
+      <c r="H86" s="195">
         <v>2</v>
       </c>
-      <c r="I86" s="198">
-        <f t="shared" si="4"/>
+      <c r="I86" s="195">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J86" s="199">
-        <f t="shared" si="5"/>
+      <c r="J86" s="196">
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M86" s="206">
+      <c r="M86" s="200">
         <v>17</v>
       </c>
-      <c r="N86" s="206">
+      <c r="N86" s="200">
         <v>0</v>
       </c>
     </row>
@@ -28027,41 +28027,41 @@
       <c r="E87" t="s">
         <v>83</v>
       </c>
-      <c r="F87" s="197">
-        <v>0</v>
-      </c>
-      <c r="G87" s="198">
+      <c r="F87" s="194">
+        <v>0</v>
+      </c>
+      <c r="G87" s="195">
         <v>24</v>
       </c>
-      <c r="H87" s="198">
+      <c r="H87" s="195">
         <v>9</v>
       </c>
-      <c r="I87" s="198">
-        <f t="shared" si="4"/>
+      <c r="I87" s="195">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="J87" s="199">
-        <f t="shared" si="5"/>
+      <c r="J87" s="196">
+        <f t="shared" si="7"/>
         <v>4.1250000000000002E-2</v>
       </c>
-      <c r="K87" s="205">
+      <c r="K87" s="199">
         <v>27</v>
       </c>
-      <c r="L87" s="208">
+      <c r="L87" s="202">
         <f>1-(K87-SUM(F87:F89))/K87</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="M87" s="206">
+      <c r="M87" s="200">
         <v>17</v>
       </c>
-      <c r="N87" s="206">
+      <c r="N87" s="200">
         <v>1</v>
       </c>
-      <c r="O87" s="207">
+      <c r="O87" s="201">
         <f>SUM(K87:N89)</f>
         <v>139.66666666666669</v>
       </c>
-      <c r="P87" s="199">
+      <c r="P87" s="196">
         <f>O87/(800*3)</f>
         <v>5.8194444444444451E-2</v>
       </c>
@@ -28082,27 +28082,27 @@
       <c r="E88" t="s">
         <v>83</v>
       </c>
-      <c r="F88" s="197">
+      <c r="F88" s="194">
         <v>5</v>
       </c>
-      <c r="G88" s="198">
+      <c r="G88" s="195">
         <v>71</v>
       </c>
-      <c r="H88" s="198">
+      <c r="H88" s="195">
         <v>11</v>
       </c>
-      <c r="I88" s="198">
-        <f t="shared" si="4"/>
+      <c r="I88" s="195">
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="J88" s="199">
-        <f t="shared" si="5"/>
+      <c r="J88" s="196">
+        <f t="shared" si="7"/>
         <v>0.10875</v>
       </c>
-      <c r="M88" s="206">
+      <c r="M88" s="200">
         <v>52</v>
       </c>
-      <c r="N88" s="206">
+      <c r="N88" s="200">
         <v>5</v>
       </c>
     </row>
@@ -28122,27 +28122,27 @@
       <c r="E89" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="F89" s="197">
+      <c r="F89" s="194">
         <v>13</v>
       </c>
-      <c r="G89" s="198">
+      <c r="G89" s="195">
         <v>49</v>
       </c>
-      <c r="H89" s="198">
+      <c r="H89" s="195">
         <v>8</v>
       </c>
-      <c r="I89" s="198">
-        <f t="shared" si="4"/>
+      <c r="I89" s="195">
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="J89" s="199">
-        <f t="shared" si="5"/>
+      <c r="J89" s="196">
+        <f t="shared" si="7"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M89" s="206">
+      <c r="M89" s="200">
         <v>33</v>
       </c>
-      <c r="N89" s="206">
+      <c r="N89" s="200">
         <v>4</v>
       </c>
     </row>
@@ -28162,41 +28162,41 @@
       <c r="E90" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="197">
+      <c r="F90" s="194">
         <v>4</v>
       </c>
-      <c r="G90" s="198">
+      <c r="G90" s="195">
         <v>39</v>
       </c>
-      <c r="H90" s="198">
+      <c r="H90" s="195">
         <v>15</v>
       </c>
-      <c r="I90" s="198">
-        <f t="shared" si="4"/>
+      <c r="I90" s="195">
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="J90" s="199">
-        <f t="shared" si="5"/>
+      <c r="J90" s="196">
+        <f t="shared" si="7"/>
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="K90" s="205">
+      <c r="K90" s="199">
         <v>7</v>
       </c>
-      <c r="L90" s="208">
+      <c r="L90" s="202">
         <f>1-(K90-SUM(F90:F92))/K90</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="M90" s="206">
+      <c r="M90" s="200">
         <v>31</v>
       </c>
-      <c r="N90" s="206">
+      <c r="N90" s="200">
         <v>8</v>
       </c>
-      <c r="O90" s="207">
+      <c r="O90" s="201">
         <f>SUM(K90:N92)</f>
         <v>139.71428571428572</v>
       </c>
-      <c r="P90" s="199">
+      <c r="P90" s="196">
         <f>O90/(800*3)</f>
         <v>5.8214285714285718E-2</v>
       </c>
@@ -28217,27 +28217,27 @@
       <c r="E91" t="s">
         <v>36</v>
       </c>
-      <c r="F91" s="197">
-        <v>0</v>
-      </c>
-      <c r="G91" s="198">
+      <c r="F91" s="194">
+        <v>0</v>
+      </c>
+      <c r="G91" s="195">
         <v>53</v>
       </c>
-      <c r="H91" s="198">
+      <c r="H91" s="195">
         <v>3</v>
       </c>
-      <c r="I91" s="198">
-        <f t="shared" si="4"/>
+      <c r="I91" s="195">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="J91" s="199">
-        <f t="shared" si="5"/>
+      <c r="J91" s="196">
+        <f t="shared" si="7"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M91" s="206">
+      <c r="M91" s="200">
         <v>49</v>
       </c>
-      <c r="N91" s="206">
+      <c r="N91" s="200">
         <v>1</v>
       </c>
     </row>
@@ -28257,27 +28257,27 @@
       <c r="E92" t="s">
         <v>36</v>
       </c>
-      <c r="F92" s="197">
+      <c r="F92" s="194">
         <v>1</v>
       </c>
-      <c r="G92" s="198">
+      <c r="G92" s="195">
         <v>51</v>
       </c>
-      <c r="H92" s="198">
+      <c r="H92" s="195">
         <v>16</v>
       </c>
-      <c r="I92" s="198">
-        <f t="shared" si="4"/>
+      <c r="I92" s="195">
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="J92" s="199">
-        <f t="shared" si="5"/>
+      <c r="J92" s="196">
+        <f t="shared" si="7"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M92" s="206">
+      <c r="M92" s="200">
         <v>39</v>
       </c>
-      <c r="N92" s="206">
+      <c r="N92" s="200">
         <v>4</v>
       </c>
     </row>
@@ -28297,41 +28297,41 @@
       <c r="E93" t="s">
         <v>84</v>
       </c>
-      <c r="F93" s="197">
+      <c r="F93" s="194">
         <v>2</v>
       </c>
-      <c r="G93" s="198">
+      <c r="G93" s="195">
         <v>2</v>
       </c>
-      <c r="H93" s="198">
+      <c r="H93" s="195">
         <v>6</v>
       </c>
-      <c r="I93" s="198">
-        <f t="shared" si="4"/>
+      <c r="I93" s="195">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J93" s="199">
-        <f t="shared" si="5"/>
+      <c r="J93" s="196">
+        <f t="shared" si="7"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K93" s="205">
+      <c r="K93" s="199">
         <v>4</v>
       </c>
-      <c r="L93" s="208">
+      <c r="L93" s="202">
         <f>1-(K93-SUM(F93:F95))/K93</f>
         <v>0.75</v>
       </c>
-      <c r="M93" s="206">
+      <c r="M93" s="200">
         <v>4</v>
       </c>
-      <c r="N93" s="206">
+      <c r="N93" s="200">
         <v>1</v>
       </c>
-      <c r="O93" s="207">
+      <c r="O93" s="201">
         <f>SUM(K93:N95)</f>
         <v>26.75</v>
       </c>
-      <c r="P93" s="199">
+      <c r="P93" s="196">
         <f>O93/(800*3)</f>
         <v>1.1145833333333334E-2</v>
       </c>
@@ -28352,27 +28352,27 @@
       <c r="E94" t="s">
         <v>84</v>
       </c>
-      <c r="F94" s="197">
-        <v>0</v>
-      </c>
-      <c r="G94" s="198">
+      <c r="F94" s="194">
+        <v>0</v>
+      </c>
+      <c r="G94" s="195">
         <v>4</v>
       </c>
-      <c r="H94" s="198">
-        <v>0</v>
-      </c>
-      <c r="I94" s="198">
-        <f t="shared" si="4"/>
+      <c r="H94" s="195">
+        <v>0</v>
+      </c>
+      <c r="I94" s="195">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="J94" s="199">
-        <f t="shared" si="5"/>
+      <c r="J94" s="196">
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M94" s="206">
+      <c r="M94" s="200">
         <v>1</v>
       </c>
-      <c r="N94" s="206">
+      <c r="N94" s="200">
         <v>0</v>
       </c>
     </row>
@@ -28392,27 +28392,27 @@
       <c r="E95" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="197">
+      <c r="F95" s="194">
         <v>1</v>
       </c>
-      <c r="G95" s="198">
+      <c r="G95" s="195">
         <v>24</v>
       </c>
-      <c r="H95" s="198">
+      <c r="H95" s="195">
         <v>7</v>
       </c>
-      <c r="I95" s="198">
-        <f t="shared" si="4"/>
+      <c r="I95" s="195">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="J95" s="199">
-        <f t="shared" si="5"/>
+      <c r="J95" s="196">
+        <f t="shared" si="7"/>
         <v>0.04</v>
       </c>
-      <c r="M95" s="206">
+      <c r="M95" s="200">
         <v>12</v>
       </c>
-      <c r="N95" s="206">
+      <c r="N95" s="200">
         <v>4</v>
       </c>
     </row>
@@ -28432,41 +28432,41 @@
       <c r="E96" t="s">
         <v>61</v>
       </c>
-      <c r="F96" s="197">
-        <v>0</v>
-      </c>
-      <c r="G96" s="198">
+      <c r="F96" s="194">
+        <v>0</v>
+      </c>
+      <c r="G96" s="195">
         <v>18</v>
       </c>
-      <c r="H96" s="198">
+      <c r="H96" s="195">
         <v>1</v>
       </c>
-      <c r="I96" s="198">
-        <f t="shared" si="4"/>
+      <c r="I96" s="195">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J96" s="199">
-        <f t="shared" si="5"/>
+      <c r="J96" s="196">
+        <f t="shared" si="7"/>
         <v>2.375E-2</v>
       </c>
-      <c r="K96" s="205">
+      <c r="K96" s="199">
         <v>2</v>
       </c>
-      <c r="L96" s="208">
+      <c r="L96" s="202">
         <f>1-(K96-SUM(F96:F98))/K96</f>
         <v>0.5</v>
       </c>
-      <c r="M96" s="206">
+      <c r="M96" s="200">
         <v>10</v>
       </c>
-      <c r="N96" s="206">
-        <v>0</v>
-      </c>
-      <c r="O96" s="207">
+      <c r="N96" s="200">
+        <v>0</v>
+      </c>
+      <c r="O96" s="201">
         <f>SUM(K96:N98)</f>
         <v>101.5</v>
       </c>
-      <c r="P96" s="199">
+      <c r="P96" s="196">
         <f>O96/(800*3)</f>
         <v>4.2291666666666665E-2</v>
       </c>
@@ -28487,27 +28487,27 @@
       <c r="E97" t="s">
         <v>61</v>
       </c>
-      <c r="F97" s="197">
+      <c r="F97" s="194">
         <v>1</v>
       </c>
-      <c r="G97" s="198">
+      <c r="G97" s="195">
         <v>43</v>
       </c>
-      <c r="H97" s="198">
+      <c r="H97" s="195">
         <v>1</v>
       </c>
-      <c r="I97" s="198">
+      <c r="I97" s="195">
         <f>SUM(F97:H97)</f>
         <v>45</v>
       </c>
-      <c r="J97" s="199">
-        <f t="shared" si="5"/>
+      <c r="J97" s="196">
+        <f t="shared" si="7"/>
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="M97" s="206">
+      <c r="M97" s="200">
         <v>27</v>
       </c>
-      <c r="N97" s="206">
+      <c r="N97" s="200">
         <v>0</v>
       </c>
     </row>
@@ -28527,27 +28527,27 @@
       <c r="E98" t="s">
         <v>61</v>
       </c>
-      <c r="F98" s="197">
-        <v>0</v>
-      </c>
-      <c r="G98" s="198">
+      <c r="F98" s="194">
+        <v>0</v>
+      </c>
+      <c r="G98" s="195">
         <v>95</v>
       </c>
-      <c r="H98" s="198">
+      <c r="H98" s="195">
         <v>7</v>
       </c>
-      <c r="I98" s="198">
-        <f t="shared" si="4"/>
+      <c r="I98" s="195">
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="J98" s="199">
-        <f t="shared" si="5"/>
+      <c r="J98" s="196">
+        <f t="shared" si="7"/>
         <v>0.1275</v>
       </c>
-      <c r="M98" s="206">
+      <c r="M98" s="200">
         <v>58</v>
       </c>
-      <c r="N98" s="206">
+      <c r="N98" s="200">
         <v>4</v>
       </c>
     </row>
@@ -28567,41 +28567,41 @@
       <c r="E99" t="s">
         <v>83</v>
       </c>
-      <c r="F99" s="197">
+      <c r="F99" s="194">
         <v>3</v>
       </c>
-      <c r="G99" s="198">
+      <c r="G99" s="195">
         <v>16</v>
       </c>
-      <c r="H99" s="198">
+      <c r="H99" s="195">
         <v>2</v>
       </c>
-      <c r="I99" s="198">
-        <f t="shared" si="4"/>
+      <c r="I99" s="195">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="J99" s="199">
-        <f t="shared" si="5"/>
+      <c r="J99" s="196">
+        <f t="shared" si="7"/>
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="K99" s="205">
+      <c r="K99" s="199">
         <v>7</v>
       </c>
-      <c r="L99" s="208">
+      <c r="L99" s="202">
         <f>1-(K99-SUM(F99:F101))/K99</f>
         <v>0.4285714285714286</v>
       </c>
-      <c r="M99" s="206">
+      <c r="M99" s="200">
         <v>3</v>
       </c>
-      <c r="N99" s="206">
+      <c r="N99" s="200">
         <v>2</v>
       </c>
-      <c r="O99" s="207">
+      <c r="O99" s="201">
         <f>SUM(K99:N101)</f>
         <v>69.428571428571431</v>
       </c>
-      <c r="P99" s="199">
+      <c r="P99" s="196">
         <f>O99/(800*3)</f>
         <v>2.8928571428571428E-2</v>
       </c>
@@ -28622,27 +28622,27 @@
       <c r="E100" t="s">
         <v>83</v>
       </c>
-      <c r="F100" s="197">
-        <v>0</v>
-      </c>
-      <c r="G100" s="198">
+      <c r="F100" s="194">
+        <v>0</v>
+      </c>
+      <c r="G100" s="195">
         <v>35</v>
       </c>
-      <c r="H100" s="198">
+      <c r="H100" s="195">
         <v>2</v>
       </c>
-      <c r="I100" s="198">
-        <f t="shared" si="4"/>
+      <c r="I100" s="195">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="J100" s="199">
-        <f t="shared" si="5"/>
+      <c r="J100" s="196">
+        <f t="shared" si="7"/>
         <v>4.6249999999999999E-2</v>
       </c>
-      <c r="M100" s="206">
+      <c r="M100" s="200">
         <v>18</v>
       </c>
-      <c r="N100" s="206">
+      <c r="N100" s="200">
         <v>0</v>
       </c>
     </row>
@@ -28662,27 +28662,27 @@
       <c r="E101" t="s">
         <v>83</v>
       </c>
-      <c r="F101" s="197">
-        <v>0</v>
-      </c>
-      <c r="G101" s="198">
+      <c r="F101" s="194">
+        <v>0</v>
+      </c>
+      <c r="G101" s="195">
         <v>60</v>
       </c>
-      <c r="H101" s="198">
+      <c r="H101" s="195">
         <v>6</v>
       </c>
-      <c r="I101" s="198">
-        <f t="shared" si="4"/>
+      <c r="I101" s="195">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="J101" s="199">
-        <f t="shared" si="5"/>
+      <c r="J101" s="196">
+        <f t="shared" si="7"/>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="M101" s="206">
+      <c r="M101" s="200">
         <v>36</v>
       </c>
-      <c r="N101" s="206">
+      <c r="N101" s="200">
         <v>3</v>
       </c>
     </row>
@@ -28702,41 +28702,41 @@
       <c r="E102" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="197">
-        <v>0</v>
-      </c>
-      <c r="G102" s="204">
+      <c r="F102" s="194">
+        <v>0</v>
+      </c>
+      <c r="G102" s="198">
         <v>59</v>
       </c>
-      <c r="H102" s="204">
+      <c r="H102" s="198">
         <v>3</v>
       </c>
-      <c r="I102" s="204">
-        <f t="shared" si="4"/>
+      <c r="I102" s="198">
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="J102" s="199">
-        <f t="shared" si="5"/>
+      <c r="J102" s="196">
+        <f t="shared" si="7"/>
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="K102" s="205">
+      <c r="K102" s="199">
         <v>6</v>
       </c>
-      <c r="L102" s="208">
+      <c r="L102" s="202">
         <f>1-(K102-SUM(F102:F104))/K102</f>
         <v>0.5</v>
       </c>
-      <c r="M102" s="206">
+      <c r="M102" s="200">
         <v>26</v>
       </c>
-      <c r="N102" s="206">
+      <c r="N102" s="200">
         <v>2</v>
       </c>
-      <c r="O102" s="207">
+      <c r="O102" s="201">
         <f>SUM(K102:N104)</f>
         <v>125.5</v>
       </c>
-      <c r="P102" s="199">
+      <c r="P102" s="196">
         <f>O102/(800*3)</f>
         <v>5.2291666666666667E-2</v>
       </c>
@@ -28757,27 +28757,27 @@
       <c r="E103" t="s">
         <v>29</v>
       </c>
-      <c r="F103" s="197">
+      <c r="F103" s="194">
         <v>1</v>
       </c>
-      <c r="G103" s="204">
+      <c r="G103" s="198">
         <v>104</v>
       </c>
-      <c r="H103" s="204">
+      <c r="H103" s="198">
         <v>3</v>
       </c>
-      <c r="I103" s="204">
-        <f t="shared" si="4"/>
+      <c r="I103" s="198">
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="J103" s="199">
-        <f t="shared" si="5"/>
+      <c r="J103" s="196">
+        <f t="shared" si="7"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="M103" s="206">
+      <c r="M103" s="200">
         <v>60</v>
       </c>
-      <c r="N103" s="206">
+      <c r="N103" s="200">
         <v>2</v>
       </c>
     </row>
@@ -28797,27 +28797,27 @@
       <c r="E104" t="s">
         <v>29</v>
       </c>
-      <c r="F104" s="197">
+      <c r="F104" s="194">
         <v>2</v>
       </c>
-      <c r="G104" s="204">
+      <c r="G104" s="198">
         <v>48</v>
       </c>
-      <c r="H104" s="204">
+      <c r="H104" s="198">
         <v>4</v>
       </c>
-      <c r="I104" s="204">
-        <f t="shared" si="4"/>
+      <c r="I104" s="198">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="J104" s="199">
-        <f t="shared" si="5"/>
+      <c r="J104" s="196">
+        <f t="shared" si="7"/>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="M104" s="206">
+      <c r="M104" s="200">
         <v>28</v>
       </c>
-      <c r="N104" s="206">
+      <c r="N104" s="200">
         <v>1</v>
       </c>
     </row>
@@ -28837,41 +28837,41 @@
       <c r="E105" t="s">
         <v>28</v>
       </c>
-      <c r="F105" s="197">
-        <v>0</v>
-      </c>
-      <c r="G105" s="204">
+      <c r="F105" s="194">
+        <v>0</v>
+      </c>
+      <c r="G105" s="198">
         <v>14</v>
       </c>
-      <c r="H105" s="204">
-        <v>0</v>
-      </c>
-      <c r="I105" s="204">
-        <f t="shared" si="4"/>
+      <c r="H105" s="198">
+        <v>0</v>
+      </c>
+      <c r="I105" s="198">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="J105" s="199">
-        <f t="shared" si="5"/>
+      <c r="J105" s="196">
+        <f t="shared" si="7"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="K105" s="205">
+      <c r="K105" s="199">
         <v>6</v>
       </c>
-      <c r="L105" s="208">
+      <c r="L105" s="202">
         <f>1-(K105-SUM(F105:F107))/K105</f>
         <v>0.5</v>
       </c>
-      <c r="M105" s="206">
+      <c r="M105" s="200">
         <v>1</v>
       </c>
-      <c r="N105" s="206">
-        <v>0</v>
-      </c>
-      <c r="O105" s="207">
+      <c r="N105" s="200">
+        <v>0</v>
+      </c>
+      <c r="O105" s="201">
         <f>SUM(K105:N107)</f>
         <v>34.5</v>
       </c>
-      <c r="P105" s="199">
+      <c r="P105" s="196">
         <f>O105/(800*3)</f>
         <v>1.4375000000000001E-2</v>
       </c>
@@ -28892,27 +28892,27 @@
       <c r="E106" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="197">
-        <v>0</v>
-      </c>
-      <c r="G106" s="204">
+      <c r="F106" s="194">
+        <v>0</v>
+      </c>
+      <c r="G106" s="198">
         <v>16</v>
       </c>
-      <c r="H106" s="204">
+      <c r="H106" s="198">
         <v>3</v>
       </c>
-      <c r="I106" s="204">
-        <f t="shared" si="4"/>
+      <c r="I106" s="198">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J106" s="199">
-        <f t="shared" si="5"/>
+      <c r="J106" s="196">
+        <f t="shared" si="7"/>
         <v>2.375E-2</v>
       </c>
-      <c r="M106" s="206">
+      <c r="M106" s="200">
         <v>3</v>
       </c>
-      <c r="N106" s="206">
+      <c r="N106" s="200">
         <v>3</v>
       </c>
     </row>
@@ -28932,27 +28932,27 @@
       <c r="E107" t="s">
         <v>28</v>
       </c>
-      <c r="F107" s="197">
+      <c r="F107" s="194">
         <v>3</v>
       </c>
-      <c r="G107" s="204">
+      <c r="G107" s="198">
         <v>53</v>
       </c>
-      <c r="H107" s="204">
+      <c r="H107" s="198">
         <v>10</v>
       </c>
-      <c r="I107" s="204">
-        <f t="shared" si="4"/>
+      <c r="I107" s="198">
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="J107" s="199">
-        <f t="shared" si="5"/>
+      <c r="J107" s="196">
+        <f t="shared" si="7"/>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="M107" s="206">
+      <c r="M107" s="200">
         <v>19</v>
       </c>
-      <c r="N107" s="206">
+      <c r="N107" s="200">
         <v>2</v>
       </c>
     </row>
@@ -28972,41 +28972,41 @@
       <c r="E108" t="s">
         <v>36</v>
       </c>
-      <c r="F108" s="197">
+      <c r="F108" s="194">
         <v>24</v>
       </c>
-      <c r="G108" s="198">
+      <c r="G108" s="195">
         <v>77</v>
       </c>
-      <c r="H108" s="198">
+      <c r="H108" s="195">
         <v>5</v>
       </c>
-      <c r="I108" s="198">
-        <f t="shared" si="4"/>
+      <c r="I108" s="195">
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="J108" s="199">
-        <f t="shared" si="5"/>
+      <c r="J108" s="196">
+        <f t="shared" si="7"/>
         <v>0.13250000000000001</v>
       </c>
-      <c r="K108" s="205">
+      <c r="K108" s="199">
         <v>47</v>
       </c>
-      <c r="L108" s="208">
+      <c r="L108" s="202">
         <f>1-(K108-SUM(F108:F110))/K108</f>
         <v>0.8085106382978724</v>
       </c>
-      <c r="M108" s="206">
+      <c r="M108" s="200">
         <v>57</v>
       </c>
-      <c r="N108" s="206">
+      <c r="N108" s="200">
         <v>2</v>
       </c>
-      <c r="O108" s="207">
+      <c r="O108" s="201">
         <f>SUM(K108:N110)</f>
         <v>418.80851063829789</v>
       </c>
-      <c r="P108" s="199">
+      <c r="P108" s="196">
         <f>O108/(800*3)</f>
         <v>0.17450354609929078</v>
       </c>
@@ -29027,27 +29027,27 @@
       <c r="E109" t="s">
         <v>36</v>
       </c>
-      <c r="F109" s="197">
+      <c r="F109" s="194">
         <v>3</v>
       </c>
-      <c r="G109" s="198">
+      <c r="G109" s="195">
         <v>146</v>
       </c>
-      <c r="H109" s="198">
+      <c r="H109" s="195">
         <v>8</v>
       </c>
-      <c r="I109" s="198">
-        <f t="shared" si="4"/>
+      <c r="I109" s="195">
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
-      <c r="J109" s="199">
-        <f t="shared" si="5"/>
+      <c r="J109" s="196">
+        <f t="shared" si="7"/>
         <v>0.19625000000000001</v>
       </c>
-      <c r="M109" s="206">
+      <c r="M109" s="200">
         <v>124</v>
       </c>
-      <c r="N109" s="206">
+      <c r="N109" s="200">
         <v>4</v>
       </c>
     </row>
@@ -29067,27 +29067,27 @@
       <c r="E110" t="s">
         <v>36</v>
       </c>
-      <c r="F110" s="197">
+      <c r="F110" s="194">
         <v>11</v>
       </c>
-      <c r="G110" s="198">
+      <c r="G110" s="195">
         <v>188</v>
       </c>
-      <c r="H110" s="198">
+      <c r="H110" s="195">
         <v>13</v>
       </c>
-      <c r="I110" s="198">
-        <f t="shared" si="4"/>
+      <c r="I110" s="195">
+        <f t="shared" si="6"/>
         <v>212</v>
       </c>
-      <c r="J110" s="199">
-        <f t="shared" si="5"/>
+      <c r="J110" s="196">
+        <f t="shared" si="7"/>
         <v>0.26500000000000001</v>
       </c>
-      <c r="M110" s="206">
+      <c r="M110" s="200">
         <v>174</v>
       </c>
-      <c r="N110" s="206">
+      <c r="N110" s="200">
         <v>10</v>
       </c>
     </row>
@@ -29107,41 +29107,41 @@
       <c r="E111" t="s">
         <v>29</v>
       </c>
-      <c r="F111" s="197">
-        <v>0</v>
-      </c>
-      <c r="G111" s="198">
+      <c r="F111" s="194">
+        <v>0</v>
+      </c>
+      <c r="G111" s="195">
         <v>1</v>
       </c>
-      <c r="H111" s="198">
+      <c r="H111" s="195">
         <v>1</v>
       </c>
-      <c r="I111" s="198">
-        <f t="shared" si="4"/>
+      <c r="I111" s="195">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J111" s="199">
-        <f t="shared" si="5"/>
+      <c r="J111" s="196">
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K111" s="205">
+      <c r="K111" s="199">
         <v>1</v>
       </c>
-      <c r="L111" s="208">
+      <c r="L111" s="202">
         <f>1-(K111-SUM(F111:F113))/K111</f>
         <v>1</v>
       </c>
-      <c r="M111" s="206">
-        <v>0</v>
-      </c>
-      <c r="N111" s="206">
-        <v>0</v>
-      </c>
-      <c r="O111" s="207">
+      <c r="M111" s="200">
+        <v>0</v>
+      </c>
+      <c r="N111" s="200">
+        <v>0</v>
+      </c>
+      <c r="O111" s="201">
         <f>SUM(K111:N113)</f>
         <v>3</v>
       </c>
-      <c r="P111" s="199">
+      <c r="P111" s="196">
         <f>O111/(800*3)</f>
         <v>1.25E-3</v>
       </c>
@@ -29162,27 +29162,27 @@
       <c r="E112" t="s">
         <v>29</v>
       </c>
-      <c r="F112" s="197">
-        <v>0</v>
-      </c>
-      <c r="G112" s="198">
-        <v>0</v>
-      </c>
-      <c r="H112" s="198">
-        <v>0</v>
-      </c>
-      <c r="I112" s="198">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="199">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="206">
-        <v>0</v>
-      </c>
-      <c r="N112" s="206">
+      <c r="F112" s="194">
+        <v>0</v>
+      </c>
+      <c r="G112" s="195">
+        <v>0</v>
+      </c>
+      <c r="H112" s="195">
+        <v>0</v>
+      </c>
+      <c r="I112" s="195">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="196">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="200">
+        <v>0</v>
+      </c>
+      <c r="N112" s="200">
         <v>0</v>
       </c>
     </row>
@@ -29202,27 +29202,27 @@
       <c r="E113" t="s">
         <v>29</v>
       </c>
-      <c r="F113" s="197">
+      <c r="F113" s="194">
         <v>1</v>
       </c>
-      <c r="G113" s="198">
+      <c r="G113" s="195">
         <v>2</v>
       </c>
-      <c r="H113" s="198">
+      <c r="H113" s="195">
         <v>4</v>
       </c>
-      <c r="I113" s="198">
-        <f t="shared" si="4"/>
+      <c r="I113" s="195">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="J113" s="199">
-        <f t="shared" si="5"/>
+      <c r="J113" s="196">
+        <f t="shared" si="7"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="M113" s="206">
+      <c r="M113" s="200">
         <v>1</v>
       </c>
-      <c r="N113" s="206">
+      <c r="N113" s="200">
         <v>0</v>
       </c>
     </row>
@@ -29242,35 +29242,35 @@
       <c r="E114" t="s">
         <v>37</v>
       </c>
-      <c r="F114" s="197">
+      <c r="F114" s="194">
         <v>174</v>
       </c>
-      <c r="G114" s="198">
+      <c r="G114" s="195">
         <v>171</v>
       </c>
-      <c r="H114" s="198">
+      <c r="H114" s="195">
         <v>52</v>
       </c>
-      <c r="I114" s="198">
-        <f t="shared" si="4"/>
+      <c r="I114" s="195">
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
-      <c r="J114" s="199">
-        <f t="shared" si="5"/>
+      <c r="J114" s="196">
+        <f t="shared" si="7"/>
         <v>0.49625000000000002</v>
       </c>
-      <c r="L114" s="208"/>
-      <c r="M114" s="206">
+      <c r="L114" s="202"/>
+      <c r="M114" s="200">
         <v>133</v>
       </c>
-      <c r="N114" s="206">
+      <c r="N114" s="200">
         <v>39</v>
       </c>
-      <c r="O114" s="207">
+      <c r="O114" s="201">
         <f>SUM(K114:N116)</f>
         <v>547</v>
       </c>
-      <c r="P114" s="199">
+      <c r="P114" s="196">
         <f>O114/(800*3)</f>
         <v>0.22791666666666666</v>
       </c>
@@ -29291,27 +29291,27 @@
       <c r="E115" t="s">
         <v>37</v>
       </c>
-      <c r="F115" s="197">
+      <c r="F115" s="194">
         <v>104</v>
       </c>
-      <c r="G115" s="198">
+      <c r="G115" s="195">
         <v>189</v>
       </c>
-      <c r="H115" s="198">
+      <c r="H115" s="195">
         <v>100</v>
       </c>
-      <c r="I115" s="198">
-        <f t="shared" si="4"/>
+      <c r="I115" s="195">
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
-      <c r="J115" s="199">
-        <f t="shared" si="5"/>
+      <c r="J115" s="196">
+        <f t="shared" si="7"/>
         <v>0.49125000000000002</v>
       </c>
-      <c r="M115" s="206">
+      <c r="M115" s="200">
         <v>155</v>
       </c>
-      <c r="N115" s="206">
+      <c r="N115" s="200">
         <v>82</v>
       </c>
     </row>
@@ -29331,27 +29331,27 @@
       <c r="E116" t="s">
         <v>37</v>
       </c>
-      <c r="F116" s="197">
+      <c r="F116" s="194">
         <v>116</v>
       </c>
-      <c r="G116" s="198">
+      <c r="G116" s="195">
         <v>144</v>
       </c>
-      <c r="H116" s="198">
+      <c r="H116" s="195">
         <v>57</v>
       </c>
-      <c r="I116" s="198">
-        <f t="shared" si="4"/>
+      <c r="I116" s="195">
+        <f t="shared" si="6"/>
         <v>317</v>
       </c>
-      <c r="J116" s="199">
-        <f t="shared" si="5"/>
+      <c r="J116" s="196">
+        <f t="shared" si="7"/>
         <v>0.39624999999999999</v>
       </c>
-      <c r="M116" s="206">
+      <c r="M116" s="200">
         <v>97</v>
       </c>
-      <c r="N116" s="206">
+      <c r="N116" s="200">
         <v>41</v>
       </c>
     </row>
@@ -29371,41 +29371,41 @@
       <c r="E117" t="s">
         <v>59</v>
       </c>
-      <c r="F117" s="197">
+      <c r="F117" s="194">
         <v>1</v>
       </c>
-      <c r="G117" s="198">
+      <c r="G117" s="195">
         <v>19</v>
       </c>
-      <c r="H117" s="198">
-        <v>0</v>
-      </c>
-      <c r="I117" s="198">
-        <f t="shared" si="4"/>
+      <c r="H117" s="195">
+        <v>0</v>
+      </c>
+      <c r="I117" s="195">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J117" s="199">
-        <f t="shared" si="5"/>
+      <c r="J117" s="196">
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K117" s="205">
+      <c r="K117" s="199">
         <v>2</v>
       </c>
-      <c r="L117" s="208">
+      <c r="L117" s="202">
         <f>1-(K117-SUM(F117:F119))/K117</f>
         <v>1</v>
       </c>
-      <c r="M117" s="206">
+      <c r="M117" s="200">
         <v>13</v>
       </c>
-      <c r="N117" s="206">
-        <v>0</v>
-      </c>
-      <c r="O117" s="207">
+      <c r="N117" s="200">
+        <v>0</v>
+      </c>
+      <c r="O117" s="201">
         <f>SUM(K117:N119)</f>
         <v>29</v>
       </c>
-      <c r="P117" s="199">
+      <c r="P117" s="196">
         <f>O117/(800*3)</f>
         <v>1.2083333333333333E-2</v>
       </c>
@@ -29426,27 +29426,27 @@
       <c r="E118" t="s">
         <v>59</v>
       </c>
-      <c r="F118" s="197">
-        <v>0</v>
-      </c>
-      <c r="G118" s="198">
+      <c r="F118" s="194">
+        <v>0</v>
+      </c>
+      <c r="G118" s="195">
         <v>9</v>
       </c>
-      <c r="H118" s="198">
+      <c r="H118" s="195">
         <v>1</v>
       </c>
-      <c r="I118" s="198">
-        <f t="shared" si="4"/>
+      <c r="I118" s="195">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="J118" s="199">
-        <f t="shared" si="5"/>
+      <c r="J118" s="196">
+        <f t="shared" si="7"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="M118" s="206">
+      <c r="M118" s="200">
         <v>4</v>
       </c>
-      <c r="N118" s="206">
+      <c r="N118" s="200">
         <v>1</v>
       </c>
     </row>
@@ -29466,27 +29466,27 @@
       <c r="E119" t="s">
         <v>59</v>
       </c>
-      <c r="F119" s="197">
+      <c r="F119" s="194">
         <v>1</v>
       </c>
-      <c r="G119" s="198">
+      <c r="G119" s="195">
         <v>21</v>
       </c>
-      <c r="H119" s="198">
-        <v>0</v>
-      </c>
-      <c r="I119" s="198">
-        <f t="shared" si="4"/>
+      <c r="H119" s="195">
+        <v>0</v>
+      </c>
+      <c r="I119" s="195">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="J119" s="199">
-        <f t="shared" si="5"/>
+      <c r="J119" s="196">
+        <f t="shared" si="7"/>
         <v>2.75E-2</v>
       </c>
-      <c r="M119" s="206">
+      <c r="M119" s="200">
         <v>8</v>
       </c>
-      <c r="N119" s="206">
+      <c r="N119" s="200">
         <v>0</v>
       </c>
     </row>
@@ -29506,41 +29506,41 @@
       <c r="E120" t="s">
         <v>28</v>
       </c>
-      <c r="F120" s="197">
+      <c r="F120" s="194">
         <v>1</v>
       </c>
-      <c r="G120" s="198">
+      <c r="G120" s="195">
         <v>51</v>
       </c>
-      <c r="H120" s="198">
+      <c r="H120" s="195">
         <v>7</v>
       </c>
-      <c r="I120" s="198">
-        <f t="shared" si="4"/>
+      <c r="I120" s="195">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="J120" s="199">
-        <f t="shared" si="5"/>
+      <c r="J120" s="196">
+        <f t="shared" si="7"/>
         <v>7.3749999999999996E-2</v>
       </c>
-      <c r="K120" s="205">
+      <c r="K120" s="199">
         <v>9</v>
       </c>
-      <c r="L120" s="208">
+      <c r="L120" s="202">
         <f>1-(K120-SUM(F120:F122))/K120</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="M120" s="206">
+      <c r="M120" s="200">
         <v>13</v>
       </c>
-      <c r="N120" s="206">
+      <c r="N120" s="200">
         <v>4</v>
       </c>
-      <c r="O120" s="207">
+      <c r="O120" s="201">
         <f>SUM(K120:N122)</f>
         <v>174.66666666666666</v>
       </c>
-      <c r="P120" s="199">
+      <c r="P120" s="196">
         <f>O120/(800*3)</f>
         <v>7.2777777777777775E-2</v>
       </c>
@@ -29561,27 +29561,27 @@
       <c r="E121" t="s">
         <v>28</v>
       </c>
-      <c r="F121" s="197">
+      <c r="F121" s="194">
         <v>2</v>
       </c>
-      <c r="G121" s="198">
+      <c r="G121" s="195">
         <v>116</v>
       </c>
-      <c r="H121" s="198">
+      <c r="H121" s="195">
         <v>11</v>
       </c>
-      <c r="I121" s="198">
-        <f t="shared" si="4"/>
+      <c r="I121" s="195">
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="J121" s="199">
-        <f t="shared" si="5"/>
+      <c r="J121" s="196">
+        <f t="shared" si="7"/>
         <v>0.16125</v>
       </c>
-      <c r="M121" s="206">
+      <c r="M121" s="200">
         <v>99</v>
       </c>
-      <c r="N121" s="206">
+      <c r="N121" s="200">
         <v>11</v>
       </c>
     </row>
@@ -29601,27 +29601,27 @@
       <c r="E122" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="197">
+      <c r="F122" s="194">
         <v>3</v>
       </c>
-      <c r="G122" s="198">
+      <c r="G122" s="195">
         <v>57</v>
       </c>
-      <c r="H122" s="198">
+      <c r="H122" s="195">
         <v>1</v>
       </c>
-      <c r="I122" s="198">
-        <f t="shared" si="4"/>
+      <c r="I122" s="195">
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="J122" s="199">
-        <f t="shared" si="5"/>
+      <c r="J122" s="196">
+        <f t="shared" si="7"/>
         <v>7.6249999999999998E-2</v>
       </c>
-      <c r="M122" s="206">
+      <c r="M122" s="200">
         <v>38</v>
       </c>
-      <c r="N122" s="206">
+      <c r="N122" s="200">
         <v>0</v>
       </c>
     </row>
@@ -29641,41 +29641,41 @@
       <c r="E123" t="s">
         <v>61</v>
       </c>
-      <c r="F123" s="197">
-        <v>0</v>
-      </c>
-      <c r="G123" s="198">
+      <c r="F123" s="194">
+        <v>0</v>
+      </c>
+      <c r="G123" s="195">
         <v>20</v>
       </c>
-      <c r="H123" s="198">
+      <c r="H123" s="195">
         <v>1</v>
       </c>
-      <c r="I123" s="198">
-        <f t="shared" si="4"/>
+      <c r="I123" s="195">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="J123" s="199">
-        <f t="shared" si="5"/>
+      <c r="J123" s="196">
+        <f t="shared" si="7"/>
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="K123" s="205">
+      <c r="K123" s="199">
         <v>9</v>
       </c>
-      <c r="L123" s="208">
+      <c r="L123" s="202">
         <f>1-(K123-SUM(F123:F125))/K123</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="M123" s="206">
+      <c r="M123" s="200">
         <v>14</v>
       </c>
-      <c r="N123" s="206">
-        <v>0</v>
-      </c>
-      <c r="O123" s="207">
+      <c r="N123" s="200">
+        <v>0</v>
+      </c>
+      <c r="O123" s="201">
         <f>SUM(K123:N125)</f>
         <v>141.77777777777777</v>
       </c>
-      <c r="P123" s="199">
+      <c r="P123" s="196">
         <f>O123/(800*3)</f>
         <v>5.9074074074074071E-2</v>
       </c>
@@ -29696,27 +29696,27 @@
       <c r="E124" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="F124" s="197">
+      <c r="F124" s="194">
         <v>7</v>
       </c>
-      <c r="G124" s="198">
+      <c r="G124" s="195">
         <v>80</v>
       </c>
-      <c r="H124" s="198">
+      <c r="H124" s="195">
         <v>13</v>
       </c>
-      <c r="I124" s="198">
-        <f t="shared" si="4"/>
+      <c r="I124" s="195">
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="J124" s="199">
-        <f t="shared" si="5"/>
+      <c r="J124" s="196">
+        <f t="shared" si="7"/>
         <v>0.125</v>
       </c>
-      <c r="M124" s="206">
+      <c r="M124" s="200">
         <v>71</v>
       </c>
-      <c r="N124" s="206">
+      <c r="N124" s="200">
         <v>8</v>
       </c>
     </row>
@@ -29736,27 +29736,27 @@
       <c r="E125" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="F125" s="197">
-        <v>0</v>
-      </c>
-      <c r="G125" s="198">
+      <c r="F125" s="194">
+        <v>0</v>
+      </c>
+      <c r="G125" s="195">
         <v>48</v>
       </c>
-      <c r="H125" s="198">
+      <c r="H125" s="195">
         <v>1</v>
       </c>
-      <c r="I125" s="198">
-        <f t="shared" si="4"/>
+      <c r="I125" s="195">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="J125" s="199">
-        <f t="shared" si="5"/>
+      <c r="J125" s="196">
+        <f t="shared" si="7"/>
         <v>6.1249999999999999E-2</v>
       </c>
-      <c r="M125" s="206">
+      <c r="M125" s="200">
         <v>38</v>
       </c>
-      <c r="N125" s="206">
+      <c r="N125" s="200">
         <v>1</v>
       </c>
     </row>
@@ -29776,41 +29776,41 @@
       <c r="E126" t="s">
         <v>37</v>
       </c>
-      <c r="F126" s="197">
-        <v>0</v>
-      </c>
-      <c r="G126" s="198">
+      <c r="F126" s="194">
+        <v>0</v>
+      </c>
+      <c r="G126" s="195">
         <v>17</v>
       </c>
-      <c r="H126" s="198">
+      <c r="H126" s="195">
         <v>2</v>
       </c>
-      <c r="I126" s="198">
-        <f t="shared" si="4"/>
+      <c r="I126" s="195">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J126" s="199">
-        <f t="shared" si="5"/>
+      <c r="J126" s="196">
+        <f t="shared" si="7"/>
         <v>2.375E-2</v>
       </c>
-      <c r="K126" s="205">
+      <c r="K126" s="199">
         <v>23</v>
       </c>
-      <c r="L126" s="208">
+      <c r="L126" s="202">
         <f>1-(K126-SUM(F126:F128))/K126</f>
         <v>0.73913043478260865</v>
       </c>
-      <c r="M126" s="206">
+      <c r="M126" s="200">
         <v>19</v>
       </c>
-      <c r="N126" s="206">
-        <v>0</v>
-      </c>
-      <c r="O126" s="207">
+      <c r="N126" s="200">
+        <v>0</v>
+      </c>
+      <c r="O126" s="201">
         <f>SUM(K126:N128)</f>
         <v>201.73913043478262</v>
       </c>
-      <c r="P126" s="199">
+      <c r="P126" s="196">
         <f>O126/(800*3)</f>
         <v>8.4057971014492763E-2</v>
       </c>
@@ -29831,27 +29831,27 @@
       <c r="E127" t="s">
         <v>37</v>
       </c>
-      <c r="F127" s="197">
+      <c r="F127" s="194">
         <v>16</v>
       </c>
-      <c r="G127" s="198">
+      <c r="G127" s="195">
         <v>80</v>
       </c>
-      <c r="H127" s="198">
+      <c r="H127" s="195">
         <v>6</v>
       </c>
-      <c r="I127" s="198">
-        <f t="shared" si="4"/>
+      <c r="I127" s="195">
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="J127" s="199">
-        <f t="shared" si="5"/>
+      <c r="J127" s="196">
+        <f t="shared" si="7"/>
         <v>0.1275</v>
       </c>
-      <c r="M127" s="206">
+      <c r="M127" s="200">
         <v>84</v>
       </c>
-      <c r="N127" s="206">
+      <c r="N127" s="200">
         <v>4</v>
       </c>
     </row>
@@ -29871,27 +29871,27 @@
       <c r="E128" t="s">
         <v>37</v>
       </c>
-      <c r="F128" s="197">
+      <c r="F128" s="194">
         <v>1</v>
       </c>
-      <c r="G128" s="198">
+      <c r="G128" s="195">
         <v>87</v>
       </c>
-      <c r="H128" s="198">
+      <c r="H128" s="195">
         <v>3</v>
       </c>
-      <c r="I128" s="198">
-        <f t="shared" si="4"/>
+      <c r="I128" s="195">
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="J128" s="199">
-        <f t="shared" si="5"/>
+      <c r="J128" s="196">
+        <f t="shared" si="7"/>
         <v>0.11375</v>
       </c>
-      <c r="M128" s="206">
+      <c r="M128" s="200">
         <v>68</v>
       </c>
-      <c r="N128" s="206">
+      <c r="N128" s="200">
         <v>3</v>
       </c>
     </row>
@@ -29911,41 +29911,41 @@
       <c r="E129" t="s">
         <v>83</v>
       </c>
-      <c r="F129" s="197">
-        <v>0</v>
-      </c>
-      <c r="G129" s="198">
+      <c r="F129" s="194">
+        <v>0</v>
+      </c>
+      <c r="G129" s="195">
         <v>7</v>
       </c>
-      <c r="H129" s="198">
-        <v>0</v>
-      </c>
-      <c r="I129" s="198">
-        <f t="shared" si="4"/>
+      <c r="H129" s="195">
+        <v>0</v>
+      </c>
+      <c r="I129" s="195">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="J129" s="199">
-        <f t="shared" si="5"/>
+      <c r="J129" s="196">
+        <f t="shared" si="7"/>
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="K129" s="205">
+      <c r="K129" s="199">
         <v>5</v>
       </c>
-      <c r="L129" s="208">
+      <c r="L129" s="202">
         <f>1-(K129-SUM(F129:F131))/K129</f>
         <v>0.6</v>
       </c>
-      <c r="M129" s="206">
+      <c r="M129" s="200">
         <v>8</v>
       </c>
-      <c r="N129" s="206">
-        <v>0</v>
-      </c>
-      <c r="O129" s="207">
+      <c r="N129" s="200">
+        <v>0</v>
+      </c>
+      <c r="O129" s="201">
         <f>SUM(K129:N131)</f>
         <v>50.6</v>
       </c>
-      <c r="P129" s="199">
+      <c r="P129" s="196">
         <f>O129/(800*3)</f>
         <v>2.1083333333333332E-2</v>
       </c>
@@ -29966,27 +29966,27 @@
       <c r="E130" t="s">
         <v>83</v>
       </c>
-      <c r="F130" s="197">
+      <c r="F130" s="194">
         <v>1</v>
       </c>
-      <c r="G130" s="198">
+      <c r="G130" s="195">
         <v>5</v>
       </c>
-      <c r="H130" s="198">
+      <c r="H130" s="195">
         <v>5</v>
       </c>
-      <c r="I130" s="198">
-        <f t="shared" si="4"/>
+      <c r="I130" s="195">
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="J130" s="199">
-        <f t="shared" si="5"/>
+      <c r="J130" s="196">
+        <f t="shared" si="7"/>
         <v>1.375E-2</v>
       </c>
-      <c r="M130" s="206">
+      <c r="M130" s="200">
         <v>5</v>
       </c>
-      <c r="N130" s="206">
+      <c r="N130" s="200">
         <v>3</v>
       </c>
     </row>
@@ -30006,27 +30006,27 @@
       <c r="E131" t="s">
         <v>83</v>
       </c>
-      <c r="F131" s="197">
+      <c r="F131" s="194">
         <v>2</v>
       </c>
-      <c r="G131" s="198">
+      <c r="G131" s="195">
         <v>30</v>
       </c>
-      <c r="H131" s="198">
-        <v>0</v>
-      </c>
-      <c r="I131" s="198">
-        <f t="shared" si="4"/>
+      <c r="H131" s="195">
+        <v>0</v>
+      </c>
+      <c r="I131" s="195">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="J131" s="199">
-        <f t="shared" si="5"/>
+      <c r="J131" s="196">
+        <f t="shared" si="7"/>
         <v>0.04</v>
       </c>
-      <c r="M131" s="206">
+      <c r="M131" s="200">
         <v>29</v>
       </c>
-      <c r="N131" s="206">
+      <c r="N131" s="200">
         <v>0</v>
       </c>
     </row>
@@ -30046,41 +30046,41 @@
       <c r="E132" t="s">
         <v>84</v>
       </c>
-      <c r="F132" s="197">
+      <c r="F132" s="194">
         <v>5</v>
       </c>
-      <c r="G132" s="198">
+      <c r="G132" s="195">
         <v>37</v>
       </c>
-      <c r="H132" s="198">
+      <c r="H132" s="195">
         <v>9</v>
       </c>
-      <c r="I132" s="198">
-        <f t="shared" si="4"/>
+      <c r="I132" s="195">
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="J132" s="199">
-        <f t="shared" si="5"/>
+      <c r="J132" s="196">
+        <f t="shared" si="7"/>
         <v>6.3750000000000001E-2</v>
       </c>
-      <c r="K132" s="205">
+      <c r="K132" s="199">
         <v>40</v>
       </c>
-      <c r="L132" s="208">
+      <c r="L132" s="202">
         <f>1-(K132-SUM(F132:F134))/K132</f>
         <v>0.9</v>
       </c>
-      <c r="M132" s="206">
+      <c r="M132" s="200">
         <v>18</v>
       </c>
-      <c r="N132" s="206">
+      <c r="N132" s="200">
         <v>7</v>
       </c>
-      <c r="O132" s="207">
+      <c r="O132" s="201">
         <f>SUM(K132:N134)</f>
         <v>125.9</v>
       </c>
-      <c r="P132" s="199">
+      <c r="P132" s="196">
         <f>O132/(800*3)</f>
         <v>5.2458333333333336E-2</v>
       </c>
@@ -30101,27 +30101,27 @@
       <c r="E133" t="s">
         <v>84</v>
       </c>
-      <c r="F133" s="197">
+      <c r="F133" s="194">
         <v>23</v>
       </c>
-      <c r="G133" s="198">
+      <c r="G133" s="195">
         <v>68</v>
       </c>
-      <c r="H133" s="198">
+      <c r="H133" s="195">
         <v>6</v>
       </c>
-      <c r="I133" s="198">
-        <f t="shared" si="4"/>
+      <c r="I133" s="195">
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
-      <c r="J133" s="199">
-        <f t="shared" si="5"/>
+      <c r="J133" s="196">
+        <f t="shared" si="7"/>
         <v>0.12125</v>
       </c>
-      <c r="M133" s="206">
+      <c r="M133" s="200">
         <v>36</v>
       </c>
-      <c r="N133" s="206">
+      <c r="N133" s="200">
         <v>4</v>
       </c>
     </row>
@@ -30141,27 +30141,27 @@
       <c r="E134" t="s">
         <v>84</v>
       </c>
-      <c r="F134" s="197">
+      <c r="F134" s="194">
         <v>8</v>
       </c>
-      <c r="G134" s="198">
+      <c r="G134" s="195">
         <v>33</v>
       </c>
-      <c r="H134" s="198">
+      <c r="H134" s="195">
         <v>3</v>
       </c>
-      <c r="I134" s="198">
-        <f t="shared" si="4"/>
+      <c r="I134" s="195">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="J134" s="199">
-        <f t="shared" si="5"/>
+      <c r="J134" s="196">
+        <f t="shared" si="7"/>
         <v>5.5E-2</v>
       </c>
-      <c r="M134" s="206">
+      <c r="M134" s="200">
         <v>20</v>
       </c>
-      <c r="N134" s="206">
+      <c r="N134" s="200">
         <v>0</v>
       </c>
     </row>
@@ -30181,21 +30181,21 @@
       <c r="E135" t="s">
         <v>28</v>
       </c>
-      <c r="F135" s="197">
+      <c r="F135" s="194">
         <v>13</v>
       </c>
-      <c r="G135" s="198">
+      <c r="G135" s="195">
         <v>144</v>
       </c>
-      <c r="H135" s="198">
+      <c r="H135" s="195">
         <v>13</v>
       </c>
-      <c r="I135" s="198">
-        <f t="shared" si="4"/>
+      <c r="I135" s="195">
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
-      <c r="J135" s="199">
-        <f t="shared" si="5"/>
+      <c r="J135" s="196">
+        <f t="shared" si="7"/>
         <v>0.21249999999999999</v>
       </c>
     </row>
@@ -30215,21 +30215,21 @@
       <c r="E136" t="s">
         <v>28</v>
       </c>
-      <c r="F136" s="197">
+      <c r="F136" s="194">
         <v>34</v>
       </c>
-      <c r="G136" s="198">
+      <c r="G136" s="195">
         <v>141</v>
       </c>
-      <c r="H136" s="198">
+      <c r="H136" s="195">
         <v>17</v>
       </c>
-      <c r="I136" s="198">
-        <f t="shared" si="4"/>
+      <c r="I136" s="195">
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
-      <c r="J136" s="199">
-        <f t="shared" si="5"/>
+      <c r="J136" s="196">
+        <f t="shared" si="7"/>
         <v>0.24</v>
       </c>
     </row>
@@ -30249,21 +30249,21 @@
       <c r="E137" t="s">
         <v>28</v>
       </c>
-      <c r="F137" s="197">
+      <c r="F137" s="194">
         <v>10</v>
       </c>
-      <c r="G137" s="198">
+      <c r="G137" s="195">
         <v>147</v>
       </c>
-      <c r="H137" s="198">
+      <c r="H137" s="195">
         <v>8</v>
       </c>
-      <c r="I137" s="198">
-        <f t="shared" ref="I137:I146" si="6">SUM(F137:H137)</f>
+      <c r="I137" s="195">
+        <f t="shared" ref="I137:I146" si="8">SUM(F137:H137)</f>
         <v>165</v>
       </c>
-      <c r="J137" s="199">
-        <f t="shared" ref="J137:J146" si="7">SUM(F137:H137)/800</f>
+      <c r="J137" s="196">
+        <f t="shared" ref="J137:J146" si="9">SUM(F137:H137)/800</f>
         <v>0.20624999999999999</v>
       </c>
     </row>
@@ -30283,21 +30283,21 @@
       <c r="E138" t="s">
         <v>36</v>
       </c>
-      <c r="F138" s="197">
+      <c r="F138" s="194">
         <v>4</v>
       </c>
-      <c r="G138" s="198">
+      <c r="G138" s="195">
         <v>57</v>
       </c>
-      <c r="H138" s="198">
+      <c r="H138" s="195">
         <v>2</v>
       </c>
-      <c r="I138" s="198">
+      <c r="I138" s="195">
         <f>SUM(F138:H138)</f>
         <v>63</v>
       </c>
-      <c r="J138" s="199">
-        <f t="shared" si="7"/>
+      <c r="J138" s="196">
+        <f t="shared" si="9"/>
         <v>7.8750000000000001E-2</v>
       </c>
     </row>
@@ -30317,21 +30317,21 @@
       <c r="E139" t="s">
         <v>36</v>
       </c>
-      <c r="F139" s="197">
-        <v>0</v>
-      </c>
-      <c r="G139" s="198">
+      <c r="F139" s="194">
+        <v>0</v>
+      </c>
+      <c r="G139" s="195">
         <v>69</v>
       </c>
-      <c r="H139" s="198">
+      <c r="H139" s="195">
         <v>1</v>
       </c>
-      <c r="I139" s="198">
-        <f t="shared" si="6"/>
+      <c r="I139" s="195">
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="J139" s="199">
-        <f t="shared" si="7"/>
+      <c r="J139" s="196">
+        <f t="shared" si="9"/>
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
@@ -30351,21 +30351,21 @@
       <c r="E140" t="s">
         <v>36</v>
       </c>
-      <c r="F140" s="197">
+      <c r="F140" s="194">
         <v>1</v>
       </c>
-      <c r="G140" s="198">
+      <c r="G140" s="195">
         <v>38</v>
       </c>
-      <c r="H140" s="198">
+      <c r="H140" s="195">
         <v>3</v>
       </c>
-      <c r="I140" s="198">
-        <f t="shared" si="6"/>
+      <c r="I140" s="195">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="J140" s="199">
-        <f t="shared" si="7"/>
+      <c r="J140" s="196">
+        <f t="shared" si="9"/>
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
@@ -30385,21 +30385,21 @@
       <c r="E141" t="s">
         <v>84</v>
       </c>
-      <c r="F141" s="197">
+      <c r="F141" s="194">
         <v>36</v>
       </c>
-      <c r="G141" s="198">
+      <c r="G141" s="195">
         <v>175</v>
       </c>
-      <c r="H141" s="198">
+      <c r="H141" s="195">
         <v>24</v>
       </c>
-      <c r="I141" s="198">
-        <f t="shared" si="6"/>
+      <c r="I141" s="195">
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
-      <c r="J141" s="199">
-        <f t="shared" si="7"/>
+      <c r="J141" s="196">
+        <f t="shared" si="9"/>
         <v>0.29375000000000001</v>
       </c>
     </row>
@@ -30419,21 +30419,21 @@
       <c r="E142" t="s">
         <v>84</v>
       </c>
-      <c r="F142" s="197">
+      <c r="F142" s="194">
         <v>7</v>
       </c>
-      <c r="G142" s="198">
+      <c r="G142" s="195">
         <v>90</v>
       </c>
-      <c r="H142" s="198">
+      <c r="H142" s="195">
         <v>3</v>
       </c>
-      <c r="I142" s="198">
-        <f t="shared" si="6"/>
+      <c r="I142" s="195">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="J142" s="199">
-        <f t="shared" si="7"/>
+      <c r="J142" s="196">
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
     </row>
@@ -30453,21 +30453,21 @@
       <c r="E143" t="s">
         <v>84</v>
       </c>
-      <c r="F143" s="197">
+      <c r="F143" s="194">
         <v>28</v>
       </c>
-      <c r="G143" s="198">
+      <c r="G143" s="195">
         <v>136</v>
       </c>
-      <c r="H143" s="198">
+      <c r="H143" s="195">
         <v>15</v>
       </c>
-      <c r="I143" s="198">
-        <f t="shared" si="6"/>
+      <c r="I143" s="195">
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
-      <c r="J143" s="199">
-        <f t="shared" si="7"/>
+      <c r="J143" s="196">
+        <f t="shared" si="9"/>
         <v>0.22375</v>
       </c>
     </row>
@@ -30487,21 +30487,21 @@
       <c r="E144" t="s">
         <v>84</v>
       </c>
-      <c r="F144" s="197">
+      <c r="F144" s="194">
         <v>14</v>
       </c>
-      <c r="G144" s="198">
+      <c r="G144" s="195">
         <v>186</v>
       </c>
-      <c r="H144" s="198">
+      <c r="H144" s="195">
         <v>64</v>
       </c>
-      <c r="I144" s="198">
+      <c r="I144" s="195">
         <f>SUM(F144:H144)</f>
         <v>264</v>
       </c>
-      <c r="J144" s="199">
-        <f t="shared" si="7"/>
+      <c r="J144" s="196">
+        <f t="shared" si="9"/>
         <v>0.33</v>
       </c>
     </row>
@@ -30521,21 +30521,21 @@
       <c r="E145" t="s">
         <v>84</v>
       </c>
-      <c r="F145" s="197">
+      <c r="F145" s="194">
         <v>28</v>
       </c>
-      <c r="G145" s="198">
+      <c r="G145" s="195">
         <v>173</v>
       </c>
-      <c r="H145" s="198">
+      <c r="H145" s="195">
         <v>112</v>
       </c>
-      <c r="I145" s="198">
-        <f t="shared" si="6"/>
+      <c r="I145" s="195">
+        <f t="shared" si="8"/>
         <v>313</v>
       </c>
-      <c r="J145" s="199">
-        <f t="shared" si="7"/>
+      <c r="J145" s="196">
+        <f t="shared" si="9"/>
         <v>0.39124999999999999</v>
       </c>
     </row>
@@ -30555,21 +30555,21 @@
       <c r="E146" t="s">
         <v>84</v>
       </c>
-      <c r="F146" s="197">
+      <c r="F146" s="194">
         <v>31</v>
       </c>
-      <c r="G146" s="198">
+      <c r="G146" s="195">
         <v>150</v>
       </c>
-      <c r="H146" s="198">
+      <c r="H146" s="195">
         <v>96</v>
       </c>
-      <c r="I146" s="198">
-        <f t="shared" si="6"/>
+      <c r="I146" s="195">
+        <f t="shared" si="8"/>
         <v>277</v>
       </c>
-      <c r="J146" s="199">
-        <f t="shared" si="7"/>
+      <c r="J146" s="196">
+        <f t="shared" si="9"/>
         <v>0.34625</v>
       </c>
     </row>
@@ -30592,7 +30592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -30728,7 +30728,7 @@
         <v>218.16666666666666</v>
       </c>
       <c r="M3" s="14">
-        <f t="shared" ref="M3:M55" si="0">(L3*9)/0.0009</f>
+        <f t="shared" ref="M3:M54" si="0">(L3*9)/0.0009</f>
         <v>2181666.6666666665</v>
       </c>
       <c r="N3" s="15">
@@ -33372,7 +33372,7 @@
         <v>121</v>
       </c>
       <c r="L48" s="14">
-        <f>AVERAGE(F48:K48)</f>
+        <f t="shared" ref="L48:L54" si="6">AVERAGE(F48:K48)</f>
         <v>142.66666666666666</v>
       </c>
       <c r="M48" s="14">
@@ -33432,7 +33432,7 @@
         <v>252</v>
       </c>
       <c r="L49" s="192">
-        <f>AVERAGE(F49:K49)</f>
+        <f t="shared" si="6"/>
         <v>346.16666666666669</v>
       </c>
       <c r="M49" s="192">
@@ -33486,7 +33486,7 @@
         <v>445</v>
       </c>
       <c r="L50" s="192">
-        <f>AVERAGE(F50:K50)</f>
+        <f t="shared" si="6"/>
         <v>435.83333333333331</v>
       </c>
       <c r="M50" s="192">
@@ -33540,7 +33540,7 @@
         <v>125</v>
       </c>
       <c r="L51" s="192">
-        <f>AVERAGE(F51:K51)</f>
+        <f t="shared" si="6"/>
         <v>144.66666666666666</v>
       </c>
       <c r="M51" s="192">
@@ -33594,7 +33594,7 @@
         <v>202</v>
       </c>
       <c r="L52" s="192">
-        <f>AVERAGE(F52:K52)</f>
+        <f t="shared" si="6"/>
         <v>177.33333333333334</v>
       </c>
       <c r="M52" s="192">
@@ -33648,7 +33648,7 @@
         <v>188</v>
       </c>
       <c r="L53" s="192">
-        <f>AVERAGE(F53:K53)</f>
+        <f t="shared" si="6"/>
         <v>168.5</v>
       </c>
       <c r="M53" s="192">
@@ -33702,7 +33702,7 @@
         <v>142</v>
       </c>
       <c r="L54" s="192">
-        <f>AVERAGE(F54:K54)</f>
+        <f t="shared" si="6"/>
         <v>153.83333333333334</v>
       </c>
       <c r="M54" s="192">
@@ -33737,7 +33737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
@@ -36149,7 +36149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -37220,7 +37220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E20" workbookViewId="0">
+    <sheetView topLeftCell="E20" workbookViewId="0">
       <selection activeCell="N18" sqref="K1:N18"/>
     </sheetView>
   </sheetViews>
@@ -38299,7 +38299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -39028,7 +39028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -39058,16 +39058,16 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="G3" s="193" t="s">
+      <c r="G3" s="211" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193" t="s">
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
       <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:13" ht="30">
@@ -39572,7 +39572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1560" topLeftCell="A29" activePane="bottomLeft"/>
       <selection activeCell="J2" sqref="J2:K2"/>
       <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
@@ -39607,124 +39607,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="213" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194" t="s">
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194" t="s">
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194" t="s">
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194" t="s">
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194" t="s">
+      <c r="S1" s="212"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194" t="s">
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194" t="s">
+      <c r="AA1" s="212"/>
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="212"/>
+      <c r="AD1" s="212" t="s">
         <v>201</v>
       </c>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="AE1" s="212"/>
+      <c r="AF1" s="212"/>
+      <c r="AG1" s="212"/>
     </row>
     <row r="2" spans="1:33" ht="26" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="194" t="s">
+      <c r="A2" s="213"/>
+      <c r="B2" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194" t="s">
+      <c r="C2" s="212"/>
+      <c r="D2" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194" t="s">
+      <c r="E2" s="212"/>
+      <c r="F2" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194" t="s">
+      <c r="G2" s="212"/>
+      <c r="H2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194" t="s">
+      <c r="I2" s="212"/>
+      <c r="J2" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194" t="s">
+      <c r="K2" s="212"/>
+      <c r="L2" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194" t="s">
+      <c r="M2" s="212"/>
+      <c r="N2" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194" t="s">
+      <c r="O2" s="212"/>
+      <c r="P2" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194" t="s">
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194" t="s">
+      <c r="S2" s="212"/>
+      <c r="T2" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194" t="s">
+      <c r="U2" s="212"/>
+      <c r="V2" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194" t="s">
+      <c r="W2" s="212"/>
+      <c r="X2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194" t="s">
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194" t="s">
+      <c r="AA2" s="212"/>
+      <c r="AB2" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="194" t="s">
+      <c r="AC2" s="212"/>
+      <c r="AD2" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194" t="s">
+      <c r="AE2" s="212"/>
+      <c r="AF2" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="194"/>
+      <c r="AG2" s="212"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="100" t="s">
@@ -43785,6 +43785,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A1:A2"/>
@@ -43801,15 +43810,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -43829,7 +43829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1480" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="J2" sqref="J2:K2"/>
       <selection pane="bottomLeft" activeCell="AJ11" sqref="AJ11"/>
@@ -43873,123 +43873,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194" t="s">
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194" t="s">
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194" t="s">
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194" t="s">
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="S1" s="194"/>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194" t="s">
+      <c r="S1" s="212"/>
+      <c r="T1" s="212"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="194" t="s">
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="194"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="194"/>
-      <c r="AD1" s="194" t="s">
+      <c r="AA1" s="212"/>
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="212"/>
+      <c r="AD1" s="212" t="s">
         <v>201</v>
       </c>
-      <c r="AE1" s="194"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="194"/>
+      <c r="AE1" s="212"/>
+      <c r="AF1" s="212"/>
+      <c r="AG1" s="212"/>
     </row>
     <row r="2" spans="1:33" ht="27" customHeight="1">
       <c r="A2" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194" t="s">
+      <c r="C2" s="212"/>
+      <c r="D2" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194" t="s">
+      <c r="E2" s="212"/>
+      <c r="F2" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194" t="s">
+      <c r="G2" s="212"/>
+      <c r="H2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194" t="s">
+      <c r="I2" s="212"/>
+      <c r="J2" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194" t="s">
+      <c r="K2" s="212"/>
+      <c r="L2" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194" t="s">
+      <c r="M2" s="212"/>
+      <c r="N2" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194" t="s">
+      <c r="O2" s="212"/>
+      <c r="P2" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194" t="s">
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194" t="s">
+      <c r="S2" s="212"/>
+      <c r="T2" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194" t="s">
+      <c r="U2" s="212"/>
+      <c r="V2" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194" t="s">
+      <c r="W2" s="212"/>
+      <c r="X2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194" t="s">
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194" t="s">
+      <c r="AA2" s="212"/>
+      <c r="AB2" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="194" t="s">
+      <c r="AC2" s="212"/>
+      <c r="AD2" s="212" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194" t="s">
+      <c r="AE2" s="212"/>
+      <c r="AF2" s="212" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="194"/>
+      <c r="AG2" s="212"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="99" t="s">
@@ -48035,14 +48035,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B2:C2"/>
@@ -48059,6 +48051,14 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/Metrics.xlsx
+++ b/data/Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="22000" windowHeight="15320" tabRatio="1000" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="22000" windowHeight="15320" tabRatio="1000" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Larvae Collection" sheetId="3" r:id="rId1"/>
@@ -656,7 +656,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="404">
   <si>
     <t>Date</t>
   </si>
@@ -1393,9 +1393,6 @@
     <t>none</t>
   </si>
   <si>
-    <t>Date counted</t>
-  </si>
-  <si>
     <t>B1-2A</t>
   </si>
   <si>
@@ -1893,6 +1890,15 @@
   <si>
     <t>SURVIVAL MEAN % (average reps sep.)</t>
   </si>
+  <si>
+    <t>Whoops, accidentally undid these counts, but it was 100k cells/mL</t>
+  </si>
+  <si>
+    <t>a ton (TBD)</t>
+  </si>
+  <si>
+    <t>Date counted for 5wks</t>
+  </si>
 </sst>
 </file>
 
@@ -2220,7 +2226,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1100">
+  <cellStyleXfs count="1132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3321,8 +3327,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3850,8 +3888,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1100">
+  <cellStyles count="1132">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="601"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4402,6 +4442,22 @@
     <cellStyle name="Followed Hyperlink" xfId="1095" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1097" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1099" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1131" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -4950,6 +5006,22 @@
     <cellStyle name="Hyperlink" xfId="1094" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1096" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1098" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1130" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="332" builtinId="5"/>
   </cellStyles>
@@ -5136,11 +5208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091989608"/>
-        <c:axId val="2091982712"/>
+        <c:axId val="2116333368"/>
+        <c:axId val="2116338872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091989608"/>
+        <c:axId val="2116333368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5168,12 +5240,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091982712"/>
+        <c:crossAx val="2116338872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091982712"/>
+        <c:axId val="2116338872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,7 +5269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091989608"/>
+        <c:crossAx val="2116333368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8594,11 +8666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095269016"/>
-        <c:axId val="2095271768"/>
+        <c:axId val="2131457752"/>
+        <c:axId val="2131448536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2095269016"/>
+        <c:axId val="2131457752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8608,14 +8680,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095271768"/>
+        <c:crossAx val="2131448536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2095271768"/>
+        <c:axId val="2131448536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8626,7 +8698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095269016"/>
+        <c:crossAx val="2131457752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12115,11 +12187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093033768"/>
-        <c:axId val="2093031000"/>
+        <c:axId val="2131196952"/>
+        <c:axId val="2131190264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2093033768"/>
+        <c:axId val="2131196952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12129,14 +12201,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093031000"/>
+        <c:crossAx val="2131190264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2093031000"/>
+        <c:axId val="2131190264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12147,7 +12219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093033768"/>
+        <c:crossAx val="2131196952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12673,10 +12745,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2080" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2080" topLeftCell="A125" activePane="bottomLeft"/>
       <selection activeCell="T1" sqref="E1:T1048576"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23959,42 +24031,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="860" activePane="bottomLeft"/>
-      <selection activeCell="S1" sqref="S1:S1048576"/>
-      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane ySplit="1160" topLeftCell="A36" activePane="bottomLeft"/>
+      <selection activeCell="J3" sqref="D1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="194" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="195" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" style="195" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="196" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="194" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="195" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" style="195" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="196" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" style="199" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="200"/>
-    <col min="14" max="14" width="14.1640625" style="200" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="197" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="196"/>
-    <col min="17" max="17" width="10.83203125" style="64"/>
-    <col min="18" max="19" width="16.5" style="190" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" style="190" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="190" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" customWidth="1"/>
+    <col min="12" max="13" width="0" style="200" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="200" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="197" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="0" style="196" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" style="64" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="16.5" style="190" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="21.33203125" style="190" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="190" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="F1" s="214" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G1" s="215"/>
       <c r="H1" s="215"/>
       <c r="I1" s="215"/>
       <c r="J1" s="216"/>
       <c r="K1" s="214" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L1" s="215"/>
       <c r="M1" s="215"/>
@@ -24004,19 +24077,19 @@
     </row>
     <row r="2" spans="1:24" s="97" customFormat="1" ht="45">
       <c r="A2" s="97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>235</v>
+        <v>403</v>
       </c>
       <c r="C2" s="97" t="s">
         <v>157</v>
       </c>
       <c r="D2" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="97" t="s">
         <v>321</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>322</v>
       </c>
       <c r="F2" s="203" t="s">
         <v>231</v>
@@ -24028,16 +24101,16 @@
         <v>233</v>
       </c>
       <c r="I2" s="204" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J2" s="205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K2" s="206" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L2" s="207" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M2" s="207" t="s">
         <v>232</v>
@@ -24046,28 +24119,28 @@
         <v>233</v>
       </c>
       <c r="O2" s="208" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P2" s="205" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q2" s="209" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R2" s="210" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S2" s="210" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T2" s="210" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U2" s="210" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V2" s="97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -24078,10 +24151,10 @@
         <v>43226</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -24117,12 +24190,12 @@
         <v>3</v>
       </c>
       <c r="O3" s="201">
-        <f>SUM(K3:N5)</f>
-        <v>177.63265306122449</v>
+        <f>SUM(K3,M3:N5)</f>
+        <v>177</v>
       </c>
       <c r="P3" s="196">
         <f>O3/(800*3)</f>
-        <v>7.4013605442176875E-2</v>
+        <v>7.3749999999999996E-2</v>
       </c>
       <c r="Q3" s="64" t="s">
         <v>37</v>
@@ -24133,14 +24206,14 @@
       </c>
       <c r="S3" s="190">
         <f>AVERAGEIF(E:E,Q3,P:P)</f>
-        <v>9.5633064143103741E-2</v>
+        <v>9.5416666666666664E-2</v>
       </c>
       <c r="T3" s="190">
         <f>AVERAGE(L15,L24,L66,L69,L114,L126)</f>
         <v>0.62322473213875207</v>
       </c>
       <c r="V3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W3" s="193">
         <f>AVERAGE(R3:R4)</f>
@@ -24156,10 +24229,10 @@
         <v>43226</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -24196,14 +24269,14 @@
       </c>
       <c r="S4" s="190">
         <f t="shared" ref="S4:S10" si="3">AVERAGEIF(E:E,Q4,P:P)</f>
-        <v>3.6030555555555552E-2</v>
+        <v>6.1041666666666661E-2</v>
       </c>
       <c r="T4" s="190">
         <f t="shared" ref="T4:T10" si="4">AVERAGEIF(E:E,Q4,L:L)</f>
-        <v>0.47333333333333333</v>
+        <v>0.54767025089605736</v>
       </c>
       <c r="V4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -24214,10 +24287,10 @@
         <v>43226</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -24254,14 +24327,14 @@
       </c>
       <c r="S5" s="190">
         <f t="shared" si="3"/>
-        <v>6.6243261841773746E-2</v>
+        <v>6.5972222222222224E-2</v>
       </c>
       <c r="T5" s="190">
         <f t="shared" si="4"/>
         <v>0.65049508692365832</v>
       </c>
       <c r="V5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W5" s="193">
         <f>AVERAGE(R5:R6)</f>
@@ -24276,10 +24349,10 @@
         <v>43226</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -24315,12 +24388,12 @@
         <v>0</v>
       </c>
       <c r="O6" s="201">
-        <f>SUM(K6:N8)</f>
-        <v>46.6</v>
+        <f>SUM(K6,M6:N8)</f>
+        <v>46</v>
       </c>
       <c r="P6" s="196">
         <f>O6/(800*3)</f>
-        <v>1.9416666666666669E-2</v>
+        <v>1.9166666666666665E-2</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>36</v>
@@ -24331,14 +24404,14 @@
       </c>
       <c r="S6" s="190">
         <f t="shared" si="3"/>
-        <v>9.6693464381363323E-2</v>
+        <v>9.1458333333333322E-2</v>
       </c>
       <c r="T6" s="190">
         <f t="shared" si="4"/>
-        <v>0.66431451527196206</v>
+        <v>0.64618802198589431</v>
       </c>
       <c r="V6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -24349,10 +24422,10 @@
         <v>43226</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -24389,14 +24462,14 @@
       </c>
       <c r="S7" s="190">
         <f t="shared" si="3"/>
-        <v>3.9856150793650791E-2</v>
+        <v>3.965277777777778E-2</v>
       </c>
       <c r="T7" s="190">
         <f t="shared" si="4"/>
         <v>0.48809523809523814</v>
       </c>
       <c r="V7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W7" s="193">
         <f>AVERAGE(R7:R8)</f>
@@ -24411,10 +24484,10 @@
         <v>43226</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -24451,14 +24524,14 @@
       </c>
       <c r="S8" s="190">
         <f t="shared" si="3"/>
-        <v>3.2593749999999998E-2</v>
+        <v>0.10340277777777777</v>
       </c>
       <c r="T8" s="190">
         <f t="shared" si="4"/>
-        <v>0.72499999999999998</v>
+        <v>0.76795594262295086</v>
       </c>
       <c r="V8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -24469,10 +24542,10 @@
         <v>43228</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -24508,12 +24581,12 @@
         <v>9</v>
       </c>
       <c r="O9" s="201">
-        <f>SUM(K9:N11)</f>
-        <v>463.92682926829269</v>
+        <f>SUM(K9,M9:N11)</f>
+        <v>463</v>
       </c>
       <c r="P9" s="196">
         <f>O9/(800*3)</f>
-        <v>0.19330284552845528</v>
+        <v>0.19291666666666665</v>
       </c>
       <c r="Q9" s="64" t="s">
         <v>61</v>
@@ -24524,14 +24597,14 @@
       </c>
       <c r="S9" s="190">
         <f t="shared" si="3"/>
-        <v>0.15375576211062564</v>
+        <v>0.15340277777777778</v>
       </c>
       <c r="T9" s="190">
         <f t="shared" si="4"/>
         <v>0.84716239883487265</v>
       </c>
       <c r="V9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W9" s="193">
         <f>AVERAGE(R9:R10)</f>
@@ -24546,10 +24619,10 @@
         <v>43228</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
         <v>61</v>
@@ -24586,14 +24659,14 @@
       </c>
       <c r="S10" s="190">
         <f t="shared" si="3"/>
-        <v>7.4264314339042611E-2</v>
+        <v>7.3958333333333334E-2</v>
       </c>
       <c r="T10" s="190">
         <f t="shared" si="4"/>
         <v>0.73435441370223975</v>
       </c>
       <c r="V10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -24604,10 +24677,10 @@
         <v>43228</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
         <v>61</v>
@@ -24644,10 +24717,10 @@
         <v>43228</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
@@ -24683,12 +24756,12 @@
         <v>1</v>
       </c>
       <c r="O12" s="201">
-        <f>SUM(K12:N14)</f>
-        <v>96.769230769230774</v>
+        <f>SUM(K12,M12:N14)</f>
+        <v>96</v>
       </c>
       <c r="P12" s="196">
         <f>O12/(800*3)</f>
-        <v>4.032051282051282E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -24699,10 +24772,10 @@
         <v>43228</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -24739,10 +24812,10 @@
         <v>43228</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -24779,10 +24852,10 @@
         <v>43228</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
@@ -24818,12 +24891,12 @@
         <v>3</v>
       </c>
       <c r="O15" s="201">
-        <f>SUM(K15:N17)</f>
-        <v>190.9493670886076</v>
+        <f>SUM(K15,M15:N17)</f>
+        <v>190</v>
       </c>
       <c r="P15" s="196">
         <f>O15/(800*3)</f>
-        <v>7.956223628691983E-2</v>
+        <v>7.9166666666666663E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -24834,10 +24907,10 @@
         <v>43228</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
@@ -24874,10 +24947,10 @@
         <v>43228</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E17" t="s">
         <v>37</v>
@@ -24914,10 +24987,10 @@
         <v>43228</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
@@ -24953,12 +25026,12 @@
         <v>1</v>
       </c>
       <c r="O18" s="201">
-        <f>SUM(K18:N20)</f>
-        <v>295.91666666666669</v>
+        <f>SUM(K18,M18:N20)</f>
+        <v>295</v>
       </c>
       <c r="P18" s="196">
         <f>O18/(800*3)</f>
-        <v>0.12329861111111112</v>
+        <v>0.12291666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -24969,10 +25042,10 @@
         <v>43228</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -25009,10 +25082,10 @@
         <v>43228</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
@@ -25049,10 +25122,10 @@
         <v>43228</v>
       </c>
       <c r="C21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -25088,12 +25161,12 @@
         <v>6</v>
       </c>
       <c r="O21" s="201">
-        <f>SUM(K21:N23)</f>
-        <v>75.56</v>
+        <f>SUM(K21,M21:N23)</f>
+        <v>75</v>
       </c>
       <c r="P21" s="196">
         <f>O21/(800*3)</f>
-        <v>3.1483333333333335E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -25104,10 +25177,10 @@
         <v>43228</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -25144,10 +25217,10 @@
         <v>43228</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -25184,10 +25257,10 @@
         <v>43228</v>
       </c>
       <c r="C24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E24" t="s">
         <v>37</v>
@@ -25223,12 +25296,12 @@
         <v>0</v>
       </c>
       <c r="O24" s="201">
-        <f>SUM(K24:N26)</f>
-        <v>9.3333333333333339</v>
+        <f>SUM(K24,M24:N26)</f>
+        <v>9</v>
       </c>
       <c r="P24" s="196">
         <f>O24/(800*3)</f>
-        <v>3.8888888888888892E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -25239,10 +25312,10 @@
         <v>43228</v>
       </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
@@ -25279,10 +25352,10 @@
         <v>43228</v>
       </c>
       <c r="C26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
@@ -25319,10 +25392,10 @@
         <v>43228</v>
       </c>
       <c r="C27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E27" t="s">
         <v>59</v>
@@ -25358,12 +25431,12 @@
         <v>0</v>
       </c>
       <c r="O27" s="201">
-        <f>SUM(K27:N29)</f>
-        <v>26.833333333333332</v>
+        <f>SUM(K27,M27:N29)</f>
+        <v>26</v>
       </c>
       <c r="P27" s="196">
         <f>O27/(800*3)</f>
-        <v>1.1180555555555555E-2</v>
+        <v>1.0833333333333334E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -25374,10 +25447,10 @@
         <v>43228</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E28" t="s">
         <v>59</v>
@@ -25414,10 +25487,10 @@
         <v>43228</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
         <v>59</v>
@@ -25454,10 +25527,10 @@
         <v>43230</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
         <v>84</v>
@@ -25493,12 +25566,12 @@
         <v>0</v>
       </c>
       <c r="O30" s="201">
-        <f>SUM(K30:N32)</f>
-        <v>48.25</v>
+        <f>SUM(K30,M30:N32)</f>
+        <v>48</v>
       </c>
       <c r="P30" s="196">
         <f>O30/(800*3)</f>
-        <v>2.0104166666666666E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -25509,10 +25582,10 @@
         <v>43230</v>
       </c>
       <c r="C31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E31" t="s">
         <v>84</v>
@@ -25549,10 +25622,10 @@
         <v>43230</v>
       </c>
       <c r="C32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
@@ -25589,10 +25662,10 @@
         <v>43230</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E33" t="s">
         <v>83</v>
@@ -25628,12 +25701,12 @@
         <v>0</v>
       </c>
       <c r="O33" s="201">
-        <f>SUM(K33:N35)</f>
-        <v>139.1</v>
+        <f>SUM(K33,M33:N35)</f>
+        <v>139</v>
       </c>
       <c r="P33" s="196">
         <f>O33/(800*3)</f>
-        <v>5.7958333333333334E-2</v>
+        <v>5.7916666666666665E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -25644,10 +25717,10 @@
         <v>43230</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s">
         <v>83</v>
@@ -25684,10 +25757,10 @@
         <v>43230</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E35" t="s">
         <v>83</v>
@@ -25724,10 +25797,10 @@
         <v>43230</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E36" t="s">
         <v>61</v>
@@ -25763,12 +25836,12 @@
         <v>0</v>
       </c>
       <c r="O36" s="201">
-        <f>SUM(K36:N38)</f>
-        <v>23</v>
+        <f>SUM(K36,M36:N38)</f>
+        <v>22</v>
       </c>
       <c r="P36" s="196">
         <f>O36/(800*3)</f>
-        <v>9.5833333333333326E-3</v>
+        <v>9.1666666666666667E-3</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -25779,10 +25852,10 @@
         <v>43230</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E37" t="s">
         <v>61</v>
@@ -25819,10 +25892,10 @@
         <v>43230</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E38" t="s">
         <v>61</v>
@@ -25859,10 +25932,10 @@
         <v>43233</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -25898,12 +25971,12 @@
         <v>0</v>
       </c>
       <c r="O39" s="201">
-        <f>SUM(K39:N41)</f>
-        <v>130.6</v>
+        <f>SUM(K39,M39:N41)</f>
+        <v>130</v>
       </c>
       <c r="P39" s="196">
         <f>O39/(800*3)</f>
-        <v>5.4416666666666662E-2</v>
+        <v>5.4166666666666669E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -25914,10 +25987,10 @@
         <v>43233</v>
       </c>
       <c r="C40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
@@ -25954,10 +26027,10 @@
         <v>43233</v>
       </c>
       <c r="C41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
@@ -25994,10 +26067,10 @@
         <v>43233</v>
       </c>
       <c r="C42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E42" t="s">
         <v>36</v>
@@ -26033,12 +26106,12 @@
         <v>0</v>
       </c>
       <c r="O42" s="201">
-        <f>SUM(K42:N44)</f>
-        <v>316.65454545454543</v>
+        <f>SUM(K42,M42:N44)</f>
+        <v>316</v>
       </c>
       <c r="P42" s="196">
         <f>O42/(800*3)</f>
-        <v>0.13193939393939394</v>
+        <v>0.13166666666666665</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -26049,10 +26122,10 @@
         <v>43233</v>
       </c>
       <c r="C43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
@@ -26089,10 +26162,10 @@
         <v>43233</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
@@ -26129,10 +26202,10 @@
         <v>43233</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E45" t="s">
         <v>36</v>
@@ -26168,12 +26241,12 @@
         <v>5</v>
       </c>
       <c r="O45" s="201">
-        <f>SUM(K45:N47)</f>
-        <v>188.375</v>
+        <f>SUM(K45,M45:N47)</f>
+        <v>188</v>
       </c>
       <c r="P45" s="196">
         <f>O45/(800*3)</f>
-        <v>7.8489583333333335E-2</v>
+        <v>7.8333333333333338E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -26184,10 +26257,10 @@
         <v>43233</v>
       </c>
       <c r="C46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E46" t="s">
         <v>36</v>
@@ -26224,10 +26297,10 @@
         <v>43233</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E47" t="s">
         <v>36</v>
@@ -26264,10 +26337,10 @@
         <v>43233</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E48" t="s">
         <v>61</v>
@@ -26303,12 +26376,12 @@
         <v>13</v>
       </c>
       <c r="O48" s="201">
-        <f>SUM(K48:N50)</f>
-        <v>741.96</v>
+        <f>SUM(K48,M48:N50)</f>
+        <v>741</v>
       </c>
       <c r="P48" s="196">
         <f>O48/(800*3)</f>
-        <v>0.30915000000000004</v>
+        <v>0.30875000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -26319,10 +26392,10 @@
         <v>43233</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E49" t="s">
         <v>61</v>
@@ -26359,10 +26432,10 @@
         <v>43233</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E50" t="s">
         <v>61</v>
@@ -26399,10 +26472,10 @@
         <v>43233</v>
       </c>
       <c r="C51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E51" t="s">
         <v>84</v>
@@ -26438,12 +26511,12 @@
         <v>2</v>
       </c>
       <c r="O51" s="201">
-        <f>SUM(K51:N53)</f>
-        <v>112</v>
+        <f>SUM(K51,M51:N53)</f>
+        <v>111</v>
       </c>
       <c r="P51" s="196">
         <f>O51/(800*3)</f>
-        <v>4.6666666666666669E-2</v>
+        <v>4.6249999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -26454,10 +26527,10 @@
         <v>43233</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E52" t="s">
         <v>84</v>
@@ -26494,10 +26567,10 @@
         <v>43233</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E53" t="s">
         <v>84</v>
@@ -26534,10 +26607,10 @@
         <v>43233</v>
       </c>
       <c r="C54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E54" t="s">
         <v>59</v>
@@ -26573,12 +26646,12 @@
         <v>1</v>
       </c>
       <c r="O54" s="201">
-        <f>SUM(K54:N56)</f>
-        <v>112</v>
+        <f>SUM(K54,M54:N56)</f>
+        <v>111</v>
       </c>
       <c r="P54" s="196">
         <f>O54/(800*3)</f>
-        <v>4.6666666666666669E-2</v>
+        <v>4.6249999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -26589,10 +26662,10 @@
         <v>43233</v>
       </c>
       <c r="C55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E55" t="s">
         <v>59</v>
@@ -26629,10 +26702,10 @@
         <v>43233</v>
       </c>
       <c r="C56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E56" t="s">
         <v>59</v>
@@ -26669,10 +26742,10 @@
         <v>43233</v>
       </c>
       <c r="C57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E57" t="s">
         <v>83</v>
@@ -26708,12 +26781,12 @@
         <v>0</v>
       </c>
       <c r="O57" s="201">
-        <f>SUM(K57:N59)</f>
-        <v>136.80000000000001</v>
+        <f>SUM(K57,M57:N59)</f>
+        <v>136</v>
       </c>
       <c r="P57" s="196">
         <f>O57/(800*3)</f>
-        <v>5.7000000000000002E-2</v>
+        <v>5.6666666666666664E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -26724,10 +26797,10 @@
         <v>43233</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E58" t="s">
         <v>83</v>
@@ -26764,10 +26837,10 @@
         <v>43233</v>
       </c>
       <c r="C59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E59" t="s">
         <v>83</v>
@@ -26804,10 +26877,10 @@
         <v>43233</v>
       </c>
       <c r="C60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E60" t="s">
         <v>59</v>
@@ -26843,12 +26916,12 @@
         <v>9</v>
       </c>
       <c r="O60" s="201">
-        <f>SUM(K60:N62)</f>
-        <v>502.56521739130437</v>
+        <f>SUM(K60,M60:N62)</f>
+        <v>502</v>
       </c>
       <c r="P60" s="196">
         <f>O60/(800*3)</f>
-        <v>0.2094021739130435</v>
+        <v>0.20916666666666667</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -26859,10 +26932,10 @@
         <v>43233</v>
       </c>
       <c r="C61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
@@ -26899,10 +26972,10 @@
         <v>43233</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E62" t="s">
         <v>59</v>
@@ -26939,10 +27012,10 @@
         <v>43233</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
@@ -26978,12 +27051,12 @@
         <v>7</v>
       </c>
       <c r="O63" s="201">
-        <f>SUM(K63:N65)</f>
-        <v>741.91836734693879</v>
+        <f>SUM(K63,M63:N65)</f>
+        <v>741</v>
       </c>
       <c r="P63" s="196">
         <f>O63/(800*3)</f>
-        <v>0.3091326530612245</v>
+        <v>0.30875000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -26994,10 +27067,10 @@
         <v>43233</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E64" t="s">
         <v>61</v>
@@ -27034,10 +27107,10 @@
         <v>43233</v>
       </c>
       <c r="C65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E65" t="s">
         <v>61</v>
@@ -27074,10 +27147,10 @@
         <v>43233</v>
       </c>
       <c r="C66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D66" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E66" t="s">
         <v>37</v>
@@ -27113,12 +27186,12 @@
         <v>2</v>
       </c>
       <c r="O66" s="201">
-        <f>SUM(K66:N68)</f>
-        <v>223.70967741935485</v>
+        <f>SUM(K66,M66:N68)</f>
+        <v>223</v>
       </c>
       <c r="P66" s="196">
         <f>O66/(800*3)</f>
-        <v>9.3212365591397853E-2</v>
+        <v>9.2916666666666661E-2</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -27129,10 +27202,10 @@
         <v>43233</v>
       </c>
       <c r="C67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E67" t="s">
         <v>37</v>
@@ -27169,10 +27242,10 @@
         <v>43233</v>
       </c>
       <c r="C68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E68" t="s">
         <v>37</v>
@@ -27209,10 +27282,10 @@
         <v>43233</v>
       </c>
       <c r="C69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E69" t="s">
         <v>37</v>
@@ -27248,12 +27321,12 @@
         <v>2</v>
       </c>
       <c r="O69" s="201">
-        <f>SUM(K69:N71)</f>
-        <v>204.38461538461539</v>
+        <f>SUM(K69,M69:N71)</f>
+        <v>204</v>
       </c>
       <c r="P69" s="196">
         <f>O69/(800*3)</f>
-        <v>8.5160256410256416E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -27264,10 +27337,10 @@
         <v>43233</v>
       </c>
       <c r="C70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E70" t="s">
         <v>37</v>
@@ -27304,10 +27377,10 @@
         <v>43233</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D71" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E71" t="s">
         <v>37</v>
@@ -27344,10 +27417,10 @@
         <v>43233</v>
       </c>
       <c r="C72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E72" t="s">
         <v>29</v>
@@ -27383,12 +27456,12 @@
         <v>21</v>
       </c>
       <c r="O72" s="201">
-        <f>SUM(K72:N74)</f>
-        <v>129.57142857142856</v>
+        <f>SUM(K72,M72:N74)</f>
+        <v>129</v>
       </c>
       <c r="P72" s="196">
         <f>O72/(800*3)</f>
-        <v>5.3988095238095231E-2</v>
+        <v>5.3749999999999999E-2</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -27399,10 +27472,10 @@
         <v>43233</v>
       </c>
       <c r="C73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E73" t="s">
         <v>29</v>
@@ -27439,10 +27512,10 @@
         <v>43233</v>
       </c>
       <c r="C74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -27479,10 +27552,10 @@
         <v>43233</v>
       </c>
       <c r="C75" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E75" t="s">
         <v>83</v>
@@ -27518,12 +27591,12 @@
         <v>2</v>
       </c>
       <c r="O75" s="201">
-        <f>SUM(K75:N77)</f>
-        <v>38.333333333333329</v>
+        <f>SUM(K75,M75:N77)</f>
+        <v>38</v>
       </c>
       <c r="P75" s="196">
         <f>O75/(800*3)</f>
-        <v>1.5972222222222221E-2</v>
+        <v>1.5833333333333335E-2</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -27534,10 +27607,10 @@
         <v>43233</v>
       </c>
       <c r="C76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E76" t="s">
         <v>83</v>
@@ -27574,10 +27647,10 @@
         <v>43233</v>
       </c>
       <c r="C77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E77" t="s">
         <v>83</v>
@@ -27614,10 +27687,10 @@
         <v>43233</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
         <v>28</v>
@@ -27653,7 +27726,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="201">
-        <f>SUM(K78:N80)</f>
+        <f>SUM(K78,M78:N80)</f>
         <v>46</v>
       </c>
       <c r="P78" s="196">
@@ -27669,10 +27742,10 @@
         <v>43233</v>
       </c>
       <c r="C79" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E79" t="s">
         <v>28</v>
@@ -27709,10 +27782,10 @@
         <v>43233</v>
       </c>
       <c r="C80" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E80" t="s">
         <v>28</v>
@@ -27749,10 +27822,10 @@
         <v>43233</v>
       </c>
       <c r="C81" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E81" t="s">
         <v>29</v>
@@ -27788,12 +27861,12 @@
         <v>36</v>
       </c>
       <c r="O81" s="201">
-        <f>SUM(K81:N83)</f>
-        <v>442.63888888888891</v>
+        <f>SUM(K81,M81:N83)</f>
+        <v>442</v>
       </c>
       <c r="P81" s="196">
         <f>O81/(800*3)</f>
-        <v>0.18443287037037037</v>
+        <v>0.18416666666666667</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -27804,10 +27877,10 @@
         <v>43233</v>
       </c>
       <c r="C82" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E82" t="s">
         <v>29</v>
@@ -27844,10 +27917,10 @@
         <v>43233</v>
       </c>
       <c r="C83" t="s">
+        <v>315</v>
+      </c>
+      <c r="D83" t="s">
         <v>316</v>
-      </c>
-      <c r="D83" t="s">
-        <v>317</v>
       </c>
       <c r="E83" t="s">
         <v>29</v>
@@ -27884,10 +27957,10 @@
         <v>43235</v>
       </c>
       <c r="C84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E84" t="s">
         <v>59</v>
@@ -27923,12 +27996,12 @@
         <v>2</v>
       </c>
       <c r="O84" s="201">
-        <f>SUM(K84:N86)</f>
-        <v>103.09090909090909</v>
+        <f>SUM(K84,M84:N86)</f>
+        <v>103</v>
       </c>
       <c r="P84" s="196">
         <f>O84/(800*3)</f>
-        <v>4.2954545454545454E-2</v>
+        <v>4.2916666666666665E-2</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -27939,10 +28012,10 @@
         <v>43235</v>
       </c>
       <c r="C85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D85" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E85" t="s">
         <v>59</v>
@@ -27979,10 +28052,10 @@
         <v>43235</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
         <v>59</v>
@@ -28019,10 +28092,10 @@
         <v>43235</v>
       </c>
       <c r="C87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D87" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E87" t="s">
         <v>83</v>
@@ -28058,12 +28131,12 @@
         <v>1</v>
       </c>
       <c r="O87" s="201">
-        <f>SUM(K87:N89)</f>
-        <v>139.66666666666669</v>
+        <f>SUM(K87,M87:N89)</f>
+        <v>139</v>
       </c>
       <c r="P87" s="196">
         <f>O87/(800*3)</f>
-        <v>5.8194444444444451E-2</v>
+        <v>5.7916666666666665E-2</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -28074,10 +28147,10 @@
         <v>43235</v>
       </c>
       <c r="C88" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E88" t="s">
         <v>83</v>
@@ -28114,10 +28187,10 @@
         <v>43235</v>
       </c>
       <c r="C89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E89" s="89" t="s">
         <v>83</v>
@@ -28154,10 +28227,10 @@
         <v>43235</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E90" t="s">
         <v>36</v>
@@ -28193,12 +28266,12 @@
         <v>8</v>
       </c>
       <c r="O90" s="201">
-        <f>SUM(K90:N92)</f>
-        <v>139.71428571428572</v>
+        <f>SUM(K90,M90:N92)</f>
+        <v>139</v>
       </c>
       <c r="P90" s="196">
         <f>O90/(800*3)</f>
-        <v>5.8214285714285718E-2</v>
+        <v>5.7916666666666665E-2</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -28209,10 +28282,10 @@
         <v>43235</v>
       </c>
       <c r="C91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E91" t="s">
         <v>36</v>
@@ -28249,10 +28322,10 @@
         <v>43235</v>
       </c>
       <c r="C92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D92" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -28289,10 +28362,10 @@
         <v>43235</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E93" t="s">
         <v>84</v>
@@ -28328,12 +28401,12 @@
         <v>1</v>
       </c>
       <c r="O93" s="201">
-        <f>SUM(K93:N95)</f>
-        <v>26.75</v>
+        <f>SUM(K93,M93:N95)</f>
+        <v>26</v>
       </c>
       <c r="P93" s="196">
         <f>O93/(800*3)</f>
-        <v>1.1145833333333334E-2</v>
+        <v>1.0833333333333334E-2</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -28344,10 +28417,10 @@
         <v>43235</v>
       </c>
       <c r="C94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E94" t="s">
         <v>84</v>
@@ -28384,10 +28457,10 @@
         <v>43235</v>
       </c>
       <c r="C95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E95" t="s">
         <v>84</v>
@@ -28424,10 +28497,10 @@
         <v>43235</v>
       </c>
       <c r="C96" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E96" t="s">
         <v>61</v>
@@ -28463,12 +28536,12 @@
         <v>0</v>
       </c>
       <c r="O96" s="201">
-        <f>SUM(K96:N98)</f>
-        <v>101.5</v>
+        <f>SUM(K96,M96:N98)</f>
+        <v>101</v>
       </c>
       <c r="P96" s="196">
         <f>O96/(800*3)</f>
-        <v>4.2291666666666665E-2</v>
+        <v>4.2083333333333334E-2</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -28479,10 +28552,10 @@
         <v>43235</v>
       </c>
       <c r="C97" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E97" t="s">
         <v>61</v>
@@ -28519,10 +28592,10 @@
         <v>43235</v>
       </c>
       <c r="C98" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E98" t="s">
         <v>61</v>
@@ -28559,10 +28632,10 @@
         <v>43235</v>
       </c>
       <c r="C99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E99" t="s">
         <v>83</v>
@@ -28598,12 +28671,12 @@
         <v>2</v>
       </c>
       <c r="O99" s="201">
-        <f>SUM(K99:N101)</f>
-        <v>69.428571428571431</v>
+        <f>SUM(K99,M99:N101)</f>
+        <v>69</v>
       </c>
       <c r="P99" s="196">
         <f>O99/(800*3)</f>
-        <v>2.8928571428571428E-2</v>
+        <v>2.8750000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -28614,10 +28687,10 @@
         <v>43235</v>
       </c>
       <c r="C100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E100" t="s">
         <v>83</v>
@@ -28654,10 +28727,10 @@
         <v>43235</v>
       </c>
       <c r="C101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E101" t="s">
         <v>83</v>
@@ -28694,10 +28767,10 @@
         <v>43235</v>
       </c>
       <c r="C102" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D102" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E102" t="s">
         <v>29</v>
@@ -28733,12 +28806,12 @@
         <v>2</v>
       </c>
       <c r="O102" s="201">
-        <f>SUM(K102:N104)</f>
-        <v>125.5</v>
+        <f>SUM(K102,M102:N104)</f>
+        <v>125</v>
       </c>
       <c r="P102" s="196">
         <f>O102/(800*3)</f>
-        <v>5.2291666666666667E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -28749,10 +28822,10 @@
         <v>43235</v>
       </c>
       <c r="C103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E103" t="s">
         <v>29</v>
@@ -28789,10 +28862,10 @@
         <v>43235</v>
       </c>
       <c r="C104" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D104" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E104" t="s">
         <v>29</v>
@@ -28829,10 +28902,10 @@
         <v>43235</v>
       </c>
       <c r="C105" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D105" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E105" t="s">
         <v>28</v>
@@ -28868,12 +28941,12 @@
         <v>0</v>
       </c>
       <c r="O105" s="201">
-        <f>SUM(K105:N107)</f>
-        <v>34.5</v>
+        <f>SUM(K105,M105:N107)</f>
+        <v>34</v>
       </c>
       <c r="P105" s="196">
         <f>O105/(800*3)</f>
-        <v>1.4375000000000001E-2</v>
+        <v>1.4166666666666666E-2</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -28884,10 +28957,10 @@
         <v>43235</v>
       </c>
       <c r="C106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E106" t="s">
         <v>28</v>
@@ -28924,10 +28997,10 @@
         <v>43235</v>
       </c>
       <c r="C107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D107" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E107" t="s">
         <v>28</v>
@@ -28964,10 +29037,10 @@
         <v>43240</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D108" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E108" t="s">
         <v>36</v>
@@ -29003,12 +29076,12 @@
         <v>2</v>
       </c>
       <c r="O108" s="201">
-        <f>SUM(K108:N110)</f>
-        <v>418.80851063829789</v>
+        <f>SUM(K108,M108:N110)</f>
+        <v>418</v>
       </c>
       <c r="P108" s="196">
         <f>O108/(800*3)</f>
-        <v>0.17450354609929078</v>
+        <v>0.17416666666666666</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -29019,10 +29092,10 @@
         <v>43240</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D109" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E109" t="s">
         <v>36</v>
@@ -29059,10 +29132,10 @@
         <v>43240</v>
       </c>
       <c r="C110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D110" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E110" t="s">
         <v>36</v>
@@ -29099,10 +29172,10 @@
         <v>43240</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D111" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E111" t="s">
         <v>29</v>
@@ -29138,12 +29211,12 @@
         <v>0</v>
       </c>
       <c r="O111" s="201">
-        <f>SUM(K111:N113)</f>
-        <v>3</v>
+        <f>SUM(K111,M111:N113)</f>
+        <v>2</v>
       </c>
       <c r="P111" s="196">
         <f>O111/(800*3)</f>
-        <v>1.25E-3</v>
+        <v>8.3333333333333339E-4</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -29154,10 +29227,10 @@
         <v>43240</v>
       </c>
       <c r="C112" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E112" t="s">
         <v>29</v>
@@ -29194,10 +29267,10 @@
         <v>43240</v>
       </c>
       <c r="C113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E113" t="s">
         <v>29</v>
@@ -29234,10 +29307,10 @@
         <v>43240</v>
       </c>
       <c r="C114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E114" t="s">
         <v>37</v>
@@ -29259,6 +29332,9 @@
         <f t="shared" si="7"/>
         <v>0.49625000000000002</v>
       </c>
+      <c r="K114" s="218" t="s">
+        <v>402</v>
+      </c>
       <c r="L114" s="202"/>
       <c r="M114" s="200">
         <v>133</v>
@@ -29267,7 +29343,7 @@
         <v>39</v>
       </c>
       <c r="O114" s="201">
-        <f>SUM(K114:N116)</f>
+        <f>SUM(K114,M114:N116)</f>
         <v>547</v>
       </c>
       <c r="P114" s="196">
@@ -29283,10 +29359,10 @@
         <v>43240</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E115" t="s">
         <v>37</v>
@@ -29323,10 +29399,10 @@
         <v>43240</v>
       </c>
       <c r="C116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D116" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E116" t="s">
         <v>37</v>
@@ -29363,10 +29439,10 @@
         <v>43240</v>
       </c>
       <c r="C117" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E117" t="s">
         <v>59</v>
@@ -29402,12 +29478,12 @@
         <v>0</v>
       </c>
       <c r="O117" s="201">
-        <f>SUM(K117:N119)</f>
-        <v>29</v>
+        <f>SUM(K117,M117:N119)</f>
+        <v>28</v>
       </c>
       <c r="P117" s="196">
         <f>O117/(800*3)</f>
-        <v>1.2083333333333333E-2</v>
+        <v>1.1666666666666667E-2</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -29418,10 +29494,10 @@
         <v>43240</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E118" t="s">
         <v>59</v>
@@ -29458,10 +29534,10 @@
         <v>43240</v>
       </c>
       <c r="C119" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E119" t="s">
         <v>59</v>
@@ -29498,10 +29574,10 @@
         <v>43240</v>
       </c>
       <c r="C120" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E120" t="s">
         <v>28</v>
@@ -29537,12 +29613,12 @@
         <v>4</v>
       </c>
       <c r="O120" s="201">
-        <f>SUM(K120:N122)</f>
-        <v>174.66666666666666</v>
+        <f>SUM(K120,M120:N122)</f>
+        <v>174</v>
       </c>
       <c r="P120" s="196">
         <f>O120/(800*3)</f>
-        <v>7.2777777777777775E-2</v>
+        <v>7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -29553,10 +29629,10 @@
         <v>43240</v>
       </c>
       <c r="C121" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E121" t="s">
         <v>28</v>
@@ -29593,10 +29669,10 @@
         <v>43240</v>
       </c>
       <c r="C122" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E122" t="s">
         <v>28</v>
@@ -29633,10 +29709,10 @@
         <v>43240</v>
       </c>
       <c r="C123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E123" t="s">
         <v>61</v>
@@ -29672,12 +29748,12 @@
         <v>0</v>
       </c>
       <c r="O123" s="201">
-        <f>SUM(K123:N125)</f>
-        <v>141.77777777777777</v>
+        <f>SUM(K123,M123:N125)</f>
+        <v>141</v>
       </c>
       <c r="P123" s="196">
         <f>O123/(800*3)</f>
-        <v>5.9074074074074071E-2</v>
+        <v>5.8749999999999997E-2</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -29688,10 +29764,10 @@
         <v>43240</v>
       </c>
       <c r="C124" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E124" s="89" t="s">
         <v>61</v>
@@ -29728,10 +29804,10 @@
         <v>43240</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E125" s="89" t="s">
         <v>61</v>
@@ -29768,10 +29844,10 @@
         <v>43240</v>
       </c>
       <c r="C126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D126" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E126" t="s">
         <v>37</v>
@@ -29807,12 +29883,12 @@
         <v>0</v>
       </c>
       <c r="O126" s="201">
-        <f>SUM(K126:N128)</f>
-        <v>201.73913043478262</v>
+        <f>SUM(K126,M126:N128)</f>
+        <v>201</v>
       </c>
       <c r="P126" s="196">
         <f>O126/(800*3)</f>
-        <v>8.4057971014492763E-2</v>
+        <v>8.3750000000000005E-2</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -29823,10 +29899,10 @@
         <v>43240</v>
       </c>
       <c r="C127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E127" t="s">
         <v>37</v>
@@ -29863,10 +29939,10 @@
         <v>43240</v>
       </c>
       <c r="C128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D128" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E128" t="s">
         <v>37</v>
@@ -29903,10 +29979,10 @@
         <v>43240</v>
       </c>
       <c r="C129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E129" t="s">
         <v>83</v>
@@ -29942,12 +30018,12 @@
         <v>0</v>
       </c>
       <c r="O129" s="201">
-        <f>SUM(K129:N131)</f>
-        <v>50.6</v>
+        <f>SUM(K129,M129:N131)</f>
+        <v>50</v>
       </c>
       <c r="P129" s="196">
         <f>O129/(800*3)</f>
-        <v>2.1083333333333332E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -29958,10 +30034,10 @@
         <v>43240</v>
       </c>
       <c r="C130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E130" t="s">
         <v>83</v>
@@ -29998,10 +30074,10 @@
         <v>43240</v>
       </c>
       <c r="C131" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E131" t="s">
         <v>83</v>
@@ -30038,10 +30114,10 @@
         <v>43243</v>
       </c>
       <c r="C132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D132" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E132" t="s">
         <v>84</v>
@@ -30077,12 +30153,12 @@
         <v>7</v>
       </c>
       <c r="O132" s="201">
-        <f>SUM(K132:N134)</f>
-        <v>125.9</v>
+        <f>SUM(K132,M132:N134)</f>
+        <v>125</v>
       </c>
       <c r="P132" s="196">
         <f>O132/(800*3)</f>
-        <v>5.2458333333333336E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -30093,10 +30169,10 @@
         <v>43243</v>
       </c>
       <c r="C133" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E133" t="s">
         <v>84</v>
@@ -30133,10 +30209,10 @@
         <v>43243</v>
       </c>
       <c r="C134" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E134" t="s">
         <v>84</v>
@@ -30173,10 +30249,10 @@
         <v>43243</v>
       </c>
       <c r="C135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E135" t="s">
         <v>28</v>
@@ -30198,6 +30274,27 @@
         <f t="shared" si="7"/>
         <v>0.21249999999999999</v>
       </c>
+      <c r="K135" s="199">
+        <v>62</v>
+      </c>
+      <c r="L135" s="202">
+        <f>1-(K135-SUM(F135:F137))/K135</f>
+        <v>0.91935483870967738</v>
+      </c>
+      <c r="M135" s="200">
+        <v>121</v>
+      </c>
+      <c r="N135" s="200">
+        <v>5</v>
+      </c>
+      <c r="O135" s="201">
+        <f>SUM(K135,M135:N137)</f>
+        <v>449</v>
+      </c>
+      <c r="P135" s="196">
+        <f>O135/(800*3)</f>
+        <v>0.18708333333333332</v>
+      </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="60">
@@ -30207,10 +30304,10 @@
         <v>43243</v>
       </c>
       <c r="C136" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D136" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E136" t="s">
         <v>28</v>
@@ -30232,6 +30329,12 @@
         <f t="shared" si="7"/>
         <v>0.24</v>
       </c>
+      <c r="M136" s="200">
+        <v>116</v>
+      </c>
+      <c r="N136" s="200">
+        <v>10</v>
+      </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="60">
@@ -30241,10 +30344,10 @@
         <v>43243</v>
       </c>
       <c r="C137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D137" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E137" t="s">
         <v>28</v>
@@ -30266,6 +30369,12 @@
         <f t="shared" ref="J137:J146" si="9">SUM(F137:H137)/800</f>
         <v>0.20624999999999999</v>
       </c>
+      <c r="M137" s="200">
+        <v>129</v>
+      </c>
+      <c r="N137" s="200">
+        <v>6</v>
+      </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="60">
@@ -30275,10 +30384,10 @@
         <v>43243</v>
       </c>
       <c r="C138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D138" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E138" t="s">
         <v>36</v>
@@ -30300,6 +30409,27 @@
         <f t="shared" si="9"/>
         <v>7.8750000000000001E-2</v>
       </c>
+      <c r="K138" s="199">
+        <v>9</v>
+      </c>
+      <c r="L138" s="202">
+        <f>1-(K138-SUM(F138:F140))/K138</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="M138" s="200">
+        <v>51</v>
+      </c>
+      <c r="N138" s="200">
+        <v>2</v>
+      </c>
+      <c r="O138" s="201">
+        <f>SUM(K138,M138:N140)</f>
+        <v>160</v>
+      </c>
+      <c r="P138" s="196">
+        <f>O138/(800*3)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="60">
@@ -30309,10 +30439,10 @@
         <v>43243</v>
       </c>
       <c r="C139" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E139" t="s">
         <v>36</v>
@@ -30334,6 +30464,12 @@
         <f t="shared" si="9"/>
         <v>8.7499999999999994E-2</v>
       </c>
+      <c r="M139" s="200">
+        <v>64</v>
+      </c>
+      <c r="N139" s="200">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="60">
@@ -30343,10 +30479,10 @@
         <v>43243</v>
       </c>
       <c r="C140" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D140" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E140" t="s">
         <v>36</v>
@@ -30368,6 +30504,12 @@
         <f t="shared" si="9"/>
         <v>5.2499999999999998E-2</v>
       </c>
+      <c r="M140" s="200">
+        <v>31</v>
+      </c>
+      <c r="N140" s="200">
+        <v>3</v>
+      </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="60">
@@ -30377,10 +30519,10 @@
         <v>43243</v>
       </c>
       <c r="C141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D141" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E141" t="s">
         <v>84</v>
@@ -30402,6 +30544,27 @@
         <f t="shared" si="9"/>
         <v>0.29375000000000001</v>
       </c>
+      <c r="K141" s="199">
+        <v>64</v>
+      </c>
+      <c r="L141" s="202">
+        <f>1-(K141-SUM(F141:F143))/K141</f>
+        <v>1.109375</v>
+      </c>
+      <c r="M141" s="200">
+        <v>170</v>
+      </c>
+      <c r="N141" s="200">
+        <v>2</v>
+      </c>
+      <c r="O141" s="201">
+        <f>SUM(K141,M141:N143)</f>
+        <v>440</v>
+      </c>
+      <c r="P141" s="196">
+        <f>O141/(800*3)</f>
+        <v>0.18333333333333332</v>
+      </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="60">
@@ -30411,10 +30574,10 @@
         <v>43243</v>
       </c>
       <c r="C142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D142" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E142" t="s">
         <v>84</v>
@@ -30436,6 +30599,12 @@
         <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
+      <c r="M142" s="200">
+        <v>68</v>
+      </c>
+      <c r="N142" s="200">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="60">
@@ -30445,10 +30614,10 @@
         <v>43243</v>
       </c>
       <c r="C143" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E143" t="s">
         <v>84</v>
@@ -30470,6 +30639,12 @@
         <f t="shared" si="9"/>
         <v>0.22375</v>
       </c>
+      <c r="M143" s="200">
+        <v>120</v>
+      </c>
+      <c r="N143" s="200">
+        <v>15</v>
+      </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="60">
@@ -30479,10 +30654,10 @@
         <v>43243</v>
       </c>
       <c r="C144" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D144" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E144" t="s">
         <v>84</v>
@@ -30504,8 +30679,29 @@
         <f t="shared" si="9"/>
         <v>0.33</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144" s="199">
+        <v>122</v>
+      </c>
+      <c r="L144" s="202">
+        <f>1-(K144-SUM(F144:F146))/K144</f>
+        <v>0.59836065573770492</v>
+      </c>
+      <c r="M144" s="200">
+        <v>177</v>
+      </c>
+      <c r="N144" s="200">
+        <v>38</v>
+      </c>
+      <c r="O144" s="201">
+        <f>SUM(K144,M144:N146)</f>
+        <v>739</v>
+      </c>
+      <c r="P144" s="196">
+        <f>O144/(800*3)</f>
+        <v>0.30791666666666667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="60">
         <v>43209</v>
       </c>
@@ -30513,10 +30709,10 @@
         <v>43243</v>
       </c>
       <c r="C145" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D145" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E145" t="s">
         <v>84</v>
@@ -30538,8 +30734,14 @@
         <f t="shared" si="9"/>
         <v>0.39124999999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="M145" s="200">
+        <v>135</v>
+      </c>
+      <c r="N145" s="200">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="60">
         <v>43209</v>
       </c>
@@ -30547,10 +30749,10 @@
         <v>43243</v>
       </c>
       <c r="C146" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D146" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E146" t="s">
         <v>84</v>
@@ -30571,6 +30773,12 @@
       <c r="J146" s="196">
         <f t="shared" si="9"/>
         <v>0.34625</v>
+      </c>
+      <c r="M146" s="200">
+        <v>140</v>
+      </c>
+      <c r="N146" s="200">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -30590,10 +30798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30728,7 +30936,7 @@
         <v>218.16666666666666</v>
       </c>
       <c r="M3" s="14">
-        <f t="shared" ref="M3:M54" si="0">(L3*9)/0.0009</f>
+        <f t="shared" ref="M3:M56" si="0">(L3*9)/0.0009</f>
         <v>2181666.6666666665</v>
       </c>
       <c r="N3" s="15">
@@ -30930,7 +31138,7 @@
         <v>100000</v>
       </c>
       <c r="R6" s="14">
-        <f t="shared" ref="R6:R54" si="3">(Q6*P6)/(M6-Q6)</f>
+        <f t="shared" ref="R6:R56" si="3">(Q6*P6)/(M6-Q6)</f>
         <v>1781.0760667903526</v>
       </c>
       <c r="S6" s="16">
@@ -33372,7 +33580,7 @@
         <v>121</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" ref="L48:L54" si="6">AVERAGE(F48:K48)</f>
+        <f t="shared" ref="L48:L56" si="6">AVERAGE(F48:K48)</f>
         <v>142.66666666666666</v>
       </c>
       <c r="M48" s="14">
@@ -33719,6 +33927,86 @@
       <c r="R54" s="1">
         <f t="shared" si="3"/>
         <v>9211.3105446118188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="60">
+        <v>43253</v>
+      </c>
+      <c r="B55" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="147">
+        <v>609</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>100000</v>
+      </c>
+      <c r="R55" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="60">
+        <v>43256</v>
+      </c>
+      <c r="B56" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="147">
+        <v>609</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="217">
+        <v>166</v>
+      </c>
+      <c r="G56" s="217">
+        <v>184</v>
+      </c>
+      <c r="H56" s="217">
+        <v>177</v>
+      </c>
+      <c r="I56" s="217">
+        <v>164</v>
+      </c>
+      <c r="J56" s="217">
+        <v>148</v>
+      </c>
+      <c r="K56" s="217">
+        <v>179</v>
+      </c>
+      <c r="L56" s="192">
+        <f t="shared" si="6"/>
+        <v>169.66666666666666</v>
+      </c>
+      <c r="M56" s="192">
+        <f t="shared" si="0"/>
+        <v>1696666.6666666667</v>
+      </c>
+      <c r="P56" s="50">
+        <f>(35*3.78541*1000)</f>
+        <v>132489.35</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>100000</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="3"/>
+        <v>8297.8716075156572</v>
       </c>
     </row>
   </sheetData>
@@ -43785,15 +44073,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A1:A2"/>
@@ -43810,6 +44089,15 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -48035,6 +48323,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B2:C2"/>
@@ -48051,14 +48347,6 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/Metrics.xlsx
+++ b/data/Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="0" windowWidth="16580" windowHeight="15320" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="13320" yWindow="0" windowWidth="10420" windowHeight="15320" tabRatio="1000" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Larvae Collection" sheetId="3" r:id="rId1"/>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="396">
   <si>
     <t>Date</t>
   </si>
@@ -1835,9 +1835,6 @@
     <t>Whoops, accidentally undid these counts, but it was 100k cells/mL</t>
   </si>
   <si>
-    <t>a ton (TBD)</t>
-  </si>
-  <si>
     <t>Live.50.days</t>
   </si>
   <si>
@@ -3802,6 +3799,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3811,11 +3812,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1154">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5157,11 +5154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2043784216"/>
-        <c:axId val="-2041097160"/>
+        <c:axId val="-2068141048"/>
+        <c:axId val="-2067879544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2043784216"/>
+        <c:axId val="-2068141048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,12 +5187,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2041097160"/>
+        <c:crossAx val="-2067879544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2041097160"/>
+        <c:axId val="-2067879544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,7 +5217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2043784216"/>
+        <c:crossAx val="-2068141048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8617,11 +8614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2042447240"/>
-        <c:axId val="-2042444488"/>
+        <c:axId val="-1992887112"/>
+        <c:axId val="-2044223192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2042447240"/>
+        <c:axId val="-1992887112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8631,14 +8628,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2042444488"/>
+        <c:crossAx val="-2044223192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2042444488"/>
+        <c:axId val="-2044223192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8649,7 +8646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2042447240"/>
+        <c:crossAx val="-1992887112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12138,11 +12135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2044288056"/>
-        <c:axId val="-2044277640"/>
+        <c:axId val="-1992693000"/>
+        <c:axId val="-1992809752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2044288056"/>
+        <c:axId val="-1992693000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12152,14 +12149,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044277640"/>
+        <c:crossAx val="-1992809752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2044277640"/>
+        <c:axId val="-1992809752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12170,7 +12167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044288056"/>
+        <c:crossAx val="-1992693000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24001,13 +23998,13 @@
   <sheetData>
     <row r="1" spans="1:24" s="196" customFormat="1">
       <c r="A1" s="196" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="196" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D1" s="196" t="s">
         <v>157</v>
@@ -24019,23 +24016,23 @@
         <v>317</v>
       </c>
       <c r="G1" s="196" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" s="196" t="s">
         <v>392</v>
       </c>
-      <c r="H1" s="196" t="s">
+      <c r="I1" s="196" t="s">
         <v>393</v>
       </c>
-      <c r="I1" s="196" t="s">
+      <c r="J1" s="196" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="196" t="s">
-        <v>395</v>
-      </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="204">
+      <c r="A2" s="201">
         <v>43190</v>
       </c>
-      <c r="B2" s="204">
+      <c r="B2" s="201">
         <v>43226</v>
       </c>
       <c r="C2" s="194">
@@ -24061,20 +24058,20 @@
         <v>3</v>
       </c>
       <c r="J2" s="191">
-        <f>SUM(G2:I2)</f>
+        <f t="shared" ref="J2:J33" si="0">SUM(G2:I2)</f>
         <v>75</v>
       </c>
-      <c r="X2" s="205"/>
+      <c r="X2" s="202"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="204">
+      <c r="A3" s="201">
         <v>43190</v>
       </c>
-      <c r="B3" s="204">
+      <c r="B3" s="201">
         <v>43226</v>
       </c>
       <c r="C3" s="194">
-        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C66" si="1">B3-A3</f>
         <v>36</v>
       </c>
       <c r="D3" s="191" t="s">
@@ -24096,903 +24093,903 @@
         <v>8</v>
       </c>
       <c r="J3" s="191">
-        <f>SUM(G3:I3)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="204">
+      <c r="A4" s="201">
         <v>43190</v>
       </c>
-      <c r="B4" s="204">
+      <c r="B4" s="201">
         <v>43226</v>
       </c>
       <c r="C4" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D4" s="191" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="191">
+        <v>3</v>
+      </c>
+      <c r="H4" s="191">
+        <v>39</v>
+      </c>
+      <c r="I4" s="191">
+        <v>1</v>
+      </c>
+      <c r="J4" s="191">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="201">
+        <v>43191</v>
+      </c>
+      <c r="B5" s="201">
+        <v>43226</v>
+      </c>
+      <c r="C5" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D5" s="191" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="191">
+        <v>2</v>
+      </c>
+      <c r="H5" s="191">
+        <v>38</v>
+      </c>
+      <c r="I5" s="191">
+        <v>0</v>
+      </c>
+      <c r="J5" s="191">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="201">
+        <v>43191</v>
+      </c>
+      <c r="B6" s="201">
+        <v>43226</v>
+      </c>
+      <c r="C6" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D6" s="191" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="191">
+        <v>0</v>
+      </c>
+      <c r="H6" s="191">
+        <v>20</v>
+      </c>
+      <c r="I6" s="191">
+        <v>1</v>
+      </c>
+      <c r="J6" s="191">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="201">
+        <v>43191</v>
+      </c>
+      <c r="B7" s="201">
+        <v>43226</v>
+      </c>
+      <c r="C7" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="191" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="191">
+        <v>1</v>
+      </c>
+      <c r="H7" s="191">
+        <v>3</v>
+      </c>
+      <c r="I7" s="191">
+        <v>0</v>
+      </c>
+      <c r="J7" s="191">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B8" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C8" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D8" s="191" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="191">
+        <v>20</v>
+      </c>
+      <c r="H8" s="191">
+        <v>115</v>
+      </c>
+      <c r="I8" s="191">
+        <v>12</v>
+      </c>
+      <c r="J8" s="191">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B9" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C9" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="191" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="191">
+        <v>6</v>
+      </c>
+      <c r="H9" s="191">
+        <v>133</v>
+      </c>
+      <c r="I9" s="191">
+        <v>2</v>
+      </c>
+      <c r="J9" s="191">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B10" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C10" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D10" s="191" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="191">
+        <v>12</v>
+      </c>
+      <c r="H10" s="191">
+        <v>202</v>
+      </c>
+      <c r="I10" s="191">
+        <v>4</v>
+      </c>
+      <c r="J10" s="191">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B11" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C11" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D11" s="191" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="191" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="191">
+        <v>8</v>
+      </c>
+      <c r="H11" s="191">
+        <v>42</v>
+      </c>
+      <c r="I11" s="191">
+        <v>7</v>
+      </c>
+      <c r="J11" s="191">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B12" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C12" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="191" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" s="191" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="191">
+        <v>10</v>
+      </c>
+      <c r="H12" s="191">
+        <v>36</v>
+      </c>
+      <c r="I12" s="191">
+        <v>3</v>
+      </c>
+      <c r="J12" s="191">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B13" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C13" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D13" s="191" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="191" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="191">
+        <v>2</v>
+      </c>
+      <c r="H13" s="191">
+        <v>27</v>
+      </c>
+      <c r="I13" s="191">
+        <v>2</v>
+      </c>
+      <c r="J13" s="191">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B14" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C14" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="191" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="191">
+        <v>28</v>
+      </c>
+      <c r="H14" s="191">
+        <v>53</v>
+      </c>
+      <c r="I14" s="191">
+        <v>7</v>
+      </c>
+      <c r="J14" s="191">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B15" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C15" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D15" s="191" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="191">
+        <v>19</v>
+      </c>
+      <c r="H15" s="191">
+        <v>36</v>
+      </c>
+      <c r="I15" s="191">
+        <v>5</v>
+      </c>
+      <c r="J15" s="191">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B16" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C16" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D16" s="191" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F16" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="191">
+        <v>28</v>
+      </c>
+      <c r="H16" s="191">
+        <v>40</v>
+      </c>
+      <c r="I16" s="191">
+        <v>15</v>
+      </c>
+      <c r="J16" s="191">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B17" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C17" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D17" s="191" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="191">
+        <v>4</v>
+      </c>
+      <c r="H17" s="191">
+        <v>108</v>
+      </c>
+      <c r="I17" s="191">
+        <v>3</v>
+      </c>
+      <c r="J17" s="191">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B18" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C18" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="191">
+        <v>16</v>
+      </c>
+      <c r="H18" s="191">
+        <v>146</v>
+      </c>
+      <c r="I18" s="191">
+        <v>4</v>
+      </c>
+      <c r="J18" s="191">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B19" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C19" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D19" s="191" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="191">
+        <v>2</v>
+      </c>
+      <c r="H19" s="191">
+        <v>143</v>
+      </c>
+      <c r="I19" s="191">
+        <v>1</v>
+      </c>
+      <c r="J19" s="191">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B20" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C20" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="191" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="191">
+        <v>5</v>
+      </c>
+      <c r="H20" s="191">
+        <v>49</v>
+      </c>
+      <c r="I20" s="191">
+        <v>15</v>
+      </c>
+      <c r="J20" s="191">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B21" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C21" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D21" s="191" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="191">
+        <v>5</v>
+      </c>
+      <c r="H21" s="191">
+        <v>22</v>
+      </c>
+      <c r="I21" s="191">
+        <v>6</v>
+      </c>
+      <c r="J21" s="191">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="201">
+        <v>43192</v>
+      </c>
+      <c r="B22" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C22" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D22" s="191" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="191" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="191">
+        <v>4</v>
+      </c>
+      <c r="H22" s="191">
+        <v>19</v>
+      </c>
+      <c r="I22" s="191">
+        <v>4</v>
+      </c>
+      <c r="J22" s="191">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="201">
+        <v>43193</v>
+      </c>
+      <c r="B23" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C23" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D23" s="191" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="191">
+        <v>0</v>
+      </c>
+      <c r="H23" s="191">
+        <v>2</v>
+      </c>
+      <c r="I23" s="191">
+        <v>0</v>
+      </c>
+      <c r="J23" s="191">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="201">
+        <v>43193</v>
+      </c>
+      <c r="B24" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C24" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D24" s="191" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="191">
+        <v>0</v>
+      </c>
+      <c r="H24" s="191">
+        <v>0</v>
+      </c>
+      <c r="I24" s="191">
+        <v>0</v>
+      </c>
+      <c r="J24" s="191">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="201">
+        <v>43193</v>
+      </c>
+      <c r="B25" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C25" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="191" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="191" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25" s="191" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="191">
+        <v>1</v>
+      </c>
+      <c r="H25" s="191">
+        <v>3</v>
+      </c>
+      <c r="I25" s="191">
+        <v>0</v>
+      </c>
+      <c r="J25" s="191">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="201">
+        <v>43193</v>
+      </c>
+      <c r="B26" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C26" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D26" s="191" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="191">
+        <v>1</v>
+      </c>
+      <c r="H26" s="191">
+        <v>8</v>
+      </c>
+      <c r="I26" s="191">
+        <v>0</v>
+      </c>
+      <c r="J26" s="191">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="201">
+        <v>43193</v>
+      </c>
+      <c r="B27" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C27" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="191" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F27" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="191">
+        <v>2</v>
+      </c>
+      <c r="H27" s="191">
+        <v>4</v>
+      </c>
+      <c r="I27" s="191">
+        <v>0</v>
+      </c>
+      <c r="J27" s="191">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="201">
+        <v>43193</v>
+      </c>
+      <c r="B28" s="201">
+        <v>43228</v>
+      </c>
+      <c r="C28" s="194">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="191" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" s="191" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="191">
+        <v>2</v>
+      </c>
+      <c r="H28" s="191">
+        <v>17</v>
+      </c>
+      <c r="I28" s="191">
+        <v>0</v>
+      </c>
+      <c r="J28" s="191">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="201">
+        <v>43194</v>
+      </c>
+      <c r="B29" s="201">
+        <v>43230</v>
+      </c>
+      <c r="C29" s="194">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D29" s="191" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="191" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="191" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="191">
+        <v>2</v>
+      </c>
+      <c r="H29" s="191">
+        <v>33</v>
+      </c>
+      <c r="I29" s="191">
+        <v>1</v>
+      </c>
+      <c r="J29" s="191">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D4" s="191" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="191" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4" s="191" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="191">
-        <v>3</v>
-      </c>
-      <c r="H4" s="191">
-        <v>39</v>
-      </c>
-      <c r="I4" s="191">
-        <v>1</v>
-      </c>
-      <c r="J4" s="191">
-        <f>SUM(G4:I4)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="204">
-        <v>43191</v>
-      </c>
-      <c r="B5" s="204">
-        <v>43226</v>
-      </c>
-      <c r="C5" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D5" s="191" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="191">
-        <v>2</v>
-      </c>
-      <c r="H5" s="191">
-        <v>38</v>
-      </c>
-      <c r="I5" s="191">
-        <v>0</v>
-      </c>
-      <c r="J5" s="191">
-        <f>SUM(G5:I5)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="204">
-        <v>43191</v>
-      </c>
-      <c r="B6" s="204">
-        <v>43226</v>
-      </c>
-      <c r="C6" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D6" s="191" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F6" s="191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="191">
-        <v>0</v>
-      </c>
-      <c r="H6" s="191">
-        <v>20</v>
-      </c>
-      <c r="I6" s="191">
-        <v>1</v>
-      </c>
-      <c r="J6" s="191">
-        <f>SUM(G6:I6)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="204">
-        <v>43191</v>
-      </c>
-      <c r="B7" s="204">
-        <v>43226</v>
-      </c>
-      <c r="C7" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D7" s="191" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F7" s="191" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="191">
-        <v>1</v>
-      </c>
-      <c r="H7" s="191">
-        <v>3</v>
-      </c>
-      <c r="I7" s="191">
-        <v>0</v>
-      </c>
-      <c r="J7" s="191">
-        <f>SUM(G7:I7)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B8" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C8" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D8" s="191" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F8" s="191" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="191">
-        <v>20</v>
-      </c>
-      <c r="H8" s="191">
-        <v>115</v>
-      </c>
-      <c r="I8" s="191">
-        <v>12</v>
-      </c>
-      <c r="J8" s="191">
-        <f>SUM(G8:I8)</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B9" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C9" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D9" s="191" t="s">
-        <v>238</v>
-      </c>
-      <c r="E9" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="191" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="191">
-        <v>6</v>
-      </c>
-      <c r="H9" s="191">
-        <v>133</v>
-      </c>
-      <c r="I9" s="191">
-        <v>2</v>
-      </c>
-      <c r="J9" s="191">
-        <f>SUM(G9:I9)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B10" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C10" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D10" s="191" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="191" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="191">
-        <v>12</v>
-      </c>
-      <c r="H10" s="191">
-        <v>202</v>
-      </c>
-      <c r="I10" s="191">
-        <v>4</v>
-      </c>
-      <c r="J10" s="191">
-        <f>SUM(G10:I10)</f>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B11" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C11" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D11" s="191" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="191" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="191" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="191">
-        <v>8</v>
-      </c>
-      <c r="H11" s="191">
-        <v>42</v>
-      </c>
-      <c r="I11" s="191">
-        <v>7</v>
-      </c>
-      <c r="J11" s="191">
-        <f>SUM(G11:I11)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B12" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C12" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D12" s="191" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="191" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" s="191" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="191">
-        <v>10</v>
-      </c>
-      <c r="H12" s="191">
-        <v>36</v>
-      </c>
-      <c r="I12" s="191">
-        <v>3</v>
-      </c>
-      <c r="J12" s="191">
-        <f>SUM(G12:I12)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B13" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C13" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D13" s="191" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="191" t="s">
-        <v>312</v>
-      </c>
-      <c r="F13" s="191" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="191">
-        <v>2</v>
-      </c>
-      <c r="H13" s="191">
-        <v>27</v>
-      </c>
-      <c r="I13" s="191">
-        <v>2</v>
-      </c>
-      <c r="J13" s="191">
-        <f>SUM(G13:I13)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B14" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C14" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D14" s="191" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F14" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="191">
-        <v>28</v>
-      </c>
-      <c r="H14" s="191">
-        <v>53</v>
-      </c>
-      <c r="I14" s="191">
-        <v>7</v>
-      </c>
-      <c r="J14" s="191">
-        <f>SUM(G14:I14)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B15" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C15" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D15" s="191" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="191">
-        <v>19</v>
-      </c>
-      <c r="H15" s="191">
-        <v>36</v>
-      </c>
-      <c r="I15" s="191">
-        <v>5</v>
-      </c>
-      <c r="J15" s="191">
-        <f>SUM(G15:I15)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B16" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C16" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D16" s="191" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F16" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="191">
-        <v>28</v>
-      </c>
-      <c r="H16" s="191">
-        <v>40</v>
-      </c>
-      <c r="I16" s="191">
-        <v>15</v>
-      </c>
-      <c r="J16" s="191">
-        <f>SUM(G16:I16)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B17" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C17" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D17" s="191" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F17" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="191">
-        <v>4</v>
-      </c>
-      <c r="H17" s="191">
-        <v>108</v>
-      </c>
-      <c r="I17" s="191">
-        <v>3</v>
-      </c>
-      <c r="J17" s="191">
-        <f>SUM(G17:I17)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B18" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C18" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D18" s="191" t="s">
-        <v>247</v>
-      </c>
-      <c r="E18" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F18" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="191">
-        <v>16</v>
-      </c>
-      <c r="H18" s="191">
-        <v>146</v>
-      </c>
-      <c r="I18" s="191">
-        <v>4</v>
-      </c>
-      <c r="J18" s="191">
-        <f>SUM(G18:I18)</f>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B19" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C19" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D19" s="191" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="191">
-        <v>2</v>
-      </c>
-      <c r="H19" s="191">
-        <v>143</v>
-      </c>
-      <c r="I19" s="191">
-        <v>1</v>
-      </c>
-      <c r="J19" s="191">
-        <f>SUM(G19:I19)</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B20" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C20" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D20" s="191" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="191" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="191" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="191">
-        <v>5</v>
-      </c>
-      <c r="H20" s="191">
-        <v>49</v>
-      </c>
-      <c r="I20" s="191">
-        <v>15</v>
-      </c>
-      <c r="J20" s="191">
-        <f>SUM(G20:I20)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B21" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C21" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D21" s="191" t="s">
-        <v>250</v>
-      </c>
-      <c r="E21" s="191" t="s">
-        <v>312</v>
-      </c>
-      <c r="F21" s="191" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="191">
-        <v>5</v>
-      </c>
-      <c r="H21" s="191">
-        <v>22</v>
-      </c>
-      <c r="I21" s="191">
-        <v>6</v>
-      </c>
-      <c r="J21" s="191">
-        <f>SUM(G21:I21)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="204">
-        <v>43192</v>
-      </c>
-      <c r="B22" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C22" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D22" s="191" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="191" t="s">
-        <v>312</v>
-      </c>
-      <c r="F22" s="191" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="191">
-        <v>4</v>
-      </c>
-      <c r="H22" s="191">
-        <v>19</v>
-      </c>
-      <c r="I22" s="191">
-        <v>4</v>
-      </c>
-      <c r="J22" s="191">
-        <f>SUM(G22:I22)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="204">
-        <v>43193</v>
-      </c>
-      <c r="B23" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C23" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D23" s="191" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F23" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="191">
-        <v>0</v>
-      </c>
-      <c r="H23" s="191">
-        <v>2</v>
-      </c>
-      <c r="I23" s="191">
-        <v>0</v>
-      </c>
-      <c r="J23" s="191">
-        <f>SUM(G23:I23)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="204">
-        <v>43193</v>
-      </c>
-      <c r="B24" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C24" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D24" s="191" t="s">
-        <v>253</v>
-      </c>
-      <c r="E24" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F24" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="191">
-        <v>0</v>
-      </c>
-      <c r="H24" s="191">
-        <v>0</v>
-      </c>
-      <c r="I24" s="191">
-        <v>0</v>
-      </c>
-      <c r="J24" s="191">
-        <f>SUM(G24:I24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="204">
-        <v>43193</v>
-      </c>
-      <c r="B25" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C25" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D25" s="191" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="191" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25" s="191" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="191">
-        <v>1</v>
-      </c>
-      <c r="H25" s="191">
-        <v>3</v>
-      </c>
-      <c r="I25" s="191">
-        <v>0</v>
-      </c>
-      <c r="J25" s="191">
-        <f>SUM(G25:I25)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="204">
-        <v>43193</v>
-      </c>
-      <c r="B26" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C26" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D26" s="191" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F26" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="191">
-        <v>1</v>
-      </c>
-      <c r="H26" s="191">
-        <v>8</v>
-      </c>
-      <c r="I26" s="191">
-        <v>0</v>
-      </c>
-      <c r="J26" s="191">
-        <f>SUM(G26:I26)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="204">
-        <v>43193</v>
-      </c>
-      <c r="B27" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C27" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D27" s="191" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F27" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="191">
-        <v>2</v>
-      </c>
-      <c r="H27" s="191">
-        <v>4</v>
-      </c>
-      <c r="I27" s="191">
-        <v>0</v>
-      </c>
-      <c r="J27" s="191">
-        <f>SUM(G27:I27)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="204">
-        <v>43193</v>
-      </c>
-      <c r="B28" s="204">
-        <v>43228</v>
-      </c>
-      <c r="C28" s="194">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D28" s="191" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="191" t="s">
-        <v>314</v>
-      </c>
-      <c r="F28" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="191">
-        <v>2</v>
-      </c>
-      <c r="H28" s="191">
-        <v>17</v>
-      </c>
-      <c r="I28" s="191">
-        <v>0</v>
-      </c>
-      <c r="J28" s="191">
-        <f>SUM(G28:I28)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="204">
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="201">
         <v>43194</v>
       </c>
-      <c r="B29" s="204">
+      <c r="B30" s="201">
         <v>43230</v>
       </c>
-      <c r="C29" s="194">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D29" s="191" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="191" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="191">
-        <v>2</v>
-      </c>
-      <c r="H29" s="191">
-        <v>33</v>
-      </c>
-      <c r="I29" s="191">
-        <v>1</v>
-      </c>
-      <c r="J29" s="191">
-        <f>SUM(G29:I29)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="204">
-        <v>43194</v>
-      </c>
-      <c r="B30" s="204">
-        <v>43230</v>
-      </c>
       <c r="C30" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D30" s="191" t="s">
@@ -25014,19 +25011,19 @@
         <v>2</v>
       </c>
       <c r="J30" s="191">
-        <f>SUM(G30:I30)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="204">
+      <c r="A31" s="201">
         <v>43194</v>
       </c>
-      <c r="B31" s="204">
+      <c r="B31" s="201">
         <v>43230</v>
       </c>
       <c r="C31" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D31" s="191" t="s">
@@ -25048,19 +25045,19 @@
         <v>1</v>
       </c>
       <c r="J31" s="191">
-        <f>SUM(G31:I31)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="204">
+      <c r="A32" s="201">
         <v>43195</v>
       </c>
-      <c r="B32" s="204">
+      <c r="B32" s="201">
         <v>43230</v>
       </c>
       <c r="C32" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D32" s="191" t="s">
@@ -25082,19 +25079,19 @@
         <v>8</v>
       </c>
       <c r="J32" s="191">
-        <f>SUM(G32:I32)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="204">
+      <c r="A33" s="201">
         <v>43195</v>
       </c>
-      <c r="B33" s="204">
+      <c r="B33" s="201">
         <v>43230</v>
       </c>
       <c r="C33" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D33" s="191" t="s">
@@ -25116,19 +25113,19 @@
         <v>30</v>
       </c>
       <c r="J33" s="191">
-        <f>SUM(G33:I33)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="204">
+      <c r="A34" s="201">
         <v>43195</v>
       </c>
-      <c r="B34" s="204">
+      <c r="B34" s="201">
         <v>43230</v>
       </c>
       <c r="C34" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D34" s="191" t="s">
@@ -25150,19 +25147,19 @@
         <v>4</v>
       </c>
       <c r="J34" s="191">
-        <f>SUM(G34:I34)</f>
+        <f t="shared" ref="J34:J65" si="2">SUM(G34:I34)</f>
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="204">
+      <c r="A35" s="201">
         <v>43195</v>
       </c>
-      <c r="B35" s="204">
+      <c r="B35" s="201">
         <v>43230</v>
       </c>
       <c r="C35" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D35" s="191" t="s">
@@ -25184,19 +25181,19 @@
         <v>1</v>
       </c>
       <c r="J35" s="191">
-        <f>SUM(G35:I35)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="204">
+      <c r="A36" s="201">
         <v>43195</v>
       </c>
-      <c r="B36" s="204">
+      <c r="B36" s="201">
         <v>43230</v>
       </c>
       <c r="C36" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D36" s="191" t="s">
@@ -25218,19 +25215,19 @@
         <v>0</v>
       </c>
       <c r="J36" s="191">
-        <f>SUM(G36:I36)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="204">
+      <c r="A37" s="201">
         <v>43195</v>
       </c>
-      <c r="B37" s="204">
+      <c r="B37" s="201">
         <v>43230</v>
       </c>
       <c r="C37" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D37" s="191" t="s">
@@ -25252,19 +25249,19 @@
         <v>0</v>
       </c>
       <c r="J37" s="191">
-        <f>SUM(G37:I37)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="204">
+      <c r="A38" s="201">
         <v>43196</v>
       </c>
-      <c r="B38" s="204">
+      <c r="B38" s="201">
         <v>43233</v>
       </c>
       <c r="C38" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D38" s="191" t="s">
@@ -25286,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="J38" s="191">
-        <f>SUM(G38:I38)</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="204">
+      <c r="A39" s="201">
         <v>43196</v>
       </c>
-      <c r="B39" s="204">
+      <c r="B39" s="201">
         <v>43233</v>
       </c>
       <c r="C39" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D39" s="191" t="s">
@@ -25320,19 +25317,19 @@
         <v>4</v>
       </c>
       <c r="J39" s="191">
-        <f>SUM(G39:I39)</f>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="204">
+      <c r="A40" s="201">
         <v>43196</v>
       </c>
-      <c r="B40" s="204">
+      <c r="B40" s="201">
         <v>43233</v>
       </c>
       <c r="C40" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D40" s="191" t="s">
@@ -25354,19 +25351,19 @@
         <v>0</v>
       </c>
       <c r="J40" s="191">
-        <f>SUM(G40:I40)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="204">
+      <c r="A41" s="201">
         <v>43197</v>
       </c>
-      <c r="B41" s="204">
+      <c r="B41" s="201">
         <v>43233</v>
       </c>
       <c r="C41" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D41" s="191" t="s">
@@ -25388,19 +25385,19 @@
         <v>6</v>
       </c>
       <c r="J41" s="191">
-        <f>SUM(G41:I41)</f>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="204">
+      <c r="A42" s="201">
         <v>43197</v>
       </c>
-      <c r="B42" s="204">
+      <c r="B42" s="201">
         <v>43233</v>
       </c>
       <c r="C42" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D42" s="191" t="s">
@@ -25422,19 +25419,19 @@
         <v>5</v>
       </c>
       <c r="J42" s="191">
-        <f>SUM(G42:I42)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="204">
+      <c r="A43" s="201">
         <v>43197</v>
       </c>
-      <c r="B43" s="204">
+      <c r="B43" s="201">
         <v>43233</v>
       </c>
       <c r="C43" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D43" s="191" t="s">
@@ -25456,19 +25453,19 @@
         <v>13</v>
       </c>
       <c r="J43" s="191">
-        <f>SUM(G43:I43)</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="204">
+      <c r="A44" s="201">
         <v>43197</v>
       </c>
-      <c r="B44" s="204">
+      <c r="B44" s="201">
         <v>43233</v>
       </c>
       <c r="C44" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D44" s="191" t="s">
@@ -25490,19 +25487,19 @@
         <v>11</v>
       </c>
       <c r="J44" s="191">
-        <f>SUM(G44:I44)</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="204">
+      <c r="A45" s="201">
         <v>43197</v>
       </c>
-      <c r="B45" s="204">
+      <c r="B45" s="201">
         <v>43233</v>
       </c>
       <c r="C45" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D45" s="191" t="s">
@@ -25524,19 +25521,19 @@
         <v>6</v>
       </c>
       <c r="J45" s="191">
-        <f>SUM(G45:I45)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="204">
+      <c r="A46" s="201">
         <v>43197</v>
       </c>
-      <c r="B46" s="204">
+      <c r="B46" s="201">
         <v>43233</v>
       </c>
       <c r="C46" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D46" s="191" t="s">
@@ -25558,19 +25555,19 @@
         <v>3</v>
       </c>
       <c r="J46" s="191">
-        <f>SUM(G46:I46)</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="204">
+      <c r="A47" s="201">
         <v>43197</v>
       </c>
-      <c r="B47" s="204">
+      <c r="B47" s="201">
         <v>43233</v>
       </c>
       <c r="C47" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D47" s="191" t="s">
@@ -25592,19 +25589,19 @@
         <v>20</v>
       </c>
       <c r="J47" s="191">
-        <f>SUM(G47:I47)</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="204">
+      <c r="A48" s="201">
         <v>43197</v>
       </c>
-      <c r="B48" s="204">
+      <c r="B48" s="201">
         <v>43233</v>
       </c>
       <c r="C48" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D48" s="191" t="s">
@@ -25626,19 +25623,19 @@
         <v>21</v>
       </c>
       <c r="J48" s="191">
-        <f>SUM(G48:I48)</f>
+        <f t="shared" si="2"/>
         <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="204">
+      <c r="A49" s="201">
         <v>43197</v>
       </c>
-      <c r="B49" s="204">
+      <c r="B49" s="201">
         <v>43233</v>
       </c>
       <c r="C49" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D49" s="191" t="s">
@@ -25660,19 +25657,19 @@
         <v>16</v>
       </c>
       <c r="J49" s="191">
-        <f>SUM(G49:I49)</f>
+        <f t="shared" si="2"/>
         <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="204">
+      <c r="A50" s="201">
         <v>43197</v>
       </c>
-      <c r="B50" s="204">
+      <c r="B50" s="201">
         <v>43233</v>
       </c>
       <c r="C50" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D50" s="191" t="s">
@@ -25694,19 +25691,19 @@
         <v>3</v>
       </c>
       <c r="J50" s="191">
-        <f>SUM(G50:I50)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="204">
+      <c r="A51" s="201">
         <v>43197</v>
       </c>
-      <c r="B51" s="204">
+      <c r="B51" s="201">
         <v>43233</v>
       </c>
       <c r="C51" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D51" s="191" t="s">
@@ -25728,19 +25725,19 @@
         <v>3</v>
       </c>
       <c r="J51" s="191">
-        <f>SUM(G51:I51)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="204">
+      <c r="A52" s="201">
         <v>43197</v>
       </c>
-      <c r="B52" s="204">
+      <c r="B52" s="201">
         <v>43233</v>
       </c>
       <c r="C52" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D52" s="191" t="s">
@@ -25762,19 +25759,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="191">
-        <f>SUM(G52:I52)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="204">
+      <c r="A53" s="201">
         <v>43197</v>
       </c>
-      <c r="B53" s="204">
+      <c r="B53" s="201">
         <v>43233</v>
       </c>
       <c r="C53" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D53" s="191" t="s">
@@ -25796,19 +25793,19 @@
         <v>2</v>
       </c>
       <c r="J53" s="191">
-        <f>SUM(G53:I53)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="204">
+      <c r="A54" s="201">
         <v>43197</v>
       </c>
-      <c r="B54" s="204">
+      <c r="B54" s="201">
         <v>43233</v>
       </c>
       <c r="C54" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D54" s="191" t="s">
@@ -25830,19 +25827,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="191">
-        <f>SUM(G54:I54)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="204">
+      <c r="A55" s="201">
         <v>43197</v>
       </c>
-      <c r="B55" s="204">
+      <c r="B55" s="201">
         <v>43233</v>
       </c>
       <c r="C55" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D55" s="191" t="s">
@@ -25864,19 +25861,19 @@
         <v>4</v>
       </c>
       <c r="J55" s="191">
-        <f>SUM(G55:I55)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="204">
+      <c r="A56" s="201">
         <v>43197</v>
       </c>
-      <c r="B56" s="204">
+      <c r="B56" s="201">
         <v>43233</v>
       </c>
       <c r="C56" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D56" s="191" t="s">
@@ -25898,19 +25895,19 @@
         <v>1</v>
       </c>
       <c r="J56" s="191">
-        <f>SUM(G56:I56)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="204">
+      <c r="A57" s="201">
         <v>43197</v>
       </c>
-      <c r="B57" s="204">
+      <c r="B57" s="201">
         <v>43233</v>
       </c>
       <c r="C57" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D57" s="191" t="s">
@@ -25932,19 +25929,19 @@
         <v>0</v>
       </c>
       <c r="J57" s="191">
-        <f>SUM(G57:I57)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="204">
+      <c r="A58" s="201">
         <v>43197</v>
       </c>
-      <c r="B58" s="204">
+      <c r="B58" s="201">
         <v>43233</v>
       </c>
       <c r="C58" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D58" s="191" t="s">
@@ -25966,19 +25963,19 @@
         <v>2</v>
       </c>
       <c r="J58" s="191">
-        <f>SUM(G58:I58)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="204">
+      <c r="A59" s="201">
         <v>43197</v>
       </c>
-      <c r="B59" s="204">
+      <c r="B59" s="201">
         <v>43233</v>
       </c>
       <c r="C59" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D59" s="191" t="s">
@@ -26000,19 +25997,19 @@
         <v>10</v>
       </c>
       <c r="J59" s="191">
-        <f>SUM(G59:I59)</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="204">
+      <c r="A60" s="201">
         <v>43197</v>
       </c>
-      <c r="B60" s="204">
+      <c r="B60" s="201">
         <v>43233</v>
       </c>
       <c r="C60" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D60" s="191" t="s">
@@ -26034,19 +26031,19 @@
         <v>8</v>
       </c>
       <c r="J60" s="191">
-        <f>SUM(G60:I60)</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="204">
+      <c r="A61" s="201">
         <v>43197</v>
       </c>
-      <c r="B61" s="204">
+      <c r="B61" s="201">
         <v>43233</v>
       </c>
       <c r="C61" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D61" s="191" t="s">
@@ -26068,19 +26065,19 @@
         <v>21</v>
       </c>
       <c r="J61" s="191">
-        <f>SUM(G61:I61)</f>
+        <f t="shared" si="2"/>
         <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="204">
+      <c r="A62" s="201">
         <v>43198</v>
       </c>
-      <c r="B62" s="204">
+      <c r="B62" s="201">
         <v>43233</v>
       </c>
       <c r="C62" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D62" s="191" t="s">
@@ -26102,19 +26099,19 @@
         <v>7</v>
       </c>
       <c r="J62" s="191">
-        <f>SUM(G62:I62)</f>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="204">
+      <c r="A63" s="201">
         <v>43198</v>
       </c>
-      <c r="B63" s="204">
+      <c r="B63" s="201">
         <v>43233</v>
       </c>
       <c r="C63" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D63" s="191" t="s">
@@ -26136,19 +26133,19 @@
         <v>2</v>
       </c>
       <c r="J63" s="191">
-        <f>SUM(G63:I63)</f>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="204">
+      <c r="A64" s="201">
         <v>43198</v>
       </c>
-      <c r="B64" s="204">
+      <c r="B64" s="201">
         <v>43233</v>
       </c>
       <c r="C64" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D64" s="191" t="s">
@@ -26170,19 +26167,19 @@
         <v>11</v>
       </c>
       <c r="J64" s="191">
-        <f>SUM(G64:I64)</f>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="204">
+      <c r="A65" s="201">
         <v>43198</v>
       </c>
-      <c r="B65" s="204">
+      <c r="B65" s="201">
         <v>43233</v>
       </c>
       <c r="C65" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D65" s="191" t="s">
@@ -26204,19 +26201,19 @@
         <v>2</v>
       </c>
       <c r="J65" s="191">
-        <f>SUM(G65:I65)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="204">
+      <c r="A66" s="201">
         <v>43198</v>
       </c>
-      <c r="B66" s="204">
+      <c r="B66" s="201">
         <v>43233</v>
       </c>
       <c r="C66" s="194">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D66" s="191" t="s">
@@ -26238,19 +26235,19 @@
         <v>1</v>
       </c>
       <c r="J66" s="191">
-        <f>SUM(G66:I66)</f>
+        <f t="shared" ref="J66:J97" si="3">SUM(G66:I66)</f>
         <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="204">
+      <c r="A67" s="201">
         <v>43198</v>
       </c>
-      <c r="B67" s="204">
+      <c r="B67" s="201">
         <v>43233</v>
       </c>
       <c r="C67" s="194">
-        <f t="shared" ref="C67:C130" si="1">B67-A67</f>
+        <f t="shared" ref="C67:C130" si="4">B67-A67</f>
         <v>35</v>
       </c>
       <c r="D67" s="191" t="s">
@@ -26272,19 +26269,19 @@
         <v>4</v>
       </c>
       <c r="J67" s="191">
-        <f>SUM(G67:I67)</f>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="204">
+      <c r="A68" s="201">
         <v>43198</v>
       </c>
-      <c r="B68" s="204">
+      <c r="B68" s="201">
         <v>43233</v>
       </c>
       <c r="C68" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D68" s="191" t="s">
@@ -26306,19 +26303,19 @@
         <v>5</v>
       </c>
       <c r="J68" s="191">
-        <f>SUM(G68:I68)</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="204">
+      <c r="A69" s="201">
         <v>43198</v>
       </c>
-      <c r="B69" s="204">
+      <c r="B69" s="201">
         <v>43233</v>
       </c>
       <c r="C69" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D69" s="191" t="s">
@@ -26340,19 +26337,19 @@
         <v>1</v>
       </c>
       <c r="J69" s="191">
-        <f>SUM(G69:I69)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="204">
+      <c r="A70" s="201">
         <v>43198</v>
       </c>
-      <c r="B70" s="204">
+      <c r="B70" s="201">
         <v>43233</v>
       </c>
       <c r="C70" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D70" s="191" t="s">
@@ -26374,19 +26371,19 @@
         <v>2</v>
       </c>
       <c r="J70" s="191">
-        <f>SUM(G70:I70)</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="204">
+      <c r="A71" s="201">
         <v>43198</v>
       </c>
-      <c r="B71" s="204">
+      <c r="B71" s="201">
         <v>43233</v>
       </c>
       <c r="C71" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D71" s="191" t="s">
@@ -26408,19 +26405,19 @@
         <v>31</v>
       </c>
       <c r="J71" s="191">
-        <f>SUM(G71:I71)</f>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="204">
+      <c r="A72" s="201">
         <v>43198</v>
       </c>
-      <c r="B72" s="204">
+      <c r="B72" s="201">
         <v>43233</v>
       </c>
       <c r="C72" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D72" s="191" t="s">
@@ -26442,19 +26439,19 @@
         <v>2</v>
       </c>
       <c r="J72" s="191">
-        <f>SUM(G72:I72)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="204">
+      <c r="A73" s="201">
         <v>43198</v>
       </c>
-      <c r="B73" s="204">
+      <c r="B73" s="201">
         <v>43233</v>
       </c>
       <c r="C73" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D73" s="191" t="s">
@@ -26476,19 +26473,19 @@
         <v>0</v>
       </c>
       <c r="J73" s="191">
-        <f>SUM(G73:I73)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="204">
+      <c r="A74" s="201">
         <v>43198</v>
       </c>
-      <c r="B74" s="204">
+      <c r="B74" s="201">
         <v>43233</v>
       </c>
       <c r="C74" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D74" s="191" t="s">
@@ -26510,19 +26507,19 @@
         <v>3</v>
       </c>
       <c r="J74" s="191">
-        <f>SUM(G74:I74)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="204">
+      <c r="A75" s="201">
         <v>43198</v>
       </c>
-      <c r="B75" s="204">
+      <c r="B75" s="201">
         <v>43233</v>
       </c>
       <c r="C75" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D75" s="191" t="s">
@@ -26544,19 +26541,19 @@
         <v>0</v>
       </c>
       <c r="J75" s="191">
-        <f>SUM(G75:I75)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="204">
+      <c r="A76" s="201">
         <v>43198</v>
       </c>
-      <c r="B76" s="204">
+      <c r="B76" s="201">
         <v>43233</v>
       </c>
       <c r="C76" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D76" s="191" t="s">
@@ -26578,19 +26575,19 @@
         <v>2</v>
       </c>
       <c r="J76" s="191">
-        <f>SUM(G76:I76)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="204">
+      <c r="A77" s="201">
         <v>43198</v>
       </c>
-      <c r="B77" s="204">
+      <c r="B77" s="201">
         <v>43233</v>
       </c>
       <c r="C77" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D77" s="191" t="s">
@@ -26612,19 +26609,19 @@
         <v>8</v>
       </c>
       <c r="J77" s="191">
-        <f>SUM(G77:I77)</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="204">
+      <c r="A78" s="201">
         <v>43198</v>
       </c>
-      <c r="B78" s="204">
+      <c r="B78" s="201">
         <v>43233</v>
       </c>
       <c r="C78" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D78" s="191" t="s">
@@ -26646,19 +26643,19 @@
         <v>5</v>
       </c>
       <c r="J78" s="191">
-        <f>SUM(G78:I78)</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="204">
+      <c r="A79" s="201">
         <v>43198</v>
       </c>
-      <c r="B79" s="204">
+      <c r="B79" s="201">
         <v>43233</v>
       </c>
       <c r="C79" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D79" s="191" t="s">
@@ -26680,19 +26677,19 @@
         <v>5</v>
       </c>
       <c r="J79" s="191">
-        <f>SUM(G79:I79)</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="204">
+      <c r="A80" s="201">
         <v>43198</v>
       </c>
-      <c r="B80" s="204">
+      <c r="B80" s="201">
         <v>43233</v>
       </c>
       <c r="C80" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D80" s="191" t="s">
@@ -26714,19 +26711,19 @@
         <v>66</v>
       </c>
       <c r="J80" s="191">
-        <f>SUM(G80:I80)</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="204">
+      <c r="A81" s="201">
         <v>43198</v>
       </c>
-      <c r="B81" s="204">
+      <c r="B81" s="201">
         <v>43233</v>
       </c>
       <c r="C81" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D81" s="191" t="s">
@@ -26748,19 +26745,19 @@
         <v>25</v>
       </c>
       <c r="J81" s="191">
-        <f>SUM(G81:I81)</f>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="204">
+      <c r="A82" s="201">
         <v>43198</v>
       </c>
-      <c r="B82" s="204">
+      <c r="B82" s="201">
         <v>43233</v>
       </c>
       <c r="C82" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D82" s="191" t="s">
@@ -26782,19 +26779,19 @@
         <v>18</v>
       </c>
       <c r="J82" s="191">
-        <f>SUM(G82:I82)</f>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="204">
+      <c r="A83" s="201">
         <v>43199</v>
       </c>
-      <c r="B83" s="204">
+      <c r="B83" s="201">
         <v>43235</v>
       </c>
       <c r="C83" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D83" s="191" t="s">
@@ -26816,19 +26813,19 @@
         <v>3</v>
       </c>
       <c r="J83" s="191">
-        <f>SUM(G83:I83)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="204">
+      <c r="A84" s="201">
         <v>43199</v>
       </c>
-      <c r="B84" s="204">
+      <c r="B84" s="201">
         <v>43235</v>
       </c>
       <c r="C84" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D84" s="191" t="s">
@@ -26850,19 +26847,19 @@
         <v>2</v>
       </c>
       <c r="J84" s="191">
-        <f>SUM(G84:I84)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="204">
+      <c r="A85" s="201">
         <v>43199</v>
       </c>
-      <c r="B85" s="204">
+      <c r="B85" s="201">
         <v>43235</v>
       </c>
       <c r="C85" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D85" s="191" t="s">
@@ -26884,19 +26881,19 @@
         <v>2</v>
       </c>
       <c r="J85" s="191">
-        <f>SUM(G85:I85)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="204">
+      <c r="A86" s="201">
         <v>43199</v>
       </c>
-      <c r="B86" s="204">
+      <c r="B86" s="201">
         <v>43235</v>
       </c>
       <c r="C86" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D86" s="191" t="s">
@@ -26918,19 +26915,19 @@
         <v>9</v>
       </c>
       <c r="J86" s="191">
-        <f>SUM(G86:I86)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="204">
+      <c r="A87" s="201">
         <v>43199</v>
       </c>
-      <c r="B87" s="204">
+      <c r="B87" s="201">
         <v>43235</v>
       </c>
       <c r="C87" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D87" s="191" t="s">
@@ -26952,19 +26949,19 @@
         <v>11</v>
       </c>
       <c r="J87" s="191">
-        <f>SUM(G87:I87)</f>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="204">
+      <c r="A88" s="201">
         <v>43199</v>
       </c>
-      <c r="B88" s="204">
+      <c r="B88" s="201">
         <v>43235</v>
       </c>
       <c r="C88" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D88" s="191" t="s">
@@ -26973,7 +26970,7 @@
       <c r="E88" s="191" t="s">
         <v>315</v>
       </c>
-      <c r="F88" s="203" t="s">
+      <c r="F88" s="200" t="s">
         <v>83</v>
       </c>
       <c r="G88" s="191">
@@ -26986,19 +26983,19 @@
         <v>8</v>
       </c>
       <c r="J88" s="191">
-        <f>SUM(G88:I88)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="204">
+      <c r="A89" s="201">
         <v>43199</v>
       </c>
-      <c r="B89" s="204">
+      <c r="B89" s="201">
         <v>43235</v>
       </c>
       <c r="C89" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D89" s="191" t="s">
@@ -27020,19 +27017,19 @@
         <v>15</v>
       </c>
       <c r="J89" s="191">
-        <f>SUM(G89:I89)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="204">
+      <c r="A90" s="201">
         <v>43199</v>
       </c>
-      <c r="B90" s="204">
+      <c r="B90" s="201">
         <v>43235</v>
       </c>
       <c r="C90" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D90" s="191" t="s">
@@ -27054,19 +27051,19 @@
         <v>3</v>
       </c>
       <c r="J90" s="191">
-        <f>SUM(G90:I90)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="204">
+      <c r="A91" s="201">
         <v>43199</v>
       </c>
-      <c r="B91" s="204">
+      <c r="B91" s="201">
         <v>43235</v>
       </c>
       <c r="C91" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D91" s="191" t="s">
@@ -27088,19 +27085,19 @@
         <v>16</v>
       </c>
       <c r="J91" s="191">
-        <f>SUM(G91:I91)</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="204">
+      <c r="A92" s="201">
         <v>43199</v>
       </c>
-      <c r="B92" s="204">
+      <c r="B92" s="201">
         <v>43235</v>
       </c>
       <c r="C92" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D92" s="191" t="s">
@@ -27122,19 +27119,19 @@
         <v>6</v>
       </c>
       <c r="J92" s="191">
-        <f>SUM(G92:I92)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="204">
+      <c r="A93" s="201">
         <v>43199</v>
       </c>
-      <c r="B93" s="204">
+      <c r="B93" s="201">
         <v>43235</v>
       </c>
       <c r="C93" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D93" s="191" t="s">
@@ -27156,19 +27153,19 @@
         <v>0</v>
       </c>
       <c r="J93" s="191">
-        <f>SUM(G93:I93)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="204">
+      <c r="A94" s="201">
         <v>43199</v>
       </c>
-      <c r="B94" s="204">
+      <c r="B94" s="201">
         <v>43235</v>
       </c>
       <c r="C94" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D94" s="191" t="s">
@@ -27190,19 +27187,19 @@
         <v>7</v>
       </c>
       <c r="J94" s="191">
-        <f>SUM(G94:I94)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="204">
+      <c r="A95" s="201">
         <v>43199</v>
       </c>
-      <c r="B95" s="204">
+      <c r="B95" s="201">
         <v>43235</v>
       </c>
       <c r="C95" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D95" s="191" t="s">
@@ -27224,19 +27221,19 @@
         <v>1</v>
       </c>
       <c r="J95" s="191">
-        <f>SUM(G95:I95)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="204">
+      <c r="A96" s="201">
         <v>43199</v>
       </c>
-      <c r="B96" s="204">
+      <c r="B96" s="201">
         <v>43235</v>
       </c>
       <c r="C96" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D96" s="191" t="s">
@@ -27258,19 +27255,19 @@
         <v>1</v>
       </c>
       <c r="J96" s="191">
-        <f>SUM(G96:I96)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="204">
+      <c r="A97" s="201">
         <v>43199</v>
       </c>
-      <c r="B97" s="204">
+      <c r="B97" s="201">
         <v>43235</v>
       </c>
       <c r="C97" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D97" s="191" t="s">
@@ -27292,19 +27289,19 @@
         <v>7</v>
       </c>
       <c r="J97" s="191">
-        <f>SUM(G97:I97)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="204">
+      <c r="A98" s="201">
         <v>43200</v>
       </c>
-      <c r="B98" s="204">
+      <c r="B98" s="201">
         <v>43235</v>
       </c>
       <c r="C98" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D98" s="191" t="s">
@@ -27326,19 +27323,19 @@
         <v>2</v>
       </c>
       <c r="J98" s="191">
-        <f>SUM(G98:I98)</f>
+        <f t="shared" ref="J98:J129" si="5">SUM(G98:I98)</f>
         <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="204">
+      <c r="A99" s="201">
         <v>43200</v>
       </c>
-      <c r="B99" s="204">
+      <c r="B99" s="201">
         <v>43235</v>
       </c>
       <c r="C99" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D99" s="191" t="s">
@@ -27360,19 +27357,19 @@
         <v>2</v>
       </c>
       <c r="J99" s="191">
-        <f>SUM(G99:I99)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="204">
+      <c r="A100" s="201">
         <v>43200</v>
       </c>
-      <c r="B100" s="204">
+      <c r="B100" s="201">
         <v>43235</v>
       </c>
       <c r="C100" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D100" s="191" t="s">
@@ -27394,19 +27391,19 @@
         <v>6</v>
       </c>
       <c r="J100" s="191">
-        <f>SUM(G100:I100)</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="204">
+      <c r="A101" s="201">
         <v>43200</v>
       </c>
-      <c r="B101" s="204">
+      <c r="B101" s="201">
         <v>43235</v>
       </c>
       <c r="C101" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D101" s="191" t="s">
@@ -27428,19 +27425,19 @@
         <v>3</v>
       </c>
       <c r="J101" s="193">
-        <f>SUM(G101:I101)</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="204">
+      <c r="A102" s="201">
         <v>43200</v>
       </c>
-      <c r="B102" s="204">
+      <c r="B102" s="201">
         <v>43235</v>
       </c>
       <c r="C102" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D102" s="191" t="s">
@@ -27462,19 +27459,19 @@
         <v>3</v>
       </c>
       <c r="J102" s="193">
-        <f>SUM(G102:I102)</f>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="204">
+      <c r="A103" s="201">
         <v>43200</v>
       </c>
-      <c r="B103" s="204">
+      <c r="B103" s="201">
         <v>43235</v>
       </c>
       <c r="C103" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D103" s="191" t="s">
@@ -27496,19 +27493,19 @@
         <v>4</v>
       </c>
       <c r="J103" s="193">
-        <f>SUM(G103:I103)</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="204">
+      <c r="A104" s="201">
         <v>43200</v>
       </c>
-      <c r="B104" s="204">
+      <c r="B104" s="201">
         <v>43235</v>
       </c>
       <c r="C104" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D104" s="191" t="s">
@@ -27530,19 +27527,19 @@
         <v>0</v>
       </c>
       <c r="J104" s="193">
-        <f>SUM(G104:I104)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="204">
+      <c r="A105" s="201">
         <v>43200</v>
       </c>
-      <c r="B105" s="204">
+      <c r="B105" s="201">
         <v>43235</v>
       </c>
       <c r="C105" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D105" s="191" t="s">
@@ -27564,19 +27561,19 @@
         <v>3</v>
       </c>
       <c r="J105" s="193">
-        <f>SUM(G105:I105)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="204">
+      <c r="A106" s="201">
         <v>43200</v>
       </c>
-      <c r="B106" s="204">
+      <c r="B106" s="201">
         <v>43235</v>
       </c>
       <c r="C106" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D106" s="191" t="s">
@@ -27598,19 +27595,19 @@
         <v>10</v>
       </c>
       <c r="J106" s="193">
-        <f>SUM(G106:I106)</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="204">
+      <c r="A107" s="201">
         <v>43201</v>
       </c>
-      <c r="B107" s="204">
+      <c r="B107" s="201">
         <v>43240</v>
       </c>
       <c r="C107" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="D107" s="191" t="s">
@@ -27632,19 +27629,19 @@
         <v>5</v>
       </c>
       <c r="J107" s="191">
-        <f>SUM(G107:I107)</f>
+        <f t="shared" si="5"/>
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="204">
+      <c r="A108" s="201">
         <v>43201</v>
       </c>
-      <c r="B108" s="204">
+      <c r="B108" s="201">
         <v>43240</v>
       </c>
       <c r="C108" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="D108" s="191" t="s">
@@ -27666,19 +27663,19 @@
         <v>8</v>
       </c>
       <c r="J108" s="191">
-        <f>SUM(G108:I108)</f>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="204">
+      <c r="A109" s="201">
         <v>43201</v>
       </c>
-      <c r="B109" s="204">
+      <c r="B109" s="201">
         <v>43240</v>
       </c>
       <c r="C109" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="D109" s="191" t="s">
@@ -27700,19 +27697,19 @@
         <v>13</v>
       </c>
       <c r="J109" s="191">
-        <f>SUM(G109:I109)</f>
+        <f t="shared" si="5"/>
         <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="204">
+      <c r="A110" s="201">
         <v>43202</v>
       </c>
-      <c r="B110" s="204">
+      <c r="B110" s="201">
         <v>43240</v>
       </c>
       <c r="C110" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D110" s="191" t="s">
@@ -27734,19 +27731,19 @@
         <v>1</v>
       </c>
       <c r="J110" s="191">
-        <f>SUM(G110:I110)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="204">
+      <c r="A111" s="201">
         <v>43202</v>
       </c>
-      <c r="B111" s="204">
+      <c r="B111" s="201">
         <v>43240</v>
       </c>
       <c r="C111" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D111" s="191" t="s">
@@ -27768,19 +27765,19 @@
         <v>0</v>
       </c>
       <c r="J111" s="191">
-        <f>SUM(G111:I111)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="204">
+      <c r="A112" s="201">
         <v>43202</v>
       </c>
-      <c r="B112" s="204">
+      <c r="B112" s="201">
         <v>43240</v>
       </c>
       <c r="C112" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D112" s="191" t="s">
@@ -27802,19 +27799,19 @@
         <v>4</v>
       </c>
       <c r="J112" s="191">
-        <f>SUM(G112:I112)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="204">
+      <c r="A113" s="201">
         <v>43202</v>
       </c>
-      <c r="B113" s="204">
+      <c r="B113" s="201">
         <v>43240</v>
       </c>
       <c r="C113" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D113" s="191" t="s">
@@ -27836,19 +27833,19 @@
         <v>52</v>
       </c>
       <c r="J113" s="191">
-        <f>SUM(G113:I113)</f>
+        <f t="shared" si="5"/>
         <v>397</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="204">
+      <c r="A114" s="201">
         <v>43202</v>
       </c>
-      <c r="B114" s="204">
+      <c r="B114" s="201">
         <v>43240</v>
       </c>
       <c r="C114" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D114" s="191" t="s">
@@ -27870,19 +27867,19 @@
         <v>100</v>
       </c>
       <c r="J114" s="191">
-        <f>SUM(G114:I114)</f>
+        <f t="shared" si="5"/>
         <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="204">
+      <c r="A115" s="201">
         <v>43202</v>
       </c>
-      <c r="B115" s="204">
+      <c r="B115" s="201">
         <v>43240</v>
       </c>
       <c r="C115" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="D115" s="191" t="s">
@@ -27904,19 +27901,19 @@
         <v>57</v>
       </c>
       <c r="J115" s="191">
-        <f>SUM(G115:I115)</f>
+        <f t="shared" si="5"/>
         <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="204">
+      <c r="A116" s="201">
         <v>43203</v>
       </c>
-      <c r="B116" s="204">
+      <c r="B116" s="201">
         <v>43240</v>
       </c>
       <c r="C116" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D116" s="191" t="s">
@@ -27938,19 +27935,19 @@
         <v>0</v>
       </c>
       <c r="J116" s="191">
-        <f>SUM(G116:I116)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="204">
+      <c r="A117" s="201">
         <v>43203</v>
       </c>
-      <c r="B117" s="204">
+      <c r="B117" s="201">
         <v>43240</v>
       </c>
       <c r="C117" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D117" s="191" t="s">
@@ -27972,19 +27969,19 @@
         <v>1</v>
       </c>
       <c r="J117" s="191">
-        <f>SUM(G117:I117)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="204">
+      <c r="A118" s="201">
         <v>43203</v>
       </c>
-      <c r="B118" s="204">
+      <c r="B118" s="201">
         <v>43240</v>
       </c>
       <c r="C118" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D118" s="191" t="s">
@@ -28006,19 +28003,19 @@
         <v>0</v>
       </c>
       <c r="J118" s="191">
-        <f>SUM(G118:I118)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="204">
+      <c r="A119" s="201">
         <v>43203</v>
       </c>
-      <c r="B119" s="204">
+      <c r="B119" s="201">
         <v>43240</v>
       </c>
       <c r="C119" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D119" s="191" t="s">
@@ -28040,19 +28037,19 @@
         <v>7</v>
       </c>
       <c r="J119" s="191">
-        <f>SUM(G119:I119)</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="204">
+      <c r="A120" s="201">
         <v>43203</v>
       </c>
-      <c r="B120" s="204">
+      <c r="B120" s="201">
         <v>43240</v>
       </c>
       <c r="C120" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D120" s="191" t="s">
@@ -28074,19 +28071,19 @@
         <v>11</v>
       </c>
       <c r="J120" s="191">
-        <f>SUM(G120:I120)</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="204">
+      <c r="A121" s="201">
         <v>43203</v>
       </c>
-      <c r="B121" s="204">
+      <c r="B121" s="201">
         <v>43240</v>
       </c>
       <c r="C121" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D121" s="191" t="s">
@@ -28108,19 +28105,19 @@
         <v>1</v>
       </c>
       <c r="J121" s="191">
-        <f>SUM(G121:I121)</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="204">
+      <c r="A122" s="201">
         <v>43203</v>
       </c>
-      <c r="B122" s="204">
+      <c r="B122" s="201">
         <v>43240</v>
       </c>
       <c r="C122" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D122" s="191" t="s">
@@ -28142,19 +28139,19 @@
         <v>1</v>
       </c>
       <c r="J122" s="191">
-        <f>SUM(G122:I122)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="204">
+      <c r="A123" s="201">
         <v>43203</v>
       </c>
-      <c r="B123" s="204">
+      <c r="B123" s="201">
         <v>43240</v>
       </c>
       <c r="C123" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D123" s="191" t="s">
@@ -28163,7 +28160,7 @@
       <c r="E123" s="191" t="s">
         <v>314</v>
       </c>
-      <c r="F123" s="203" t="s">
+      <c r="F123" s="200" t="s">
         <v>61</v>
       </c>
       <c r="G123" s="191">
@@ -28176,19 +28173,19 @@
         <v>13</v>
       </c>
       <c r="J123" s="191">
-        <f>SUM(G123:I123)</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="204">
+      <c r="A124" s="201">
         <v>43203</v>
       </c>
-      <c r="B124" s="204">
+      <c r="B124" s="201">
         <v>43240</v>
       </c>
       <c r="C124" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D124" s="191" t="s">
@@ -28197,7 +28194,7 @@
       <c r="E124" s="191" t="s">
         <v>314</v>
       </c>
-      <c r="F124" s="203" t="s">
+      <c r="F124" s="200" t="s">
         <v>61</v>
       </c>
       <c r="G124" s="191">
@@ -28210,19 +28207,19 @@
         <v>1</v>
       </c>
       <c r="J124" s="191">
-        <f>SUM(G124:I124)</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="204">
+      <c r="A125" s="201">
         <v>43204</v>
       </c>
-      <c r="B125" s="204">
+      <c r="B125" s="201">
         <v>43240</v>
       </c>
       <c r="C125" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D125" s="191" t="s">
@@ -28244,19 +28241,19 @@
         <v>2</v>
       </c>
       <c r="J125" s="191">
-        <f>SUM(G125:I125)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="204">
+      <c r="A126" s="201">
         <v>43204</v>
       </c>
-      <c r="B126" s="204">
+      <c r="B126" s="201">
         <v>43240</v>
       </c>
       <c r="C126" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D126" s="191" t="s">
@@ -28278,19 +28275,19 @@
         <v>6</v>
       </c>
       <c r="J126" s="191">
-        <f>SUM(G126:I126)</f>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="204">
+      <c r="A127" s="201">
         <v>43204</v>
       </c>
-      <c r="B127" s="204">
+      <c r="B127" s="201">
         <v>43240</v>
       </c>
       <c r="C127" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D127" s="191" t="s">
@@ -28312,19 +28309,19 @@
         <v>3</v>
       </c>
       <c r="J127" s="191">
-        <f>SUM(G127:I127)</f>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="204">
+      <c r="A128" s="201">
         <v>43204</v>
       </c>
-      <c r="B128" s="204">
+      <c r="B128" s="201">
         <v>43240</v>
       </c>
       <c r="C128" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D128" s="191" t="s">
@@ -28346,19 +28343,19 @@
         <v>0</v>
       </c>
       <c r="J128" s="191">
-        <f>SUM(G128:I128)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="204">
+      <c r="A129" s="201">
         <v>43204</v>
       </c>
-      <c r="B129" s="204">
+      <c r="B129" s="201">
         <v>43240</v>
       </c>
       <c r="C129" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D129" s="191" t="s">
@@ -28380,19 +28377,19 @@
         <v>5</v>
       </c>
       <c r="J129" s="191">
-        <f>SUM(G129:I129)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="204">
+      <c r="A130" s="201">
         <v>43204</v>
       </c>
-      <c r="B130" s="204">
+      <c r="B130" s="201">
         <v>43240</v>
       </c>
       <c r="C130" s="194">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D130" s="191" t="s">
@@ -28414,19 +28411,19 @@
         <v>0</v>
       </c>
       <c r="J130" s="191">
-        <f>SUM(G130:I130)</f>
+        <f t="shared" ref="J130:J161" si="6">SUM(G130:I130)</f>
         <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="204">
+      <c r="A131" s="201">
         <v>43204</v>
       </c>
-      <c r="B131" s="204">
+      <c r="B131" s="201">
         <v>43243</v>
       </c>
       <c r="C131" s="194">
-        <f t="shared" ref="C131:C145" si="2">B131-A131</f>
+        <f t="shared" ref="C131:C145" si="7">B131-A131</f>
         <v>39</v>
       </c>
       <c r="D131" s="191" t="s">
@@ -28448,19 +28445,19 @@
         <v>9</v>
       </c>
       <c r="J131" s="191">
-        <f>SUM(G131:I131)</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="204">
+      <c r="A132" s="201">
         <v>43204</v>
       </c>
-      <c r="B132" s="204">
+      <c r="B132" s="201">
         <v>43243</v>
       </c>
       <c r="C132" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="D132" s="191" t="s">
@@ -28482,19 +28479,19 @@
         <v>6</v>
       </c>
       <c r="J132" s="191">
-        <f>SUM(G132:I132)</f>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="204">
+      <c r="A133" s="201">
         <v>43204</v>
       </c>
-      <c r="B133" s="204">
+      <c r="B133" s="201">
         <v>43243</v>
       </c>
       <c r="C133" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="D133" s="191" t="s">
@@ -28516,19 +28513,19 @@
         <v>3</v>
       </c>
       <c r="J133" s="191">
-        <f>SUM(G133:I133)</f>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="204">
+      <c r="A134" s="201">
         <v>43205</v>
       </c>
-      <c r="B134" s="204">
+      <c r="B134" s="201">
         <v>43243</v>
       </c>
       <c r="C134" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D134" s="191" t="s">
@@ -28550,19 +28547,19 @@
         <v>13</v>
       </c>
       <c r="J134" s="191">
-        <f>SUM(G134:I134)</f>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="204">
+      <c r="A135" s="201">
         <v>43205</v>
       </c>
-      <c r="B135" s="204">
+      <c r="B135" s="201">
         <v>43243</v>
       </c>
       <c r="C135" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D135" s="191" t="s">
@@ -28584,19 +28581,19 @@
         <v>17</v>
       </c>
       <c r="J135" s="191">
-        <f>SUM(G135:I135)</f>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="204">
+      <c r="A136" s="201">
         <v>43205</v>
       </c>
-      <c r="B136" s="204">
+      <c r="B136" s="201">
         <v>43243</v>
       </c>
       <c r="C136" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D136" s="191" t="s">
@@ -28618,19 +28615,19 @@
         <v>8</v>
       </c>
       <c r="J136" s="191">
-        <f>SUM(G136:I136)</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="204">
+      <c r="A137" s="201">
         <v>43206</v>
       </c>
-      <c r="B137" s="204">
+      <c r="B137" s="201">
         <v>43243</v>
       </c>
       <c r="C137" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="D137" s="191" t="s">
@@ -28652,19 +28649,19 @@
         <v>2</v>
       </c>
       <c r="J137" s="191">
-        <f>SUM(G137:I137)</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="204">
+      <c r="A138" s="201">
         <v>43206</v>
       </c>
-      <c r="B138" s="204">
+      <c r="B138" s="201">
         <v>43243</v>
       </c>
       <c r="C138" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="D138" s="191" t="s">
@@ -28686,19 +28683,19 @@
         <v>1</v>
       </c>
       <c r="J138" s="191">
-        <f>SUM(G138:I138)</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="204">
+      <c r="A139" s="201">
         <v>43206</v>
       </c>
-      <c r="B139" s="204">
+      <c r="B139" s="201">
         <v>43243</v>
       </c>
       <c r="C139" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="D139" s="191" t="s">
@@ -28720,19 +28717,19 @@
         <v>3</v>
       </c>
       <c r="J139" s="191">
-        <f>SUM(G139:I139)</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="204">
+      <c r="A140" s="201">
         <v>43205</v>
       </c>
-      <c r="B140" s="204">
+      <c r="B140" s="201">
         <v>43243</v>
       </c>
       <c r="C140" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D140" s="191" t="s">
@@ -28754,19 +28751,19 @@
         <v>24</v>
       </c>
       <c r="J140" s="191">
-        <f>SUM(G140:I140)</f>
+        <f t="shared" si="6"/>
         <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="204">
+      <c r="A141" s="201">
         <v>43205</v>
       </c>
-      <c r="B141" s="204">
+      <c r="B141" s="201">
         <v>43243</v>
       </c>
       <c r="C141" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D141" s="191" t="s">
@@ -28788,19 +28785,19 @@
         <v>3</v>
       </c>
       <c r="J141" s="191">
-        <f>SUM(G141:I141)</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="204">
+      <c r="A142" s="201">
         <v>43205</v>
       </c>
-      <c r="B142" s="204">
+      <c r="B142" s="201">
         <v>43243</v>
       </c>
       <c r="C142" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D142" s="191" t="s">
@@ -28822,19 +28819,19 @@
         <v>15</v>
       </c>
       <c r="J142" s="191">
-        <f>SUM(G142:I142)</f>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="204">
+      <c r="A143" s="201">
         <v>43209</v>
       </c>
-      <c r="B143" s="204">
+      <c r="B143" s="201">
         <v>43243</v>
       </c>
       <c r="C143" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="D143" s="191" t="s">
@@ -28856,19 +28853,19 @@
         <v>64</v>
       </c>
       <c r="J143" s="191">
-        <f>SUM(G143:I143)</f>
+        <f t="shared" si="6"/>
         <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="204">
+      <c r="A144" s="201">
         <v>43209</v>
       </c>
-      <c r="B144" s="204">
+      <c r="B144" s="201">
         <v>43243</v>
       </c>
       <c r="C144" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="D144" s="191" t="s">
@@ -28890,19 +28887,19 @@
         <v>112</v>
       </c>
       <c r="J144" s="191">
-        <f>SUM(G144:I144)</f>
+        <f t="shared" si="6"/>
         <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="204">
+      <c r="A145" s="201">
         <v>43209</v>
       </c>
-      <c r="B145" s="204">
+      <c r="B145" s="201">
         <v>43243</v>
       </c>
       <c r="C145" s="194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="D145" s="191" t="s">
@@ -28924,7 +28921,7 @@
         <v>96</v>
       </c>
       <c r="J145" s="191">
-        <f>SUM(G145:I145)</f>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
     </row>
@@ -28941,10 +28938,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D99" workbookViewId="0">
+      <selection activeCell="I114" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -28966,19 +28963,19 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30">
       <c r="A1" s="196" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C1" s="196" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D1" s="196" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E1" s="196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F1" s="196" t="s">
         <v>157</v>
@@ -28990,30 +28987,30 @@
         <v>317</v>
       </c>
       <c r="I1" s="197" t="s">
+        <v>383</v>
+      </c>
+      <c r="J1" s="197" t="s">
         <v>384</v>
       </c>
-      <c r="J1" s="197" t="s">
+      <c r="K1" s="197" t="s">
         <v>385</v>
       </c>
-      <c r="K1" s="197" t="s">
-        <v>386</v>
-      </c>
       <c r="L1" s="198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="204">
+      <c r="A2" s="201">
         <v>43190</v>
       </c>
-      <c r="B2" s="204">
+      <c r="B2" s="201">
         <v>43226</v>
       </c>
       <c r="C2" s="194">
         <f>B2-A2</f>
         <v>36</v>
       </c>
-      <c r="D2" s="204">
+      <c r="D2" s="201">
         <v>43243</v>
       </c>
       <c r="E2" s="194">
@@ -29044,17 +29041,17 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="204">
+      <c r="A3" s="201">
         <v>43190</v>
       </c>
-      <c r="B3" s="204">
+      <c r="B3" s="201">
         <v>43226</v>
       </c>
       <c r="C3" s="194">
         <f t="shared" ref="C3:C68" si="0">B3-A3</f>
         <v>36</v>
       </c>
-      <c r="D3" s="204">
+      <c r="D3" s="201">
         <v>43243</v>
       </c>
       <c r="E3" s="194">
@@ -29078,17 +29075,17 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="204">
+      <c r="A4" s="201">
         <v>43190</v>
       </c>
-      <c r="B4" s="204">
+      <c r="B4" s="201">
         <v>43226</v>
       </c>
       <c r="C4" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D4" s="204">
+      <c r="D4" s="201">
         <v>43243</v>
       </c>
       <c r="E4" s="194">
@@ -29112,17 +29109,17 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="204">
+      <c r="A5" s="201">
         <v>43191</v>
       </c>
-      <c r="B5" s="204">
+      <c r="B5" s="201">
         <v>43226</v>
       </c>
       <c r="C5" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D5" s="204">
+      <c r="D5" s="201">
         <v>43243</v>
       </c>
       <c r="E5" s="194">
@@ -29153,17 +29150,17 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="204">
+      <c r="A6" s="201">
         <v>43191</v>
       </c>
-      <c r="B6" s="204">
+      <c r="B6" s="201">
         <v>43226</v>
       </c>
       <c r="C6" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D6" s="204">
+      <c r="D6" s="201">
         <v>43243</v>
       </c>
       <c r="E6" s="194">
@@ -29187,17 +29184,17 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="204">
+      <c r="A7" s="201">
         <v>43191</v>
       </c>
-      <c r="B7" s="204">
+      <c r="B7" s="201">
         <v>43226</v>
       </c>
       <c r="C7" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="201">
         <v>43243</v>
       </c>
       <c r="E7" s="194">
@@ -29221,17 +29218,17 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="204">
+      <c r="A8" s="201">
         <v>43192</v>
       </c>
-      <c r="B8" s="204">
+      <c r="B8" s="201">
         <v>43228</v>
       </c>
       <c r="C8" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D8" s="204">
+      <c r="D8" s="201">
         <v>43243</v>
       </c>
       <c r="E8" s="194">
@@ -29262,17 +29259,17 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="204">
+      <c r="A9" s="201">
         <v>43192</v>
       </c>
-      <c r="B9" s="204">
+      <c r="B9" s="201">
         <v>43228</v>
       </c>
       <c r="C9" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D9" s="204">
+      <c r="D9" s="201">
         <v>43243</v>
       </c>
       <c r="E9" s="194">
@@ -29296,17 +29293,17 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="204">
+      <c r="A10" s="201">
         <v>43192</v>
       </c>
-      <c r="B10" s="204">
+      <c r="B10" s="201">
         <v>43228</v>
       </c>
       <c r="C10" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D10" s="204">
+      <c r="D10" s="201">
         <v>43243</v>
       </c>
       <c r="E10" s="194">
@@ -29330,17 +29327,17 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="204">
+      <c r="A11" s="201">
         <v>43192</v>
       </c>
-      <c r="B11" s="204">
+      <c r="B11" s="201">
         <v>43228</v>
       </c>
       <c r="C11" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D11" s="204">
+      <c r="D11" s="201">
         <v>43243</v>
       </c>
       <c r="E11" s="194">
@@ -29371,17 +29368,17 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="204">
+      <c r="A12" s="201">
         <v>43192</v>
       </c>
-      <c r="B12" s="204">
+      <c r="B12" s="201">
         <v>43228</v>
       </c>
       <c r="C12" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D12" s="204">
+      <c r="D12" s="201">
         <v>43243</v>
       </c>
       <c r="E12" s="194">
@@ -29405,17 +29402,17 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="204">
+      <c r="A13" s="201">
         <v>43192</v>
       </c>
-      <c r="B13" s="204">
+      <c r="B13" s="201">
         <v>43228</v>
       </c>
       <c r="C13" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D13" s="204">
+      <c r="D13" s="201">
         <v>43243</v>
       </c>
       <c r="E13" s="194">
@@ -29439,17 +29436,17 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="204">
+      <c r="A14" s="201">
         <v>43192</v>
       </c>
-      <c r="B14" s="204">
+      <c r="B14" s="201">
         <v>43228</v>
       </c>
       <c r="C14" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D14" s="204">
+      <c r="D14" s="201">
         <v>43243</v>
       </c>
       <c r="E14" s="194">
@@ -29480,17 +29477,17 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="204">
+      <c r="A15" s="201">
         <v>43192</v>
       </c>
-      <c r="B15" s="204">
+      <c r="B15" s="201">
         <v>43228</v>
       </c>
       <c r="C15" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D15" s="204">
+      <c r="D15" s="201">
         <v>43243</v>
       </c>
       <c r="E15" s="194">
@@ -29514,17 +29511,17 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="204">
+      <c r="A16" s="201">
         <v>43192</v>
       </c>
-      <c r="B16" s="204">
+      <c r="B16" s="201">
         <v>43228</v>
       </c>
       <c r="C16" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D16" s="204">
+      <c r="D16" s="201">
         <v>43243</v>
       </c>
       <c r="E16" s="194">
@@ -29548,17 +29545,17 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="204">
+      <c r="A17" s="201">
         <v>43192</v>
       </c>
-      <c r="B17" s="204">
+      <c r="B17" s="201">
         <v>43228</v>
       </c>
       <c r="C17" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D17" s="204">
+      <c r="D17" s="201">
         <v>43243</v>
       </c>
       <c r="E17" s="194">
@@ -29589,17 +29586,17 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="204">
+      <c r="A18" s="201">
         <v>43192</v>
       </c>
-      <c r="B18" s="204">
+      <c r="B18" s="201">
         <v>43228</v>
       </c>
       <c r="C18" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D18" s="204">
+      <c r="D18" s="201">
         <v>43243</v>
       </c>
       <c r="E18" s="194">
@@ -29623,17 +29620,17 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="204">
+      <c r="A19" s="201">
         <v>43192</v>
       </c>
-      <c r="B19" s="204">
+      <c r="B19" s="201">
         <v>43228</v>
       </c>
       <c r="C19" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D19" s="204">
+      <c r="D19" s="201">
         <v>43243</v>
       </c>
       <c r="E19" s="194">
@@ -29657,17 +29654,17 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="204">
+      <c r="A20" s="201">
         <v>43192</v>
       </c>
-      <c r="B20" s="204">
+      <c r="B20" s="201">
         <v>43228</v>
       </c>
       <c r="C20" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D20" s="204">
+      <c r="D20" s="201">
         <v>43243</v>
       </c>
       <c r="E20" s="194">
@@ -29698,17 +29695,17 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="204">
+      <c r="A21" s="201">
         <v>43192</v>
       </c>
-      <c r="B21" s="204">
+      <c r="B21" s="201">
         <v>43228</v>
       </c>
       <c r="C21" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D21" s="204">
+      <c r="D21" s="201">
         <v>43243</v>
       </c>
       <c r="E21" s="194">
@@ -29732,17 +29729,17 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="204">
+      <c r="A22" s="201">
         <v>43192</v>
       </c>
-      <c r="B22" s="204">
+      <c r="B22" s="201">
         <v>43228</v>
       </c>
       <c r="C22" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D22" s="204">
+      <c r="D22" s="201">
         <v>43243</v>
       </c>
       <c r="E22" s="194">
@@ -29766,17 +29763,17 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="204">
+      <c r="A23" s="201">
         <v>43193</v>
       </c>
-      <c r="B23" s="204">
+      <c r="B23" s="201">
         <v>43228</v>
       </c>
       <c r="C23" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D23" s="204">
+      <c r="D23" s="201">
         <v>43243</v>
       </c>
       <c r="E23" s="194">
@@ -29807,17 +29804,17 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="204">
+      <c r="A24" s="201">
         <v>43193</v>
       </c>
-      <c r="B24" s="204">
+      <c r="B24" s="201">
         <v>43228</v>
       </c>
       <c r="C24" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D24" s="204">
+      <c r="D24" s="201">
         <v>43243</v>
       </c>
       <c r="E24" s="194">
@@ -29841,17 +29838,17 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="204">
+      <c r="A25" s="201">
         <v>43193</v>
       </c>
-      <c r="B25" s="204">
+      <c r="B25" s="201">
         <v>43228</v>
       </c>
       <c r="C25" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D25" s="204">
+      <c r="D25" s="201">
         <v>43243</v>
       </c>
       <c r="E25" s="194">
@@ -29875,17 +29872,17 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="204">
+      <c r="A26" s="201">
         <v>43193</v>
       </c>
-      <c r="B26" s="204">
+      <c r="B26" s="201">
         <v>43228</v>
       </c>
       <c r="C26" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D26" s="204">
+      <c r="D26" s="201">
         <v>43243</v>
       </c>
       <c r="E26" s="194">
@@ -29916,17 +29913,17 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="204">
+      <c r="A27" s="201">
         <v>43193</v>
       </c>
-      <c r="B27" s="204">
+      <c r="B27" s="201">
         <v>43228</v>
       </c>
       <c r="C27" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D27" s="204">
+      <c r="D27" s="201">
         <v>43243</v>
       </c>
       <c r="E27" s="194">
@@ -29950,17 +29947,17 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="204">
+      <c r="A28" s="201">
         <v>43193</v>
       </c>
-      <c r="B28" s="204">
+      <c r="B28" s="201">
         <v>43228</v>
       </c>
       <c r="C28" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D28" s="204">
+      <c r="D28" s="201">
         <v>43243</v>
       </c>
       <c r="E28" s="194">
@@ -29984,17 +29981,17 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="204">
+      <c r="A29" s="201">
         <v>43194</v>
       </c>
-      <c r="B29" s="204">
+      <c r="B29" s="201">
         <v>43230</v>
       </c>
       <c r="C29" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D29" s="204">
+      <c r="D29" s="201">
         <v>43243</v>
       </c>
       <c r="E29" s="194">
@@ -30025,17 +30022,17 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="204">
+      <c r="A30" s="201">
         <v>43194</v>
       </c>
-      <c r="B30" s="204">
+      <c r="B30" s="201">
         <v>43230</v>
       </c>
       <c r="C30" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D30" s="204">
+      <c r="D30" s="201">
         <v>43243</v>
       </c>
       <c r="E30" s="194">
@@ -30059,17 +30056,17 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="204">
+      <c r="A31" s="201">
         <v>43194</v>
       </c>
-      <c r="B31" s="204">
+      <c r="B31" s="201">
         <v>43230</v>
       </c>
       <c r="C31" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D31" s="204">
+      <c r="D31" s="201">
         <v>43243</v>
       </c>
       <c r="E31" s="194">
@@ -30093,17 +30090,17 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="204">
+      <c r="A32" s="201">
         <v>43195</v>
       </c>
-      <c r="B32" s="204">
+      <c r="B32" s="201">
         <v>43230</v>
       </c>
       <c r="C32" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D32" s="204">
+      <c r="D32" s="201">
         <v>43247</v>
       </c>
       <c r="E32" s="194">
@@ -30134,17 +30131,17 @@
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="204">
+      <c r="A33" s="201">
         <v>43195</v>
       </c>
-      <c r="B33" s="204">
+      <c r="B33" s="201">
         <v>43230</v>
       </c>
       <c r="C33" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D33" s="204">
+      <c r="D33" s="201">
         <v>43247</v>
       </c>
       <c r="E33" s="194">
@@ -30168,17 +30165,17 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="204">
+      <c r="A34" s="201">
         <v>43195</v>
       </c>
-      <c r="B34" s="204">
+      <c r="B34" s="201">
         <v>43230</v>
       </c>
       <c r="C34" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D34" s="204">
+      <c r="D34" s="201">
         <v>43247</v>
       </c>
       <c r="E34" s="194">
@@ -30202,17 +30199,17 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="204">
+      <c r="A35" s="201">
         <v>43195</v>
       </c>
-      <c r="B35" s="204">
+      <c r="B35" s="201">
         <v>43230</v>
       </c>
       <c r="C35" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D35" s="204">
+      <c r="D35" s="201">
         <v>43247</v>
       </c>
       <c r="E35" s="194">
@@ -30243,17 +30240,17 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="204">
+      <c r="A36" s="201">
         <v>43195</v>
       </c>
-      <c r="B36" s="204">
+      <c r="B36" s="201">
         <v>43230</v>
       </c>
       <c r="C36" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D36" s="204">
+      <c r="D36" s="201">
         <v>43247</v>
       </c>
       <c r="E36" s="194">
@@ -30277,17 +30274,17 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="204">
+      <c r="A37" s="201">
         <v>43195</v>
       </c>
-      <c r="B37" s="204">
+      <c r="B37" s="201">
         <v>43230</v>
       </c>
       <c r="C37" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D37" s="204">
+      <c r="D37" s="201">
         <v>43247</v>
       </c>
       <c r="E37" s="194">
@@ -30311,17 +30308,17 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="204">
+      <c r="A38" s="201">
         <v>43196</v>
       </c>
-      <c r="B38" s="204">
+      <c r="B38" s="201">
         <v>43233</v>
       </c>
       <c r="C38" s="194">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D38" s="204">
+      <c r="D38" s="201">
         <v>43247</v>
       </c>
       <c r="E38" s="194">
@@ -30352,17 +30349,17 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="204">
+      <c r="A39" s="201">
         <v>43196</v>
       </c>
-      <c r="B39" s="204">
+      <c r="B39" s="201">
         <v>43233</v>
       </c>
       <c r="C39" s="194">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39" s="204">
+      <c r="D39" s="201">
         <v>43247</v>
       </c>
       <c r="E39" s="194">
@@ -30386,17 +30383,17 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="204">
+      <c r="A40" s="201">
         <v>43196</v>
       </c>
-      <c r="B40" s="204">
+      <c r="B40" s="201">
         <v>43233</v>
       </c>
       <c r="C40" s="194">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D40" s="204">
+      <c r="D40" s="201">
         <v>43247</v>
       </c>
       <c r="E40" s="194">
@@ -30420,17 +30417,17 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="204">
+      <c r="A41" s="201">
         <v>43197</v>
       </c>
-      <c r="B41" s="204">
+      <c r="B41" s="201">
         <v>43233</v>
       </c>
       <c r="C41" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D41" s="204">
+      <c r="D41" s="201">
         <v>43247</v>
       </c>
       <c r="E41" s="194">
@@ -30461,17 +30458,17 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="204">
+      <c r="A42" s="201">
         <v>43197</v>
       </c>
-      <c r="B42" s="204">
+      <c r="B42" s="201">
         <v>43233</v>
       </c>
       <c r="C42" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D42" s="204">
+      <c r="D42" s="201">
         <v>43247</v>
       </c>
       <c r="E42" s="194">
@@ -30495,17 +30492,17 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="204">
+      <c r="A43" s="201">
         <v>43197</v>
       </c>
-      <c r="B43" s="204">
+      <c r="B43" s="201">
         <v>43233</v>
       </c>
       <c r="C43" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D43" s="204">
+      <c r="D43" s="201">
         <v>43247</v>
       </c>
       <c r="E43" s="194">
@@ -30529,17 +30526,17 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="204">
+      <c r="A44" s="201">
         <v>43197</v>
       </c>
-      <c r="B44" s="204">
+      <c r="B44" s="201">
         <v>43233</v>
       </c>
       <c r="C44" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D44" s="204">
+      <c r="D44" s="201">
         <v>43247</v>
       </c>
       <c r="E44" s="194">
@@ -30570,17 +30567,17 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="204">
+      <c r="A45" s="201">
         <v>43197</v>
       </c>
-      <c r="B45" s="204">
+      <c r="B45" s="201">
         <v>43233</v>
       </c>
       <c r="C45" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D45" s="204">
+      <c r="D45" s="201">
         <v>43247</v>
       </c>
       <c r="E45" s="194">
@@ -30604,17 +30601,17 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="204">
+      <c r="A46" s="201">
         <v>43197</v>
       </c>
-      <c r="B46" s="204">
+      <c r="B46" s="201">
         <v>43233</v>
       </c>
       <c r="C46" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D46" s="204">
+      <c r="D46" s="201">
         <v>43247</v>
       </c>
       <c r="E46" s="194">
@@ -30638,17 +30635,17 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="204">
+      <c r="A47" s="201">
         <v>43197</v>
       </c>
-      <c r="B47" s="204">
+      <c r="B47" s="201">
         <v>43233</v>
       </c>
       <c r="C47" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D47" s="204">
+      <c r="D47" s="201">
         <v>43247</v>
       </c>
       <c r="E47" s="194">
@@ -30679,17 +30676,17 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="204">
+      <c r="A48" s="201">
         <v>43197</v>
       </c>
-      <c r="B48" s="204">
+      <c r="B48" s="201">
         <v>43233</v>
       </c>
       <c r="C48" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D48" s="204">
+      <c r="D48" s="201">
         <v>43247</v>
       </c>
       <c r="E48" s="194">
@@ -30713,17 +30710,17 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="204">
+      <c r="A49" s="201">
         <v>43197</v>
       </c>
-      <c r="B49" s="204">
+      <c r="B49" s="201">
         <v>43233</v>
       </c>
       <c r="C49" s="194">
         <f>B49-A49</f>
         <v>36</v>
       </c>
-      <c r="D49" s="204">
+      <c r="D49" s="201">
         <v>43247</v>
       </c>
       <c r="E49" s="194">
@@ -30747,17 +30744,17 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="204">
+      <c r="A50" s="201">
         <v>43197</v>
       </c>
-      <c r="B50" s="204">
+      <c r="B50" s="201">
         <v>43233</v>
       </c>
       <c r="C50" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D50" s="204">
+      <c r="D50" s="201">
         <v>43247</v>
       </c>
       <c r="E50" s="194">
@@ -30788,17 +30785,17 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="204">
+      <c r="A51" s="201">
         <v>43197</v>
       </c>
-      <c r="B51" s="204">
+      <c r="B51" s="201">
         <v>43233</v>
       </c>
       <c r="C51" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D51" s="204">
+      <c r="D51" s="201">
         <v>43247</v>
       </c>
       <c r="E51" s="194">
@@ -30822,17 +30819,17 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="204">
+      <c r="A52" s="201">
         <v>43197</v>
       </c>
-      <c r="B52" s="204">
+      <c r="B52" s="201">
         <v>43233</v>
       </c>
       <c r="C52" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D52" s="204">
+      <c r="D52" s="201">
         <v>43247</v>
       </c>
       <c r="E52" s="194">
@@ -30856,17 +30853,17 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="204">
+      <c r="A53" s="201">
         <v>43197</v>
       </c>
-      <c r="B53" s="204">
+      <c r="B53" s="201">
         <v>43233</v>
       </c>
       <c r="C53" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D53" s="204">
+      <c r="D53" s="201">
         <v>43247</v>
       </c>
       <c r="E53" s="194">
@@ -30897,17 +30894,17 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="204">
+      <c r="A54" s="201">
         <v>43197</v>
       </c>
-      <c r="B54" s="204">
+      <c r="B54" s="201">
         <v>43233</v>
       </c>
       <c r="C54" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D54" s="204">
+      <c r="D54" s="201">
         <v>43247</v>
       </c>
       <c r="E54" s="194">
@@ -30931,17 +30928,17 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="204">
+      <c r="A55" s="201">
         <v>43197</v>
       </c>
-      <c r="B55" s="204">
+      <c r="B55" s="201">
         <v>43233</v>
       </c>
       <c r="C55" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D55" s="204">
+      <c r="D55" s="201">
         <v>43247</v>
       </c>
       <c r="E55" s="194">
@@ -30965,17 +30962,17 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="204">
+      <c r="A56" s="201">
         <v>43197</v>
       </c>
-      <c r="B56" s="204">
+      <c r="B56" s="201">
         <v>43233</v>
       </c>
       <c r="C56" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D56" s="204">
+      <c r="D56" s="201">
         <v>43247</v>
       </c>
       <c r="E56" s="194">
@@ -31006,17 +31003,17 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="204">
+      <c r="A57" s="201">
         <v>43197</v>
       </c>
-      <c r="B57" s="204">
+      <c r="B57" s="201">
         <v>43233</v>
       </c>
       <c r="C57" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D57" s="204">
+      <c r="D57" s="201">
         <v>43247</v>
       </c>
       <c r="E57" s="194">
@@ -31040,17 +31037,17 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="204">
+      <c r="A58" s="201">
         <v>43197</v>
       </c>
-      <c r="B58" s="204">
+      <c r="B58" s="201">
         <v>43233</v>
       </c>
       <c r="C58" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D58" s="204">
+      <c r="D58" s="201">
         <v>43247</v>
       </c>
       <c r="E58" s="194">
@@ -31074,17 +31071,17 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="204">
+      <c r="A59" s="201">
         <v>43197</v>
       </c>
-      <c r="B59" s="204">
+      <c r="B59" s="201">
         <v>43233</v>
       </c>
       <c r="C59" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D59" s="204">
+      <c r="D59" s="201">
         <v>43247</v>
       </c>
       <c r="E59" s="194">
@@ -31115,17 +31112,17 @@
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="204">
+      <c r="A60" s="201">
         <v>43197</v>
       </c>
-      <c r="B60" s="204">
+      <c r="B60" s="201">
         <v>43233</v>
       </c>
       <c r="C60" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D60" s="204">
+      <c r="D60" s="201">
         <v>43247</v>
       </c>
       <c r="E60" s="194">
@@ -31149,17 +31146,17 @@
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="204">
+      <c r="A61" s="201">
         <v>43197</v>
       </c>
-      <c r="B61" s="204">
+      <c r="B61" s="201">
         <v>43233</v>
       </c>
       <c r="C61" s="194">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D61" s="204">
+      <c r="D61" s="201">
         <v>43247</v>
       </c>
       <c r="E61" s="194">
@@ -31183,17 +31180,17 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="204">
+      <c r="A62" s="201">
         <v>43198</v>
       </c>
-      <c r="B62" s="204">
+      <c r="B62" s="201">
         <v>43233</v>
       </c>
       <c r="C62" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D62" s="204">
+      <c r="D62" s="201">
         <v>43247</v>
       </c>
       <c r="E62" s="194">
@@ -31224,17 +31221,17 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="204">
+      <c r="A63" s="201">
         <v>43198</v>
       </c>
-      <c r="B63" s="204">
+      <c r="B63" s="201">
         <v>43233</v>
       </c>
       <c r="C63" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D63" s="204">
+      <c r="D63" s="201">
         <v>43247</v>
       </c>
       <c r="E63" s="194">
@@ -31258,17 +31255,17 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="204">
+      <c r="A64" s="201">
         <v>43198</v>
       </c>
-      <c r="B64" s="204">
+      <c r="B64" s="201">
         <v>43233</v>
       </c>
       <c r="C64" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D64" s="204">
+      <c r="D64" s="201">
         <v>43247</v>
       </c>
       <c r="E64" s="194">
@@ -31292,17 +31289,17 @@
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="204">
+      <c r="A65" s="201">
         <v>43198</v>
       </c>
-      <c r="B65" s="204">
+      <c r="B65" s="201">
         <v>43233</v>
       </c>
       <c r="C65" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D65" s="204">
+      <c r="D65" s="201">
         <v>43247</v>
       </c>
       <c r="E65" s="194">
@@ -31333,17 +31330,17 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="204">
+      <c r="A66" s="201">
         <v>43198</v>
       </c>
-      <c r="B66" s="204">
+      <c r="B66" s="201">
         <v>43233</v>
       </c>
       <c r="C66" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D66" s="204">
+      <c r="D66" s="201">
         <v>43247</v>
       </c>
       <c r="E66" s="194">
@@ -31367,17 +31364,17 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="204">
+      <c r="A67" s="201">
         <v>43198</v>
       </c>
-      <c r="B67" s="204">
+      <c r="B67" s="201">
         <v>43233</v>
       </c>
       <c r="C67" s="194">
         <f>B67-A67</f>
         <v>35</v>
       </c>
-      <c r="D67" s="204">
+      <c r="D67" s="201">
         <v>43247</v>
       </c>
       <c r="E67" s="194">
@@ -31401,17 +31398,17 @@
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="204">
+      <c r="A68" s="201">
         <v>43198</v>
       </c>
-      <c r="B68" s="204">
+      <c r="B68" s="201">
         <v>43233</v>
       </c>
       <c r="C68" s="194">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D68" s="204">
+      <c r="D68" s="201">
         <v>43247</v>
       </c>
       <c r="E68" s="194">
@@ -31442,17 +31439,17 @@
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="204">
+      <c r="A69" s="201">
         <v>43198</v>
       </c>
-      <c r="B69" s="204">
+      <c r="B69" s="201">
         <v>43233</v>
       </c>
       <c r="C69" s="194">
         <f t="shared" ref="C69:C88" si="3">B69-A69</f>
         <v>35</v>
       </c>
-      <c r="D69" s="204">
+      <c r="D69" s="201">
         <v>43247</v>
       </c>
       <c r="E69" s="194">
@@ -31476,17 +31473,17 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="204">
+      <c r="A70" s="201">
         <v>43198</v>
       </c>
-      <c r="B70" s="204">
+      <c r="B70" s="201">
         <v>43233</v>
       </c>
       <c r="C70" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D70" s="204">
+      <c r="D70" s="201">
         <v>43247</v>
       </c>
       <c r="E70" s="194">
@@ -31510,17 +31507,17 @@
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="204">
+      <c r="A71" s="201">
         <v>43198</v>
       </c>
-      <c r="B71" s="204">
+      <c r="B71" s="201">
         <v>43233</v>
       </c>
       <c r="C71" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D71" s="204">
+      <c r="D71" s="201">
         <v>43247</v>
       </c>
       <c r="E71" s="194">
@@ -31551,17 +31548,17 @@
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="204">
+      <c r="A72" s="201">
         <v>43198</v>
       </c>
-      <c r="B72" s="204">
+      <c r="B72" s="201">
         <v>43233</v>
       </c>
       <c r="C72" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D72" s="204">
+      <c r="D72" s="201">
         <v>43247</v>
       </c>
       <c r="E72" s="194">
@@ -31585,17 +31582,17 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="204">
+      <c r="A73" s="201">
         <v>43198</v>
       </c>
-      <c r="B73" s="204">
+      <c r="B73" s="201">
         <v>43233</v>
       </c>
       <c r="C73" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D73" s="204">
+      <c r="D73" s="201">
         <v>43247</v>
       </c>
       <c r="E73" s="194">
@@ -31619,17 +31616,17 @@
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="204">
+      <c r="A74" s="201">
         <v>43198</v>
       </c>
-      <c r="B74" s="204">
+      <c r="B74" s="201">
         <v>43233</v>
       </c>
       <c r="C74" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D74" s="204">
+      <c r="D74" s="201">
         <v>43247</v>
       </c>
       <c r="E74" s="194">
@@ -31660,17 +31657,17 @@
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="204">
+      <c r="A75" s="201">
         <v>43198</v>
       </c>
-      <c r="B75" s="204">
+      <c r="B75" s="201">
         <v>43233</v>
       </c>
       <c r="C75" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D75" s="204">
+      <c r="D75" s="201">
         <v>43247</v>
       </c>
       <c r="E75" s="194">
@@ -31694,17 +31691,17 @@
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="204">
+      <c r="A76" s="201">
         <v>43198</v>
       </c>
-      <c r="B76" s="204">
+      <c r="B76" s="201">
         <v>43233</v>
       </c>
       <c r="C76" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D76" s="204">
+      <c r="D76" s="201">
         <v>43247</v>
       </c>
       <c r="E76" s="194">
@@ -31728,17 +31725,17 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="204">
+      <c r="A77" s="201">
         <v>43198</v>
       </c>
-      <c r="B77" s="204">
+      <c r="B77" s="201">
         <v>43233</v>
       </c>
       <c r="C77" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D77" s="204">
+      <c r="D77" s="201">
         <v>43247</v>
       </c>
       <c r="E77" s="194">
@@ -31769,17 +31766,17 @@
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="204">
+      <c r="A78" s="201">
         <v>43198</v>
       </c>
-      <c r="B78" s="204">
+      <c r="B78" s="201">
         <v>43233</v>
       </c>
       <c r="C78" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D78" s="204">
+      <c r="D78" s="201">
         <v>43247</v>
       </c>
       <c r="E78" s="194">
@@ -31803,17 +31800,17 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="204">
+      <c r="A79" s="201">
         <v>43198</v>
       </c>
-      <c r="B79" s="204">
+      <c r="B79" s="201">
         <v>43233</v>
       </c>
       <c r="C79" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D79" s="204">
+      <c r="D79" s="201">
         <v>43247</v>
       </c>
       <c r="E79" s="194">
@@ -31837,17 +31834,17 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="204">
+      <c r="A80" s="201">
         <v>43198</v>
       </c>
-      <c r="B80" s="204">
+      <c r="B80" s="201">
         <v>43233</v>
       </c>
       <c r="C80" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D80" s="204">
+      <c r="D80" s="201">
         <v>43247</v>
       </c>
       <c r="E80" s="194">
@@ -31878,17 +31875,17 @@
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="204">
+      <c r="A81" s="201">
         <v>43198</v>
       </c>
-      <c r="B81" s="204">
+      <c r="B81" s="201">
         <v>43233</v>
       </c>
       <c r="C81" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D81" s="204">
+      <c r="D81" s="201">
         <v>43247</v>
       </c>
       <c r="E81" s="194">
@@ -31912,17 +31909,17 @@
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="204">
+      <c r="A82" s="201">
         <v>43198</v>
       </c>
-      <c r="B82" s="204">
+      <c r="B82" s="201">
         <v>43233</v>
       </c>
       <c r="C82" s="194">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D82" s="204">
+      <c r="D82" s="201">
         <v>43247</v>
       </c>
       <c r="E82" s="194">
@@ -31946,17 +31943,17 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="204">
+      <c r="A83" s="201">
         <v>43199</v>
       </c>
-      <c r="B83" s="204">
+      <c r="B83" s="201">
         <v>43235</v>
       </c>
       <c r="C83" s="194">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D83" s="204">
+      <c r="D83" s="201">
         <v>43249</v>
       </c>
       <c r="E83" s="194">
@@ -31987,17 +31984,17 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="204">
+      <c r="A84" s="201">
         <v>43199</v>
       </c>
-      <c r="B84" s="204">
+      <c r="B84" s="201">
         <v>43235</v>
       </c>
       <c r="C84" s="194">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D84" s="204">
+      <c r="D84" s="201">
         <v>43249</v>
       </c>
       <c r="E84" s="194">
@@ -32021,17 +32018,17 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="204">
+      <c r="A85" s="201">
         <v>43199</v>
       </c>
-      <c r="B85" s="204">
+      <c r="B85" s="201">
         <v>43235</v>
       </c>
       <c r="C85" s="194">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D85" s="204">
+      <c r="D85" s="201">
         <v>43249</v>
       </c>
       <c r="E85" s="194">
@@ -32055,17 +32052,17 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="204">
+      <c r="A86" s="201">
         <v>43199</v>
       </c>
-      <c r="B86" s="204">
+      <c r="B86" s="201">
         <v>43235</v>
       </c>
       <c r="C86" s="194">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D86" s="204">
+      <c r="D86" s="201">
         <v>43249</v>
       </c>
       <c r="E86" s="194">
@@ -32096,17 +32093,17 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="204">
+      <c r="A87" s="201">
         <v>43199</v>
       </c>
-      <c r="B87" s="204">
+      <c r="B87" s="201">
         <v>43235</v>
       </c>
       <c r="C87" s="194">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D87" s="204">
+      <c r="D87" s="201">
         <v>43249</v>
       </c>
       <c r="E87" s="194">
@@ -32130,17 +32127,17 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="204">
+      <c r="A88" s="201">
         <v>43199</v>
       </c>
-      <c r="B88" s="204">
+      <c r="B88" s="201">
         <v>43235</v>
       </c>
       <c r="C88" s="194">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D88" s="204">
+      <c r="D88" s="201">
         <v>43249</v>
       </c>
       <c r="E88" s="194">
@@ -32153,7 +32150,7 @@
       <c r="G88" s="191" t="s">
         <v>315</v>
       </c>
-      <c r="H88" s="203" t="s">
+      <c r="H88" s="200" t="s">
         <v>83</v>
       </c>
       <c r="J88" s="194">
@@ -32164,17 +32161,17 @@
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="204">
+      <c r="A89" s="201">
         <v>43199</v>
       </c>
-      <c r="B89" s="204">
+      <c r="B89" s="201">
         <v>43235</v>
       </c>
       <c r="C89" s="194">
         <f>B89-A89</f>
         <v>36</v>
       </c>
-      <c r="D89" s="204">
+      <c r="D89" s="201">
         <v>43249</v>
       </c>
       <c r="E89" s="194">
@@ -32205,17 +32202,17 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="204">
+      <c r="A90" s="201">
         <v>43199</v>
       </c>
-      <c r="B90" s="204">
+      <c r="B90" s="201">
         <v>43235</v>
       </c>
       <c r="C90" s="194">
         <f t="shared" ref="C90:C94" si="6">B90-A90</f>
         <v>36</v>
       </c>
-      <c r="D90" s="204">
+      <c r="D90" s="201">
         <v>43249</v>
       </c>
       <c r="E90" s="194">
@@ -32239,17 +32236,17 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="204">
+      <c r="A91" s="201">
         <v>43199</v>
       </c>
-      <c r="B91" s="204">
+      <c r="B91" s="201">
         <v>43235</v>
       </c>
       <c r="C91" s="194">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="D91" s="204">
+      <c r="D91" s="201">
         <v>43249</v>
       </c>
       <c r="E91" s="194">
@@ -32273,17 +32270,17 @@
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="204">
+      <c r="A92" s="201">
         <v>43199</v>
       </c>
-      <c r="B92" s="204">
+      <c r="B92" s="201">
         <v>43235</v>
       </c>
       <c r="C92" s="194">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="D92" s="204">
+      <c r="D92" s="201">
         <v>43249</v>
       </c>
       <c r="E92" s="194">
@@ -32314,17 +32311,17 @@
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="204">
+      <c r="A93" s="201">
         <v>43199</v>
       </c>
-      <c r="B93" s="204">
+      <c r="B93" s="201">
         <v>43235</v>
       </c>
       <c r="C93" s="194">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="D93" s="204">
+      <c r="D93" s="201">
         <v>43249</v>
       </c>
       <c r="E93" s="194">
@@ -32348,17 +32345,17 @@
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="204">
+      <c r="A94" s="201">
         <v>43199</v>
       </c>
-      <c r="B94" s="204">
+      <c r="B94" s="201">
         <v>43235</v>
       </c>
       <c r="C94" s="194">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="D94" s="204">
+      <c r="D94" s="201">
         <v>43249</v>
       </c>
       <c r="E94" s="194">
@@ -32382,17 +32379,17 @@
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="204">
+      <c r="A95" s="201">
         <v>43199</v>
       </c>
-      <c r="B95" s="204">
+      <c r="B95" s="201">
         <v>43235</v>
       </c>
       <c r="C95" s="194">
         <f>B95-A95</f>
         <v>36</v>
       </c>
-      <c r="D95" s="204">
+      <c r="D95" s="201">
         <v>43249</v>
       </c>
       <c r="E95" s="194">
@@ -32423,17 +32420,17 @@
       </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="204">
+      <c r="A96" s="201">
         <v>43199</v>
       </c>
-      <c r="B96" s="204">
+      <c r="B96" s="201">
         <v>43235</v>
       </c>
       <c r="C96" s="194">
         <f t="shared" ref="C96:C116" si="7">B96-A96</f>
         <v>36</v>
       </c>
-      <c r="D96" s="204">
+      <c r="D96" s="201">
         <v>43249</v>
       </c>
       <c r="E96" s="194">
@@ -32457,17 +32454,17 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="204">
+      <c r="A97" s="201">
         <v>43199</v>
       </c>
-      <c r="B97" s="204">
+      <c r="B97" s="201">
         <v>43235</v>
       </c>
       <c r="C97" s="194">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="D97" s="204">
+      <c r="D97" s="201">
         <v>43249</v>
       </c>
       <c r="E97" s="194">
@@ -32491,17 +32488,17 @@
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="204">
+      <c r="A98" s="201">
         <v>43200</v>
       </c>
-      <c r="B98" s="204">
+      <c r="B98" s="201">
         <v>43235</v>
       </c>
       <c r="C98" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D98" s="204">
+      <c r="D98" s="201">
         <v>43249</v>
       </c>
       <c r="E98" s="194">
@@ -32532,17 +32529,17 @@
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="204">
+      <c r="A99" s="201">
         <v>43200</v>
       </c>
-      <c r="B99" s="204">
+      <c r="B99" s="201">
         <v>43235</v>
       </c>
       <c r="C99" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D99" s="204">
+      <c r="D99" s="201">
         <v>43249</v>
       </c>
       <c r="E99" s="194">
@@ -32566,17 +32563,17 @@
       </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="204">
+      <c r="A100" s="201">
         <v>43200</v>
       </c>
-      <c r="B100" s="204">
+      <c r="B100" s="201">
         <v>43235</v>
       </c>
       <c r="C100" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D100" s="204">
+      <c r="D100" s="201">
         <v>43249</v>
       </c>
       <c r="E100" s="194">
@@ -32600,17 +32597,17 @@
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="204">
+      <c r="A101" s="201">
         <v>43200</v>
       </c>
-      <c r="B101" s="204">
+      <c r="B101" s="201">
         <v>43235</v>
       </c>
       <c r="C101" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D101" s="204">
+      <c r="D101" s="201">
         <v>43249</v>
       </c>
       <c r="E101" s="194">
@@ -32641,17 +32638,17 @@
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="204">
+      <c r="A102" s="201">
         <v>43200</v>
       </c>
-      <c r="B102" s="204">
+      <c r="B102" s="201">
         <v>43235</v>
       </c>
       <c r="C102" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D102" s="204">
+      <c r="D102" s="201">
         <v>43249</v>
       </c>
       <c r="E102" s="194">
@@ -32675,17 +32672,17 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="204">
+      <c r="A103" s="201">
         <v>43200</v>
       </c>
-      <c r="B103" s="204">
+      <c r="B103" s="201">
         <v>43235</v>
       </c>
       <c r="C103" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D103" s="204">
+      <c r="D103" s="201">
         <v>43249</v>
       </c>
       <c r="E103" s="194">
@@ -32709,17 +32706,17 @@
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="204">
+      <c r="A104" s="201">
         <v>43200</v>
       </c>
-      <c r="B104" s="204">
+      <c r="B104" s="201">
         <v>43235</v>
       </c>
       <c r="C104" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D104" s="204">
+      <c r="D104" s="201">
         <v>43249</v>
       </c>
       <c r="E104" s="194">
@@ -32750,17 +32747,17 @@
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="204">
+      <c r="A105" s="201">
         <v>43200</v>
       </c>
-      <c r="B105" s="204">
+      <c r="B105" s="201">
         <v>43235</v>
       </c>
       <c r="C105" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D105" s="204">
+      <c r="D105" s="201">
         <v>43249</v>
       </c>
       <c r="E105" s="194">
@@ -32784,17 +32781,17 @@
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="204">
+      <c r="A106" s="201">
         <v>43200</v>
       </c>
-      <c r="B106" s="204">
+      <c r="B106" s="201">
         <v>43235</v>
       </c>
       <c r="C106" s="194">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="D106" s="204">
+      <c r="D106" s="201">
         <v>43249</v>
       </c>
       <c r="E106" s="194">
@@ -32818,17 +32815,17 @@
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="204">
+      <c r="A107" s="201">
         <v>43201</v>
       </c>
-      <c r="B107" s="204">
+      <c r="B107" s="201">
         <v>43240</v>
       </c>
       <c r="C107" s="194">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="D107" s="204">
+      <c r="D107" s="201">
         <v>43253</v>
       </c>
       <c r="E107" s="194">
@@ -32859,17 +32856,17 @@
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="204">
+      <c r="A108" s="201">
         <v>43201</v>
       </c>
-      <c r="B108" s="204">
+      <c r="B108" s="201">
         <v>43240</v>
       </c>
       <c r="C108" s="194">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="D108" s="204">
+      <c r="D108" s="201">
         <v>43253</v>
       </c>
       <c r="E108" s="194">
@@ -32893,17 +32890,17 @@
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="204">
+      <c r="A109" s="201">
         <v>43201</v>
       </c>
-      <c r="B109" s="204">
+      <c r="B109" s="201">
         <v>43240</v>
       </c>
       <c r="C109" s="194">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="D109" s="204">
+      <c r="D109" s="201">
         <v>43253</v>
       </c>
       <c r="E109" s="194">
@@ -32927,17 +32924,17 @@
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="204">
+      <c r="A110" s="201">
         <v>43202</v>
       </c>
-      <c r="B110" s="204">
+      <c r="B110" s="201">
         <v>43240</v>
       </c>
       <c r="C110" s="194">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="D110" s="204">
+      <c r="D110" s="201">
         <v>43253</v>
       </c>
       <c r="E110" s="194">
@@ -32968,17 +32965,17 @@
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="204">
+      <c r="A111" s="201">
         <v>43202</v>
       </c>
-      <c r="B111" s="204">
+      <c r="B111" s="201">
         <v>43240</v>
       </c>
       <c r="C111" s="194">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="D111" s="204">
+      <c r="D111" s="201">
         <v>43253</v>
       </c>
       <c r="E111" s="194">
@@ -33002,17 +32999,17 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="204">
+      <c r="A112" s="201">
         <v>43202</v>
       </c>
-      <c r="B112" s="204">
+      <c r="B112" s="201">
         <v>43240</v>
       </c>
       <c r="C112" s="194">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="D112" s="204">
+      <c r="D112" s="201">
         <v>43253</v>
       </c>
       <c r="E112" s="194">
@@ -33036,17 +33033,17 @@
       </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="204">
+      <c r="A113" s="201">
         <v>43202</v>
       </c>
-      <c r="B113" s="204">
+      <c r="B113" s="201">
         <v>43240</v>
       </c>
       <c r="C113" s="194">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="D113" s="204">
+      <c r="D113" s="201">
         <v>43253</v>
       </c>
       <c r="E113" s="194">
@@ -33062,8 +33059,9 @@
       <c r="H113" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="I113" s="206" t="s">
-        <v>382</v>
+      <c r="I113" s="207">
+        <f>SUM(6,19,13,9,14,39,35,14,16,20,37,19,20,21,20,25)</f>
+        <v>327</v>
       </c>
       <c r="J113" s="194">
         <v>133</v>
@@ -33073,21 +33071,21 @@
       </c>
       <c r="L113" s="195">
         <f>SUM(I113,J113:K115)</f>
-        <v>547</v>
+        <v>874</v>
       </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="204">
+      <c r="A114" s="201">
         <v>43202</v>
       </c>
-      <c r="B114" s="204">
+      <c r="B114" s="201">
         <v>43240</v>
       </c>
       <c r="C114" s="194">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="D114" s="204">
+      <c r="D114" s="201">
         <v>43253</v>
       </c>
       <c r="E114" s="194">
@@ -33111,17 +33109,17 @@
       </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="204">
+      <c r="A115" s="201">
         <v>43202</v>
       </c>
-      <c r="B115" s="204">
+      <c r="B115" s="201">
         <v>43240</v>
       </c>
       <c r="C115" s="194">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="D115" s="204">
+      <c r="D115" s="201">
         <v>43253</v>
       </c>
       <c r="E115" s="194">
@@ -33145,17 +33143,17 @@
       </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="204">
+      <c r="A116" s="201">
         <v>43203</v>
       </c>
-      <c r="B116" s="204">
+      <c r="B116" s="201">
         <v>43240</v>
       </c>
       <c r="C116" s="194">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="D116" s="204">
+      <c r="D116" s="201">
         <v>43253</v>
       </c>
       <c r="E116" s="194">
@@ -33186,17 +33184,17 @@
       </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="204">
+      <c r="A117" s="201">
         <v>43203</v>
       </c>
-      <c r="B117" s="204">
+      <c r="B117" s="201">
         <v>43240</v>
       </c>
       <c r="C117" s="194">
         <f>B117-A117</f>
         <v>37</v>
       </c>
-      <c r="D117" s="204">
+      <c r="D117" s="201">
         <v>43253</v>
       </c>
       <c r="E117" s="194">
@@ -33220,17 +33218,17 @@
       </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="204">
+      <c r="A118" s="201">
         <v>43203</v>
       </c>
-      <c r="B118" s="204">
+      <c r="B118" s="201">
         <v>43240</v>
       </c>
       <c r="C118" s="194">
         <f t="shared" ref="C118:C139" si="9">B118-A118</f>
         <v>37</v>
       </c>
-      <c r="D118" s="204">
+      <c r="D118" s="201">
         <v>43253</v>
       </c>
       <c r="E118" s="194">
@@ -33254,17 +33252,17 @@
       </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="204">
+      <c r="A119" s="201">
         <v>43203</v>
       </c>
-      <c r="B119" s="204">
+      <c r="B119" s="201">
         <v>43240</v>
       </c>
       <c r="C119" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D119" s="204">
+      <c r="D119" s="201">
         <v>43253</v>
       </c>
       <c r="E119" s="194">
@@ -33295,17 +33293,17 @@
       </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="204">
+      <c r="A120" s="201">
         <v>43203</v>
       </c>
-      <c r="B120" s="204">
+      <c r="B120" s="201">
         <v>43240</v>
       </c>
       <c r="C120" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D120" s="204">
+      <c r="D120" s="201">
         <v>43253</v>
       </c>
       <c r="E120" s="194">
@@ -33329,17 +33327,17 @@
       </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="204">
+      <c r="A121" s="201">
         <v>43203</v>
       </c>
-      <c r="B121" s="204">
+      <c r="B121" s="201">
         <v>43240</v>
       </c>
       <c r="C121" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D121" s="204">
+      <c r="D121" s="201">
         <v>43253</v>
       </c>
       <c r="E121" s="194">
@@ -33363,17 +33361,17 @@
       </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="204">
+      <c r="A122" s="201">
         <v>43203</v>
       </c>
-      <c r="B122" s="204">
+      <c r="B122" s="201">
         <v>43240</v>
       </c>
       <c r="C122" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D122" s="204">
+      <c r="D122" s="201">
         <v>43253</v>
       </c>
       <c r="E122" s="194">
@@ -33404,17 +33402,17 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="204">
+      <c r="A123" s="201">
         <v>43203</v>
       </c>
-      <c r="B123" s="204">
+      <c r="B123" s="201">
         <v>43240</v>
       </c>
       <c r="C123" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D123" s="204">
+      <c r="D123" s="201">
         <v>43253</v>
       </c>
       <c r="E123" s="194">
@@ -33427,7 +33425,7 @@
       <c r="G123" s="191" t="s">
         <v>314</v>
       </c>
-      <c r="H123" s="203" t="s">
+      <c r="H123" s="200" t="s">
         <v>61</v>
       </c>
       <c r="J123" s="194">
@@ -33438,17 +33436,17 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="204">
+      <c r="A124" s="201">
         <v>43203</v>
       </c>
-      <c r="B124" s="204">
+      <c r="B124" s="201">
         <v>43240</v>
       </c>
       <c r="C124" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D124" s="204">
+      <c r="D124" s="201">
         <v>43253</v>
       </c>
       <c r="E124" s="194">
@@ -33461,7 +33459,7 @@
       <c r="G124" s="191" t="s">
         <v>314</v>
       </c>
-      <c r="H124" s="203" t="s">
+      <c r="H124" s="200" t="s">
         <v>61</v>
       </c>
       <c r="J124" s="194">
@@ -33472,17 +33470,17 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="204">
+      <c r="A125" s="201">
         <v>43204</v>
       </c>
-      <c r="B125" s="204">
+      <c r="B125" s="201">
         <v>43240</v>
       </c>
       <c r="C125" s="194">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="D125" s="204">
+      <c r="D125" s="201">
         <v>43253</v>
       </c>
       <c r="E125" s="194">
@@ -33513,17 +33511,17 @@
       </c>
     </row>
     <row r="126" spans="1:12">
-      <c r="A126" s="204">
+      <c r="A126" s="201">
         <v>43204</v>
       </c>
-      <c r="B126" s="204">
+      <c r="B126" s="201">
         <v>43240</v>
       </c>
       <c r="C126" s="194">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="D126" s="204">
+      <c r="D126" s="201">
         <v>43253</v>
       </c>
       <c r="E126" s="194">
@@ -33547,17 +33545,17 @@
       </c>
     </row>
     <row r="127" spans="1:12">
-      <c r="A127" s="204">
+      <c r="A127" s="201">
         <v>43204</v>
       </c>
-      <c r="B127" s="204">
+      <c r="B127" s="201">
         <v>43240</v>
       </c>
       <c r="C127" s="194">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="D127" s="204">
+      <c r="D127" s="201">
         <v>43253</v>
       </c>
       <c r="E127" s="194">
@@ -33581,17 +33579,17 @@
       </c>
     </row>
     <row r="128" spans="1:12">
-      <c r="A128" s="204">
+      <c r="A128" s="201">
         <v>43204</v>
       </c>
-      <c r="B128" s="204">
+      <c r="B128" s="201">
         <v>43240</v>
       </c>
       <c r="C128" s="194">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="D128" s="204">
+      <c r="D128" s="201">
         <v>43253</v>
       </c>
       <c r="E128" s="194">
@@ -33622,17 +33620,17 @@
       </c>
     </row>
     <row r="129" spans="1:12">
-      <c r="A129" s="204">
+      <c r="A129" s="201">
         <v>43204</v>
       </c>
-      <c r="B129" s="204">
+      <c r="B129" s="201">
         <v>43240</v>
       </c>
       <c r="C129" s="194">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="D129" s="204">
+      <c r="D129" s="201">
         <v>43253</v>
       </c>
       <c r="E129" s="194">
@@ -33656,17 +33654,17 @@
       </c>
     </row>
     <row r="130" spans="1:12">
-      <c r="A130" s="204">
+      <c r="A130" s="201">
         <v>43204</v>
       </c>
-      <c r="B130" s="204">
+      <c r="B130" s="201">
         <v>43240</v>
       </c>
       <c r="C130" s="194">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="D130" s="204">
+      <c r="D130" s="201">
         <v>43253</v>
       </c>
       <c r="E130" s="194">
@@ -33690,17 +33688,17 @@
       </c>
     </row>
     <row r="131" spans="1:12">
-      <c r="A131" s="204">
+      <c r="A131" s="201">
         <v>43204</v>
       </c>
-      <c r="B131" s="204">
+      <c r="B131" s="201">
         <v>43243</v>
       </c>
       <c r="C131" s="194">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="D131" s="204">
+      <c r="D131" s="201">
         <v>43253</v>
       </c>
       <c r="E131" s="194">
@@ -33731,17 +33729,17 @@
       </c>
     </row>
     <row r="132" spans="1:12">
-      <c r="A132" s="204">
+      <c r="A132" s="201">
         <v>43204</v>
       </c>
-      <c r="B132" s="204">
+      <c r="B132" s="201">
         <v>43243</v>
       </c>
       <c r="C132" s="194">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="D132" s="204">
+      <c r="D132" s="201">
         <v>43253</v>
       </c>
       <c r="E132" s="194">
@@ -33765,17 +33763,17 @@
       </c>
     </row>
     <row r="133" spans="1:12">
-      <c r="A133" s="204">
+      <c r="A133" s="201">
         <v>43204</v>
       </c>
-      <c r="B133" s="204">
+      <c r="B133" s="201">
         <v>43243</v>
       </c>
       <c r="C133" s="194">
         <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="D133" s="204">
+      <c r="D133" s="201">
         <v>43253</v>
       </c>
       <c r="E133" s="194">
@@ -33799,17 +33797,17 @@
       </c>
     </row>
     <row r="134" spans="1:12">
-      <c r="A134" s="204">
+      <c r="A134" s="201">
         <v>43205</v>
       </c>
-      <c r="B134" s="204">
+      <c r="B134" s="201">
         <v>43243</v>
       </c>
       <c r="C134" s="194">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="D134" s="204">
+      <c r="D134" s="201">
         <v>43256</v>
       </c>
       <c r="E134" s="194">
@@ -33840,17 +33838,17 @@
       </c>
     </row>
     <row r="135" spans="1:12">
-      <c r="A135" s="204">
+      <c r="A135" s="201">
         <v>43205</v>
       </c>
-      <c r="B135" s="204">
+      <c r="B135" s="201">
         <v>43243</v>
       </c>
       <c r="C135" s="194">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="D135" s="204">
+      <c r="D135" s="201">
         <v>43256</v>
       </c>
       <c r="E135" s="194">
@@ -33874,17 +33872,17 @@
       </c>
     </row>
     <row r="136" spans="1:12">
-      <c r="A136" s="204">
+      <c r="A136" s="201">
         <v>43205</v>
       </c>
-      <c r="B136" s="204">
+      <c r="B136" s="201">
         <v>43243</v>
       </c>
       <c r="C136" s="194">
         <f t="shared" si="9"/>
         <v>38</v>
       </c>
-      <c r="D136" s="204">
+      <c r="D136" s="201">
         <v>43256</v>
       </c>
       <c r="E136" s="194">
@@ -33908,17 +33906,17 @@
       </c>
     </row>
     <row r="137" spans="1:12">
-      <c r="A137" s="204">
+      <c r="A137" s="201">
         <v>43206</v>
       </c>
-      <c r="B137" s="204">
+      <c r="B137" s="201">
         <v>43243</v>
       </c>
       <c r="C137" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D137" s="204">
+      <c r="D137" s="201">
         <v>43256</v>
       </c>
       <c r="E137" s="194">
@@ -33949,17 +33947,17 @@
       </c>
     </row>
     <row r="138" spans="1:12">
-      <c r="A138" s="204">
+      <c r="A138" s="201">
         <v>43206</v>
       </c>
-      <c r="B138" s="204">
+      <c r="B138" s="201">
         <v>43243</v>
       </c>
       <c r="C138" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D138" s="204">
+      <c r="D138" s="201">
         <v>43256</v>
       </c>
       <c r="E138" s="194">
@@ -33983,17 +33981,17 @@
       </c>
     </row>
     <row r="139" spans="1:12">
-      <c r="A139" s="204">
+      <c r="A139" s="201">
         <v>43206</v>
       </c>
-      <c r="B139" s="204">
+      <c r="B139" s="201">
         <v>43243</v>
       </c>
       <c r="C139" s="194">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="D139" s="204">
+      <c r="D139" s="201">
         <v>43256</v>
       </c>
       <c r="E139" s="194">
@@ -34017,17 +34015,17 @@
       </c>
     </row>
     <row r="140" spans="1:12">
-      <c r="A140" s="204">
+      <c r="A140" s="201">
         <v>43205</v>
       </c>
-      <c r="B140" s="204">
+      <c r="B140" s="201">
         <v>43243</v>
       </c>
       <c r="C140" s="194">
         <f>B140-A140</f>
         <v>38</v>
       </c>
-      <c r="D140" s="204">
+      <c r="D140" s="201">
         <v>43256</v>
       </c>
       <c r="E140" s="194">
@@ -34058,17 +34056,17 @@
       </c>
     </row>
     <row r="141" spans="1:12">
-      <c r="A141" s="204">
+      <c r="A141" s="201">
         <v>43205</v>
       </c>
-      <c r="B141" s="204">
+      <c r="B141" s="201">
         <v>43243</v>
       </c>
       <c r="C141" s="194">
         <f t="shared" ref="C141:C145" si="11">B141-A141</f>
         <v>38</v>
       </c>
-      <c r="D141" s="204">
+      <c r="D141" s="201">
         <v>43256</v>
       </c>
       <c r="E141" s="194">
@@ -34092,17 +34090,17 @@
       </c>
     </row>
     <row r="142" spans="1:12">
-      <c r="A142" s="204">
+      <c r="A142" s="201">
         <v>43205</v>
       </c>
-      <c r="B142" s="204">
+      <c r="B142" s="201">
         <v>43243</v>
       </c>
       <c r="C142" s="194">
         <f t="shared" si="11"/>
         <v>38</v>
       </c>
-      <c r="D142" s="204">
+      <c r="D142" s="201">
         <v>43256</v>
       </c>
       <c r="E142" s="194">
@@ -34126,17 +34124,17 @@
       </c>
     </row>
     <row r="143" spans="1:12">
-      <c r="A143" s="204">
+      <c r="A143" s="201">
         <v>43209</v>
       </c>
-      <c r="B143" s="204">
+      <c r="B143" s="201">
         <v>43243</v>
       </c>
       <c r="C143" s="194">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="D143" s="204">
+      <c r="D143" s="201">
         <v>43258</v>
       </c>
       <c r="E143" s="194">
@@ -34167,17 +34165,17 @@
       </c>
     </row>
     <row r="144" spans="1:12">
-      <c r="A144" s="204">
+      <c r="A144" s="201">
         <v>43209</v>
       </c>
-      <c r="B144" s="204">
+      <c r="B144" s="201">
         <v>43243</v>
       </c>
       <c r="C144" s="194">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="D144" s="204">
+      <c r="D144" s="201">
         <v>43258</v>
       </c>
       <c r="E144" s="194">
@@ -34201,17 +34199,17 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="204">
+      <c r="A145" s="201">
         <v>43209</v>
       </c>
-      <c r="B145" s="204">
+      <c r="B145" s="201">
         <v>43243</v>
       </c>
       <c r="C145" s="194">
         <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="D145" s="204">
+      <c r="D145" s="201">
         <v>43258</v>
       </c>
       <c r="E145" s="194">
@@ -37502,7 +37500,7 @@
         <v>87</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1">
@@ -42225,7 +42223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -42932,7 +42930,7 @@
         <f>AVERAGE(I2:I19)</f>
         <v>53.536806984109617</v>
       </c>
-      <c r="J20" s="207">
+      <c r="J20" s="203">
         <f>AVERAGE(J2:J19)</f>
         <v>3.0545846776431088E-2</v>
       </c>
@@ -42992,16 +42990,16 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="G3" s="200" t="s">
+      <c r="G3" s="204" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200" t="s">
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
       <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:13" ht="30">
@@ -43541,124 +43539,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="206" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201" t="s">
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201" t="s">
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201" t="s">
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201" t="s">
+      <c r="O1" s="205"/>
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201" t="s">
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201" t="s">
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201" t="s">
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
     </row>
     <row r="2" spans="1:33" ht="26" customHeight="1">
-      <c r="A2" s="202"/>
-      <c r="B2" s="201" t="s">
+      <c r="A2" s="206"/>
+      <c r="B2" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="G2" s="205"/>
+      <c r="H2" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201" t="s">
+      <c r="I2" s="205"/>
+      <c r="J2" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201" t="s">
+      <c r="M2" s="205"/>
+      <c r="N2" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201" t="s">
+      <c r="O2" s="205"/>
+      <c r="P2" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201" t="s">
+      <c r="S2" s="205"/>
+      <c r="T2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201" t="s">
+      <c r="U2" s="205"/>
+      <c r="V2" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201" t="s">
+      <c r="W2" s="205"/>
+      <c r="X2" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201" t="s">
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201" t="s">
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="201"/>
+      <c r="AG2" s="205"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="100" t="s">
@@ -47719,15 +47717,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A1:A2"/>
@@ -47744,6 +47733,15 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -47807,123 +47805,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201" t="s">
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201" t="s">
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201" t="s">
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201" t="s">
+      <c r="O1" s="205"/>
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="205" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201" t="s">
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205" t="s">
         <v>198</v>
       </c>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201" t="s">
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201" t="s">
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
     </row>
     <row r="2" spans="1:33" ht="27" customHeight="1">
       <c r="A2" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201" t="s">
+      <c r="G2" s="205"/>
+      <c r="H2" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201" t="s">
+      <c r="I2" s="205"/>
+      <c r="J2" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201" t="s">
+      <c r="M2" s="205"/>
+      <c r="N2" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201" t="s">
+      <c r="O2" s="205"/>
+      <c r="P2" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="201" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="201"/>
-      <c r="T2" s="201" t="s">
+      <c r="S2" s="205"/>
+      <c r="T2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201" t="s">
+      <c r="U2" s="205"/>
+      <c r="V2" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201" t="s">
+      <c r="W2" s="205"/>
+      <c r="X2" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="201" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="201"/>
-      <c r="AB2" s="201" t="s">
+      <c r="AA2" s="205"/>
+      <c r="AB2" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="201"/>
-      <c r="AD2" s="201" t="s">
+      <c r="AC2" s="205"/>
+      <c r="AD2" s="205" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="201" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="201"/>
+      <c r="AG2" s="205"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="99" t="s">
@@ -51969,6 +51967,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B2:C2"/>
@@ -51985,14 +51991,6 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/Metrics.xlsx
+++ b/data/Metrics.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/studentuser/Desktop/Laura/O.lurida_Temperature/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1AB026-23C8-E348-A446-4BBD96ADC971}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="0" windowWidth="10420" windowHeight="15320" tabRatio="1000" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="27880" windowHeight="15320" tabRatio="1000" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Larvae Collection" sheetId="3" r:id="rId1"/>
@@ -24,7 +30,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SUMMARIES!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">SUMMARIES!$J:$J</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Laura Spencer</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C55" authorId="0">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D86" authorId="0">
+    <comment ref="D86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D87" authorId="0">
+    <comment ref="D87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D88" authorId="0">
+    <comment ref="D88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D96" authorId="0">
+    <comment ref="D96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D104" authorId="0">
+    <comment ref="D104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D108" authorId="0">
+    <comment ref="D108" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D127" authorId="0">
+    <comment ref="D127" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -260,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D140" authorId="0">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -290,12 +296,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Laura Spencer</author>
   </authors>
   <commentList>
-    <comment ref="P10" authorId="0">
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -320,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P38" authorId="0">
+    <comment ref="P38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -394,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P40" authorId="0">
+    <comment ref="P40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P41" authorId="0">
+    <comment ref="P41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P42" authorId="0">
+    <comment ref="P42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P43" authorId="0">
+    <comment ref="P43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P44" authorId="0">
+    <comment ref="P44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P46" authorId="0">
+    <comment ref="P46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -544,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P47" authorId="0">
+    <comment ref="P47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -569,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P48" authorId="0">
+    <comment ref="P48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -599,18 +605,18 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Laura Spencer</author>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -619,16 +625,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SPILLED SOME - COUNT WAS 645 BUT IS LIKELY LOW DUE TO SPILL</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>SPILLED SOME - COUNT WAS 645 BUT IS LIKELY LOW DUE TO SPILL</t>
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1880,7 +1895,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1889,7 +1904,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2043,6 +2058,19 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Wingdings"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3803,6 +3831,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="332" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3812,11 +3841,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1154">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="601"/>
+    <cellStyle name="Comma 2" xfId="601" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4972,11 +5000,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4990,7 +5026,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5031,7 +5066,7 @@
                   <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.26</c:v>
+                  <c:v>2.2599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.17</c:v>
@@ -5061,16 +5096,16 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.11</c:v>
+                  <c:v>4.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.09</c:v>
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.16</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.865671641791045</c:v>
+                  <c:v>2.8656716417910446</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.881401617250674</c:v>
@@ -5088,63 +5123,68 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.101546906187625</c:v>
+                  <c:v>0.10154690618762471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0720833333333334</c:v>
+                  <c:v>7.2083333333333444E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1416764067457</c:v>
+                  <c:v>0.14167640674570045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.0303529049928721</c:v>
+                  <c:v>-3.0352904992872111E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0520487264673312</c:v>
+                  <c:v>5.2048726467331205E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.111582061766564</c:v>
+                  <c:v>0.11158206176656361</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.0450153546550821</c:v>
+                  <c:v>-4.5015354655082086E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.0368566731181453</c:v>
+                  <c:v>-3.6856673118145285E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.142675898219212</c:v>
+                  <c:v>0.1426758982192117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.014601585314977</c:v>
+                  <c:v>1.4601585314977007E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.119409219253839</c:v>
+                  <c:v>0.11940921925383867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.0354865782320593</c:v>
+                  <c:v>-3.5486578232059335E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0152507086061153</c:v>
+                  <c:v>1.5250708606115293E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.0428802994602365</c:v>
+                  <c:v>-4.2880299460236471E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.0627699156202244</c:v>
+                  <c:v>-6.2769915620224423E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.105416666666667</c:v>
+                  <c:v>0.10541666666666671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.105833333333333</c:v>
+                  <c:v>-0.10583333333333328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0327287888263497</c:v>
+                  <c:v>3.2728788826349754E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0287-B544-BA80-6334BB6FB429}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5180,7 +5220,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
@@ -5200,7 +5239,6 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
@@ -5228,14 +5266,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5274,7 +5312,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.421244817804865"/>
-          <c:y val="0.0610354223433242"/>
+          <c:y val="6.1035422343324201E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5286,10 +5324,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0472640129672647"/>
-          <c:y val="0.0283378746594005"/>
-          <c:w val="0.940070258383707"/>
-          <c:h val="0.916410650303589"/>
+          <c:x val="4.72640129672647E-2"/>
+          <c:y val="2.8337874659400498E-2"/>
+          <c:w val="0.94007025838370695"/>
+          <c:h val="0.91641065030358904"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5318,88 +5356,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5411,93 +5449,98 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>66880.0</c:v>
+                  <c:v>66880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66880.0</c:v>
+                  <c:v>66880</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66880.0</c:v>
+                  <c:v>66880</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66880.0</c:v>
+                  <c:v>66880</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187840.0</c:v>
+                  <c:v>187840</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>830062.2222222222</c:v>
+                  <c:v>830062.22222222225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>830062.2222222222</c:v>
+                  <c:v>830062.22222222225</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>830062.2222222222</c:v>
+                  <c:v>830062.22222222225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>839512.2222222222</c:v>
+                  <c:v>839512.22222222225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.90884555555556E6</c:v>
+                  <c:v>2908845.555555556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.99342888888889E6</c:v>
+                  <c:v>2993428.8888888895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.00638126984127E6</c:v>
+                  <c:v>3006381.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.00638126984127E6</c:v>
+                  <c:v>3006381.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.16154793650794E6</c:v>
+                  <c:v>3161547.936507937</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.43514793650794E6</c:v>
+                  <c:v>3435147.936507937</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.48688126984127E6</c:v>
+                  <c:v>4486881.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.48688126984127E6</c:v>
+                  <c:v>4486881.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.48688126984127E6</c:v>
+                  <c:v>4486881.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.48688126984127E6</c:v>
+                  <c:v>4486881.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.53998126984127E6</c:v>
+                  <c:v>4539981.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.53998126984127E6</c:v>
+                  <c:v>4539981.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.71060626984127E6</c:v>
+                  <c:v>4710606.2698412705</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7289396031746E6</c:v>
+                  <c:v>5728939.6031746035</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.7289396031746E6</c:v>
+                  <c:v>5728939.6031746035</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7289396031746E6</c:v>
+                  <c:v>5728939.6031746035</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.7289396031746E6</c:v>
+                  <c:v>5728939.6031746035</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.01282849206349E6</c:v>
+                  <c:v>6012828.4920634925</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.01282849206349E6</c:v>
+                  <c:v>6012828.4920634925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5522,88 +5565,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,96 +5658,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>503200.0</c:v>
+                  <c:v>503200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>862240.0</c:v>
+                  <c:v>862240</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.06458666666667E6</c:v>
+                  <c:v>1064586.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.06458666666667E6</c:v>
+                  <c:v>1064586.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.37558666666667E6</c:v>
+                  <c:v>1375586.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.38592666666667E6</c:v>
+                  <c:v>1385926.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.75492666666667E6</c:v>
+                  <c:v>2754926.666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.75492666666667E6</c:v>
+                  <c:v>2754926.666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.75492666666667E6</c:v>
+                  <c:v>2754926.666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.75492666666667E6</c:v>
+                  <c:v>2754926.666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.75492666666667E6</c:v>
+                  <c:v>2754926.666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.75492666666667E6</c:v>
+                  <c:v>2754926.666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.92372666666667E6</c:v>
+                  <c:v>2923726.666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.13652666666667E6</c:v>
+                  <c:v>3136526.666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.13652666666667E6</c:v>
+                  <c:v>3136526.666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.13652666666667E6</c:v>
+                  <c:v>3136526.666666667</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.13652666666667E6</c:v>
+                  <c:v>3136526.666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.13652666666667E6</c:v>
+                  <c:v>3136526.666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5729,88 +5777,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,96 +5870,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>219486.6666666667</c:v>
+                  <c:v>219486.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219486.6666666667</c:v>
+                  <c:v>219486.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230486.6666666667</c:v>
+                  <c:v>230486.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>687486.6666666667</c:v>
+                  <c:v>687486.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>687486.6666666667</c:v>
+                  <c:v>687486.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.39202833333333E6</c:v>
+                  <c:v>1392028.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.39202833333333E6</c:v>
+                  <c:v>1392028.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.690495E6</c:v>
+                  <c:v>1690495.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.71702166666667E6</c:v>
+                  <c:v>1717021.666666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.71702166666667E6</c:v>
+                  <c:v>1717021.666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.71702166666667E6</c:v>
+                  <c:v>1717021.666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.71702166666667E6</c:v>
+                  <c:v>1717021.666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.71702166666667E6</c:v>
+                  <c:v>1717021.666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.71702166666667E6</c:v>
+                  <c:v>1717021.666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.24202166666667E6</c:v>
+                  <c:v>2242021.666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.59432722222222E6</c:v>
+                  <c:v>2594327.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.23848722222222E6</c:v>
+                  <c:v>3238487.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.71215388888889E6</c:v>
+                  <c:v>3712153.888888889</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.71215388888889E6</c:v>
+                  <c:v>3712153.888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5936,88 +5989,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6029,96 +6082,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124500.0</c:v>
+                  <c:v>124500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124500.0</c:v>
+                  <c:v>124500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>124500.0</c:v>
+                  <c:v>124500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124500.0</c:v>
+                  <c:v>124500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>392366.6666666667</c:v>
+                  <c:v>392366.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>392366.6666666667</c:v>
+                  <c:v>392366.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>392366.6666666667</c:v>
+                  <c:v>392366.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>392366.6666666667</c:v>
+                  <c:v>392366.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>401966.6666666667</c:v>
+                  <c:v>401966.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>639966.6666666667</c:v>
+                  <c:v>639966.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>639966.6666666667</c:v>
+                  <c:v>639966.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>869633.3333333334</c:v>
+                  <c:v>869633.33333333349</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>869633.3333333334</c:v>
+                  <c:v>869633.33333333349</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>980800.0000000001</c:v>
+                  <c:v>980800.00000000012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>980800.0000000001</c:v>
+                  <c:v>980800.00000000012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>980800.0000000001</c:v>
+                  <c:v>980800.00000000012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>980800.0000000001</c:v>
+                  <c:v>980800.00000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>980800.0000000001</c:v>
+                  <c:v>980800.00000000012</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>995396.1904761906</c:v>
+                  <c:v>995396.19047619065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -6143,88 +6201,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6236,96 +6294,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42119.04761904762</c:v>
+                  <c:v>42119.047619047618</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>359292.3809523809</c:v>
+                  <c:v>359292.38095238095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>359292.3809523809</c:v>
+                  <c:v>359292.38095238095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>359292.3809523809</c:v>
+                  <c:v>359292.38095238095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>772092.380952381</c:v>
+                  <c:v>772092.38095238095</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>772092.380952381</c:v>
+                  <c:v>772092.38095238095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>805719.0476190476</c:v>
+                  <c:v>805719.04761904757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.06468571428571E6</c:v>
+                  <c:v>1064685.7142857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.06468571428571E6</c:v>
+                  <c:v>1064685.7142857143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.77301904761905E6</c:v>
+                  <c:v>1773019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.87335238095238E6</c:v>
+                  <c:v>1873352.3809523808</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9088746031746E6</c:v>
+                  <c:v>1908874.6031746031</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9088746031746E6</c:v>
+                  <c:v>1908874.6031746031</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.18858571428571E6</c:v>
+                  <c:v>2188585.7142857141</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.18858571428571E6</c:v>
+                  <c:v>2188585.7142857141</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.49401904761905E6</c:v>
+                  <c:v>2494019.0476190476</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.40895238095238E6</c:v>
+                  <c:v>3408952.3809523806</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.40895238095238E6</c:v>
+                  <c:v>3408952.3809523806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -6350,88 +6413,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,96 +6506,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64826.66666666667</c:v>
+                  <c:v>64826.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>789626.6666666666</c:v>
+                  <c:v>789626.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>803093.3333333332</c:v>
+                  <c:v>803093.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>803093.3333333332</c:v>
+                  <c:v>803093.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>803093.3333333332</c:v>
+                  <c:v>803093.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>803093.3333333332</c:v>
+                  <c:v>803093.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>803093.3333333332</c:v>
+                  <c:v>803093.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>803093.3333333332</c:v>
+                  <c:v>803093.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>803093.3333333332</c:v>
+                  <c:v>803093.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.45829333333333E6</c:v>
+                  <c:v>1458293.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.27029333333333E6</c:v>
+                  <c:v>2270293.333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.30416E6</c:v>
+                  <c:v>2304159.9999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.30416E6</c:v>
+                  <c:v>2304159.9999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.51394888888889E6</c:v>
+                  <c:v>2513948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.51394888888889E6</c:v>
+                  <c:v>2513948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.51394888888889E6</c:v>
+                  <c:v>2513948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.99794888888889E6</c:v>
+                  <c:v>2997948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.99794888888889E6</c:v>
+                  <c:v>2997948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.99794888888889E6</c:v>
+                  <c:v>2997948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.99794888888889E6</c:v>
+                  <c:v>2997948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.99794888888889E6</c:v>
+                  <c:v>2997948.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.42307388888889E6</c:v>
+                  <c:v>3423073.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.42307388888889E6</c:v>
+                  <c:v>3423073.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.42307388888889E6</c:v>
+                  <c:v>3423073.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.42307388888889E6</c:v>
+                  <c:v>3423073.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.42307388888889E6</c:v>
+                  <c:v>3423073.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.42307388888889E6</c:v>
+                  <c:v>3423073.8888888885</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.42307388888889E6</c:v>
+                  <c:v>3423073.8888888885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -6557,88 +6625,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6650,96 +6718,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900373.3333333332</c:v>
+                  <c:v>900373.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.11409333333333E6</c:v>
+                  <c:v>1114093.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.17392666666667E6</c:v>
+                  <c:v>1173926.6666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.49806E6</c:v>
+                  <c:v>1498059.9999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.49806E6</c:v>
+                  <c:v>1498059.9999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.49806E6</c:v>
+                  <c:v>1498059.9999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.73081E6</c:v>
+                  <c:v>1730809.9999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.87391E6</c:v>
+                  <c:v>1873909.9999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.01791E6</c:v>
+                  <c:v>3017910</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.01791E6</c:v>
+                  <c:v>3017910</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.01791E6</c:v>
+                  <c:v>3017910</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.01791E6</c:v>
+                  <c:v>3017910</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.16951E6</c:v>
+                  <c:v>3169510</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.09384333333333E6</c:v>
+                  <c:v>4093843.333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.32034333333333E6</c:v>
+                  <c:v>4320343.333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.32034333333333E6</c:v>
+                  <c:v>4320343.333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.52917666666667E6</c:v>
+                  <c:v>4529176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.52917666666667E6</c:v>
+                  <c:v>4529176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.52917666666667E6</c:v>
+                  <c:v>4529176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.52917666666667E6</c:v>
+                  <c:v>4529176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.52917666666667E6</c:v>
+                  <c:v>4529176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.65017666666667E6</c:v>
+                  <c:v>4650176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.65017666666667E6</c:v>
+                  <c:v>4650176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.65017666666667E6</c:v>
+                  <c:v>4650176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.65017666666667E6</c:v>
+                  <c:v>4650176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.65017666666667E6</c:v>
+                  <c:v>4650176.666666666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.88201E6</c:v>
+                  <c:v>4882009.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.88201E6</c:v>
+                  <c:v>4882009.9999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -6764,88 +6837,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6857,96 +6930,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218666.6666666667</c:v>
+                  <c:v>218666.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>406560.0</c:v>
+                  <c:v>406560</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>413050.0</c:v>
+                  <c:v>413050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>787283.3333333332</c:v>
+                  <c:v>787283.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>787283.3333333332</c:v>
+                  <c:v>787283.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35755E6</c:v>
+                  <c:v>1357550</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.35755E6</c:v>
+                  <c:v>1357550</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.35755E6</c:v>
+                  <c:v>1357550</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.53566111111111E6</c:v>
+                  <c:v>1535661.111111111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.84476944444444E6</c:v>
+                  <c:v>1844769.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.10034722222222E6</c:v>
+                  <c:v>2100347.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.10034722222222E6</c:v>
+                  <c:v>2100347.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.21206722222222E6</c:v>
+                  <c:v>2212067.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.21206722222222E6</c:v>
+                  <c:v>2212067.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.21206722222222E6</c:v>
+                  <c:v>2212067.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.21206722222222E6</c:v>
+                  <c:v>2212067.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.21206722222222E6</c:v>
+                  <c:v>2212067.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.31306166666667E6</c:v>
+                  <c:v>2313061.666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.31306166666667E6</c:v>
+                  <c:v>2313061.666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.63412833333333E6</c:v>
+                  <c:v>2634128.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.63412833333333E6</c:v>
+                  <c:v>2634128.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.63412833333333E6</c:v>
+                  <c:v>2634128.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.89457277777778E6</c:v>
+                  <c:v>2894572.777777778</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.95278111111111E6</c:v>
+                  <c:v>2952781.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.95278111111111E6</c:v>
+                  <c:v>2952781.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.95278111111111E6</c:v>
+                  <c:v>2952781.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.95278111111111E6</c:v>
+                  <c:v>2952781.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.95278111111111E6</c:v>
+                  <c:v>2952781.1111111115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -6971,88 +7049,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,96 +7142,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150960.0</c:v>
+                  <c:v>150960</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.27469333333333E6</c:v>
+                  <c:v>1274693.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.52302666666667E6</c:v>
+                  <c:v>1523026.666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.84420444444444E6</c:v>
+                  <c:v>1844204.4444444447</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.84420444444444E6</c:v>
+                  <c:v>1844204.4444444447</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.84420444444444E6</c:v>
+                  <c:v>1844204.4444444447</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.84420444444444E6</c:v>
+                  <c:v>1844204.4444444447</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.96617111111111E6</c:v>
+                  <c:v>2966171.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.96617111111111E6</c:v>
+                  <c:v>2966171.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.96617111111111E6</c:v>
+                  <c:v>2966171.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.99025444444444E6</c:v>
+                  <c:v>2990254.444444445</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.09475444444444E6</c:v>
+                  <c:v>3094754.444444445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -7178,88 +7261,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7271,96 +7354,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68400.0</c:v>
+                  <c:v>68400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>651066.6666666667</c:v>
+                  <c:v>651066.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>651066.6666666667</c:v>
+                  <c:v>651066.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>675066.6666666667</c:v>
+                  <c:v>675066.66666666674</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.04424444444444E6</c:v>
+                  <c:v>1044244.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.09824444444444E6</c:v>
+                  <c:v>1098244.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.71057777777778E6</c:v>
+                  <c:v>1710577.7777777778</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.71057777777778E6</c:v>
+                  <c:v>1710577.7777777778</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.71057777777778E6</c:v>
+                  <c:v>1710577.7777777778</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.14124444444444E6</c:v>
+                  <c:v>2141244.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.38991111111111E6</c:v>
+                  <c:v>2389911.111111111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.38991111111111E6</c:v>
+                  <c:v>2389911.111111111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.38991111111111E6</c:v>
+                  <c:v>2389911.111111111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.38991111111111E6</c:v>
+                  <c:v>2389911.111111111</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.38991111111111E6</c:v>
+                  <c:v>2389911.111111111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.46364444444444E6</c:v>
+                  <c:v>2463644.4444444445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -7385,88 +7473,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7478,96 +7566,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189466.6666666667</c:v>
+                  <c:v>189466.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>189466.6666666667</c:v>
+                  <c:v>189466.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>189466.6666666667</c:v>
+                  <c:v>189466.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>281400.0</c:v>
+                  <c:v>281400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>622500.0</c:v>
+                  <c:v>622500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>877100.0</c:v>
+                  <c:v>877100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.02903333333333E6</c:v>
+                  <c:v>1029033.3333333334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.02903333333333E6</c:v>
+                  <c:v>1029033.3333333334</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.02903333333333E6</c:v>
+                  <c:v>1029033.3333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.02903333333333E6</c:v>
+                  <c:v>1029033.3333333334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.12333888888889E6</c:v>
+                  <c:v>1123338.888888889</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.12333888888889E6</c:v>
+                  <c:v>1123338.888888889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.30898472222222E6</c:v>
+                  <c:v>1308984.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.30898472222222E6</c:v>
+                  <c:v>1308984.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.30898472222222E6</c:v>
+                  <c:v>1308984.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.30898472222222E6</c:v>
+                  <c:v>1308984.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.77523472222222E6</c:v>
+                  <c:v>1775234.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.77523472222222E6</c:v>
+                  <c:v>1775234.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.77523472222222E6</c:v>
+                  <c:v>1775234.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.77523472222222E6</c:v>
+                  <c:v>1775234.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.77523472222222E6</c:v>
+                  <c:v>1775234.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.77523472222222E6</c:v>
+                  <c:v>1775234.7222222222</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.77523472222222E6</c:v>
+                  <c:v>1775234.7222222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -7592,88 +7685,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7685,96 +7778,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>191166.6666666667</c:v>
+                  <c:v>191166.66666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>807046.6666666666</c:v>
+                  <c:v>807046.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>818921.6666666666</c:v>
+                  <c:v>818921.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>818921.6666666666</c:v>
+                  <c:v>818921.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>818921.6666666666</c:v>
+                  <c:v>818921.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.26158833333333E6</c:v>
+                  <c:v>1261588.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.26158833333333E6</c:v>
+                  <c:v>1261588.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.26158833333333E6</c:v>
+                  <c:v>1261588.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.26158833333333E6</c:v>
+                  <c:v>1261588.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.26158833333333E6</c:v>
+                  <c:v>1261588.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.26158833333333E6</c:v>
+                  <c:v>1261588.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.75998833333333E6</c:v>
+                  <c:v>1759988.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.75998833333333E6</c:v>
+                  <c:v>1759988.3333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -7799,88 +7897,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7892,96 +7990,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412160.0</c:v>
+                  <c:v>412160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412160.0</c:v>
+                  <c:v>412160</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>412160.0</c:v>
+                  <c:v>412160</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>740860.0</c:v>
+                  <c:v>740860</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>808180.0</c:v>
+                  <c:v>808180</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>808180.0</c:v>
+                  <c:v>808180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.97218E6</c:v>
+                  <c:v>1972180</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.64558E6</c:v>
+                  <c:v>2645580</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.97491333333333E6</c:v>
+                  <c:v>2974913.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.97491333333333E6</c:v>
+                  <c:v>2974913.3333333335</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.99380222222222E6</c:v>
+                  <c:v>2993802.2222222225</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.28499111111111E6</c:v>
+                  <c:v>3284991.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.28499111111111E6</c:v>
+                  <c:v>3284991.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.28499111111111E6</c:v>
+                  <c:v>3284991.1111111115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.53096333333333E6</c:v>
+                  <c:v>3530963.333333334</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.53096333333333E6</c:v>
+                  <c:v>3530963.333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -8006,88 +8109,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8099,96 +8202,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2250.0</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>881770.0</c:v>
+                  <c:v>881770</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>915296.6666666666</c:v>
+                  <c:v>915296.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.12269666666667E6</c:v>
+                  <c:v>1122696.6666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.25869666666667E6</c:v>
+                  <c:v>1258696.6666666665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27138238095238E6</c:v>
+                  <c:v>1271382.3809523808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.61388238095238E6</c:v>
+                  <c:v>1613882.3809523808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.15108238095238E6</c:v>
+                  <c:v>2151082.3809523806</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.15108238095238E6</c:v>
+                  <c:v>2151082.3809523806</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.15108238095238E6</c:v>
+                  <c:v>2151082.3809523806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.15108238095238E6</c:v>
+                  <c:v>2151082.3809523806</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.15108238095238E6</c:v>
+                  <c:v>2151082.3809523806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.40608238095238E6</c:v>
+                  <c:v>2406082.3809523806</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.50997126984127E6</c:v>
+                  <c:v>2509971.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.35597126984127E6</c:v>
+                  <c:v>3355971.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.35597126984127E6</c:v>
+                  <c:v>3355971.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.35597126984127E6</c:v>
+                  <c:v>3355971.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.38893126984127E6</c:v>
+                  <c:v>3388931.2698412696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -8213,88 +8321,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8306,96 +8414,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>751200.0</c:v>
+                  <c:v>751200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>793146.6666666666</c:v>
+                  <c:v>793146.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>793146.6666666666</c:v>
+                  <c:v>793146.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>793146.6666666666</c:v>
+                  <c:v>793146.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>793146.6666666666</c:v>
+                  <c:v>793146.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>887546.6666666666</c:v>
+                  <c:v>887546.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>984213.3333333332</c:v>
+                  <c:v>984213.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.01541333333333E6</c:v>
+                  <c:v>1015413.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.01541333333333E6</c:v>
+                  <c:v>1015413.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.01541333333333E6</c:v>
+                  <c:v>1015413.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.01541333333333E6</c:v>
+                  <c:v>1015413.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.17501333333333E6</c:v>
+                  <c:v>1175013.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.17501333333333E6</c:v>
+                  <c:v>1175013.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.17501333333333E6</c:v>
+                  <c:v>1175013.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.17501333333333E6</c:v>
+                  <c:v>1175013.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.17501333333333E6</c:v>
+                  <c:v>1175013.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.19381333333333E6</c:v>
+                  <c:v>1193813.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.50528E6</c:v>
+                  <c:v>1505280</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.04708E6</c:v>
+                  <c:v>2047080</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.04708E6</c:v>
+                  <c:v>2047080</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.69188E6</c:v>
+                  <c:v>2691880</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.69188E6</c:v>
+                  <c:v>2691880</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.69188E6</c:v>
+                  <c:v>2691880</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.69188E6</c:v>
+                  <c:v>2691880</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.69188E6</c:v>
+                  <c:v>2691880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -8420,88 +8533,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8513,96 +8626,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5777.777777777778</c:v>
+                  <c:v>5777.7777777777783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76977.77777777778</c:v>
+                  <c:v>76977.777777777781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>522177.7777777778</c:v>
+                  <c:v>522177.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600477.7777777778</c:v>
+                  <c:v>600477.77777777775</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.03007777777778E6</c:v>
+                  <c:v>1030077.7777777778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.03007777777778E6</c:v>
+                  <c:v>1030077.7777777778</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.97257777777778E6</c:v>
+                  <c:v>1972577.7777777778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.15370277777778E6</c:v>
+                  <c:v>2153702.777777778</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.46730277777778E6</c:v>
+                  <c:v>2467302.777777778</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.36456944444444E6</c:v>
+                  <c:v>3364569.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.44223611111111E6</c:v>
+                  <c:v>3442236.111111111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.44223611111111E6</c:v>
+                  <c:v>3442236.111111111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.53894444444444E6</c:v>
+                  <c:v>3538944.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.53894444444444E6</c:v>
+                  <c:v>3538944.4444444445</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.72245277777778E6</c:v>
+                  <c:v>3722452.777777778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.72245277777778E6</c:v>
+                  <c:v>3722452.777777778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.72245277777778E6</c:v>
+                  <c:v>3722452.777777778</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.87905277777778E6</c:v>
+                  <c:v>3879052.777777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-866E-B54F-97A5-9621E0AAF952}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8612,7 +8730,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-1992887112"/>
         <c:axId val="-2044223192"/>
@@ -8705,10 +8822,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0986169251256972"/>
-          <c:y val="0.0909245853805059"/>
+          <c:x val="9.8616925125697197E-2"/>
+          <c:y val="9.0924585380505907E-2"/>
           <c:w val="0.20321536798726"/>
-          <c:h val="0.356025316998863"/>
+          <c:h val="0.35602531699886297"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8735,14 +8852,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8789,8 +8906,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.391336058279282"/>
-          <c:y val="0.0622885202693787"/>
+          <c:x val="0.39133605827928197"/>
+          <c:y val="6.22885202693787E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8807,10 +8924,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0472640129672647"/>
-          <c:y val="0.0283378746594005"/>
-          <c:w val="0.940070258383707"/>
-          <c:h val="0.916410650303589"/>
+          <c:x val="4.72640129672647E-2"/>
+          <c:y val="2.8337874659400498E-2"/>
+          <c:w val="0.94007025838370695"/>
+          <c:h val="0.91641065030358904"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -8839,88 +8956,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8932,93 +9049,98 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>418.0</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>418.0</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>418.0</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>418.0</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1174.0</c:v>
+                  <c:v>1174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5187.888888888889</c:v>
+                  <c:v>5187.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5187.888888888889</c:v>
+                  <c:v>5187.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5187.888888888889</c:v>
+                  <c:v>5187.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5246.951388888889</c:v>
+                  <c:v>5246.9513888888887</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18180.28472222222</c:v>
+                  <c:v>18180.284722222223</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18708.93055555555</c:v>
+                  <c:v>18708.930555555555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18789.88293650794</c:v>
+                  <c:v>18789.882936507936</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18789.88293650794</c:v>
+                  <c:v>18789.882936507936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19759.6746031746</c:v>
+                  <c:v>19759.674603174604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21469.6746031746</c:v>
+                  <c:v>21469.674603174604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28043.00793650794</c:v>
+                  <c:v>28043.007936507936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28043.00793650794</c:v>
+                  <c:v>28043.007936507936</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28043.00793650794</c:v>
+                  <c:v>28043.007936507936</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28043.00793650794</c:v>
+                  <c:v>28043.007936507936</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28385.58858166923</c:v>
+                  <c:v>28385.588581669228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28385.58858166923</c:v>
+                  <c:v>28385.588581669228</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>29486.39503328213</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36056.28750640041</c:v>
+                  <c:v>36056.287506400411</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36056.28750640041</c:v>
+                  <c:v>36056.287506400411</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36056.28750640041</c:v>
+                  <c:v>36056.287506400411</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36056.28750640041</c:v>
+                  <c:v>36056.287506400411</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37887.8287250384</c:v>
+                  <c:v>37887.828725038402</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37887.8287250384</c:v>
+                  <c:v>37887.828725038402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9043,88 +9165,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9136,96 +9258,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3354.666666666667</c:v>
+                  <c:v>3354.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5748.266666666666</c:v>
+                  <c:v>5748.2666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7097.244444444445</c:v>
+                  <c:v>7097.2444444444445</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7097.244444444445</c:v>
+                  <c:v>7097.2444444444445</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9170.577777777778</c:v>
+                  <c:v>9170.5777777777785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9239.51111111111</c:v>
+                  <c:v>9239.5111111111109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18366.17777777778</c:v>
+                  <c:v>18366.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18366.17777777778</c:v>
+                  <c:v>18366.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18366.17777777778</c:v>
+                  <c:v>18366.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18366.17777777778</c:v>
+                  <c:v>18366.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18366.17777777778</c:v>
+                  <c:v>18366.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18366.17777777778</c:v>
+                  <c:v>18366.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19491.51111111111</c:v>
+                  <c:v>19491.511111111107</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20910.17777777778</c:v>
+                  <c:v>20910.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20910.17777777778</c:v>
+                  <c:v>20910.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20910.17777777778</c:v>
+                  <c:v>20910.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20910.17777777778</c:v>
+                  <c:v>20910.177777777775</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20910.17777777778</c:v>
+                  <c:v>20910.177777777775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9250,88 +9377,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9343,31 +9470,31 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1186.414414414415</c:v>
+                  <c:v>1186.4144144144145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1186.414414414415</c:v>
+                  <c:v>1186.4144144144145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1245.873873873874</c:v>
+                  <c:v>1245.8738738738739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3716.144144144144</c:v>
+                  <c:v>3716.1441441441443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3716.144144144144</c:v>
+                  <c:v>3716.1441441441443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7524.477477477478</c:v>
+                  <c:v>7524.4774774774778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7524.477477477478</c:v>
+                  <c:v>7524.4774774774778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9137.810810810811</c:v>
+                  <c:v>9137.8108108108117</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9281.198198198199</c:v>
@@ -9388,51 +9515,56 @@
                   <c:v>9281.198198198199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12119.03603603604</c:v>
+                  <c:v>12119.036036036037</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14023.39039039039</c:v>
+                  <c:v>14023.390390390392</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17505.33633633634</c:v>
+                  <c:v>17505.336336336339</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20065.6966966967</c:v>
+                  <c:v>20065.696696696701</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20065.6966966967</c:v>
+                  <c:v>20065.696696696701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -9457,88 +9589,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9550,96 +9682,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>732.3529411764706</c:v>
+                  <c:v>732.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>732.3529411764706</c:v>
+                  <c:v>732.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>732.3529411764706</c:v>
+                  <c:v>732.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>732.3529411764706</c:v>
+                  <c:v>732.35294117647061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2308.039215686274</c:v>
+                  <c:v>2308.0392156862745</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2308.039215686274</c:v>
+                  <c:v>2308.0392156862745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2308.039215686274</c:v>
+                  <c:v>2308.0392156862745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2308.039215686274</c:v>
+                  <c:v>2308.0392156862745</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2364.509803921569</c:v>
+                  <c:v>2364.5098039215686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3764.509803921569</c:v>
+                  <c:v>3764.5098039215686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3764.509803921569</c:v>
+                  <c:v>3764.5098039215686</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5115.490196078432</c:v>
+                  <c:v>5115.4901960784318</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5115.490196078432</c:v>
+                  <c:v>5115.4901960784318</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5769.411764705882</c:v>
+                  <c:v>5769.4117647058829</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5769.411764705882</c:v>
+                  <c:v>5769.4117647058829</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5769.411764705882</c:v>
+                  <c:v>5769.4117647058829</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5769.411764705882</c:v>
+                  <c:v>5769.4117647058829</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5769.411764705882</c:v>
+                  <c:v>5769.4117647058829</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5855.271708683474</c:v>
+                  <c:v>5855.2717086834737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -9664,88 +9801,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9757,16 +9894,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.6705276705277</c:v>
+                  <c:v>227.67052767052766</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1942.120978120978</c:v>
@@ -9778,75 +9915,80 @@
                   <c:v>1942.120978120978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4173.472329472328</c:v>
+                  <c:v>4173.472329472329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4173.472329472328</c:v>
+                  <c:v>4173.472329472329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4355.238095238095</c:v>
+                  <c:v>4355.2380952380945</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5755.057915057914</c:v>
+                  <c:v>5755.0579150579142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5755.057915057914</c:v>
+                  <c:v>5755.0579150579142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9583.886743886741</c:v>
+                  <c:v>9583.8867438867419</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10126.22908622908</c:v>
+                  <c:v>10126.229086229085</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10318.2410982411</c:v>
+                  <c:v>10318.241098241097</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10318.2410982411</c:v>
+                  <c:v>10318.241098241097</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11830.19305019305</c:v>
+                  <c:v>11830.193050193047</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11830.19305019305</c:v>
+                  <c:v>11830.193050193047</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13481.18404118404</c:v>
+                  <c:v>13481.184041184039</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18426.76962676962</c:v>
+                  <c:v>18426.769626769623</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18426.76962676962</c:v>
+                  <c:v>18426.769626769623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -9871,88 +10013,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9964,96 +10106,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360.1481481481482</c:v>
+                  <c:v>360.14814814814815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4386.814814814815</c:v>
+                  <c:v>4386.8148148148148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4461.62962962963</c:v>
+                  <c:v>4461.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4461.62962962963</c:v>
+                  <c:v>4461.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4461.62962962963</c:v>
+                  <c:v>4461.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4461.62962962963</c:v>
+                  <c:v>4461.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4461.62962962963</c:v>
+                  <c:v>4461.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4461.62962962963</c:v>
+                  <c:v>4461.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4461.62962962963</c:v>
+                  <c:v>4461.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8101.62962962963</c:v>
+                  <c:v>8101.6296296296296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12612.74074074074</c:v>
+                  <c:v>12612.740740740741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12800.88888888889</c:v>
+                  <c:v>12800.888888888889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12800.88888888889</c:v>
+                  <c:v>12800.888888888889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13966.38271604938</c:v>
+                  <c:v>13966.382716049382</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13966.38271604938</c:v>
+                  <c:v>13966.382716049382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13966.38271604938</c:v>
+                  <c:v>13966.382716049382</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16655.27160493827</c:v>
+                  <c:v>16655.271604938273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16655.27160493827</c:v>
+                  <c:v>16655.271604938273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16655.27160493827</c:v>
+                  <c:v>16655.271604938273</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16655.27160493827</c:v>
+                  <c:v>16655.271604938273</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16655.27160493827</c:v>
+                  <c:v>16655.271604938273</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19017.07716049383</c:v>
+                  <c:v>19017.077160493827</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19017.07716049383</c:v>
+                  <c:v>19017.077160493827</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19017.07716049383</c:v>
+                  <c:v>19017.077160493827</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19017.07716049383</c:v>
+                  <c:v>19017.077160493827</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19017.07716049383</c:v>
+                  <c:v>19017.077160493827</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19017.07716049383</c:v>
+                  <c:v>19017.077160493827</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19017.07716049383</c:v>
+                  <c:v>19017.077160493827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -10078,88 +10225,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10171,96 +10318,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4617.299145299145</c:v>
+                  <c:v>4617.2991452991446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5713.299145299145</c:v>
+                  <c:v>5713.2991452991446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6020.136752136751</c:v>
+                  <c:v>6020.1367521367511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7682.358974358972</c:v>
+                  <c:v>7682.3589743589728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7682.358974358972</c:v>
+                  <c:v>7682.3589743589728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7682.358974358972</c:v>
+                  <c:v>7682.3589743589728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8875.948717948717</c:v>
+                  <c:v>8875.9487179487169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9609.79487179487</c:v>
+                  <c:v>9609.7948717948711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15476.46153846154</c:v>
+                  <c:v>15476.461538461539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15476.46153846154</c:v>
+                  <c:v>15476.461538461539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15476.46153846154</c:v>
+                  <c:v>15476.461538461539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15476.46153846154</c:v>
+                  <c:v>15476.461538461539</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16253.89743589744</c:v>
+                  <c:v>16253.897435897437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20994.06837606838</c:v>
+                  <c:v>20994.068376068375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22155.60683760684</c:v>
+                  <c:v>22155.606837606836</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22155.60683760684</c:v>
+                  <c:v>22155.606837606836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23266.42244044372</c:v>
+                  <c:v>23266.422440443715</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23266.42244044372</c:v>
+                  <c:v>23266.422440443715</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23266.42244044372</c:v>
+                  <c:v>23266.422440443715</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23266.42244044372</c:v>
+                  <c:v>23266.422440443715</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23266.42244044372</c:v>
+                  <c:v>23266.422440443715</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23910.03946172031</c:v>
+                  <c:v>23910.039461720313</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23910.03946172031</c:v>
+                  <c:v>23910.039461720313</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23910.03946172031</c:v>
+                  <c:v>23910.039461720313</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23910.03946172031</c:v>
+                  <c:v>23910.039461720313</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>23910.03946172031</c:v>
+                  <c:v>23910.039461720313</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25143.19549008911</c:v>
+                  <c:v>25143.195490089107</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25143.19549008911</c:v>
+                  <c:v>25143.195490089107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -10285,88 +10437,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10378,34 +10530,34 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1066.666666666667</c:v>
+                  <c:v>1066.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1983.219512195122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014.878048780488</c:v>
+                  <c:v>2014.8780487804879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3840.406504065041</c:v>
+                  <c:v>3840.4065040650407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3840.406504065041</c:v>
+                  <c:v>3840.4065040650407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6622.19512195122</c:v>
+                  <c:v>6622.1951219512193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6622.19512195122</c:v>
+                  <c:v>6622.1951219512193</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6622.19512195122</c:v>
+                  <c:v>6622.1951219512193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7491.029810298102</c:v>
+                  <c:v>7491.0298102981023</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8998.875338753387</c:v>
@@ -10417,57 +10569,62 @@
                   <c:v>10245.59620596206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10790.57181571816</c:v>
+                  <c:v>10790.571815718158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10790.57181571816</c:v>
+                  <c:v>10790.571815718158</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10790.57181571816</c:v>
+                  <c:v>10790.571815718158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10790.57181571816</c:v>
+                  <c:v>10790.571815718158</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10790.57181571816</c:v>
+                  <c:v>10790.571815718158</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11283.22764227642</c:v>
+                  <c:v>11283.227642276424</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11283.22764227642</c:v>
+                  <c:v>11283.227642276424</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12849.40650406504</c:v>
+                  <c:v>12849.406504065042</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12849.40650406504</c:v>
+                  <c:v>12849.406504065042</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12849.40650406504</c:v>
+                  <c:v>12849.406504065042</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14119.86720867209</c:v>
+                  <c:v>14119.867208672089</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14403.81029810298</c:v>
+                  <c:v>14403.810298102982</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14403.81029810298</c:v>
+                  <c:v>14403.810298102982</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14403.81029810298</c:v>
+                  <c:v>14403.810298102982</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14403.81029810298</c:v>
+                  <c:v>14403.810298102982</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14403.81029810298</c:v>
+                  <c:v>14403.810298102982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -10492,88 +10649,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10585,96 +10742,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>914.9090909090908</c:v>
+                  <c:v>914.90909090909088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7725.414141414142</c:v>
+                  <c:v>7725.4141414141423</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9230.464646464647</c:v>
+                  <c:v>9230.4646464646466</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11176.99663299663</c:v>
+                  <c:v>11176.996632996634</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11176.99663299663</c:v>
+                  <c:v>11176.996632996634</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11176.99663299663</c:v>
+                  <c:v>11176.996632996634</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11176.99663299663</c:v>
+                  <c:v>11176.996632996634</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17976.79461279461</c:v>
+                  <c:v>17976.794612794612</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17976.79461279461</c:v>
+                  <c:v>17976.794612794612</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17976.79461279461</c:v>
+                  <c:v>17976.794612794612</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18134.20202020202</c:v>
+                  <c:v>18134.202020202021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18817.20855614973</c:v>
+                  <c:v>18817.208556149733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -10699,88 +10861,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10792,96 +10954,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>526.1538461538461</c:v>
+                  <c:v>526.15384615384619</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5008.205128205128</c:v>
+                  <c:v>5008.2051282051289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5008.205128205128</c:v>
+                  <c:v>5008.2051282051289</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5192.820512820514</c:v>
+                  <c:v>5192.8205128205136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8032.649572649573</c:v>
+                  <c:v>8032.6495726495732</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8448.03418803419</c:v>
+                  <c:v>8448.0341880341894</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13158.2905982906</c:v>
+                  <c:v>13158.290598290598</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13158.2905982906</c:v>
+                  <c:v>13158.290598290598</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13158.2905982906</c:v>
+                  <c:v>13158.290598290598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16471.11111111111</c:v>
+                  <c:v>16471.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18383.93162393162</c:v>
+                  <c:v>18383.931623931621</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18383.93162393162</c:v>
+                  <c:v>18383.931623931621</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18383.93162393162</c:v>
+                  <c:v>18383.931623931621</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18383.93162393162</c:v>
+                  <c:v>18383.931623931621</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18383.93162393162</c:v>
+                  <c:v>18383.931623931621</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18951.11111111111</c:v>
+                  <c:v>18951.111111111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -10906,88 +11073,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10999,96 +11166,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1994.385964912281</c:v>
+                  <c:v>1994.3859649122805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1994.385964912281</c:v>
+                  <c:v>1994.3859649122805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1994.385964912281</c:v>
+                  <c:v>1994.3859649122805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2962.105263157895</c:v>
+                  <c:v>2962.1052631578946</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6552.631578947368</c:v>
+                  <c:v>6552.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9232.631578947368</c:v>
+                  <c:v>9232.6315789473683</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10831.9298245614</c:v>
+                  <c:v>10831.929824561405</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10831.9298245614</c:v>
+                  <c:v>10831.929824561405</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10831.9298245614</c:v>
+                  <c:v>10831.929824561405</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10831.9298245614</c:v>
+                  <c:v>10831.929824561405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11824.61988304094</c:v>
+                  <c:v>11824.619883040938</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11824.61988304094</c:v>
+                  <c:v>11824.619883040938</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13778.7865497076</c:v>
+                  <c:v>13778.786549707604</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13778.7865497076</c:v>
+                  <c:v>13778.786549707604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13778.7865497076</c:v>
+                  <c:v>13778.786549707604</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13778.7865497076</c:v>
+                  <c:v>13778.786549707604</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18686.68128654971</c:v>
+                  <c:v>18686.681286549709</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18686.68128654971</c:v>
+                  <c:v>18686.681286549709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18686.68128654971</c:v>
+                  <c:v>18686.681286549709</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18686.68128654971</c:v>
+                  <c:v>18686.681286549709</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18686.68128654971</c:v>
+                  <c:v>18686.681286549709</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18686.68128654971</c:v>
+                  <c:v>18686.681286549709</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18686.68128654971</c:v>
+                  <c:v>18686.681286549709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -11113,88 +11285,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11206,96 +11378,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1470.51282051282</c:v>
+                  <c:v>1470.5128205128203</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6208.051282051282</c:v>
+                  <c:v>6208.0512820512822</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6299.397435897436</c:v>
+                  <c:v>6299.3974358974365</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6299.397435897436</c:v>
+                  <c:v>6299.3974358974365</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6299.397435897436</c:v>
+                  <c:v>6299.3974358974365</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9704.52564102564</c:v>
+                  <c:v>9704.5256410256407</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9704.52564102564</c:v>
+                  <c:v>9704.5256410256407</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9704.52564102564</c:v>
+                  <c:v>9704.5256410256407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9704.52564102564</c:v>
+                  <c:v>9704.5256410256407</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9704.52564102564</c:v>
+                  <c:v>9704.5256410256407</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9704.52564102564</c:v>
+                  <c:v>9704.5256410256407</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13538.37179487179</c:v>
+                  <c:v>13538.371794871795</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>13538.37179487179</c:v>
+                  <c:v>13538.371794871795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
@@ -11320,88 +11497,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11413,25 +11590,25 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2497.939393939393</c:v>
+                  <c:v>2497.939393939394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2497.939393939393</c:v>
+                  <c:v>2497.939393939394</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2497.939393939393</c:v>
+                  <c:v>2497.939393939394</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4490.060606060606</c:v>
@@ -11449,60 +11626,65 @@
                   <c:v>16033.81818181818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18029.77777777778</c:v>
+                  <c:v>18029.777777777777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18029.77777777778</c:v>
+                  <c:v>18029.777777777777</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18144.2558922559</c:v>
+                  <c:v>18144.255892255893</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20022.89388508743</c:v>
+                  <c:v>20022.893885087433</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20022.89388508743</c:v>
+                  <c:v>20022.893885087433</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20022.89388508743</c:v>
+                  <c:v>20022.893885087433</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21609.81144781145</c:v>
+                  <c:v>21609.811447811448</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21609.81144781145</c:v>
+                  <c:v>21609.811447811448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="13"/>
@@ -11527,88 +11709,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11620,96 +11802,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.53846153846154</c:v>
+                  <c:v>11.538461538461538</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4521.897435897436</c:v>
+                  <c:v>4521.8974358974365</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4693.82905982906</c:v>
+                  <c:v>4693.8290598290605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5757.418803418805</c:v>
+                  <c:v>5757.4188034188046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6454.854700854702</c:v>
+                  <c:v>6454.8547008547021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6519.909645909647</c:v>
+                  <c:v>6519.9096459096472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8276.319902319903</c:v>
+                  <c:v>8276.3199023199031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11031.1916971917</c:v>
+                  <c:v>11031.191697191698</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11031.1916971917</c:v>
+                  <c:v>11031.191697191698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11031.1916971917</c:v>
+                  <c:v>11031.191697191698</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11031.1916971917</c:v>
+                  <c:v>11031.191697191698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11031.1916971917</c:v>
+                  <c:v>11031.191697191698</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12338.88400488401</c:v>
+                  <c:v>12338.884004884007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12871.64753764754</c:v>
+                  <c:v>12871.647537647539</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17210.10907610908</c:v>
+                  <c:v>17210.109076109078</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17210.10907610908</c:v>
+                  <c:v>17210.109076109078</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17210.10907610908</c:v>
+                  <c:v>17210.109076109078</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17379.13471713472</c:v>
+                  <c:v>17379.134717134719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="14"/>
@@ -11734,88 +11921,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11827,96 +12014,101 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4173.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4406.37037037037</c:v>
+                  <c:v>4406.3703703703704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4406.37037037037</c:v>
+                  <c:v>4406.3703703703704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4406.37037037037</c:v>
+                  <c:v>4406.3703703703704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4406.37037037037</c:v>
+                  <c:v>4406.3703703703704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4930.814814814815</c:v>
+                  <c:v>4930.8148148148148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5467.851851851852</c:v>
+                  <c:v>5467.8518518518522</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5641.185185185185</c:v>
+                  <c:v>5641.1851851851852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5641.185185185185</c:v>
+                  <c:v>5641.1851851851852</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5641.185185185185</c:v>
+                  <c:v>5641.1851851851852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5641.185185185185</c:v>
+                  <c:v>5641.1851851851852</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6527.851851851852</c:v>
+                  <c:v>6527.8518518518522</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6527.851851851852</c:v>
+                  <c:v>6527.8518518518522</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6527.851851851852</c:v>
+                  <c:v>6527.8518518518522</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6527.851851851852</c:v>
+                  <c:v>6527.8518518518522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6527.851851851852</c:v>
+                  <c:v>6527.8518518518522</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6632.296296296296</c:v>
+                  <c:v>6632.2962962962965</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8362.666666666668</c:v>
+                  <c:v>8362.6666666666679</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11372.66666666667</c:v>
+                  <c:v>11372.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11372.66666666667</c:v>
+                  <c:v>11372.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>14954.88888888889</c:v>
+                  <c:v>14954.888888888891</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14954.88888888889</c:v>
+                  <c:v>14954.888888888891</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>14954.88888888889</c:v>
+                  <c:v>14954.888888888891</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>14954.88888888889</c:v>
+                  <c:v>14954.888888888891</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14954.88888888889</c:v>
+                  <c:v>14954.888888888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="15"/>
@@ -11941,88 +12133,88 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43189.0</c:v>
+                  <c:v>43189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43190.0</c:v>
+                  <c:v>43190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43191.0</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43192.0</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43193.0</c:v>
+                  <c:v>43193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43194.0</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43195.0</c:v>
+                  <c:v>43195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43196.0</c:v>
+                  <c:v>43196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43197.0</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43198.0</c:v>
+                  <c:v>43198</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43199.0</c:v>
+                  <c:v>43199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43200.0</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43201.0</c:v>
+                  <c:v>43201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43202.0</c:v>
+                  <c:v>43202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43203.0</c:v>
+                  <c:v>43203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43204.0</c:v>
+                  <c:v>43204</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43205.0</c:v>
+                  <c:v>43205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43206.0</c:v>
+                  <c:v>43206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43207.0</c:v>
+                  <c:v>43207</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43208.0</c:v>
+                  <c:v>43208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43209.0</c:v>
+                  <c:v>43209</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43210.0</c:v>
+                  <c:v>43210</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43211.0</c:v>
+                  <c:v>43211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43212.0</c:v>
+                  <c:v>43212</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43213.0</c:v>
+                  <c:v>43213</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43214.0</c:v>
+                  <c:v>43214</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43215.0</c:v>
+                  <c:v>43215</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43216.0</c:v>
+                  <c:v>43216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12034,25 +12226,25 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.51322751322752</c:v>
+                  <c:v>27.513227513227516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>366.5608465608465</c:v>
+                  <c:v>366.56084656084653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2486.560846560847</c:v>
+                  <c:v>2486.5608465608466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2859.417989417989</c:v>
+                  <c:v>2859.4179894179892</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4905.132275132275</c:v>
@@ -12061,22 +12253,22 @@
                   <c:v>4905.132275132275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9393.227513227514</c:v>
+                  <c:v>9393.2275132275136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10255.72751322751</c:v>
+                  <c:v>10255.727513227514</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11749.06084656085</c:v>
+                  <c:v>11749.060846560847</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16021.75925925926</c:v>
+                  <c:v>16021.759259259259</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16391.60052910053</c:v>
+                  <c:v>16391.600529100528</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16391.60052910053</c:v>
+                  <c:v>16391.600529100528</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16852.1164021164</c:v>
@@ -12085,45 +12277,50 @@
                   <c:v>16852.1164021164</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17725.96560846561</c:v>
+                  <c:v>17725.965608465605</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17725.96560846561</c:v>
+                  <c:v>17725.965608465605</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17725.96560846561</c:v>
+                  <c:v>17725.965608465605</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18471.6798941799</c:v>
+                  <c:v>18471.679894179892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-AF00-DE4A-8BCB-C9033EB33241}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12133,7 +12330,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-1992693000"/>
         <c:axId val="-1992809752"/>
@@ -12226,10 +12422,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0986169251256972"/>
-          <c:y val="0.0909245853805059"/>
+          <c:x val="9.8616925125697197E-2"/>
+          <c:y val="9.0924585380505907E-2"/>
           <c:w val="0.20321536798726"/>
-          <c:h val="0.356025316998863"/>
+          <c:h val="0.35602531699886297"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12256,7 +12452,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12279,7 +12475,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12314,7 +12516,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12349,7 +12557,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12690,14 +12904,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showRuler="0" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="34" customWidth="1"/>
     <col min="2" max="2" width="13" style="34" customWidth="1"/>
@@ -16420,7 +16634,7 @@
       <c r="V52" s="56"/>
       <c r="W52" s="58"/>
     </row>
-    <row r="53" spans="1:23" s="131" customFormat="1" ht="16" thickBot="1">
+    <row r="53" spans="1:23" s="131" customFormat="1" ht="17" thickBot="1">
       <c r="A53" s="128">
         <v>43196</v>
       </c>
@@ -22657,7 +22871,7 @@
       </c>
       <c r="V139" s="26"/>
     </row>
-    <row r="140" spans="1:23" s="151" customFormat="1" ht="16" thickBot="1">
+    <row r="140" spans="1:23" s="151" customFormat="1" ht="17" thickBot="1">
       <c r="A140" s="148">
         <v>43209</v>
       </c>
@@ -23974,14 +24188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:X145"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="191" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="191" customWidth="1"/>
@@ -23996,7 +24210,7 @@
     <col min="25" max="16384" width="10.83203125" style="191"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="196" customFormat="1">
+    <row r="1" spans="1:24" s="196" customFormat="1" ht="17">
       <c r="A1" s="196" t="s">
         <v>390</v>
       </c>
@@ -28411,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="191">
-        <f t="shared" ref="J130:J161" si="6">SUM(G130:I130)</f>
+        <f t="shared" ref="J130:J145" si="6">SUM(G130:I130)</f>
         <v>32</v>
       </c>
     </row>
@@ -28937,14 +29151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D99" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C115" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.5" style="191" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="191" customWidth="1"/>
@@ -28961,7 +29175,7 @@
     <col min="13" max="16384" width="10.83203125" style="191"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" ht="34">
       <c r="A1" s="196" t="s">
         <v>390</v>
       </c>
@@ -33059,7 +33273,7 @@
       <c r="H113" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="I113" s="207">
+      <c r="I113" s="204">
         <f>SUM(6,19,13,9,14,39,35,14,16,20,37,19,20,21,20,25)</f>
         <v>327</v>
       </c>
@@ -34244,14 +34458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="E32" workbookViewId="0">
       <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="3" customWidth="1"/>
@@ -34272,7 +34486,7 @@
     <col min="19" max="19" width="17.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="20">
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="21">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -37469,7 +37683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -37477,7 +37691,7 @@
       <selection pane="bottomLeft" activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
@@ -40070,14 +40284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="64"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -40086,7 +40300,7 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="91" customFormat="1" ht="45">
+    <row r="1" spans="1:7" s="91" customFormat="1" ht="51">
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
@@ -41141,14 +41355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E20" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N18" sqref="K1:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.5" style="64" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
@@ -41171,7 +41385,7 @@
     <col min="20" max="20" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="61">
+    <row r="1" spans="1:20" ht="69">
       <c r="A1" s="63"/>
       <c r="B1" s="61"/>
       <c r="C1" s="5" t="s">
@@ -41227,7 +41441,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18">
+    <row r="2" spans="1:20" ht="19">
       <c r="A2" s="178" t="s">
         <v>37</v>
       </c>
@@ -41298,7 +41512,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18">
+    <row r="3" spans="1:20" ht="19">
       <c r="A3" s="178" t="s">
         <v>28</v>
       </c>
@@ -41369,7 +41583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18">
+    <row r="4" spans="1:20" ht="19">
       <c r="A4" s="178" t="s">
         <v>29</v>
       </c>
@@ -41440,7 +41654,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18">
+    <row r="5" spans="1:20" ht="19">
       <c r="A5" s="178" t="s">
         <v>36</v>
       </c>
@@ -41511,7 +41725,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18">
+    <row r="6" spans="1:20" ht="19">
       <c r="A6" s="178" t="s">
         <v>83</v>
       </c>
@@ -41582,7 +41796,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18">
+    <row r="7" spans="1:20" ht="19">
       <c r="A7" s="178" t="s">
         <v>84</v>
       </c>
@@ -41653,7 +41867,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18">
+    <row r="8" spans="1:20" ht="19">
       <c r="A8" s="178" t="s">
         <v>61</v>
       </c>
@@ -41724,7 +41938,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18">
+    <row r="9" spans="1:20" ht="19">
       <c r="A9" s="178" t="s">
         <v>59</v>
       </c>
@@ -41795,7 +42009,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18">
+    <row r="10" spans="1:20" ht="19">
       <c r="A10" s="182"/>
       <c r="B10" s="165" t="s">
         <v>209</v>
@@ -42220,14 +42434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showRuler="0" topLeftCell="D18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
@@ -42237,7 +42451,7 @@
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="99" customFormat="1" ht="36">
+    <row r="1" spans="1:13" s="99" customFormat="1" ht="40">
       <c r="A1" s="99" t="s">
         <v>152</v>
       </c>
@@ -42957,14 +43171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
@@ -42990,19 +43204,19 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="G3" s="204" t="s">
+      <c r="G3" s="205" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204" t="s">
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205" t="s">
         <v>186</v>
       </c>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
       <c r="M3" s="101"/>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:13" ht="34">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -43501,7 +43715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
@@ -43510,7 +43724,7 @@
       <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="145" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="145" customWidth="1"/>
@@ -43539,124 +43753,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="207" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="206" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205" t="s">
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205" t="s">
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205" t="s">
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205" t="s">
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205" t="s">
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205" t="s">
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="205"/>
-      <c r="AD1" s="205" t="s">
+      <c r="AA1" s="206"/>
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" s="205"/>
-      <c r="AF1" s="205"/>
-      <c r="AG1" s="205"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="26" customHeight="1">
-      <c r="A2" s="206"/>
-      <c r="B2" s="205" t="s">
+      <c r="A2" s="207"/>
+      <c r="B2" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205" t="s">
+      <c r="E2" s="206"/>
+      <c r="F2" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
+      <c r="G2" s="206"/>
+      <c r="H2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205" t="s">
+      <c r="I2" s="206"/>
+      <c r="J2" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205" t="s">
+      <c r="K2" s="206"/>
+      <c r="L2" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205" t="s">
+      <c r="M2" s="206"/>
+      <c r="N2" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205" t="s">
+      <c r="O2" s="206"/>
+      <c r="P2" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205" t="s">
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205" t="s">
+      <c r="S2" s="206"/>
+      <c r="T2" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205" t="s">
+      <c r="U2" s="206"/>
+      <c r="V2" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205" t="s">
+      <c r="W2" s="206"/>
+      <c r="X2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="205" t="s">
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="205"/>
-      <c r="AB2" s="205" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="205" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="205"/>
+      <c r="AG2" s="206"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="100" t="s">
@@ -43759,7 +43973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="99" customFormat="1" ht="20">
+    <row r="4" spans="1:33" s="99" customFormat="1" ht="21">
       <c r="A4" s="173">
         <v>43189</v>
       </c>
@@ -43892,7 +44106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="20">
+    <row r="5" spans="1:33" ht="21">
       <c r="A5" s="173">
         <v>43190</v>
       </c>
@@ -44025,7 +44239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="20">
+    <row r="6" spans="1:33" ht="21">
       <c r="A6" s="173">
         <v>43191</v>
       </c>
@@ -44158,7 +44372,7 @@
         <v>5777.7777777777783</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="20">
+    <row r="7" spans="1:33" ht="21">
       <c r="A7" s="173">
         <v>43192</v>
       </c>
@@ -44291,7 +44505,7 @@
         <v>76977.777777777781</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="20">
+    <row r="8" spans="1:33" ht="21">
       <c r="A8" s="173">
         <v>43193</v>
       </c>
@@ -44424,7 +44638,7 @@
         <v>522177.77777777775</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="20">
+    <row r="9" spans="1:33" ht="21">
       <c r="A9" s="173">
         <v>43194</v>
       </c>
@@ -44557,7 +44771,7 @@
         <v>600477.77777777775</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="20">
+    <row r="10" spans="1:33" ht="21">
       <c r="A10" s="173">
         <v>43195</v>
       </c>
@@ -44690,7 +44904,7 @@
         <v>1030077.7777777778</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="20">
+    <row r="11" spans="1:33" ht="21">
       <c r="A11" s="173">
         <v>43196</v>
       </c>
@@ -44823,7 +45037,7 @@
         <v>1030077.7777777778</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="161" customFormat="1" ht="21" thickBot="1">
+    <row r="12" spans="1:33" s="161" customFormat="1" ht="22" thickBot="1">
       <c r="A12" s="173">
         <v>43197</v>
       </c>
@@ -44956,7 +45170,7 @@
         <v>1972577.7777777778</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="21" thickTop="1">
+    <row r="13" spans="1:33" ht="22" thickTop="1">
       <c r="A13" s="173">
         <v>43198</v>
       </c>
@@ -45089,7 +45303,7 @@
         <v>2153702.777777778</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="20">
+    <row r="14" spans="1:33" ht="21">
       <c r="A14" s="173">
         <v>43199</v>
       </c>
@@ -45222,7 +45436,7 @@
         <v>2467302.777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="20">
+    <row r="15" spans="1:33" ht="21">
       <c r="A15" s="173">
         <v>43200</v>
       </c>
@@ -45355,7 +45569,7 @@
         <v>3364569.4444444445</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="20">
+    <row r="16" spans="1:33" ht="21">
       <c r="A16" s="173">
         <v>43201</v>
       </c>
@@ -45488,7 +45702,7 @@
         <v>3442236.111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="20">
+    <row r="17" spans="1:33" ht="21">
       <c r="A17" s="173">
         <v>43202</v>
       </c>
@@ -45621,7 +45835,7 @@
         <v>3442236.111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20">
+    <row r="18" spans="1:33" ht="21">
       <c r="A18" s="173">
         <v>43203</v>
       </c>
@@ -45754,7 +45968,7 @@
         <v>3538944.4444444445</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="20">
+    <row r="19" spans="1:33" ht="21">
       <c r="A19" s="173">
         <v>43204</v>
       </c>
@@ -45887,7 +46101,7 @@
         <v>3538944.4444444445</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="20">
+    <row r="20" spans="1:33" ht="21">
       <c r="A20" s="173">
         <v>43205</v>
       </c>
@@ -46020,7 +46234,7 @@
         <v>3722452.777777778</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="20">
+    <row r="21" spans="1:33" ht="21">
       <c r="A21" s="173">
         <v>43206</v>
       </c>
@@ -46153,7 +46367,7 @@
         <v>3722452.777777778</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="20">
+    <row r="22" spans="1:33" ht="21">
       <c r="A22" s="173">
         <v>43207</v>
       </c>
@@ -46286,7 +46500,7 @@
         <v>3722452.777777778</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="20">
+    <row r="23" spans="1:33" ht="21">
       <c r="A23" s="173">
         <v>43208</v>
       </c>
@@ -46419,7 +46633,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="20">
+    <row r="24" spans="1:33" ht="21">
       <c r="A24" s="173">
         <v>43209</v>
       </c>
@@ -46552,7 +46766,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="20">
+    <row r="25" spans="1:33" ht="21">
       <c r="A25" s="173">
         <v>43210</v>
       </c>
@@ -46685,7 +46899,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="20">
+    <row r="26" spans="1:33" ht="21">
       <c r="A26" s="173">
         <v>43211</v>
       </c>
@@ -46818,7 +47032,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="20">
+    <row r="27" spans="1:33" ht="21">
       <c r="A27" s="173">
         <v>43212</v>
       </c>
@@ -46951,7 +47165,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20">
+    <row r="28" spans="1:33" ht="21">
       <c r="A28" s="173">
         <v>43213</v>
       </c>
@@ -47084,7 +47298,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="20">
+    <row r="29" spans="1:33" ht="21">
       <c r="A29" s="173">
         <v>43214</v>
       </c>
@@ -47217,7 +47431,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="20">
+    <row r="30" spans="1:33" ht="21">
       <c r="A30" s="173">
         <v>43215</v>
       </c>
@@ -47350,7 +47564,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="20">
+    <row r="31" spans="1:33" ht="21">
       <c r="A31" s="173">
         <v>43216</v>
       </c>
@@ -47483,7 +47697,7 @@
         <v>3879052.777777778</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="20">
+    <row r="32" spans="1:33" ht="21">
       <c r="A32" s="173">
         <v>43217</v>
       </c>
@@ -47568,7 +47782,7 @@
       <c r="AF32" s="158"/>
       <c r="AG32" s="158"/>
     </row>
-    <row r="33" spans="1:33" ht="20">
+    <row r="33" spans="1:33" ht="21">
       <c r="A33" s="176" t="s">
         <v>201</v>
       </c>
@@ -47717,6 +47931,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A1:A2"/>
@@ -47733,15 +47956,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -47758,7 +47972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
@@ -47767,7 +47981,7 @@
       <selection pane="bottomLeft" activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.83203125" style="145" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="145" bestFit="1" customWidth="1"/>
@@ -47805,123 +48019,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="29" customHeight="1">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="206" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205" t="s">
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205" t="s">
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
+      <c r="J1" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205" t="s">
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="206"/>
+      <c r="N1" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205" t="s">
+      <c r="O1" s="206"/>
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205" t="s">
+      <c r="S1" s="206"/>
+      <c r="T1" s="206"/>
+      <c r="U1" s="206"/>
+      <c r="V1" s="206" t="s">
         <v>198</v>
       </c>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205" t="s">
+      <c r="W1" s="206"/>
+      <c r="X1" s="206"/>
+      <c r="Y1" s="206"/>
+      <c r="Z1" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="205"/>
-      <c r="AD1" s="205" t="s">
+      <c r="AA1" s="206"/>
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="206"/>
+      <c r="AD1" s="206" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" s="205"/>
-      <c r="AF1" s="205"/>
-      <c r="AG1" s="205"/>
+      <c r="AE1" s="206"/>
+      <c r="AF1" s="206"/>
+      <c r="AG1" s="206"/>
     </row>
     <row r="2" spans="1:33" ht="27" customHeight="1">
       <c r="A2" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205" t="s">
+      <c r="E2" s="206"/>
+      <c r="F2" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
+      <c r="G2" s="206"/>
+      <c r="H2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205" t="s">
+      <c r="I2" s="206"/>
+      <c r="J2" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205" t="s">
+      <c r="K2" s="206"/>
+      <c r="L2" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205" t="s">
+      <c r="M2" s="206"/>
+      <c r="N2" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205" t="s">
+      <c r="O2" s="206"/>
+      <c r="P2" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="205" t="s">
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205" t="s">
+      <c r="S2" s="206"/>
+      <c r="T2" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205" t="s">
+      <c r="U2" s="206"/>
+      <c r="V2" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205" t="s">
+      <c r="W2" s="206"/>
+      <c r="X2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="205" t="s">
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="205"/>
-      <c r="AB2" s="205" t="s">
+      <c r="AA2" s="206"/>
+      <c r="AB2" s="206" t="s">
         <v>84</v>
       </c>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="205" t="s">
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="205" t="s">
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="206" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="205"/>
+      <c r="AG2" s="206"/>
     </row>
     <row r="3" spans="1:33" s="99" customFormat="1" ht="23" customHeight="1">
       <c r="A3" s="99" t="s">
@@ -48157,7 +48371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="18">
+    <row r="5" spans="1:33" ht="19">
       <c r="A5" s="157">
         <v>43190</v>
       </c>
@@ -48290,7 +48504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="18">
+    <row r="6" spans="1:33" ht="19">
       <c r="A6" s="157">
         <v>43191</v>
       </c>
@@ -48423,7 +48637,7 @@
         <v>27.513227513227516</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="18">
+    <row r="7" spans="1:33" ht="19">
       <c r="A7" s="157">
         <v>43192</v>
       </c>
@@ -48556,7 +48770,7 @@
         <v>366.56084656084653</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="18">
+    <row r="8" spans="1:33" ht="19">
       <c r="A8" s="157">
         <v>43193</v>
       </c>
@@ -48689,7 +48903,7 @@
         <v>2486.5608465608466</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="18">
+    <row r="9" spans="1:33" ht="19">
       <c r="A9" s="157">
         <v>43194</v>
       </c>
@@ -48822,7 +49036,7 @@
         <v>2859.4179894179892</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="18">
+    <row r="10" spans="1:33" ht="19">
       <c r="A10" s="157">
         <v>43195</v>
       </c>
@@ -48955,7 +49169,7 @@
         <v>4905.132275132275</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="18">
+    <row r="11" spans="1:33" ht="19">
       <c r="A11" s="157">
         <v>43196</v>
       </c>
@@ -49088,7 +49302,7 @@
         <v>4905.132275132275</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="161" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="1:33" s="161" customFormat="1" ht="20" thickBot="1">
       <c r="A12" s="157">
         <v>43197</v>
       </c>
@@ -49221,7 +49435,7 @@
         <v>9393.2275132275136</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="19" thickTop="1">
+    <row r="13" spans="1:33" ht="20" thickTop="1">
       <c r="A13" s="157">
         <v>43198</v>
       </c>
@@ -49354,7 +49568,7 @@
         <v>10255.727513227514</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="18">
+    <row r="14" spans="1:33" ht="19">
       <c r="A14" s="157">
         <v>43199</v>
       </c>
@@ -49487,7 +49701,7 @@
         <v>11749.060846560847</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="18">
+    <row r="15" spans="1:33" ht="19">
       <c r="A15" s="157">
         <v>43200</v>
       </c>
@@ -49620,7 +49834,7 @@
         <v>16021.759259259259</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="18">
+    <row r="16" spans="1:33" ht="19">
       <c r="A16" s="157">
         <v>43201</v>
       </c>
@@ -49753,7 +49967,7 @@
         <v>16391.600529100528</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="18">
+    <row r="17" spans="1:33" ht="19">
       <c r="A17" s="157">
         <v>43202</v>
       </c>
@@ -49886,7 +50100,7 @@
         <v>16391.600529100528</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="18">
+    <row r="18" spans="1:33" ht="19">
       <c r="A18" s="157">
         <v>43203</v>
       </c>
@@ -50019,7 +50233,7 @@
         <v>16852.1164021164</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="18">
+    <row r="19" spans="1:33" ht="19">
       <c r="A19" s="157">
         <v>43204</v>
       </c>
@@ -50152,7 +50366,7 @@
         <v>16852.1164021164</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="18">
+    <row r="20" spans="1:33" ht="19">
       <c r="A20" s="157">
         <v>43205</v>
       </c>
@@ -50285,7 +50499,7 @@
         <v>17725.965608465605</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="18">
+    <row r="21" spans="1:33" ht="19">
       <c r="A21" s="157">
         <v>43206</v>
       </c>
@@ -50418,7 +50632,7 @@
         <v>17725.965608465605</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="18">
+    <row r="22" spans="1:33" ht="19">
       <c r="A22" s="157">
         <v>43207</v>
       </c>
@@ -50551,7 +50765,7 @@
         <v>17725.965608465605</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="18">
+    <row r="23" spans="1:33" ht="19">
       <c r="A23" s="157">
         <v>43208</v>
       </c>
@@ -50684,7 +50898,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="18">
+    <row r="24" spans="1:33" ht="19">
       <c r="A24" s="157">
         <v>43209</v>
       </c>
@@ -50817,7 +51031,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="18">
+    <row r="25" spans="1:33" ht="19">
       <c r="A25" s="157">
         <v>43210</v>
       </c>
@@ -50950,7 +51164,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="18">
+    <row r="26" spans="1:33" ht="19">
       <c r="A26" s="157">
         <v>43211</v>
       </c>
@@ -51083,7 +51297,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="18">
+    <row r="27" spans="1:33" ht="19">
       <c r="A27" s="157">
         <v>43212</v>
       </c>
@@ -51216,7 +51430,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="18">
+    <row r="28" spans="1:33" ht="19">
       <c r="A28" s="157">
         <v>43213</v>
       </c>
@@ -51349,7 +51563,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="18">
+    <row r="29" spans="1:33" ht="19">
       <c r="A29" s="157">
         <v>43214</v>
       </c>
@@ -51482,7 +51696,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="18">
+    <row r="30" spans="1:33" ht="19">
       <c r="A30" s="157">
         <v>43215</v>
       </c>
@@ -51615,7 +51829,7 @@
         <v>18471.679894179892</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="18">
+    <row r="31" spans="1:33" ht="19">
       <c r="A31" s="157">
         <v>43216</v>
       </c>
@@ -51967,14 +52181,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="B2:C2"/>
@@ -51991,6 +52197,14 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
